--- a/output.xlsx
+++ b/output.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="output" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'output'!$A$1:$D$441</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -19,18 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -49,27 +43,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -96,25 +75,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -161,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,26 +169,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,34 +386,35 @@
   </sheetPr>
   <dimension ref="A1:D439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="19.140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="2" style="3" width="39.140625"/>
-    <col customWidth="1" max="4" min="4" style="3" width="65.5703125"/>
+    <col width="19.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="55.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="39.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="72.42578125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Prog_AWIN_Acct_ID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Prog_FullName</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Prog_Cat</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
@@ -496,8 +438,8 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Yabhon Flash 20 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Algeria and Nigeria. It is powered by two piston engines. As of December 2019, there were 2 in military service with 2 operators.
-AWIN tracks one type for this profile, the Yabhon Flash 20. </t>
+          <t xml:space="preserve">The tes2 is a Group 4 UAV built by ADCOM Systems in military service or on order in Algeria and Nigeria. It is powered by two piston engines. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Yabhon Flash 20. </t>
         </is>
       </c>
     </row>
@@ -519,7 +461,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The A330 AWACS is a proposed AEW&amp;C aircraft based on Airbus's A330 airframe expected to enter service with the Indian Air force in the mid 2020s.
+          <t xml:space="preserve">The A330 AWACS is a proposed AEW&amp;C aircraft based on Airbus's A330 airframe expected to enter service with the Indian Air force in the mid 2020s.
 </t>
         </is>
       </c>
@@ -542,8 +484,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The C212 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in 7 countries. They are powered by two TPE331 (T76) turbine engines. As of December 2019, there were 21 in military service and 2 new deliveries on contract with 7 operators. 
-AWIN tracks 5 types for this profile, the C212-200 [ECM], C212-200MP, C212-300MP, C212-400MP and NC212i [MRA]. This family also includes the Airbus C212 profile.</t>
+          <t>The C212 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in 7 countries. They are powered by two TPE331 (T76) turbine engines. As of December 2019, there were 21 in military service and 2 new deliveries on contract with 7 operators.
+Aviation Week tracks 5 types associated with this profile, the C212-400MP, C212-200MP, NC212i [MRA], C212-200 [ECM] and C212-300MP. This family also includes the Airbus C212 profile.</t>
         </is>
       </c>
     </row>
@@ -565,8 +507,8 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The CN235/C295 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in 18 countries. They are powered by two PW100 or T700 (CT7) turbine engines. As of December 2019, there were 60 in military service and 6 new deliveries on contract with 22 operators. 
-AWIN tracks 13 types for this profile, the C295 AEW, C295 MPA, C295 MPA [ASW], C295 [Dragon Shield], CN235-100MP, CN235-110MP, CN235-200 MPA, CN235-220 MPA, CN235-300 MPA, CN235M-100 EW, CN235M-100 Meltem II, CN235M-100 [Open Skies] and ECN235. Other profiles in this family include the Airbus HC-144 and Airbus CN235/C295.</t>
+          <t>The CN235/C295 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in 18 countries. They are powered by two PW100 or T700 (CT7) turbine engines. As of December 2019, there were 60 in military service and 16 new deliveries on contract with 22 operators.
+Aviation Week tracks 13 types associated with this profile, the C295 MPA, CN235-110MP, C295 MPA [ASW], ECN235, CN235-200 MPA, CN235-300 MPA, C295 [Dragon Shield], CN235-220 MPA, CN235-100MP, CN235M-100 [Open Skies], CN235M-100 EW, CN235M-100 Meltem II and C295 AEW. Other profiles in this family include the Airbus HC-144 and Airbus CN235/C295.</t>
         </is>
       </c>
     </row>
@@ -588,8 +530,8 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Yabhon United 40 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Algeria. It is powered by two piston engines. As of December 2019, there were 2 in military service with the Algerian Air Force. 
-AWIN tracks one type for this profile, the Yabhon United 40 Block 5. </t>
+          <t xml:space="preserve">The Yabhon United 40 is a Group 4 UAV built by ADCOM Systems in military service in Algeria. It is powered by two piston engines. As of December 2019, there were 2 in military service with the Algerian Air Force.
+Aviation Week tracks one type associated with this profile, the Yabhon United 40 Block 5. </t>
         </is>
       </c>
     </row>
@@ -611,8 +553,8 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The CT-114 (CL-41) is a light 1-2 seat aircraft in military service or on order in Canada. It is powered by one J85 jet engine. As of December 2019, there were 30 in military service with the Royal Canadian Air Force. 
-AWIN tracks one type for this profile, the CT-114. </t>
+          <t xml:space="preserve">The CT-114 (CL-41) is a light 1-2 seat aircraft in military service in Canada. It is powered by one J85 jet engine. As of December 2019, there were 30 in military service with the Royal Canadian Air Force.
+Aviation Week tracks one type associated with this profile, the CT-114. </t>
         </is>
       </c>
     </row>
@@ -634,8 +576,8 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The Yabhon N is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United Arab Emirates. It is powered by one piston engine. As of December 2019, it was in military service with the United Arab Emirates Air Force. 
-AWIN tracks one type for this profile, the Yabhon N. </t>
+          <t xml:space="preserve">The Yabhon N is a Group 3 UAV built by ADCOM Systems in military service or on order in the United Arab Emirates. It is powered by one piston engine. As of December 2019, it was in military service or on order with the United Arab Emirates Air Force.
+Aviation Week tracks one type associated with this profile, the Yabhon N. </t>
         </is>
       </c>
     </row>
@@ -657,8 +599,8 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The C-101 is a light 1-2 seat aircraft in military service or on order in Chile and Spain. It is powered by one TFE731 jet engine. As of December 2019, there were 67 in military service with 2 operators. 
-AWIN tracks one type for this profile, the C-101CC (A-36 Halcon). </t>
+          <t xml:space="preserve">The C-101 is a light 1-2 seat aircraft in military service in Chile and Spain. It is powered by one TFE731 jet engine. As of December 2019, there were 67 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the C-101CC (A-36 Halcon). </t>
         </is>
       </c>
     </row>
@@ -680,8 +622,8 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Aerolight is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Israel. It is powered by one piston engine. As of December 2019, it was in military service with the Israeli Air Force. 
-AWIN tracks one type for this profile, the Aerolight. </t>
+          <t xml:space="preserve">The Aerolight is a Group 3 UAV in military service or on order in Israel. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Israeli Air Force.
+Aviation Week tracks one type associated with this profile, the Aerolight. </t>
         </is>
       </c>
     </row>
@@ -703,8 +645,8 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The Aerostar is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Azerbaijan, Georgia, Nigeria, Thailand and the United States. It is powered by one 498 piston engine. As of December 2019, there were 20 in military service with 5 operators. 
-AWIN tracks one type for this profile, the Aerostar. </t>
+          <t xml:space="preserve">The Aerostar is a Group 3 UAV in military service or on order in Azerbaijan, Georgia, Nigeria, Thailand and the United States. It is powered by one 498 piston engine. As of December 2019, it was in military service or on order with 5 operators.
+Aviation Week tracks one type associated with this profile, the Aerostar. </t>
         </is>
       </c>
     </row>
@@ -726,8 +668,8 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The Orbiter is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 10 countries. It is powered by one electric engine. As of December 2019, there were 257 in military service with 11 operators. 
-AWIN tracks 4 types for this profile, the Orbiter, Orbiter 2, Orbiter 2B and Orbiter 3. </t>
+          <t xml:space="preserve">The Orbiter is a Group 2 UAV built by Aeronautics Defense Systems in military service or on order in 10 countries. It is powered by one electric engine. As of December 2019, it was in military service or on order with 11 operators.
+Aviation Week tracks 4 types associated with this profile, the Orbiter 2, Orbiter, Orbiter 3 and Orbiter 2B. </t>
         </is>
       </c>
     </row>
@@ -749,8 +691,8 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The Dominator XP is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Mexico and Thailand. It is powered by two AE300 or Centurion (CD-135/155) piston engines. As of December 2019, there were 4 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Dominator XP. Other profiles in this family include the Diamond DA42, Diamond DA42-M/MPP and Aurora Flight Sciences DA42 Centaur OPA.</t>
+          <t>The Dominator XP is a UAV based on the Diamond DA42 aircraft. It is in military service in Mexico and Thailand. It is powered by two AE300 or Centurion (CD-135/155) piston engines. As of December 2019, there were 4 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the Dominator XP. Other profiles in this family include the Diamond DA42, Diamond DA42-M/MPP and Aurora Flight Sciences DA42 Centaur OPA.</t>
         </is>
       </c>
     </row>
@@ -772,8 +714,8 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The MB-326 is a light 1-2 seat aircraft in military service or on order in Tunisia and Zambia. It is powered by one Viper jet engine. As of December 2019, there were 18 in military service with 2 operators. 
-AWIN tracks one type for this profile, the MB-326G. </t>
+          <t xml:space="preserve">The MB-326 is a light 1-2 seat aircraft in military service in Tunisia and Zambia. It is powered by one Viper jet engine. As of December 2019, there were 18 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the MB-326G. </t>
         </is>
       </c>
     </row>
@@ -795,8 +737,8 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The MB-339 is a light 1-2 seat aircraft in military service or on order in 7 countries. It is powered by one Viper jet engine. As of December 2019, there were 113 in military service with 8 operators. 
-AWIN tracks 4 types for this profile, the MB-339A, MB-339CB, MB-339CD and MB-339CM. </t>
+          <t xml:space="preserve">The MB-339 is a light 1-2 seat aircraft in military service in 7 countries. It is powered by one Viper jet engine. As of December 2019, there were 113 in military service with 8 operators.
+Aviation Week tracks 4 types associated with this profile, the MB-339A, MB-339CB, MB-339CD and MB-339CM. </t>
         </is>
       </c>
     </row>
@@ -818,8 +760,8 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The L-39/59/159 is a light 1-2 seat aircraft in military service or on order in 34 countries. It is powered by one AI-25, DV-2, F124/F125 (TFE1042) or FJ44 jet engine. As of December 2019, there were 492 in military service and 4 new deliveries on contract with 40 operators. 
-AWIN tracks 15 types for this profile, the L-159A, L-159E, L-159T1, L-159T2, L-159T2EX, L-39C, L-39CM, L-39CW, L-39M1, L-39NG, L-39NG [Prototype], L-39ZA, L-39ZAM, L-39ZO and L-59E. </t>
+          <t xml:space="preserve">The L-39/59/159 is a light 1-2 seat aircraft built by Aero Vodochody in military service or on order in 34 countries. It is powered by one AI-25, FJ44, F124/F125 (TFE1042) or DV-2 jet engine. As of December 2019, there were 492 in military service and 44 new deliveries on contract with 40 operators.
+Aviation Week tracks 15 types associated with this profile, the L-39C, L-39ZA, L-39NG, L-159T2, L-159T2EX, L-39CW, L-39NG [Prototype], L-159A, L-159T1, L-39ZO, L-39CM, L-39ZAM, L-59E, L-39M1 and L-159E. </t>
         </is>
       </c>
     </row>
@@ -841,8 +783,8 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The L-29 is a light 1-2 seat aircraft in military service or on order in the United States. It is powered by one M-701 jet engine. As of December 2019, there was one in military service with the Tactical Air Support, Inc.. 
-AWIN tracks one type for this profile, the L-29. </t>
+          <t xml:space="preserve">The L-29 is a light 1-2 seat aircraft built by Aero Vodochody in military service in the United States. It is powered by one M-701 jet engine. As of December 2019, there was one in military service with the Tactical Air Support, Inc..
+Aviation Week tracks one type associated with this profile, the L-29. </t>
         </is>
       </c>
     </row>
@@ -864,8 +806,8 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The Ximango is a light 1-2 seat aircraft in military service or on order in the Dominican Republic. It is powered by one Rotax 912 piston engine. As of December 2019, there was one in military service with the Dominican Republic Air Force. 
-AWIN tracks one type for this profile, the AMT-200S Super Ximango. </t>
+          <t xml:space="preserve">The Ximango is a light 1-2 seat aircraft built by Aeromot in military service in the Dominican Republic. It is powered by one Rotax 912 piston engine. As of December 2019, there was one in military service with the Dominican Republic Air Force.
+Aviation Week tracks one type associated with this profile, the AMT-200S Super Ximango. </t>
         </is>
       </c>
     </row>
@@ -887,8 +829,8 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The Blackwing is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one electric engine. As of December 2019, it was in military service with the US Navy. 
-AWIN tracks one type for this profile, the Blackwing. </t>
+          <t xml:space="preserve">The Blackwing is a Group 1 UAV built by AeroVironment in military service or on order in the United States. It is powered by one electric engine. As of December 2019, it was in military service or on order with the US Navy.
+Aviation Week tracks one type associated with this profile, the Blackwing. </t>
         </is>
       </c>
     </row>
@@ -910,8 +852,8 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The RQ-11 "Raven" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 13 countries. It is powered by one 27/26/7-AV electric engine. As of December 2019, there were 8005 in military service and 12 new deliveries on contract with 16 operators. 
-AWIN tracks 2 types for this profile, the RQ-11A/B and RQ-11B. </t>
+          <t xml:space="preserve">The RQ-11 "Raven" is a Group 1 UAV built by AeroVironment in military service or on order in 13 countries. It is powered by one 27/26/7-AV electric engine. As of December 2019, it was in military service or on order with 16 operators.
+Aviation Week tracks 2 types associated with this profile, the RQ-11B and RQ-11A/B. </t>
         </is>
       </c>
     </row>
@@ -933,8 +875,8 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The RQ-12 "Wasp" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Australia, France, Sweden and the United States. It is powered by one electric engine. As of December 2019, there were 477 in military service and 43 new deliveries on contract with 6 operators. 
-AWIN tracks one type for this profile, the RQ-12A. </t>
+          <t xml:space="preserve">The RQ-12 "Wasp" is a Group 1 UAV built by AeroVironment in military service or on order in Australia, France, Sweden and the United States. It is powered by one electric engine. As of December 2019, it was in military service or on order with 6 operators.
+Aviation Week tracks one type associated with this profile, the RQ-12A. </t>
         </is>
       </c>
     </row>
@@ -956,8 +898,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The RQ-20 "Puma" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 6 countries. It is powered by one electric engine. As of December 2019, there were 1411 in military service and 6 new deliveries on contract with 10 operators. 
-AWIN tracks 2 types for this profile, the RQ-20A and RQ-20B. </t>
+          <t xml:space="preserve">The RQ-20 "Puma" is a Group 1 UAV built by AeroVironment in military service or on order in 6 countries. It is powered by one electric engine. As of December 2019, it was in military service or on order with 10 operators.
+Aviation Week tracks 2 types associated with this profile, the RQ-20A and RQ-20B. </t>
         </is>
       </c>
     </row>
@@ -979,8 +921,8 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The Snipe [Aerovironment] is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by four electric engines. As of December 2019, there were 20 in military service with the US Army. 
-AWIN tracks one type for this profile, the Snipe [AeroVironment]. </t>
+          <t xml:space="preserve">The Snipe [Aerovironment] is a Group 1 UAV built by AeroVironment in military service in the United States. It is powered by four electric engines. As of December 2019, there were 20 in military service with the US Army.
+Aviation Week tracks one type associated with this profile, the Snipe [AeroVironment]. </t>
         </is>
       </c>
     </row>
@@ -1002,8 +944,8 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The Phoenix Jet is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Australia. It is powered by one jet engine. As of December 2019, there were 14 in military service with the Air Affairs Australia. 
-AWIN tracks one type for this profile, the Phoenix Jet. </t>
+          <t xml:space="preserve">The Phoenix Jet is a Group 3 UAV built by Air Affairs Australia in military service in Australia. It is powered by one jet engine. As of December 2019, there were 14 in military service with the Air Affairs Australia.
+Aviation Week tracks one type associated with this profile, the Phoenix Jet. </t>
         </is>
       </c>
     </row>
@@ -1025,8 +967,8 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The Alkyon is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Greece. It is powered by one 3W-120i piston engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Alkyon. </t>
+          <t xml:space="preserve">The Alkyon is a Group 2 UAV built by Airbus in military service or on order in Greece. It is powered by one 3W-120i piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Alkyon. </t>
         </is>
       </c>
     </row>
@@ -1048,8 +990,8 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The Frelon (Z-8/18) is a helicopter in military service or on order in China. It is powered by three Turmo turbine engines. As of December 2019, there were 139 in military service with 3 operators. 
-AWIN tracks 11 types for this profile, the Z-18, Z-18A, Z-18F, Z-18J, Z-8A, Z-8B, Z-8G, Z-8JH, Z-8KA, Z-8L and Z-8S. </t>
+          <t xml:space="preserve">The Frelon (Z-8/18) is a helicopter built by Changhe in military service in China. It is powered by three Turmo turbine engines. As of December 2019, there were 139 in military service with 3 operators.
+Aviation Week tracks 11 types associated with this profile, the Z-8KA, Z-18A, Z-8A, Z-8B, Z-8G, Z-8L, Z-18, Z-18F, Z-18J, Z-8JH and Z-8S. </t>
         </is>
       </c>
     </row>
@@ -1071,8 +1013,8 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The EuroMALE is proposed a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV which may be acquired by France, Germany, Italy and Spain. It is expected to be powered by two turbine engines. 
-AWIN tracks one type for this profile, the EuroMALE. </t>
+          <t xml:space="preserve">The EuroMALE is proposed a Group 4 UAV built by Airbus which may be acquired by France, Germany, Italy and Spain. It is expected to be powered by two turbine engines.
+Aviation Week tracks one type associated with this profile, the EuroMALE. </t>
         </is>
       </c>
     </row>
@@ -1094,8 +1036,8 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The Fox is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in France, the Netherlands and Qatar. It is powered by one L 275 or L 550 piston engine. As of December 2019, it was in military service with 3 operators. 
-AWIN tracks 2 types for this profile, the Fox AT-1 and Fox TS3. </t>
+          <t xml:space="preserve">The Fox is a Group 3 UAV built by Airbus in military service or on order in France, the Netherlands and Qatar. It is powered by one L 550 or L 275 piston engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks 2 types associated with this profile, the Fox TS3 and Fox AT-1. </t>
         </is>
       </c>
     </row>
@@ -1117,8 +1059,8 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The KZO is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Germany. It is powered by one piston engine. As of December 2019, there were 43 in military service with the German Army. 
-AWIN tracks one type for this profile, the KZO. </t>
+          <t xml:space="preserve">The KZO is a Group 3 UAV built by Airbus - Rheinmetall in military service in Germany. It is powered by one piston engine. As of December 2019, there were 43 in military service with the German Army.
+Aviation Week tracks one type associated with this profile, the KZO. </t>
         </is>
       </c>
     </row>
@@ -1140,8 +1082,8 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The AT-3 is a light 1-2 seat aircraft in military service or on order in Taiwan. It is powered by two TFE731 jet engines. As of December 2019, there were 46 in military service with the Republic of China Air Force. 
-AWIN tracks one type for this profile, the AT-3. </t>
+          <t xml:space="preserve">The AT-3 is a light 1-2 seat aircraft built by AIDC in military service in Taiwan. It is powered by two TFE731 jet engines. As of December 2019, there were 46 in military service with the Republic of China Air Force.
+Aviation Week tracks one type associated with this profile, the AT-3. </t>
         </is>
       </c>
     </row>
@@ -1163,8 +1105,8 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The AT-802 is a light 1-2 seat aircraft in military service or on order in 7 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 33 in military service with 7 operators. 
-AWIN tracks 4 types for this profile, the AT-802A, AT-802F, AT-802L (OA-8) and AT-802U. </t>
+          <t xml:space="preserve">The AT-802 is a light 1-2 seat aircraft in military service or on order in 7 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 33 in military service and 12 new deliveries on contract with 7 operators.
+Aviation Week tracks 4 types associated with this profile, the AT-802A, AT-802F, AT-802U and AT-802L (OA-8). </t>
         </is>
       </c>
     </row>
@@ -1186,8 +1128,8 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The A310 MRTT is a medium transport aircraft in military service or on order in Canada and Germany. It is powered by two CF6-80 (F138) jet engines. As of December 2019, there were 6 in military service with 2 operators. 
-AWIN tracks one type for this profile, the A310-300 MRTT. </t>
+          <t xml:space="preserve">The A310 MRTT is a medium transport aircraft built by Airbus in military service in Canada and Germany. It is powered by two CF6-80 (F138) jet engines. As of December 2019, there were 6 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the A310-300 MRTT. </t>
         </is>
       </c>
     </row>
@@ -1209,8 +1151,8 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The HC-144 is a maritime surveillance aircraft in military service or on order in the United States. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 14 in military service with the US Coast Guard. 
-AWIN tracks 2 types for this profile, the HC-144A and HC-144B. Other profiles in this family include the Airbus CN235/C295 Maritime &amp; C4ISR Conversions and Airbus CN235/C295.</t>
+          <t>The HC-144 is a maritime surveillance aircraft in military service or on order in the United States. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 14 in military service and 14 new deliveries on contract with the US Coast Guard.
+Aviation Week tracks 2 types associated with this profile, the HC-144A and HC-144B. Other profiles in this family include the Airbus CN235/C295 Maritime &amp; C4ISR Conversions and Airbus CN235/C295.</t>
         </is>
       </c>
     </row>
@@ -1232,8 +1174,8 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>The C212 is a civil propeller aircraft in military service or on order in 22 countries. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 105 in military service and 4 new deliveries on contract with 28 operators. 
-AWIN tracks 9 types for this profile, the C212-100, C212-200, C212-200M, C212-300, C212-300M, C212-400, NC212-200, NC212-200M and NC212i. This family also includes the Airbus C212 Maritime &amp; C4ISR Conversions profile.</t>
+          <t>The C212 is a civil propeller aircraft in military service or on order in 22 countries. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 105 in military service and 11 new deliveries on contract with 28 operators.
+Aviation Week tracks 9 types associated with this profile, the C212-200, C212-300M, C212-100, C212-300, C212-400, NC212-200, NC212-200M, NC212i and C212-200M. This family also includes the Airbus C212 Maritime &amp; C4ISR Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -1255,8 +1197,8 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The CN235/C295 is a light transport aircraft in military service or on order in 44 countries. It is powered by two PW100 or T700 (CT7) turbine engines. As of December 2019, there were 304 in military service and 25 new deliveries on contract with 49 operators. 
-AWIN tracks 9 types for this profile, the C295, CN235-10, CN235-220, CN235-300, CN235M-100, CN235M-110, CN235M-200, CN235M-220 and CN235M-300. Other profiles in this family include the Airbus CN235/C295 Maritime &amp; C4ISR Conversions and Airbus HC-144.</t>
+          <t>The CN235/C295 is a light transport aircraft in military service or on order in 44 countries. It is powered by two PW100 or T700 (CT7) turbine engines. As of December 2019, there were 304 in military service and 85 new deliveries on contract with 49 operators.
+Aviation Week tracks 9 types associated with this profile, the C295, CN235M-300, CN235-220, CN235M-100, CN235-10, CN235M-200, CN235M-220, CN235M-110 and CN235-300. Other profiles in this family include the Airbus CN235/C295 Maritime &amp; C4ISR Conversions and Airbus HC-144.</t>
         </is>
       </c>
     </row>
@@ -1278,8 +1220,8 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>The CH2000 ISR Conversions are a group of C4ISR aircraft in military service or on order in Iraq. They are powered by one O-235 piston engine. As of December 2019, there were 8 in military service with the Iraqi Air Force. 
-AWIN tracks one type for this profile, the CH2000 [ISR]. This family also includes the AMD Alarus CH2000 profile.</t>
+          <t>The CH2000 ISR Conversions are a group of C4ISR aircraft in military service in Iraq. They are powered by one O-235 piston engine. As of December 2019, there were 8 in military service with the Iraqi Air Force.
+Aviation Week tracks one type associated with this profile, the CH2000 [ISR]. This family also includes the AMD Alarus CH2000 profile.</t>
         </is>
       </c>
     </row>
@@ -1301,8 +1243,8 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The An-12 (Y-8/Y-9) Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service or on order in China, Pakistan and Russia. They are powered by four AI-20 (WJ-6) or PW100 turbine engines. As of December 2019, there were 119 in military service and 6 new deliveries on contract with 5 operators. 
-AWIN tracks 25 types for this profile. This family also includes the Antonov An-12 (Xian Y-8/9) profile.</t>
+          <t>The An-12 (Y-8/Y-9) Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service or on order in China, Pakistan and Russia. They are powered by four AI-20 (WJ-6) or PW100 turbine engines. As of December 2019, there were 119 in military service and 37 new deliveries on contract with 5 operators.
+Aviation Week tracks 25 types associated with this profile. This family also includes the Antonov An-12 (Xian Y-8/9) profile.</t>
         </is>
       </c>
     </row>
@@ -1324,8 +1266,8 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The Tracker is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Austria and Saudi Arabia. It is powered by two electric engines. As of December 2019, there were 53 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Tracker. </t>
+          <t xml:space="preserve">The Tracker is a Group 2 UAV built by Airbus in military service in Austria and Saudi Arabia. It is powered by two electric engines. As of December 2019, there were 53 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the Tracker. </t>
         </is>
       </c>
     </row>
@@ -1347,8 +1289,8 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The Zephyr is a high altitude GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV. It is powered by two electric engines. As of December 2019, there were 3 new deliveries on contract with the Royal Air Force. 
-AWIN tracks one type for this profile, the Zephyr S. </t>
+          <t xml:space="preserve">The Zephyr is a high altitude UAV being developed by Airbus. It is powered by two electric engines. As of December 2019, there were 3 new deliveries on contract with the Royal Air Force.
+Aviation Week tracks one type associated with this profile, the Zephyr S. </t>
         </is>
       </c>
     </row>
@@ -1370,8 +1312,8 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The AR100-B is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Germany. It is powered by four electric engines. As of December 2019, there were 145 in military service with the German Army. 
-AWIN tracks one type for this profile, the AR100-B. </t>
+          <t xml:space="preserve">The AR100-B is a Group 1 UAV built by AirRobot in military service in Germany. It is powered by four electric engines. As of December 2019, there were 145 in military service with the German Army.
+Aviation Week tracks one type associated with this profile, the AR100-B. </t>
         </is>
       </c>
     </row>
@@ -1393,8 +1335,8 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The ABJT is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one jet engine. As of December 2019, it was in military service with 3 operators. 
-AWIN tracks one type for this profile, the ABJT. </t>
+          <t xml:space="preserve">The ABJT is a Group 2 UAV built by Albadeey in military service or on order in Pakistan. It is powered by one jet engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks one type associated with this profile, the ABJT. </t>
         </is>
       </c>
     </row>
@@ -1416,8 +1358,8 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>The Hud Hud II is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Army. 
-AWIN tracks one type for this profile, the Hud Hud II. </t>
+          <t xml:space="preserve">The Hud Hud II is a Group 3 UAV built by Albadeey in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Pakistan Army.
+Aviation Week tracks one type associated with this profile, the Hud Hud II. </t>
         </is>
       </c>
     </row>
@@ -1439,8 +1381,8 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The Shahbaz is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Army. 
-AWIN tracks one type for this profile, the Shahbaz. </t>
+          <t xml:space="preserve">The Shahbaz is a Group 2 UAV built by Albadeey in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Pakistan Army.
+Aviation Week tracks one type associated with this profile, the Shahbaz. </t>
         </is>
       </c>
     </row>
@@ -1462,8 +1404,8 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The Shahzore is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service with 3 operators. 
-AWIN tracks one type for this profile, the Shahzore. </t>
+          <t xml:space="preserve">The Shahzore is a Group 3 UAV built by Albadeey in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks one type associated with this profile, the Shahzore. </t>
         </is>
       </c>
     </row>
@@ -1485,8 +1427,8 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The T-20 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Mexico. It is powered by one GC190 piston engine. As of December 2019, it was in military service with the Mexican Navy. 
-AWIN tracks 2 types for this profile, the T-20 and T-20 JUMP. </t>
+          <t xml:space="preserve">The T-20 is a Group 3 UAV built by Arcturus UAV in military service or on order in Mexico. It is powered by one GC190 piston engine. As of December 2019, it was in military service or on order with the Mexican Navy.
+Aviation Week tracks 2 types associated with this profile, the T-20 and T-20 JUMP. </t>
         </is>
       </c>
     </row>
@@ -1508,8 +1450,8 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The C-27 / G.222 is a light transport aircraft in military service or on order in 15 countries. It is powered by two AE2100 or T64 turbine engines. As of December 2019, there were 85 in military service and 3 new deliveries on contract with 17 operators. 
-AWIN tracks 5 types for this profile, the C-27J, EC-27J, G.222 (C-27A), HC-27J and MC-27J. </t>
+          <t xml:space="preserve">The C-27 / G.222 is a light transport aircraft in military service or on order in 15 countries. It is powered by two AE2100 or T64 turbine engines. As of December 2019, there were 85 in military service and 23 new deliveries on contract with 17 operators.
+Aviation Week tracks 5 types associated with this profile, the C-27J, EC-27J, MC-27J, G.222 (C-27A) and HC-27J. </t>
         </is>
       </c>
     </row>
@@ -1531,8 +1473,8 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The CH2000 is a light 1-2 seat aircraft in military service or on order in Peru. It is powered by one O-235 piston engine. As of December 2019, there were 6 in military service and 11 new deliveries on contract with the Peruvian Air Force. 
-AWIN tracks one type for this profile, the CH2000. This family also includes the AMD Alarus CH2000 ISR Conversions profile.</t>
+          <t>The CH2000 is a light 1-2 seat aircraft built by SEMAN Peru in military service or on order in Peru. It is powered by one O-235 piston engine. As of December 2019, there were 6 in military service and 11 new deliveries on contract with the Peruvian Air Force.
+Aviation Week tracks one type associated with this profile, the CH2000. This family also includes the AMD Alarus CH2000 ISR Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -1554,8 +1496,8 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The AMX is a light 1-2 seat aircraft in military service or on order in Brazil and Italy. It is powered by one Spey (WS-9) jet engine. As of December 2019, there were 94 in military service with 2 operators. 
-AWIN tracks 6 types for this profile, the A-11B, A-1A, A-1B, A-1BM, A-1M and TA-11B. </t>
+          <t xml:space="preserve">The AMX is a light 1-2 seat aircraft built by AMX International in military service or on order in Brazil and Italy. It is powered by one Spey (WS-9) jet engine. As of December 2019, there were 94 in military service and 9 new deliveries on contract with 2 operators.
+Aviation Week tracks 6 types associated with this profile, the A-1A, A-1B, A-1BM, A-1M, A-11B and TA-11B. </t>
         </is>
       </c>
     </row>
@@ -1577,8 +1519,8 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The An-140 is a civil propeller aircraft in military service or on order in Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 9 in military service with 2 operators. 
-AWIN tracks one type for this profile, the An-140-100. </t>
+          <t xml:space="preserve">The An-140 is a civil propeller aircraft built by Antonov in military service in Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 9 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the An-140-100. </t>
         </is>
       </c>
     </row>
@@ -1600,8 +1542,8 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>The An-72/74 is a light transport aircraft in military service or on order in 7 countries. It is powered by two D-36/D-436 jet engines. As of December 2019, there were 77 in military service with 10 operators. 
-AWIN tracks 6 types for this profile, the An-72, An-72P, An-72S, An-74, An-74TK-200 and An-74TK-200A. </t>
+          <t xml:space="preserve">The An-72/74 is a light transport aircraft built by Antonov in military service in 7 countries. It is powered by two D-36/D-436 jet engines. As of December 2019, there were 77 in military service with 10 operators.
+Aviation Week tracks 6 types associated with this profile, the An-72, An-74, An-74TK-200A, An-74TK-200, An-72S and An-72P. </t>
         </is>
       </c>
     </row>
@@ -1623,8 +1565,8 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>The An-12 (Y-8/Y-9) is a medium transport aircraft in military service or on order in 10 countries. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 200 in military service and 7 new deliveries on contract with 13 operators. 
-AWIN tracks 8 types for this profile, the An-12, An-12BK, Y-8C, Y-8D, Y-8E, Y-8F-200, Y-8F-200W and Y-9. This family also includes the Antonov An-12 (Xian Y-8/Y-9) Maritime &amp; C4ISR Variants profile.</t>
+          <t>The An-12 (Y-8/Y-9) is a medium transport aircraft built by Antonov and Shaanxi in military service or on order in 10 countries. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 200 in military service and 7 new deliveries on contract with 13 operators.
+Aviation Week tracks 8 types associated with this profile, the An-12BK, Y-8C, Y-8E, Y-9, An-12, Y-8F-200W, Y-8D and Y-8F-200. This family also includes the Antonov An-12 (Xian Y-8/Y-9) Maritime &amp; C4ISR Variants profile.</t>
         </is>
       </c>
     </row>
@@ -1646,8 +1588,8 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>The An-124 is a heavy transport aircraft in military service or on order in Russia. It is powered by four D-18T jet engines. As of December 2019, there were 12 in military service with the Russian Aerospace Forces. 
-AWIN tracks one type for this profile, the An-124-100. </t>
+          <t xml:space="preserve">The An-124 is a heavy transport aircraft built by Antonov in military service or on order in Russia. It is powered by four D-18T jet engines. As of December 2019, there were 12 in military service and 8 new deliveries on contract with the Russian Aerospace Forces.
+Aviation Week tracks one type associated with this profile, the An-124-100. </t>
         </is>
       </c>
     </row>
@@ -1669,8 +1611,8 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The An-2 (Y-5) is a utility transport aircraft in military service or on order in 13 countries. It is powered by one ASh-62 (HS-5) piston engine. As of December 2019, there were 278 in military service with 14 operators. 
-AWIN tracks 2 types for this profile, the An-2T and Y-5. </t>
+          <t xml:space="preserve">The An-2 (Y-5) is a utility transport aircraft built by Antonov and Shijiazhuang in military service in 13 countries. It is powered by one ASh-62 (HS-5) piston engine. As of December 2019, there were 278 in military service with 14 operators.
+Aviation Week tracks 2 types associated with this profile, the An-2T and Y-5. </t>
         </is>
       </c>
     </row>
@@ -1692,8 +1634,8 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The An-22 is a medium transport aircraft in military service or on order in Russia. It is powered by four NK-12 turbine engines. As of December 2019, there were 3 in military service with the Russian Aerospace Forces. 
-AWIN tracks one type for this profile, the An-22A. </t>
+          <t xml:space="preserve">The An-22 is a medium transport aircraft built by Antonov in military service in Russia. It is powered by four NK-12 turbine engines. As of December 2019, there were 3 in military service with the Russian Aerospace Forces.
+Aviation Week tracks one type associated with this profile, the An-22A. </t>
         </is>
       </c>
     </row>
@@ -1715,8 +1657,8 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>The An-24/26/30/32 (Xian Y-7) is a light transport aircraft in military service or on order in 34 countries. It is powered by two AI-20 (WJ-6), AI-24 (WJ-5) or PW100 turbine engines. As of December 2019, there were 459 in military service and 10 new deliveries on contract with 44 operators. 
-AWIN tracks 21 types for this profile. </t>
+          <t xml:space="preserve">The An-24/26/30/32 (Xian Y-7) is a light transport aircraft built by Antonov, Xian and Shaanxi in military service or on order in 34 countries. It is powered by two AI-20 (WJ-6), PW100 or AI-24 (WJ-5) turbine engines. As of December 2019, there were 459 in military service and 64 new deliveries on contract with 44 operators.
+Aviation Week tracks 21 types associated with this profile. </t>
         </is>
       </c>
     </row>
@@ -1738,8 +1680,8 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The An-70 is a medium transport aircraft in military service or on order in Ukraine. It is powered by four D-27 turbine engines. As of December 2019, there was one in military service with the Ukrainian Air Force. 
-AWIN tracks one type for this profile, the An-70. </t>
+          <t xml:space="preserve">The An-70 is a medium transport aircraft built by Antonov in military service in Ukraine. It is powered by four D-27 turbine engines. As of December 2019, there was one in military service with the Ukrainian Air Force.
+Aviation Week tracks one type associated with this profile, the An-70. </t>
         </is>
       </c>
     </row>
@@ -1761,8 +1703,8 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The Lipan M3 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Argentina. It is powered by one piston engine. As of December 2019, there were 9 in military service with the Argentine Army. 
-AWIN tracks one type for this profile, the Lipan M3. </t>
+          <t xml:space="preserve">The Lipan M3 is a Group 3 UAV built by Argentine Army in military service in Argentina. It is powered by one piston engine. As of December 2019, there were 9 in military service with the Argentine Army.
+Aviation Week tracks one type associated with this profile, the Lipan M3. </t>
         </is>
       </c>
     </row>
@@ -1784,8 +1726,8 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>The Krunk is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Armenia. It is powered by one piston engine. As of December 2019, there were 25 in military service with the Armenian Air Force. 
-AWIN tracks one type for this profile, the Krunk. </t>
+          <t xml:space="preserve">The Krunk is a Group 3 UAV built by Armenian Air Force Institute in military service in Armenia. It is powered by one piston engine. As of December 2019, there were 25 in military service with the Armenian Air Force.
+Aviation Week tracks one type associated with this profile, the Krunk. </t>
         </is>
       </c>
     </row>
@@ -1807,8 +1749,8 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The Havasoj is a stand-off jammer. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 new deliveries on contract with the Turkish Air Force. 
-AWIN tracks one type for this profile, the Havasoj. Other profiles in this family include the Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
+          <t>The Havasoj is an electoric warfare aircraft. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 new deliveries on contract with the Turkish Air Force.
+Aviation Week tracks one type associated with this profile, the Havasoj. Other profiles in this family include the Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
         </is>
       </c>
     </row>
@@ -1830,8 +1772,8 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The CARINE is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in France. It is powered by one jet engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Carine. </t>
+          <t xml:space="preserve">The CARINE is a Group 2 UAV built by Aviation Design in military service or on order in France. It is powered by one jet engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Carine. </t>
         </is>
       </c>
     </row>
@@ -1853,8 +1795,8 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The Harrier (AV-8) is a fighter in military service or on order in Italy, Spain and the United States. It is powered by one Pegasus (F402) jet engine. As of December 2019, there were 150 in military service with 4 operators. 
-AWIN tracks 2 types for this profile, the AV-8B and TAV-8B. </t>
+          <t xml:space="preserve">The Harrier (AV-8) is a fighter built by Boeing in military service in Italy, Spain and the United States. It is powered by one Pegasus (F402) jet engine. As of December 2019, there were 150 in military service with 4 operators.
+Aviation Week tracks 2 types associated with this profile, the AV-8B and TAV-8B. </t>
         </is>
       </c>
     </row>
@@ -1876,8 +1818,8 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The Hawk/T-45 is a light 1-2 seat aircraft in military service or on order in 14 countries. It is powered by one Adour (F405) jet engine. As of December 2019, there were 617 in military service and 30 new deliveries on contract with 17 operators. 
-AWIN tracks 13 types for this profile, the Hawk Mk.1, Hawk Mk.100 Series, Hawk Mk.120, Hawk Mk.127, Hawk Mk.129, Hawk Mk.132, Hawk Mk.165, Hawk Mk.166, Hawk Mk.200 Series, Hawk Mk.50 Series, Hawk Mk.60 Series, Hawk T2 and T-45C. </t>
+          <t xml:space="preserve">The Hawk/T-45 is a light 1-2 seat aircraft in military service or on order in 14 countries. It is powered by one Adour (F405) jet engine. As of December 2019, there were 617 in military service and 69 new deliveries on contract with 17 operators.
+Aviation Week tracks 13 types associated with this profile, the Hawk Mk.127, Hawk Mk.129, Hawk Mk.100 Series, Hawk Mk.50 Series, Hawk Mk.60 Series, Hawk Mk.132, Hawk Mk.200 Series, Hawk Mk.166, Hawk Mk.165, Hawk Mk.120, Hawk Mk.1, Hawk T2 and T-45C. </t>
         </is>
       </c>
     </row>
@@ -1899,8 +1841,8 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The R4E SkyEye is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Morocco. It is powered by one AR 801 piston engine. As of December 2019, it was in military service with the Royal Moroccan Army. 
-AWIN tracks one type for this profile, the R4E-50. </t>
+          <t xml:space="preserve">The R4E SkyEye is a Group 3 UAV built by BAE Systems in military service or on order in Morocco. It is powered by one AR 801 piston engine. As of December 2019, it was in military service or on order with the Royal Moroccan Army.
+Aviation Week tracks one type associated with this profile, the R4E-50. </t>
         </is>
       </c>
     </row>
@@ -1922,8 +1864,8 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>The Akinci is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV built by Baykar. It is powered by two turbine engines. 
-AWIN tracks one type for this profile, the Akinci. </t>
+          <t xml:space="preserve">The Akinci is a Group 5 UAV built by Baykar. It is powered by two turbine engines.
+Aviation Week tracks one type associated with this profile, the Akinci. </t>
         </is>
       </c>
     </row>
@@ -1945,8 +1887,8 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>The Mini is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Qatar and Turkey. It is powered by one electric engine. As of December 2019, there were 10 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Bayraktar Mini. </t>
+          <t xml:space="preserve">The Mini is a Group 2 UAV built by Baykar in military service or on order in Qatar and Turkey. It is powered by one electric engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Bayraktar Mini. </t>
         </is>
       </c>
     </row>
@@ -1968,8 +1910,8 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>The ATR 42/72 Maritime Variants are a group of maritime aircraft in military service or on order in Italy, Myanmar, Nigeria, Pakistan and Turkey. They are powered by two PW100 turbine engines. As of December 2019, there were 21 in military service and 10 new deliveries on contract with 7 operators. 
-AWIN tracks 7 types for this profile, the ATR 42-320MP, ATR 42-400MP, ATR 42-500MP, ATR 72-500MP, ATR 72-600 TMPA, ATR 72-600 TMUA and P-72A [72-600]. </t>
+          <t xml:space="preserve">The ATR 42/72 Maritime Variants are a group of maritime aircraft in military service or on order in Italy, Myanmar, Nigeria, Pakistan and Turkey. They are powered by two PW100 turbine engines. As of December 2019, there were 21 in military service and 10 new deliveries on contract with 7 operators.
+Aviation Week tracks 7 types associated with this profile, the P-72A [72-600], ATR 42-400MP, ATR 42-500MP, ATR 42-320MP, ATR 72-500MP, ATR 72-600 TMPA and ATR 72-600 TMUA. </t>
         </is>
       </c>
     </row>
@@ -1991,8 +1933,8 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The Bonanza is a civil propeller aircraft in military service or on order in Indonesia, Iran, Israel and Spain. It is powered by one IO-550 or O-520 piston engine. As of December 2019, there were 66 in military service with 4 operators. 
-AWIN tracks 5 types for this profile, the A36 Bonanza, F33A Bonanza, F33C Bonanza, G36 Bonanza and Parastu. </t>
+          <t xml:space="preserve">The Bonanza is a civil propeller aircraft built by Beechcraft and Defense Industries Organization Of Iran in military service in Indonesia, Iran, Israel and Spain. It is powered by one O-520 or IO-550 piston engine. As of December 2019, there were 66 in military service with 4 operators.
+Aviation Week tracks 5 types associated with this profile, the F33A Bonanza, G36 Bonanza, F33C Bonanza, Parastu and A36 Bonanza. </t>
         </is>
       </c>
     </row>
@@ -2014,8 +1956,8 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The King Air (90/100/200/300/1900) is a civil propeller aircraft in military service or on order in 43 countries. It is powered by two PT6A turbine engines. As of December 2019, there were 457 in military service and one on order with 61 operators. 
-AWIN tracks 30 types for this profile. Other profiles in this family include the Beechcraft King Air Maritime Conversions and King Air ISR Variants (incl. RC/MC-12).</t>
+          <t>The King Air (90/100/200/300/1900) is a civil propeller aircraft built by Beechcraft in military service or on order in 43 countries. It is powered by two PT6A turbine engines. As of December 2019, there were 457 in military service and 16 new deliveries on contract with 61 operators.
+Aviation Week tracks 30 types associated with this profile. Other profiles in this family include the Beechcraft King Air Maritime Conversions and King Air ISR Variants (incl. RC/MC-12).</t>
         </is>
       </c>
     </row>
@@ -2037,8 +1979,8 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>The King Air Maritime Conversions are a group of maritime aircraft in military service or on order in 20 countries. They are powered by two PT6A turbine engines. As of December 2019, there were 73 in military service and 4 new deliveries on contract with 23 operators. 
-AWIN tracks 9 types for this profile, the Beech 200 [MSA], Beech 300 [MSA], Beech 350 [MSA], Beech 350ER [ATOS], Beech 350ER [ISR], Beech 350ER [MSA], Beech B200 [MRA], Beech B200 [MSA] and Beech C90 [MRA]. Other profiles in this family include the Beechcraft King Air (90/100/200/300/1900) and King Air ISR Variants (incl. RC/MC-12).</t>
+          <t>The King Air Maritime Conversions are a group of maritime aircraft in military service or on order in 20 countries. They are powered by two PT6A turbine engines. As of December 2019, there were 73 in military service and 10 new deliveries on contract with 23 operators.
+Aviation Week tracks 9 types associated with this profile, the Beech 350ER [ATOS], Beech 350ER [MSA], Beech 200 [MSA], Beech 350ER [ISR], Beech C90 [MRA], Beech 300 [MSA], Beech B200 [MRA], Beech B200 [MSA] and Beech 350 [MSA]. Other profiles in this family include the Beechcraft King Air (90/100/200/300/1900) and King Air ISR Variants (incl. RC/MC-12).</t>
         </is>
       </c>
     </row>
@@ -2060,8 +2002,8 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The T-34 is a light 1-2 seat aircraft in military service or on order in Argentina, Peru, Taiwan, the United States and Uruguay. It is powered by one PT6A turbine engine. As of December 2019, there were 64 in military service with 7 operators. 
-AWIN tracks one type for this profile, the T-34C. </t>
+          <t xml:space="preserve">The T-34 is a light 1-2 seat aircraft built by Beechcraft in military service in Argentina, Peru, Taiwan, Uruguay and the United States. It is powered by one PT6A turbine engine. As of December 2019, there were 64 in military service with 7 operators.
+Aviation Week tracks one type associated with this profile, the T-34C. </t>
         </is>
       </c>
     </row>
@@ -2083,8 +2025,8 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The Citabria is a light 1-2 seat aircraft in military service or on order in Guatemala. It is powered by one O-320 piston engine. As of December 2019, there was one in military service with the Guatemalan Air Force. 
-AWIN tracks one type for this profile, the Decathalon (8KCAB). </t>
+          <t xml:space="preserve">The Citabria is a light 1-2 seat aircraft built by Bellanca in military service in Guatemala. It is powered by one O-320 piston engine. As of December 2019, there was one in military service with the Guatemalan Air Force.
+Aviation Week tracks one type associated with this profile, the Decathalon (8KCAB). </t>
         </is>
       </c>
     </row>
@@ -2106,8 +2048,8 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>The AH-1 is a helicopter in military service or on order in 15 countries. It is powered by one or two PT6T (T400), T53 (LTC1) or T700 (CT7) turbine engines. As of December 2019, there were 481 in military service and 86 new deliveries on contract with 17 operators. 
-AWIN tracks 10 types for this profile, the AH-1E, AH-1F, AH-1F [Bahrain Upgrade], AH-1F [Jordan Upgrade], AH-1J, AH-1P, AH-1S, AH-1W, AH-1Z and TAH-1P. This family also includes the Bell H-1 (204/205/212/214/412) profile.</t>
+          <t>The AH-1 is a helicopter in military service or on order in 15 countries. It is powered by one or two T53 (LTC1), T700 (CT7) or PT6T (T400) turbine engines. As of December 2019, there were 481 in military service and 148 new deliveries on contract with 17 operators.
+Aviation Week tracks 10 types associated with this profile, the AH-1E, AH-1F, AH-1F [Bahrain Upgrade], AH-1Z, TAH-1P, AH-1J, AH-1S, AH-1F [Jordan Upgrade], AH-1W and AH-1P. This family also includes the Bell H-1 (204/205/212/214/412) profile.</t>
         </is>
       </c>
     </row>
@@ -2129,8 +2071,8 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The H-1 (204/205/212/214/412) is a helicopter in military service or on order in 68 countries. It is powered by one or two PT6T (T400), T53 (LTC1), T55 (LTC4) or T700 (CT7) turbine engines. As of December 2019, there were 2143 in military service and 13 new deliveries on contract with 104 operators. 
-AWIN tracks 40 types for this profile. This family also includes the Bell AH-1 profile.</t>
+          <t>The H-1 (204/205/212/214/412) is a helicopter in military service or on order in 68 countries. It is powered by one or two T53 (LTC1), PT6T (T400), T700 (CT7) or T55 (LTC4) turbine engines. As of December 2019, it was in military service or on order with 104 operators.
+Aviation Week tracks 40 types associated with this profile. This family also includes the Bell AH-1 profile.</t>
         </is>
       </c>
     </row>
@@ -2152,8 +2094,8 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The Be-12 is a amphibious aircraft in military service or on order in Russia and Ukraine. It is powered by two AI-20 (WJ-6) turbine engines. As of December 2019, there were 10 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the Be-12N and Be-12PS. </t>
+          <t xml:space="preserve">The Be-12 is a amphibious aircraft built by Beriev in military service in Russia and Ukraine. It is powered by two AI-20 (WJ-6) turbine engines. As of December 2019, there were 10 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the Be-12N and Be-12PS. </t>
         </is>
       </c>
     </row>
@@ -2175,8 +2117,8 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>The Tactical is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Qatar, Turkey and Ukraine. It is powered by one Rotax 912 piston engine. As of December 2019, there were 60 in military service and 5 new deliveries on contract with 5 operators. 
-AWIN tracks one type for this profile, the Bayraktar TB2. </t>
+          <t xml:space="preserve">The Tactical is a Group 4 UAV built by Baykar in military service or on order in Qatar, Turkey and Ukraine. It is powered by one Rotax 912 piston engine. As of December 2019, there were 60 in military service and 5 new deliveries on contract with 5 operators.
+Aviation Week tracks one type associated with this profile, the Bayraktar TB2. </t>
         </is>
       </c>
     </row>
@@ -2198,8 +2140,8 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>The Boomerang is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Israel. It is powered by one electric engine. As of December 2019, it was in military service with the Israeli Navy. 
-AWIN tracks one type for this profile, the Boomerang. </t>
+          <t xml:space="preserve">The Boomerang is a Group 1 UAV built by Bluebird in military service or on order in Israel. It is powered by one electric engine. As of December 2019, it was in military service or on order with the Israeli Navy.
+Aviation Week tracks one type associated with this profile, the Boomerang. </t>
         </is>
       </c>
     </row>
@@ -2221,8 +2163,8 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>The 707 Tanker Conversions are a group of tanker aircraft in military service or on order in Iran, Israel and the United States. They are powered by four JT3D (TF33) jet engines. As of December 2019, there were 10 in military service with 3 operators. 
-AWIN tracks 2 types for this profile, the 707-320C [Tanker] and KC-707. Other profiles in this family include the Boeing 707 C4ISR Conversions, Boeing E-3, Boeing E-6 and Boeing E-8.</t>
+          <t>The 707 Tanker Conversions are a group of tanker aircraft in military service in Iran, Israel and the United States. They are powered by four JT3D (TF33) jet engines. As of December 2019, there were 10 in military service with 3 operators.
+Aviation Week tracks 2 types associated with this profile, the 707-320C [Tanker] and KC-707. Other profiles in this family include the Boeing 707 C4ISR Conversions, Boeing E-3, Boeing E-6 and Boeing E-8.</t>
         </is>
       </c>
     </row>
@@ -2244,8 +2186,8 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The 767 Tanker Conversions are a group of tanker aircraft in military service or on order in Colombia, Italy and Japan. They are powered by two CF6-80 (F138) or PW4000 jet engines. As of December 2019, there were 9 in military service with 3 operators. 
-AWIN tracks 2 types for this profile, the 767 MMTT and KC-767. This family also includes the Boeing E-767 profile.</t>
+          <t>The 767 Tanker Conversions are a group of tanker aircraft in military service in Colombia, Italy and Japan. They are powered by two PW4000 or CF6-80 (F138) jet engines. As of December 2019, there were 9 in military service with 3 operators.
+Aviation Week tracks 2 types associated with this profile, the 767 MMTT and KC-767. This family also includes the Boeing E-767 profile.</t>
         </is>
       </c>
     </row>
@@ -2267,8 +2209,8 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>The KC-135 is a medium transport aircraft in military service or on order in Chile, France, Turkey and the United States. It is powered by four CFM56 (F108) or JT3D (TF33) jet engines. As of December 2019, there were 421 in military service with 4 operators. 
-AWIN tracks 3 types for this profile, the KC-135E, KC-135R and KC-135T. Other profiles in this family include the Boeing OC-135, Boeing RC-135 and Boeing WC-135.</t>
+          <t>The KC-135 is a medium transport aircraft built by Boeing in military service in Chile, France, Turkey and the United States. It is powered by four JT3D (TF33) or CFM56 (F108) jet engines. As of December 2019, there were 421 in military service with 4 operators.
+Aviation Week tracks 3 types associated with this profile, the KC-135E, KC-135R and KC-135T. Other profiles in this family include the Boeing OC-135, Boeing RC-135 and Boeing WC-135.</t>
         </is>
       </c>
     </row>
@@ -2290,8 +2232,8 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>The IL-76 C4ISR Variants (incl. A-50/100) are a group of C4ISR aircraft in military service or on order in Algeria, China, India and Russia. They are powered by four D-30 jet engines. As of December 2019, there were 29 in military service with 5 operators. 
-AWIN tracks 7 types for this profile, the A-100, A-100LL, A-50, A-50EI, A-50U, Il-76VKP and KJ-2000. Other profiles in this family include the Ilyushin IL-78 and Ilyushin Il-76.</t>
+          <t>The IL-76 C4ISR Variants (incl. A-50/100) are a group of C4ISR aircraft in military service or on order in Algeria, China, India and Russia. They are powered by four D-30 jet engines. As of December 2019, there were 29 in military service and 9 new deliveries on contract with 5 operators.
+Aviation Week tracks 7 types associated with this profile, the A-100, KJ-2000, A-50EI, A-50, A-50U, Il-76VKP and A-100LL. Other profiles in this family include the Ilyushin IL-78 and Ilyushin Il-76.</t>
         </is>
       </c>
     </row>
@@ -2313,8 +2255,8 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>The 707 C4ISR Conversions are a group of C4ISR aircraft in military service or on order in Chile, Iran and the United States. They are powered by four JT3D (TF33) jet engines. As of December 2019, there were 3 in military service with 3 operators. 
-AWIN tracks 3 types for this profile, the 707 Phalcon, 707 [MIT Lincoln Labs] and 707-320C [Iran ELINT]. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing E-3, Boeing E-6 and Boeing E-8.</t>
+          <t>The 707 C4ISR Conversions are a group of C4ISR aircraft in military service in Chile, Iran and the United States. They are powered by four JT3D (TF33) jet engines. As of December 2019, there were 3 in military service with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the 707 Phalcon, 707-320C [Iran ELINT] and 707 [MIT Lincoln Labs]. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing E-3, Boeing E-6 and Boeing E-8.</t>
         </is>
       </c>
     </row>
@@ -2336,8 +2278,8 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>The 737 AEW&amp;C (E-7 Wedgetail) is an AEW&amp;C aircraft in military service or on order in Australia, South Korea, Turkey and the United Kingdom. It is powered by two CFM56 (F108) jet engines. As of December 2019, there were 14 in military service and 5 new deliveries on contract with 4 operators. 
-AWIN tracks one type for this profile, the 737 AEW&amp;C (E-7). Other profiles in this family include the Boeing 737 MP Surveiller and Lockheed Martin NT-43A.</t>
+          <t>The 737 AEW&amp;C (E-7 Wedgetail) is an AEW&amp;C aircraft in military service or on order in Australia, South Korea, Turkey and the United Kingdom. It is powered by two CFM56 (F108) jet engines. As of December 2019, there were 14 in military service and 5 new deliveries on contract with 4 operators.
+Aviation Week tracks one type associated with this profile, the 737 AEW&amp;C (E-7). Other profiles in this family include the Boeing 737 MP Surveiller and Lockheed Martin NT-43A.</t>
         </is>
       </c>
     </row>
@@ -2359,8 +2301,8 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The 737 MP Surveiller is a maritime surveillance aircraft in military service or on order in Indonesia. It is powered by two JT8D jet engines. As of December 2019, there were 3 in military service with the Indonesian Air Force. 
-AWIN tracks one type for this profile, the 737-200 MP Surveiller. Other profiles in this family include the Boeing 737 AEW&amp;C (E-7 Wedgetail) and Lockheed Martin NT-43A.</t>
+          <t>The 737 MP Surveiller is a maritime surveillance aircraft in military service in Indonesia. It is powered by two JT8D jet engines. As of December 2019, there were 3 in military service with the Indonesian Air Force.
+Aviation Week tracks one type associated with this profile, the 737-200 MP Surveiller. Other profiles in this family include the Boeing 737 AEW&amp;C (E-7 Wedgetail) and Lockheed Martin NT-43A.</t>
         </is>
       </c>
     </row>
@@ -2382,8 +2324,8 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>The E-3 is an AEW&amp;C aircraft in military service or on order in France, International [Europe], Saudi Arabia, the United States and the United Kingdom. It is powered by four CFM56 (F108) or JT3D (TF33) jet engines. As of December 2019, there were 67 in military service with 5 operators. 
-AWIN tracks 9 types for this profile, the E-3A, E-3B, E-3C, E-3D, E-3F, E-3G, KE-3A, RE-3A and RE-3B. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-6 and Boeing E-8.</t>
+          <t>The E-3 is an AEW&amp;C aircraft in military service or on order in France, NATO, Saudi Arabia, the United Kingdom and the United States. It is powered by four CFM56 (F108) or JT3D (TF33) jet engines. As of December 2019, there were 67 in military service and 14 new deliveries on contract with 5 operators.
+Aviation Week tracks 9 types associated with this profile, the E-3F, E-3A, KE-3A, RE-3A, RE-3B, E-3D, E-3B, E-3C and E-3G. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-6 and Boeing E-8.</t>
         </is>
       </c>
     </row>
@@ -2405,8 +2347,8 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>The E-4 is a nuclear command and control aircraft in military service or on order in the United States. It is powered by four CF6 (F103) jet engines. As of December 2019, there were 4 in military service with the US Air Force. 
-AWIN tracks one type for this profile, the E-4B. This family also includes the Boeing VC-25 "Air Force One" profile.</t>
+          <t>The E-4 is a nuclear command and control aircraft in military service in the United States. It is powered by four CF6 (F103) jet engines. As of December 2019, there were 4 in military service with the US Air Force.
+Aviation Week tracks one type associated with this profile, the E-4B. This family also includes the Boeing VC-25 "Air Force One" profile.</t>
         </is>
       </c>
     </row>
@@ -2428,8 +2370,8 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The E-6 is a communications node aircraft capable of broadcasting orders to the U.S. Navy's fleet of nuclear powered ballistic missile submarines. It is powered by four CFM56 (F108) jet engines. As of December 2019, there were 16 in military service with the US Navy. 
-AWIN tracks one type for this profile, the E-6B. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-3 and Boeing E-8.</t>
+          <t>The E-6 is a communications node aircraft capable of broadcasting orders to the U.S. Navy's fleet of nuclear powered ballistic missile submarines. It is powered by four CFM56 (F108) jet engines. As of December 2019, there were 16 in military service with the US Navy.
+Aviation Week tracks one type associated with this profile, the E-6B. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-3 and Boeing E-8.</t>
         </is>
       </c>
     </row>
@@ -2451,8 +2393,8 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The E-767 is an AEW&amp;C aircraft in military service or on order in Japan. It is powered by two CF6-80 (F138) jet engines. As of December 2019, there were 4 in military service with the Japan Air Self Defense Force. 
-AWIN tracks one type for this profile, the E-767. This family also includes the Boeing 767 Tanker Conversions profile.</t>
+          <t>The E-767 is an AEW&amp;C aircraft in military service in Japan. It is powered by two CF6-80 (F138) jet engines. As of December 2019, there were 4 in military service with the Japan Air Self Defense Force.
+Aviation Week tracks one type associated with this profile, the E-767. This family also includes the Boeing 767 Tanker Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -2474,8 +2416,8 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>The E-8 Joint Surveillance Target Attack Radar System (JSTARS) is a ground surveillance aircraft in military service or on order in the United States. It is powered by four JT3D (TF33) jet engines. As of December 2019, there were 17 in military service with the US Air Force. 
-AWIN tracks 2 types for this profile, the E-8C and TE-8A. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-3 and Boeing E-6.</t>
+          <t>The E-8 Joint Surveillance Target Attack Radar System (JSTARS) is a ground surveillance aircraft in military service in the United States. It is powered by four JT3D (TF33) jet engines. As of December 2019, there were 17 in military service with the US Air Force.
+Aviation Week tracks 2 types associated with this profile, the E-8C and TE-8A. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-3 and Boeing E-6.</t>
         </is>
       </c>
     </row>
@@ -2497,8 +2439,8 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The OC-135 Open Skies is a observation aircraft in military service or on order in the United States. It is powered by four JT3D (TF33) jet engines. As of December 2019, there were 2 in military service with the US Air Force. 
-AWIN tracks one type for this profile, the OC-135B. Other profiles in this family include the Boeing KC-135, Boeing RC-135 and Boeing WC-135.</t>
+          <t>The OC-135 Open Skies is a observation aircraft in military service in the United States. It is powered by four JT3D (TF33) jet engines. As of December 2019, there were 2 in military service with the US Air Force.
+Aviation Week tracks one type associated with this profile, the OC-135B. Other profiles in this family include the Boeing KC-135, Boeing RC-135 and Boeing WC-135.</t>
         </is>
       </c>
     </row>
@@ -2520,8 +2462,8 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The RC-135 is a SIGINT aircraft in military service or on order in the United States and the United Kingdom. It is powered by four CFM56 (F108) jet engines. As of December 2019, there were 29 in military service with 2 operators. 
-AWIN tracks 6 types for this profile, the NC-135W, RC-135S, RC-135U, RC-135V, RC-135W and TC-135W. Other profiles in this family include the Boeing KC-135, Boeing OC-135 and Boeing WC-135.</t>
+          <t>The RC-135 is a SIGINT aircraft in military service in the United Kingdom and the United States. It is powered by four CFM56 (F108) jet engines. As of December 2019, there were 29 in military service with 2 operators.
+Aviation Week tracks 6 types associated with this profile, the RC-135W, NC-135W, RC-135S, RC-135U, RC-135V and TC-135W. Other profiles in this family include the Boeing KC-135, Boeing OC-135 and Boeing WC-135.</t>
         </is>
       </c>
     </row>
@@ -2543,8 +2485,8 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The C-17 is a heavy transport aircraft in military service or on order in 9 countries. It is powered by four PW2000 (F117) jet engines. As of December 2019, there were 277 in military service with 9 operators. 
-AWIN tracks one type for this profile, the C-17A. </t>
+          <t xml:space="preserve">The C-17 is a heavy transport aircraft built by Boeing in military service in 9 countries. It is powered by four PW2000 (F117) jet engines. As of December 2019, there were 277 in military service with 9 operators.
+Aviation Week tracks one type associated with this profile, the C-17A. </t>
         </is>
       </c>
     </row>
@@ -2566,8 +2508,8 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The VC-25 "Air Force One" is the presidential transport of the United States which also performs command and control missions. It is powered by four CF6-80 (F138) or GEnx jet engines. As of December 2019, there were 2 in military service and 2 new deliveries on contract with the US Air Force. 
-AWIN tracks 2 types for this profile, the VC-25A and VC-25B. This family also includes the Boeing E-4 profile.</t>
+          <t>The VC-25 "Air Force One" is the presidential transport of the United States which also performs command and control missions. It is powered by four CF6-80 (F138) or GEnx jet engines. As of December 2019, there were 2 in military service and 2 new deliveries on contract with the US Air Force.
+Aviation Week tracks 2 types associated with this profile, the VC-25A and VC-25B. This family also includes the Boeing E-4 profile.</t>
         </is>
       </c>
     </row>
@@ -2589,8 +2531,8 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>The H-47 is a helicopter in military service or on order in 22 countries. It is powered by two T55 (LTC4) turbine engines. As of December 2019, there were 914 in military service and 73 new deliveries on contract with 26 operators. 
-AWIN tracks 12 types for this profile, the CH-47C, CH-47D, CH-47F Block I, CH-47F Block II, CH-47JA, CH-47SD, Chinook HC4, Chinook HC5, Chinook HC6, Chinook HC6A, MH-47G Block I and MH-47G Block II. </t>
+          <t xml:space="preserve">The H-47 is a helicopter in military service or on order in 22 countries. It is powered by two T55 (LTC4) turbine engines. As of December 2019, there were 914 in military service and 441 new deliveries on contract with 26 operators.
+Aviation Week tracks 12 types associated with this profile, the CH-47F Block I, CH-47D, CH-47C, CH-47JA, CH-47SD, Chinook HC4, Chinook HC5, Chinook HC6, Chinook HC6A, MH-47G Block II, CH-47F Block II and MH-47G Block I. </t>
         </is>
       </c>
     </row>
@@ -2612,8 +2554,8 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>The WC-135 Constant Phoenix is an atmospheric collection aircraft in military service or on order in the United States. It is powered by four CFM56 (F108) or JT3D (TF33) jet engines. As of December 2019, there were 2 in military service with the US Air Force. 
-AWIN tracks 3 types for this profile, the WC-135C, WC-135R and WC-135W. Other profiles in this family include the Boeing KC-135, Boeing OC-135 and Boeing RC-135.</t>
+          <t>The WC-135 Constant Phoenix is an atmospheric collection aircraft in military service or on order in the United States. It is powered by four JT3D (TF33) or CFM56 (F108) jet engines. As of December 2019, there were 2 in military service and 3 new deliveries on contract with the US Air Force.
+Aviation Week tracks 3 types associated with this profile, the WC-135C, WC-135R and WC-135W. Other profiles in this family include the Boeing KC-135, Boeing OC-135 and Boeing RC-135.</t>
         </is>
       </c>
     </row>
@@ -2635,8 +2577,8 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The SpyLite is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Ethiopia and India. It is powered by one electric engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the SpyLite. </t>
+          <t xml:space="preserve">The SpyLite is a Group 1 UAV built by Bluebird in military service or on order in Ethiopia and India. It is powered by one electric engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the SpyLite. </t>
         </is>
       </c>
     </row>
@@ -2658,8 +2600,8 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>The Challenger 600 Maritime Conversions are a group of C4ISR aircraft in military service or on order in Denmark, South Korea and the United Arab Emirates. They are powered by two CF34 (TF34) jet engines. As of December 2019, there were 4 in military service and one on order with 3 operators. 
-AWIN tracks 3 types for this profile, the CL-604 MMA, CL-604 [MSA] and CL-650 [MSA]. </t>
+          <t xml:space="preserve">The Challenger 600 Maritime Conversions are a group of C4ISR aircraft in military service or on order in Denmark, South Korea and the United Arab Emirates. They are powered by two CF34 (TF34) jet engines. As of December 2019, there were 4 in military service and 2 new deliveries on contract with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the CL-604 MMA, CL-604 [MSA] and CL-650 [MSA]. </t>
         </is>
       </c>
     </row>
@@ -2681,8 +2623,8 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>The UC-35 is a business jet in military service or on order in the United States. It is powered by two JT15D or PW500 jet engines. As of December 2019, there were 40 in military service with 2 operators. 
-AWIN tracks 4 types for this profile, the UC-35A, UC-35B, UC-35C and UC-35D. This family also includes the Cessna Citation V C4ISR Conversions profile.</t>
+          <t>The UC-35 is a business jet built by Cessna in military service in the United States. It is powered by two JT15D or PW500 jet engines. As of December 2019, there were 40 in military service with 2 operators.
+Aviation Week tracks 4 types associated with this profile, the UC-35A, UC-35B, UC-35C and UC-35D. This family also includes the Cessna Citation V C4ISR Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -2704,8 +2646,8 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>The 150/152 is a civil propeller aircraft in military service or on order in 8 countries. It is powered by one O-200, O-235 or O-320 piston engine. As of December 2019, there were 28 in military service with 8 operators. 
-AWIN tracks 7 types for this profile, the A152 Aerobat, Cessna 150B, Cessna 150C, Cessna 150L, Cessna 150M, Cessna 152 and T-51A. </t>
+          <t xml:space="preserve">The 150/152 is a civil propeller aircraft built by Cessna in military service in 8 countries. It is powered by one O-235, O-200 or O-320 piston engine. As of December 2019, there were 28 in military service with 8 operators.
+Aviation Week tracks 7 types associated with this profile, the Cessna 152, A152 Aerobat, Cessna 150B, Cessna 150M, Cessna 150C, Cessna 150L and T-51A. </t>
         </is>
       </c>
     </row>
@@ -2727,8 +2669,8 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>The 170/172/175 is a civil propeller aircraft in military service or on order in 23 countries. It is powered by one Centurion (CD-135/155), O-320 or O-360 piston engine. As of December 2019, there were 159 in military service with 28 operators. 
-AWIN tracks 10 types for this profile, the Cessna 172K, Cessna 172L, Cessna 172M, Cessna 172N, Cessna 172R, Cessna 172RG, Cessna 172S, Cessna R172K, T-41B and T-41D. </t>
+          <t xml:space="preserve">The 170/172/175 is a civil propeller aircraft built by Cessna in military service in 23 countries. It is powered by one O-360, Centurion (CD-135/155) or O-320 piston engine. As of December 2019, there were 159 in military service with 28 operators.
+Aviation Week tracks 10 types associated with this profile, the Cessna 172R, Cessna R172K, T-41D, Cessna 172S, Cessna 172M, Cessna 172RG, Cessna 172K, T-41B, Cessna 172L and Cessna 172N. </t>
         </is>
       </c>
     </row>
@@ -2750,8 +2692,8 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>The 180/182/185 is a civil propeller aircraft in military service or on order in 15 countries. It is powered by one O-470, O-520 or O-540 piston engine. As of December 2019, there were 185 in military service with 17 operators. 
-AWIN tracks 14 types for this profile, the Cessna 180F, Cessna 182J, Cessna 182K, Cessna 182N, Cessna 182P, Cessna 182Q, Cessna 182R, Cessna 182S, Cessna 182T, Cessna A185F, Cessna R182 RG, Cessna T182T, U-17A and U-17B. </t>
+          <t xml:space="preserve">The 180/182/185 is a civil propeller aircraft built by Cessna in military service in 15 countries. It is powered by one O-470, O-540 or O-520 piston engine. As of December 2019, there were 185 in military service with 17 operators.
+Aviation Week tracks 14 types associated with this profile, the Cessna 180F, Cessna 182J, Cessna 182K, Cessna 182N, Cessna 182R, Cessna R182 RG, U-17A, U-17B, Cessna 182P, Cessna A185F, Cessna 182S, Cessna 182T, Cessna T182T and Cessna 182Q. </t>
         </is>
       </c>
     </row>
@@ -2773,8 +2715,8 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>The 206/207/210 is a civil propeller aircraft in military service or on order in 21 countries. It is powered by one O-520 or O-540 piston engine. As of December 2019, there were 149 in military service with 26 operators. 
-AWIN tracks 18 types for this profile, the Cessna 206H, Cessna 207, Cessna 210F, Cessna 210G, Cessna 210L, Cessna 210N, Cessna T206H, Cessna T207A, Cessna T210F, Cessna T210L, Cessna T210M, Cessna T210N, Cessna TU206G, Cessna U206, Cessna U206A, Cessna U206B, Cessna U206F and Cessna U206G. </t>
+          <t xml:space="preserve">The 206/207/210 is a civil propeller aircraft built by Cessna in military service in 21 countries. It is powered by one O-520 or O-540 piston engine. As of December 2019, there were 149 in military service with 26 operators.
+Aviation Week tracks 18 types associated with this profile, the Cessna U206, Cessna U206G, Cessna 210G, Cessna 210L, Cessna 210N, Cessna T210L, Cessna T210N, Cessna U206A, Cessna U206B, Cessna U206F, Cessna T210M, Cessna TU206G, Cessna 210F, Cessna 206H, Cessna 207, Cessna T206H, Cessna T210F and Cessna T207A. </t>
         </is>
       </c>
     </row>
@@ -2796,8 +2738,8 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>The Cessna 208 is a civil propeller aircraft in military service or on order in 29 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 147 in military service with 32 operators. 
-AWIN tracks 4 types for this profile, the Cessna 208, Cessna 208B, Cessna 208B EX and Cessna 208FP. This family also includes the Cessna RC/AC-208 profile.</t>
+          <t>The Cessna 208 is a civil propeller aircraft built by Cessna in military service or on order in 29 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 147 in military service and 7 new deliveries on contract with 32 operators.
+Aviation Week tracks 4 types associated with this profile, the Cessna 208B, Cessna 208B EX, Cessna 208 and Cessna 208FP. This family also includes the Cessna RC/AC-208 profile.</t>
         </is>
       </c>
     </row>
@@ -2819,8 +2761,8 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>The 310/320/340 is a civil propeller aircraft in military service or on order in Bolivia and the United States. It is powered by two O-470 or O-520 piston engines. As of December 2019, there were 4 in military service with 2 operators. 
-AWIN tracks 3 types for this profile, the Cessna 310L, Cessna 310P and Cessna 340A. </t>
+          <t xml:space="preserve">The 310/320/340 is a civil propeller aircraft built by Cessna in military service in Bolivia and the United States. It is powered by two O-520 or O-470 piston engines. As of December 2019, there were 4 in military service with 2 operators.
+Aviation Week tracks 3 types associated with this profile, the Cessna 340A, Cessna 310L and Cessna 310P. </t>
         </is>
       </c>
     </row>
@@ -2842,8 +2784,8 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>The DHC-8 C4ISR Variants (incl. RO-6) are a group of C4ISR aircraft in military service or on order in Australia and the United States. They are powered by two PW100 turbine engines. As of December 2019, there were 7 in military service with 3 operators. 
-AWIN tracks 4 types for this profile, the DHC-8 Saturn Arch, DHC-8-200 [ISR], DHC-8-200 [LADS] and RO-6A (ARL-E). This family also includes the Bombardier DHC-8 Maritime Variants (incl. E-9) profile.</t>
+          <t>The DHC-8 C4ISR Variants (incl. RO-6) are a group of C4ISR aircraft in military service or on order in Australia and the United States. They are powered by two PW100 turbine engines. As of December 2019, there were 7 in military service and 8 new deliveries on contract with 3 operators.
+Aviation Week tracks 4 types associated with this profile, the DHC-8-200 [LADS], DHC-8 Saturn Arch, RO-6A (ARL-E) and DHC-8-200 [ISR]. This family also includes the Bombardier DHC-8 Maritime Variants (incl. E-9) profile.</t>
         </is>
       </c>
     </row>
@@ -2865,8 +2807,8 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>The T-37 is a light 1-2 seat aircraft in military service or on order in 6 countries. It is powered by two J69 or J85 jet engines. As of December 2019, there were 115 in military service with 6 operators. 
-AWIN tracks 2 types for this profile, the A-37B and T-37B. </t>
+          <t xml:space="preserve">The T-37 is a light 1-2 seat aircraft built by Cessna in military service in 6 countries. It is powered by two J85 or J69 jet engines. As of December 2019, there were 115 in military service with 6 operators.
+Aviation Week tracks 2 types associated with this profile, the A-37B and T-37B. </t>
         </is>
       </c>
     </row>
@@ -2888,8 +2830,8 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>The Z-10 is a helicopter in military service or on order in China. It is powered by two PT6C or WZ-9 turbine engines. As of December 2019, there were 114 in military service and 32 new deliveries on contract with 2 operators. 
-AWIN tracks 4 types for this profile, the Z-10 [Prototype], Z-10A, Z-10H and Z-10K. </t>
+          <t xml:space="preserve">The Z-10 is a helicopter built by Changhe in military service or on order in China. It is powered by two WZ-9 or PT6C turbine engines. As of December 2019, there were 114 in military service and 32 new deliveries on contract with 2 operators.
+Aviation Week tracks 4 types associated with this profile, the Z-10K, Z-10 [Prototype], Z-10A and Z-10H. </t>
         </is>
       </c>
     </row>
@@ -2911,8 +2853,8 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>The J-10 is a fighter in military service or on order in China. It is powered by one AL-31 (WS-10) jet engine. As of December 2019, there were 445 in military service and 63 new deliveries on contract with 3 operators. 
-AWIN tracks 6 types for this profile, the J-10A, J-10AH, J-10B, J-10C, J-10S and J-10SH. </t>
+          <t xml:space="preserve">The J-10 is a fighter built by Chengdu in military service or on order in China. It is powered by one AL-31 (WS-10) jet engine. As of December 2019, there were 445 in military service and 63 new deliveries on contract with 3 operators.
+Aviation Week tracks 6 types associated with this profile, the J-10B, J-10C, J-10A, J-10S, J-10AH and J-10SH. </t>
         </is>
       </c>
     </row>
@@ -2934,8 +2876,8 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>The RQ-21 "Blackjack" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 6 countries. It is powered by one RT300 piston engine. As of December 2019, there were 198 in military service and 28 new deliveries on contract with 8 operators. 
-AWIN tracks one type for this profile, the RQ-21A. </t>
+          <t xml:space="preserve">The RQ-21 "Blackjack" is a Group 3 UAV built by Insitu in military service or on order in 6 countries. It is powered by one RT300 piston engine. As of December 2019, there were 198 in military service and 48 new deliveries on contract with 8 operators.
+Aviation Week tracks one type associated with this profile, the RQ-21A. </t>
         </is>
       </c>
     </row>
@@ -2957,8 +2899,8 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>The BZK-005 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China. It is powered by one piston engine. As of December 2019, there were 40 in military service with 2 operators. 
-AWIN tracks one type for this profile, the BZK-005. </t>
+          <t xml:space="preserve">The BZK-005 is a Group 3 UAV built by BUAA in military service in China. It is powered by one piston engine. As of December 2019, there were 40 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the BZK-005. </t>
         </is>
       </c>
     </row>
@@ -2980,8 +2922,8 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>The CL-89/289 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in France. It is powered by one T117 jet engine. As of December 2019, it was in military service with the French Army. 
-AWIN tracks one type for this profile, the CL-289. </t>
+          <t xml:space="preserve">The CL-89/289 is a Group 3 UAV built by Canadair in military service or on order in France. It is powered by one T117 jet engine. As of December 2019, it was in military service or on order with the French Army.
+Aviation Week tracks one type associated with this profile, the CL-289. </t>
         </is>
       </c>
     </row>
@@ -3003,8 +2945,8 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The CH-3 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 6 countries. It is powered by one TD0 piston engine. As of December 2019, there were 43 in military service with 6 operators. 
-AWIN tracks 2 types for this profile, the CH-3 and CH-3A. </t>
+          <t xml:space="preserve">The CH-3 is a Group 4 UAV built by CASC in military service or on order in 6 countries. It is powered by one TD0 piston engine. As of December 2019, it was in military service or on order with 6 operators.
+Aviation Week tracks 2 types associated with this profile, the CH-3 and CH-3A. </t>
         </is>
       </c>
     </row>
@@ -3026,8 +2968,8 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The CH-4 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Algeria, Indonesia, Iraq and Saudi Arabia. It is powered by one piston engine. As of December 2019, there were 18 in military service and 6 new deliveries on contract with 4 operators. 
-AWIN tracks 2 types for this profile, the CH-4A and CH-4B. </t>
+          <t xml:space="preserve">The CH-4 is a Group 5 UAV built by CASC in military service or on order in Algeria, Indonesia, Iraq and Saudi Arabia. It is powered by one piston engine. As of December 2019, there were 18 in military service and 6 new deliveries on contract with 4 operators.
+Aviation Week tracks 2 types associated with this profile, the CH-4A and CH-4B. </t>
         </is>
       </c>
     </row>
@@ -3049,8 +2991,8 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>The WJ-600 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China and Turkmenistan. It is powered by one jet engine. As of December 2019, there were 2 in military service with 2 operators. 
-AWIN tracks one type for this profile, the WJ-600. </t>
+          <t xml:space="preserve">The WJ-600 is a Group 4 UAV in military service or on order in China and Turkmenistan. It is powered by one jet engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the WJ-600. </t>
         </is>
       </c>
     </row>
@@ -3072,8 +3014,8 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The DHC-8 Maritime Variants (incl. E-9) are a group of maritime aircraft in military service or on order in 8 countries. They are powered by two PW100 turbine engines. As of December 2019, there were 39 in military service with 9 operators. 
-AWIN tracks 7 types for this profile, the DHC-8-100 [MSA], DHC-8-200 [MSA], DHC-8-300 Shimataka, DHC-8-300 [AMASCOS 300], DHC-8-300 [MSA], DHC-8-300 [MSS6000] and E-9A. This family also includes the Bombardier DHC-8 C4ISR Variants (incl. RO-6) profile.</t>
+          <t>The DHC-8 Maritime Variants (incl. E-9) are a group of maritime aircraft in military service in 8 countries. They are powered by two PW100 turbine engines. As of December 2019, there were 39 in military service with 9 operators.
+Aviation Week tracks 7 types associated with this profile, the DHC-8-200 [MSA], DHC-8-300 [MSA], DHC-8-300 [MSS6000], DHC-8-300 Shimataka, DHC-8-100 [MSA], DHC-8-300 [AMASCOS 300] and E-9A. This family also includes the Bombardier DHC-8 C4ISR Variants (incl. RO-6) profile.</t>
         </is>
       </c>
     </row>
@@ -3095,8 +3037,8 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The Alpha Jet is a light 1-2 seat aircraft in military service or on order in 9 countries. It is powered by two Larzac jet engines. As of December 2019, there were 213 in military service with 10 operators. 
-AWIN tracks one type for this profile, the Alpha Jet. </t>
+          <t xml:space="preserve">The Alpha Jet is a light 1-2 seat aircraft built by Dassault Dornier in military service or on order in 9 countries. It is powered by two Larzac jet engines. As of December 2019, there were 213 in military service and 6 new deliveries on contract with 10 operators.
+Aviation Week tracks one type associated with this profile, the Alpha Jet. </t>
         </is>
       </c>
     </row>
@@ -3118,8 +3060,8 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>The Mirage III is a fighter in military service or on order in 6 countries. It is powered by one Atar or J79 jet engine. As of December 2019, there were 176 in military service with 7 operators. 
-AWIN tracks 8 types for this profile, the Cheetah, Kfir, Mirage 5F ROSE II, Mirage 5F ROSE III, Mirage 5PA2, Mirage 5PA3, Mirage 5SDE and Mirage IIIE ROSE I. </t>
+          <t xml:space="preserve">The Mirage III is a fighter built by IAI, Atlas and Dassault in military service or on order in 6 countries. It is powered by one J79 or Atar jet engine. As of December 2019, there were 176 in military service and 34 new deliveries on contract with 7 operators.
+Aviation Week tracks 8 types associated with this profile, the Kfir, Cheetah, Mirage 5SDE, Mirage 5F ROSE II, Mirage 5F ROSE III, Mirage 5PA2, Mirage 5PA3 and Mirage IIIE ROSE I. </t>
         </is>
       </c>
     </row>
@@ -3141,8 +3083,8 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>The Mirage 2000 is a fighter in military service or on order in 8 countries. It is powered by one M53 jet engine. As of December 2019, there were 337 in military service with 9 operators. 
-AWIN tracks 11 types for this profile, the Mirage 2000-5B Mk. 2, Mirage 2000-5D, Mirage 2000-5D Mk. 2, Mirage 2000-5E, Mirage 2000-5E Mk. 2, Mirage 2000-5F, Mirage 2000B, Mirage 2000C, Mirage 2000D, Mirage 2000E and Mirage 2000ED. </t>
+          <t xml:space="preserve">The Mirage 2000 is a fighter built by Dassault in military service or on order in 8 countries. It is powered by one M53 jet engine. As of December 2019, there were 337 in military service and 2 new deliveries on contract with 9 operators.
+Aviation Week tracks 11 types associated with this profile, the Mirage 2000E, Mirage 2000-5F, Mirage 2000B, Mirage 2000C, Mirage 2000D, Mirage 2000-5B Mk. 2, Mirage 2000-5E Mk. 2, Mirage 2000-5D Mk. 2, Mirage 2000ED, Mirage 2000-5D and Mirage 2000-5E. </t>
         </is>
       </c>
     </row>
@@ -3164,8 +3106,8 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>The Mirage F1 is a fighter in military service or on order in 7 countries. It is powered by one Atar jet engine. As of December 2019, there were 105 in military service with 9 operators. 
-AWIN tracks 5 types for this profile, the Mirage F1A, Mirage F1B, Mirage F1C, Mirage F1E and Mirage F1M. </t>
+          <t xml:space="preserve">The Mirage F1 is a fighter built by Dassault in military service or on order in 7 countries. It is powered by one Atar jet engine. As of December 2019, there were 105 in military service and 21 new deliveries on contract with 9 operators.
+Aviation Week tracks 5 types associated with this profile, the Mirage F1A, Mirage F1B, Mirage F1E, Mirage F1C and Mirage F1M. </t>
         </is>
       </c>
     </row>
@@ -3187,8 +3129,8 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>The DHC-1 is a light 1-2 seat aircraft in military service or on order in Portugal. It is powered by one O-360 piston engine. As of December 2019, there were 6 in military service with the Portuguese Air Force. 
-AWIN tracks one type for this profile, the DHC-1 Chipmunk Mk 20. </t>
+          <t xml:space="preserve">The DHC-1 is a light 1-2 seat aircraft in military service in Portugal. It is powered by one O-360 piston engine. As of December 2019, there were 6 in military service with the Portuguese Air Force.
+Aviation Week tracks one type associated with this profile, the DHC-1 Chipmunk Mk 20. </t>
         </is>
       </c>
     </row>
@@ -3210,8 +3152,8 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>The Yilong is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 9 countries. It is powered by one piston or turbine engine. As of December 2019, there were 145 in military service and 80 new deliveries on contract with 11 operators. 
-AWIN tracks 3 types for this profile, the Wing Loong 1, Wing Loong 1D and Wing Loong 2. </t>
+          <t xml:space="preserve">The Yilong is a Group 5 or 4 UAV built by Chengdu in military service or on order in 9 countries. It is powered by one turbine or piston engine. As of December 2019, there were 145 in military service and 143 new deliveries on contract with 11 operators.
+Aviation Week tracks 3 types associated with this profile, the Wing Loong 2, Wing Loong 1 and Wing Loong 1D. </t>
         </is>
       </c>
     </row>
@@ -3233,8 +3175,8 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>The Cardinal II is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Taiwan. It is powered by one electric engine. As of December 2019, there were 5 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Cardinal II. </t>
+          <t xml:space="preserve">The Cardinal II is a Group 1 UAV built by CSIST in military service or on order in Taiwan. It is powered by one electric engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Cardinal II. </t>
         </is>
       </c>
     </row>
@@ -3256,8 +3198,8 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>The Global 5000/6000 C4ISR Conversions are a group of C4ISR aircraft in military service or on order in India and the United Arab Emirates. They are powered by two BR700 (F130) jet engines. As of December 2019, there were 3 in military service and one on order with 2 operators. 
-AWIN tracks 2 types for this profile, the Global 5000 [ISR] and Global 6000 [SIGINT]. Other profiles in this family include the Aselsan Havasoj, Northrop Grumman E-11 BACN, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
+          <t>The Global 5000/6000 C4ISR Conversions are a group of C4ISR aircraft in military service or on order in India and the United Arab Emirates. They are powered by two BR700 (F130) jet engines. As of December 2019, there were 3 in military service and one on order with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the Global 5000 [ISR] and Global 6000 [SIGINT]. Other profiles in this family include the Aselsan Havasoj, Northrop Grumman E-11 BACN, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
         </is>
       </c>
     </row>
@@ -3279,8 +3221,8 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>The DA42 is a civil propeller aircraft in military service or on order in 8 countries. It is powered by two AE300 or Centurion (CD-135/155) piston engines. As of December 2019, there were 22 in military service with 8 operators. 
-AWIN tracks 3 types for this profile, the DA42 NG, DA42-M and DA42-VI. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42-M/MPP and Aurora Flight Sciences DA42 Centaur OPA.</t>
+          <t>The DA42 is a civil propeller aircraft built by Diamond Aircraft in military service in 8 countries. It is powered by two Centurion (CD-135/155) or AE300 piston engines. As of December 2019, there were 22 in military service with 8 operators.
+Aviation Week tracks 3 types associated with this profile, the DA42-M, DA42 NG and DA42-VI. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42-M/MPP and Aurora Flight Sciences DA42 Centaur OPA.</t>
         </is>
       </c>
     </row>
@@ -3302,8 +3244,8 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>The DA40 is a light 1-2 seat aircraft in military service or on order in 7 countries. It is powered by one AE300 or O-360 piston engine. As of December 2019, there were 47 in military service and 2 new deliveries on contract with 7 operators. 
-AWIN tracks 2 types for this profile, the DA40 and DA40NG. </t>
+          <t xml:space="preserve">The DA40 is a light 1-2 seat aircraft built by Diamond Aircraft in military service or on order in 7 countries. It is powered by one AE300 or O-360 piston engine. As of December 2019, there were 47 in military service and 10 new deliveries on contract with 7 operators.
+Aviation Week tracks 2 types associated with this profile, the DA40NG and DA40. </t>
         </is>
       </c>
     </row>
@@ -3325,8 +3267,8 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The DA20 is a light 1-2 seat aircraft in military service or on order in Ecuador, Poland and the United States. It is powered by one O-240 piston engine. As of December 2019, there were 73 in military service with 3 operators. 
-AWIN tracks one type for this profile, the DA20-C1. </t>
+          <t xml:space="preserve">The DA20 is a light 1-2 seat aircraft built by Diamond Aircraft in military service in Ecuador, Poland and the United States. It is powered by one O-240 piston engine. As of December 2019, there were 73 in military service with 3 operators.
+Aviation Week tracks one type associated with this profile, the DA20-C1. </t>
         </is>
       </c>
     </row>
@@ -3348,8 +3290,8 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>The HK36 is a light 1-2 seat aircraft in military service or on order in France and India. It is powered by one Rotax 912 or Rotax 914 piston engine. As of December 2019, there were 17 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the HK36 TC 100 and HK36 TTC 115. </t>
+          <t xml:space="preserve">The HK36 is a light 1-2 seat aircraft built by Diamond Aircraft in military service in France and India. It is powered by one Rotax 914 or Rotax 912 piston engine. As of December 2019, there were 17 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the HK36 TTC 115 and HK36 TC 100. </t>
         </is>
       </c>
     </row>
@@ -3371,8 +3313,8 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>The Do 28 is a civil propeller aircraft in military service or on order in Zambia. It is powered by two O-540 piston engines. As of December 2019, there were 7 in military service with the Zambian Air Force. 
-AWIN tracks one type for this profile, the Do28B-1. </t>
+          <t xml:space="preserve">The Do 28 is a civil propeller aircraft built by Dornier in military service in Zambia. It is powered by two O-540 piston engines. As of December 2019, there were 7 in military service with the Zambian Air Force.
+Aviation Week tracks one type associated with this profile, the Do28B-1. </t>
         </is>
       </c>
     </row>
@@ -3394,8 +3336,8 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>The BN-2 Defender is a maritime aircraft in military service or on order in 6 countries. It is powered by two M250 (T63/T703) or O-540 piston or turbine engines. As of December 2019, there were 24 in military service with 6 operators. 
-AWIN tracks 3 types for this profile, the BN-2B Defender, BN-2B Maritime Defender and BN-2T-4S Defender. This family also includes the Britten-Norman BN-2 Islander Maritime &amp; C4ISR Conversions profile.</t>
+          <t>The BN-2 Defender is a maritime aircraft built by Britten-Norman in military service in 6 countries. It is powered by two O-540 or M250 (T63/T703) piston or turbine engines. As of December 2019, there were 24 in military service with 6 operators.
+Aviation Week tracks 3 types associated with this profile, the BN-2B Defender, BN-2B Maritime Defender and BN-2T-4S Defender. This family also includes the Britten-Norman BN-2 Islander Maritime &amp; C4ISR Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -3417,8 +3359,8 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>The BN-2 Islander Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in 6 countries. They are powered by two M250 (T63/T703) turbine engines. As of December 2019, there were 14 in military service with 6 operators. 
-AWIN tracks 4 types for this profile, the BN-2T Islander [MRA], BN-2T Islander [MSA-ASW], BN-2T Islander [MSA] and BN-2T [ISR]. This family also includes the Britten-Norman BN-2 Defender profile.</t>
+          <t>The BN-2 Islander Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft built by Britten-Norman in military service in 6 countries. They are powered by two M250 (T63/T703) turbine engines. As of December 2019, there were 14 in military service with 6 operators.
+Aviation Week tracks 4 types associated with this profile, the BN-2T Islander [MRA], BN-2T Islander [MSA], BN-2T [ISR] and BN-2T Islander [MSA-ASW]. This family also includes the Britten-Norman BN-2 Defender profile.</t>
         </is>
       </c>
     </row>
@@ -3440,8 +3382,8 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>The Chung Shyang II is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Taiwan. It is powered by one piston engine. As of December 2019, there were 29 in military service with the Republic of China Army. 
-AWIN tracks one type for this profile, the Chung Shyang II. </t>
+          <t xml:space="preserve">The Chung Shyang II is a Group 4 UAV built by CSIST in military service in Taiwan. It is powered by one piston engine. As of December 2019, there were 29 in military service with the Republic of China Army.
+Aviation Week tracks one type associated with this profile, the Chung Shyang II. </t>
         </is>
       </c>
     </row>
@@ -3463,8 +3405,8 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>The PZL-130 is a light 1-2 seat aircraft in military service or on order in Poland. It is powered by one PT6A turbine engine. As of December 2019, there were 17 in military service with the Polish Air Force. 
-AWIN tracks one type for this profile, the PZL-130TC-2. </t>
+          <t xml:space="preserve">The PZL-130 is a light 1-2 seat aircraft built by EADS PZL in military service or on order in Poland. It is powered by one PT6A turbine engine. As of December 2019, there were 17 in military service and 11 new deliveries on contract with the Polish Air Force.
+Aviation Week tracks one type associated with this profile, the PZL-130TC-2. </t>
         </is>
       </c>
     </row>
@@ -3486,8 +3428,8 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>The Aludra is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Malaysia. It is powered by one piston engine. As of December 2019, there were 15 in military service with the Royal Malaysian Air Force. 
-AWIN tracks one type for this profile, the Aludra Mk. 2. </t>
+          <t xml:space="preserve">The Aludra is a Group 3 UAV built by CTRM in military service in Malaysia. It is powered by one piston engine. As of December 2019, there were 15 in military service with the Royal Malaysian Air Force.
+Aviation Week tracks one type associated with this profile, the Aludra Mk. 2. </t>
         </is>
       </c>
     </row>
@@ -3509,8 +3451,8 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>The EA100 is a light 1-2 seat aircraft in military service or on order in the Dominican Republic. It is powered by one Rotax 912 piston engine. As of December 2019, there was one in military service with the Dominican Republic Air Force. 
-AWIN tracks one type for this profile, the EA-100 S-LSA. </t>
+          <t xml:space="preserve">The EA100 is a light 1-2 seat aircraft built by Eagle Aviation in military service in the Dominican Republic. It is powered by one Rotax 912 piston engine. As of December 2019, there was one in military service with the Dominican Republic Air Force.
+Aviation Week tracks one type associated with this profile, the EA-100 S-LSA. </t>
         </is>
       </c>
     </row>
@@ -3532,8 +3474,8 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>The APID-55 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United Arab Emirates. It is powered by one E18H piston engine. As of December 2019, there were 7 in military service with the United Arab Emirates Air Force. 
-AWIN tracks one type for this profile, the APID-55. </t>
+          <t xml:space="preserve">The APID-55 is a Group 3 UAV built by Cybaero AB in military service in the United Arab Emirates. It is powered by one E18H piston engine. As of December 2019, there were 7 in military service with the United Arab Emirates Air Force.
+Aviation Week tracks one type associated with this profile, the APID-55. </t>
         </is>
       </c>
     </row>
@@ -3555,8 +3497,8 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>The Cyber Eye 2 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Thailand. It is powered by one piston engine. As of December 2019, there were 3 in military service with the Royal Thai Air Force. 
-AWIN tracks one type for this profile, the Cyber Eye 2. </t>
+          <t xml:space="preserve">The Cyber Eye 2 is a Group 3 UAV built by Cyber Technology in military service in Thailand. It is powered by one piston engine. As of December 2019, there were 3 in military service with the Royal Thai Air Force.
+Aviation Week tracks one type associated with this profile, the Cyber Eye 2. </t>
         </is>
       </c>
     </row>
@@ -3578,8 +3520,8 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>The KC-390 is a medium transport aircraft in military service or on order in Argentina, Brazil, Chile, Colombia and Portugal. It is powered by two V2500 jet engines. As of December 2019, there were 3 in military service and 32 new deliveries on contract with 7 operators. 
-AWIN tracks 2 types for this profile, the KC-390 and KC-390 [Protoype]. </t>
+          <t xml:space="preserve">The KC-390 is a medium transport aircraft built by Embraer in military service or on order in Argentina, Brazil, Chile, Colombia and Portugal. It is powered by two V2500 jet engines. As of December 2019, there were 3 in military service and 61 new deliveries on contract with 7 operators.
+Aviation Week tracks 2 types associated with this profile, the KC-390 and KC-390 [Protoype]. </t>
         </is>
       </c>
     </row>
@@ -3601,8 +3543,8 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>The Citation V C4ISR Conversions are a group of C4ISR aircraft in military service or on order in Spain. They are powered by two JT15D jet engines. As of December 2019, there were 3 in military service with the Spanish Air Force. 
-AWIN tracks one type for this profile, the Citation V [IMINT]. This family also includes the Cessna UC-35 profile.</t>
+          <t>The Citation V C4ISR Conversions are a group of C4ISR aircraft built by Cessna in military service in Spain. They are powered by two JT15D jet engines. As of December 2019, there were 3 in military service with the Spanish Air Force.
+Aviation Week tracks one type associated with this profile, the Citation V [IMINT]. This family also includes the Cessna UC-35 profile.</t>
         </is>
       </c>
     </row>
@@ -3624,8 +3566,8 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>The EMB-312/314 Tucano/Super Tucano is a light 1-2 seat aircraft in military service or on order in 24 countries. It is powered by one PT6A or TPE331 (T76) turbine engine. As of December 2019, there were 462 in military service and 35 new deliveries on contract with 26 operators. 
-AWIN tracks 5 types for this profile, the A-29A Super Tucano, A-29B Super Tucano, EMB-312A Tucano, EMB-312F Tucano and EMB-312S Tucano. </t>
+          <t xml:space="preserve">The EMB-312/314 Tucano/Super Tucano is a light 1-2 seat aircraft in military service or on order in 24 countries. It is powered by one PT6A or TPE331 (T76) turbine engine. As of December 2019, there were 462 in military service and 77 new deliveries on contract with 26 operators.
+Aviation Week tracks 5 types associated with this profile, the A-29B Super Tucano, EMB-312A Tucano, A-29A Super Tucano, EMB-312S Tucano and EMB-312F Tucano. </t>
         </is>
       </c>
     </row>
@@ -3647,8 +3589,8 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>The EMB-202 is a light 1-2 seat aircraft in military service or on order in Brazil. It is powered by one O-540 piston engine. As of December 2019, there were 2 in military service with the Brazilian Air Force. 
-AWIN tracks one type for this profile, the EMB-202A (G-19A). </t>
+          <t xml:space="preserve">The EMB-202 is a light 1-2 seat aircraft built by Embraer in military service in Brazil. It is powered by one O-540 piston engine. As of December 2019, there were 2 in military service with the Brazilian Air Force.
+Aviation Week tracks one type associated with this profile, the EMB-202A (G-19A). </t>
         </is>
       </c>
     </row>
@@ -3670,8 +3612,8 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>The Seeker II is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Algeria, South Africa, Sri Lanka and the United Arab Emirates. It is powered by one L 550 piston engine. As of December 2019, there were 22 in military service and 6 new deliveries on contract with 5 operators. 
-AWIN tracks 2 types for this profile, the Seeker 2E and Seeker 400. </t>
+          <t xml:space="preserve">The Seeker II is a Group 3 UAV built by Denel Dynamics in military service or on order in Algeria, South Africa, Sri Lanka and the United Arab Emirates. It is powered by one L 550 piston engine. As of December 2019, there were 22 in military service and 6 new deliveries on contract with 5 operators.
+Aviation Week tracks 2 types associated with this profile, the Seeker 2E and Seeker 400. </t>
         </is>
       </c>
     </row>
@@ -3693,8 +3635,8 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>The Skua is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in South Africa and the United Arab Emirates. It is powered by one jet engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Skua. </t>
+          <t xml:space="preserve">The Skua is a Group 5 UAV built by Denel Dynamics in military service or on order in South Africa and the United Arab Emirates. It is powered by one jet engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Skua. </t>
         </is>
       </c>
     </row>
@@ -3716,8 +3658,8 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>The Do DT25 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Germany. It is powered by two jet engines. As of December 2019, it was in military service with the German Air Force. 
-AWIN tracks one type for this profile, the Do-DT25. </t>
+          <t xml:space="preserve">The Do DT25 is a Group 3 UAV built by EADS Dornier in military service or on order in Germany. It is powered by two jet engines. As of December 2019, it was in military service or on order with the German Air Force.
+Aviation Week tracks one type associated with this profile, the Do-DT25. </t>
         </is>
       </c>
     </row>
@@ -3739,8 +3681,8 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>The Lakshya is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in India. It is powered by one PTAE 7 jet engine. As of December 2019, there were 28 in military service with 3 operators. 
-AWIN tracks one type for this profile, the Lakshya. </t>
+          <t xml:space="preserve">The Lakshya is a Group 4 UAV built by Aeronautical Defense Establishment in military service in India. It is powered by one PTAE 7 jet engine. As of December 2019, there were 28 in military service with 3 operators.
+Aviation Week tracks one type associated with this profile, the Lakshya. </t>
         </is>
       </c>
     </row>
@@ -3762,8 +3704,8 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>The T-35 is a light 1-2 seat aircraft in military service or on order in 7 countries. It is powered by one IO-580 or O-540 piston engine. As of December 2019, there were 86 in military service with 7 operators. 
-AWIN tracks 4 types for this profile, the T-35 Pillan II, T-35A Pillan, T-35B Pillan and T-35C Tamiz. </t>
+          <t xml:space="preserve">The T-35 is a light 1-2 seat aircraft built by ENAER in military service or on order in 7 countries. It is powered by one IO-580 or O-540 piston engine. As of December 2019, there were 86 in military service and 40 new deliveries on contract with 7 operators.
+Aviation Week tracks 4 types associated with this profile, the T-35 Pillan II, T-35A Pillan, T-35B Pillan and T-35C Tamiz. </t>
         </is>
       </c>
     </row>
@@ -3785,8 +3727,8 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>The Nishant is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in India. It is powered by one AR 801 piston engine. As of December 2019, it was in military service with the Indian Army. 
-AWIN tracks one type for this profile, the Nishant. </t>
+          <t xml:space="preserve">The Nishant is a Group 3 UAV built by Aeronautical Defense Establishment in military service or on order in India. It is powered by one AR 801 piston engine. As of December 2019, it was in military service or on order with the Indian Army.
+Aviation Week tracks one type associated with this profile, the Nishant. </t>
         </is>
       </c>
     </row>
@@ -3808,8 +3750,8 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>The Rustom 2 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in India. It is powered by two Rotax 914 piston or turbine engines. As of December 2019, there were 15 in military service with the DRDO (India). 
-AWIN tracks 2 types for this profile, the Rustom 1 and Rustom-II (TAPAS 201). </t>
+          <t xml:space="preserve">The Rustom 2 is a Group 4 UAV built by Aeronautical Defense Establishment in military service or on order in India. It is powered by two Rotax 914 piston or turbine engines. As of December 2019, there were 15 in military service and 82 new deliveries on contract with the DRDO (India).
+Aviation Week tracks 2 types associated with this profile, the Rustom 1 and Rustom-II (TAPAS 201). </t>
         </is>
       </c>
     </row>
@@ -3831,8 +3773,8 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>The EA-300/330 is a light 1-2 seat aircraft in military service or on order in Chile, France, Jordan and Malaysia. It is powered by one IO-580 or O-540 piston engine. As of December 2019, there were 17 in military service with 4 operators. 
-AWIN tracks 4 types for this profile, the EA-300L, EA-330LC, EA-330LX and EA-330SC. </t>
+          <t xml:space="preserve">The EA-300/330 is a light 1-2 seat aircraft built by Extra in military service in Chile, France, Jordan and Malaysia. It is powered by one O-540 or IO-580 piston engine. As of December 2019, there were 17 in military service with 4 operators.
+Aviation Week tracks 4 types associated with this profile, the EA-300L, EA-330LC, EA-330SC and EA-330LX. </t>
         </is>
       </c>
     </row>
@@ -3854,8 +3796,8 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>The Cessna F406 MSA is a maritime aircraft in military service or on order in Greece. It is powered by two PT6A turbine engines. As of December 2019, there were 3 in military service with the Hellenic Coast Guard. 
-AWIN tracks one type for this profile, the Caravan II (F406) [MSA]. </t>
+          <t xml:space="preserve">The Cessna F406 MSA is a maritime aircraft built by Reims-Cessna in military service in Greece. It is powered by two PT6A turbine engines. As of December 2019, there were 3 in military service with the Hellenic Coast Guard.
+Aviation Week tracks one type associated with this profile, the Caravan II (F406) [MSA]. </t>
         </is>
       </c>
     </row>
@@ -3877,8 +3819,8 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>The Cessna O-2 is a C4ISR aircraft in military service or on order in El Salvador, Namibia, Thailand, Uruguay and Zimbabwe. It is powered by two O-360 piston engines. As of December 2019, there were 25 in military service with 5 operators. 
-AWIN tracks 3 types for this profile, the O-2A, O-2B and Sentry (O2-337). </t>
+          <t xml:space="preserve">The Cessna O-2 is a C4ISR aircraft built by Cessna and Summit Aviation in military service in El Salvador, Namibia, Thailand, Uruguay and Zimbabwe. It is powered by two O-360 piston engines. As of December 2019, there were 25 in military service with 5 operators.
+Aviation Week tracks 3 types associated with this profile, the O-2A, O-2B and Sentry (O2-337). </t>
         </is>
       </c>
     </row>
@@ -3900,8 +3842,8 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>The AS202 is a light 1-2 seat aircraft in military service or on order in Morocco. It is powered by one O-360 piston engine. As of December 2019, there were 10 in military service with the Royal Moroccan Air Force. 
-AWIN tracks one type for this profile, the AS-202-18A. </t>
+          <t xml:space="preserve">The AS202 is a light 1-2 seat aircraft built by FFA in military service in Morocco. It is powered by one O-360 piston engine. As of December 2019, there were 10 in military service with the Royal Moroccan Air Force.
+Aviation Week tracks one type associated with this profile, the AS-202-18A. </t>
         </is>
       </c>
     </row>
@@ -3923,8 +3865,8 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>The Hermes 450 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 14 countries. It is powered by one AR 801 or Rotax 914 piston engine. As of December 2019, there were 94 in military service and 38 new deliveries on contract with 16 operators. 
-AWIN tracks 3 types for this profile, the Hermes 450, Hermes 900 and Watchkeeper WK450. </t>
+          <t xml:space="preserve">The Hermes 450 is a Group 3 or 4 UAV built by Elbit Systems and Thales in military service or on order in 14 countries. It is powered by one AR 801 or Rotax 914 piston engine. As of December 2019, it was in military service or on order with 16 operators.
+Aviation Week tracks 3 types associated with this profile, the Hermes 450, Hermes 900 and Watchkeeper WK450. </t>
         </is>
       </c>
     </row>
@@ -3946,8 +3888,8 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>The FMA IA-63 Pampa is a light 1-2 seat aircraft in military service or on order in Argentina and Bolivia. It is powered by one TFE731 jet engine. As of December 2019, there were 22 in military service and one on order with 2 operators. 
-AWIN tracks one type for this profile, the IA-63 Pampa. </t>
+          <t xml:space="preserve">The FMA IA-63 Pampa is a light 1-2 seat aircraft built by FMA in military service or on order in Argentina and Bolivia. It is powered by one TFE731 jet engine. As of December 2019, there were 22 in military service and 25 new deliveries on contract with 2 operators.
+Aviation Week tracks one type associated with this profile, the IA-63 Pampa. </t>
         </is>
       </c>
     </row>
@@ -3969,8 +3911,8 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>The FMA IA-58 Pucara is a light 1-2 seat aircraft in military service or on order in Argentina. It is powered by two PT6A turbine engines. As of December 2019, there was one in military service with the Argentine Air Force. 
-AWIN tracks one type for this profile, the IA-58H Pucara. </t>
+          <t xml:space="preserve">The FMA IA-58 Pucara is a light 1-2 seat aircraft built by FMA in military service or on order in Argentina. It is powered by two PT6A turbine engines. As of December 2019, there was one in military service and 2 new deliveries on contract with the Argentine Air Force.
+Aviation Week tracks one type associated with this profile, the IA-58H Pucara. </t>
         </is>
       </c>
     </row>
@@ -3992,8 +3934,8 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>The T-3/5/7 is a light 1-2 seat aircraft in military service or on order in Japan. It is powered by one M250 (T63/T703) turbine engine. As of December 2019, there were 79 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the T-5 and T-7. </t>
+          <t xml:space="preserve">The T-3/5/7 is a light 1-2 seat aircraft in military service in Japan. It is powered by one M250 (T63/T703) turbine engine. As of December 2019, there were 79 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the T-7 and T-5. </t>
         </is>
       </c>
     </row>
@@ -4015,8 +3957,8 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>The Skylark is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in France, Israel, the Philippines and Slovakia. It is powered by one B-047-017 or B40 electric or piston engine. As of December 2019, there were 36 new deliveries on contract with 4 operators. 
-AWIN tracks 3 types for this profile, the Skylark 3, Skylark I and Skylark II. </t>
+          <t xml:space="preserve">The Skylark is a Group 1 or 3 UAV built by Elbit Systems in military service or on order in France, Israel, the Philippines and Slovakia. It is powered by one B40 or B-047-017 electric or piston engine. As of December 2019, it was in military service or on order with 4 operators.
+Aviation Week tracks 3 types associated with this profile, the Skylark I, Skylark II and Skylark 3. </t>
         </is>
       </c>
     </row>
@@ -4038,8 +3980,8 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>The Blue Horizon is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan, the Philippines and Sri Lanka. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, there were 9 in military service with 3 operators. 
-AWIN tracks one type for this profile, the Blue Horizon II. </t>
+          <t xml:space="preserve">The Blue Horizon is a Group 3 UAV built by Emit Aviation in military service in Pakistan, the Philippines and Sri Lanka. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, there were 9 in military service with 3 operators.
+Aviation Week tracks one type associated with this profile, the Blue Horizon II. </t>
         </is>
       </c>
     </row>
@@ -4061,8 +4003,8 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>The Dragonfly 2000 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Ethiopia. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service with the Ethiopian Army. 
-AWIN tracks one type for this profile, the Dragonfly 2000. </t>
+          <t xml:space="preserve">The Dragonfly 2000 is a Group 3 UAV built by Emit Aviation in military service or on order in Ethiopia. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service or on order with the Ethiopian Army.
+Aviation Week tracks one type associated with this profile, the Dragonfly 2000. </t>
         </is>
       </c>
     </row>
@@ -4084,8 +4026,8 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>The G 109 is a light 1-2 seat aircraft in military service or on order in the United Kingdom. It is powered by one Grob 2500 piston engine. As of December 2019, there were 15 in military service with the Royal Air Force. 
-AWIN tracks one type for this profile, the Vigilant T1. </t>
+          <t xml:space="preserve">The G 109 is a light 1-2 seat aircraft built by Grob in military service in the United Kingdom. It is powered by one Grob 2500 piston engine. As of December 2019, there were 15 in military service with the Royal Air Force.
+Aviation Week tracks one type associated with this profile, the Vigilant T1. </t>
         </is>
       </c>
     </row>
@@ -4107,8 +4049,8 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>The G 115 is a light 1-2 seat aircraft in military service or on order in Egypt, Finland, the United Arab Emirates and the United Kingdom. It is powered by one O-360 or O-540 piston engine. As of December 2019, there were 201 in military service with 6 operators. 
-AWIN tracks 3 types for this profile, the G 115E, G 115EG and G 115TA. </t>
+          <t xml:space="preserve">The G 115 is a light 1-2 seat aircraft built by Grob in military service in Egypt, Finland, the United Arab Emirates and the United Kingdom. It is powered by one O-360 or O-540 piston engine. As of December 2019, there were 201 in military service with 6 operators.
+Aviation Week tracks 3 types associated with this profile, the G 115EG, G 115E and G 115TA. </t>
         </is>
       </c>
     </row>
@@ -4130,8 +4072,8 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>The C-2 is a light transport aircraft in military service or on order in the United States. It is powered by two T56 (501) turbine engines. As of December 2019, there were 34 in military service with the US Navy. 
-AWIN tracks one type for this profile, the C-2A. This family also includes the Northrop Grumman E-2 profile.</t>
+          <t>The C-2 is a light transport aircraft in military service in the United States. It is powered by two T56 (501) turbine engines. As of December 2019, there were 34 in military service with the US Navy.
+Aviation Week tracks one type associated with this profile, the C-2A. This family also includes the Northrop Grumman E-2 profile.</t>
         </is>
       </c>
     </row>
@@ -4153,8 +4095,8 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>The F-14 is a fighter in military service or on order in Iran. It is powered by two TF30 jet engines. As of December 2019, there were 31 in military service with the Islamic Republic of Iran Air Force. 
-AWIN tracks one type for this profile, the F-14A. </t>
+          <t xml:space="preserve">The F-14 is a fighter built by Northrop Grumman in military service in Iran. It is powered by two TF30 jet engines. As of December 2019, there were 31 in military service with the Islamic Republic of Iran Air Force.
+Aviation Week tracks one type associated with this profile, the F-14A. </t>
         </is>
       </c>
     </row>
@@ -4176,8 +4118,8 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>The RC/AC-208 is a gunship in military service or on order in 8 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 40 in military service and 22 new deliveries on contract with 8 operators. 
-AWIN tracks 3 types for this profile, the AC-208, AC-208 II and RC-208. This family also includes the Cessna 208 profile.</t>
+          <t>The RC/AC-208 is a gunship in military service or on order in 8 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 40 in military service and 24 new deliveries on contract with 8 operators.
+Aviation Week tracks 3 types associated with this profile, the AC-208 II, AC-208 and RC-208. This family also includes the Cessna 208 profile.</t>
         </is>
       </c>
     </row>
@@ -4199,8 +4141,8 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>The Aladin is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Germany. It is powered by one electric engine. As of December 2019, it was in military service with the German Army. 
-AWIN tracks one type for this profile, the Aladin. </t>
+          <t xml:space="preserve">The Aladin is a Group 1 UAV built by EMT Penzberg in military service or on order in Germany. It is powered by one electric engine. As of December 2019, it was in military service or on order with the German Army.
+Aviation Week tracks one type associated with this profile, the Aladin. </t>
         </is>
       </c>
     </row>
@@ -4222,8 +4164,8 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>The Luna is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Germany, Pakistan and Saudi Arabia. It is powered by one 4102/4103 piston engine. As of December 2019, there were 122 in military service and 15 new deliveries on contract with 3 operators. 
-AWIN tracks 2 types for this profile, the Luna NG and Luna X 2000. </t>
+          <t xml:space="preserve">The Luna is a Group 3 UAV built by EMT Penzberg in military service or on order in Germany, Pakistan and Saudi Arabia. It is powered by one 4102/4103 piston engine. As of December 2019, there were 122 in military service and 60 new deliveries on contract with 3 operators.
+Aviation Week tracks 2 types associated with this profile, the Luna NG and Luna X 2000. </t>
         </is>
       </c>
     </row>
@@ -4245,8 +4187,8 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>The HJT16 is a light 1-2 seat aircraft in military service or on order in India and Myanmar. It is powered by one Orpheus or Viper jet engine. As of December 2019, there were 126 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the HJT-16 MK. 1 and HJT-16 MK. 2. </t>
+          <t xml:space="preserve">The HJT16 is a light 1-2 seat aircraft built by HAL in military service in India and Myanmar. It is powered by one Viper or Orpheus jet engine. As of December 2019, there were 126 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the HJT-16 MK. 1 and HJT-16 MK. 2. </t>
         </is>
       </c>
     </row>
@@ -4268,8 +4210,8 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>The Y-11/12 is a civil propeller aircraft in military service or on order in 16 countries. It is powered by two AI-14 (HS-6, M14) or PT6A piston or turbine engines. As of December 2019, there were 98 in military service and 2 new deliveries on contract with 19 operators. 
-AWIN tracks 4 types for this profile, the Y-11, Y-12 II, Y-12 IV and Y-12E. </t>
+          <t xml:space="preserve">The Y-11/12 is a civil propeller aircraft built by Harbin in military service or on order in 16 countries. It is powered by two PT6A, AI-14 (HS-6 or M14) turbine or piston engines. As of December 2019, there were 98 in military service and 2 new deliveries on contract with 19 operators.
+Aviation Week tracks 4 types associated with this profile, the Y-12E, Y-12 II, Y-11 and Y-12 IV. </t>
         </is>
       </c>
     </row>
@@ -4291,8 +4233,8 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>The SH-5 is a amphibious aircraft in military service or on order in China. It is powered by four AI-24 (WJ-5) turbine engines. As of December 2019, there were 3 in military service with the People's Liberation Army Navy. 
-AWIN tracks one type for this profile, the SH-5. </t>
+          <t xml:space="preserve">The SH-5 is a amphibious aircraft built by Harbin in military service in China. It is powered by four AI-24 (WJ-5) turbine engines. As of December 2019, there were 3 in military service with the People's Liberation Army Navy.
+Aviation Week tracks one type associated with this profile, the SH-5. </t>
         </is>
       </c>
     </row>
@@ -4314,8 +4256,8 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>The Hunter is a light 1-2 seat aircraft in military service or on order in the United States. It is powered by one Avon jet engine. As of December 2019, there were 14 in military service with the Airborne Tactical Advantage Company (ATAC). 
-AWIN tracks one type for this profile, the Hunter. </t>
+          <t xml:space="preserve">The Hunter is a light 1-2 seat aircraft in military service in the United States. It is powered by one Avon jet engine. As of December 2019, there were 14 in military service with the Airborne Tactical Advantage Company (ATAC).
+Aviation Week tracks one type associated with this profile, the Hunter. </t>
         </is>
       </c>
     </row>
@@ -4337,8 +4279,8 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>The E95 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one M135 jet engine. As of December 2019, it was in military service with the Russian Ground Forces. 
-AWIN tracks one type for this profile, the E95M. </t>
+          <t xml:space="preserve">The E95 is a Group 3 UAV built by ENICS in military service or on order in Russia. It is powered by one M135 jet engine. As of December 2019, it was in military service or on order with the Russian Ground Forces.
+Aviation Week tracks one type associated with this profile, the E95M. </t>
         </is>
       </c>
     </row>
@@ -4360,8 +4302,8 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>The Safaq is a light 1-2 seat aircraft developed by Iran. It is powered by one RD-33 jet engine. As of December 2019, there was one new delivery on contract with the Islamic Republic of Iran Air Force. 
-AWIN tracks one type for this profile, the Shafaq. </t>
+          <t xml:space="preserve">The Safaq is a light 1-2 seat aircraft developed by Iran. It is powered by one RD-33 jet engine. As of December 2019, there was one new delivery on contract with the Islamic Republic of Iran Air Force.
+Aviation Week tracks one type associated with this profile, the Shafaq. </t>
         </is>
       </c>
     </row>
@@ -4383,8 +4325,8 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>The Eleron 3SV is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one electric engine. As of December 2019, it was in military service with the Russian Ground Forces. 
-AWIN tracks one type for this profile, the Eleron 3SV. </t>
+          <t xml:space="preserve">The Eleron 3SV is a Group 1 UAV built by ENICS in military service or on order in Russia. It is powered by one electric engine. As of December 2019, it was in military service or on order with the Russian Ground Forces.
+Aviation Week tracks one type associated with this profile, the Eleron 3SV. </t>
         </is>
       </c>
     </row>
@@ -4406,8 +4348,8 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>The JL-8 is a light 1-2 seat aircraft in military service or on order in 15 countries. It is powered by one AI-25 or TFE731 jet engine. As of December 2019, there were 483 in military service and 29 new deliveries on contract with 16 operators. 
-AWIN tracks 3 types for this profile, the JL-8, K-8 and K-8W. </t>
+          <t xml:space="preserve">The JL-8 is a light 1-2 seat aircraft built by Hongdu in military service or on order in 15 countries. It is powered by one AI-25 or TFE731 jet engine. As of December 2019, there were 483 in military service and 29 new deliveries on contract with 16 operators.
+Aviation Week tracks 3 types associated with this profile, the K-8, K-8W and JL-8. </t>
         </is>
       </c>
     </row>
@@ -4429,8 +4371,8 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>The Tetras is a light 1-2 seat aircraft in military service or on order in 7 countries. It is powered by one Rotax 912 piston engine. As of December 2019, there were 31 in military service with 7 operators. 
-AWIN tracks one type for this profile, the Tetras 912. </t>
+          <t xml:space="preserve">The Tetras is a light 1-2 seat aircraft built by Humbert Aviation in military service in 7 countries. It is powered by one Rotax 912 piston engine. As of December 2019, there were 31 in military service with 7 operators.
+Aviation Week tracks one type associated with this profile, the Tetras 912. </t>
         </is>
       </c>
     </row>
@@ -4452,8 +4394,8 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>The Horus is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Brazil. It is powered by one electric engine. As of December 2019, there was one in military service with 2 operators. 
-AWIN tracks one type for this profile, the FT-100. </t>
+          <t xml:space="preserve">The Horus is a Group 1 UAV built by Flight Technologies in military service or on order in Brazil. It is powered by one electric engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the FT-100. </t>
         </is>
       </c>
     </row>
@@ -4475,8 +4417,8 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>The Arava is a utility transport aircraft in military service or on order in Colombia, El Salvador, Papua New Guinea and Venezuela. It is powered by two PT6A turbine engines. As of December 2019, there were 9 in military service with 4 operators. 
-AWIN tracks 2 types for this profile, the IAI 201 Arava and IAI 202 Arava. </t>
+          <t xml:space="preserve">The Arava is a utility transport aircraft built by IAI in military service in Colombia, El Salvador, Papua New Guinea and Venezuela. It is powered by two PT6A turbine engines. As of December 2019, there were 9 in military service with 4 operators.
+Aviation Week tracks 2 types associated with this profile, the IAI 201 Arava and IAI 202 Arava. </t>
         </is>
       </c>
     </row>
@@ -4498,8 +4440,8 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>The MQ-1 "Predator" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Italy, Turkey, the United States and the United Arab Emirates. It is powered by one Centurion (CD-135/155), Rotax 582 or Rotax 914 piston engine. As of December 2019, there were 223 in military service and 44 new deliveries on contract with 5 operators. 
-AWIN tracks 5 types for this profile, the Gnat 750, I-Gnat, MQ-1C, MQ-1C ER and RQ-1E. This family also includes the General Atomics MQ-9 "Reaper" profile.</t>
+          <t>The MQ-1 "Predator" is a Group 4 UAV built by General Atomics Aeronautical Systems in military service or on order in Italy, Turkey, the United Arab Emirates and the United States. It is powered by one Centurion (CD-135/155), Rotax 582 or Rotax 914 piston engine. As of December 2019, there were 223 in military service and 163 new deliveries on contract with 5 operators.
+Aviation Week tracks 5 types associated with this profile, the MQ-1C, Gnat 750, I-Gnat, RQ-1E and MQ-1C ER. This family also includes the General Atomics MQ-9 "Reaper" profile.</t>
         </is>
       </c>
     </row>
@@ -4521,8 +4463,8 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>The MQ-9 "Reaper" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 10 countries. It is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 281 in military service and 107 new deliveries on contract with 14 operators. 
-AWIN tracks 6 types for this profile, the Guardian, MQ-9A Block 1, MQ-9A Block 1 ER, MQ-9A Block 5, MQ-9A Block 5 ER and MQ-9B. This family also includes the General Atomics MQ-1 "Predator" profile.</t>
+          <t>The MQ-9 "Reaper" is a Group 5 UAV built by General Atomics Aeronautical Systems in military service or on order in 10 countries. It is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 281 in military service and 399 new deliveries on contract with 14 operators.
+Aviation Week tracks 6 types associated with this profile, the MQ-9A Block 5 ER, MQ-9B, MQ-9A Block 1, MQ-9A Block 5, Guardian and MQ-9A Block 1 ER. This family also includes the General Atomics MQ-1 "Predator" profile.</t>
         </is>
       </c>
     </row>
@@ -4544,8 +4486,8 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>The Shahpar is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one Rotax 912 piston engine. As of December 2019, there were 9 in military service with the Pakistan Air Force. 
-AWIN tracks one type for this profile, the Shahpar. </t>
+          <t xml:space="preserve">The Shahpar is a Group 3 UAV built by GIDS in military service in Pakistan. It is powered by one Rotax 912 piston engine. As of December 2019, there were 9 in military service with the Pakistan Air Force.
+Aviation Week tracks one type associated with this profile, the Shahpar. </t>
         </is>
       </c>
     </row>
@@ -4567,8 +4509,8 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>The MQM-170 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one 3W-150i piston engine. As of December 2019, it was in military service with the US Army. 
-AWIN tracks 2 types for this profile, the MQM-170A and MQM-171. </t>
+          <t xml:space="preserve">The MQM-170 is a Group 3 UAV built by Griffon Aerospace in military service or on order in the United States. It is powered by one 3W-150i piston engine. As of December 2019, it was in military service or on order with the US Army.
+Aviation Week tracks 2 types associated with this profile, the MQM-170A and MQM-171. </t>
         </is>
       </c>
     </row>
@@ -4590,8 +4532,8 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>The BZK-007 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China. It is powered by one piston engine. As of December 2019, there were 28 in military service with the People's Liberation Army Air Force. 
-AWIN tracks one type for this profile, the BZK-007. </t>
+          <t xml:space="preserve">The BZK-007 is a Group 4 UAV built by Guizhou in military service in China. It is powered by one piston engine. As of December 2019, there were 28 in military service with the People's Liberation Army Air Force.
+Aviation Week tracks one type associated with this profile, the BZK-007. </t>
         </is>
       </c>
     </row>
@@ -4613,8 +4555,8 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>The IAR-99 is a light 1-2 seat aircraft in military service or on order in Romania. It is powered by one Viper jet engine. As of December 2019, there were 17 in military service with the Romanian Air Force. 
-AWIN tracks one type for this profile, the IAR 99. </t>
+          <t xml:space="preserve">The IAR-99 is a light 1-2 seat aircraft built by IAR in military service in Romania. It is powered by one Viper jet engine. As of December 2019, there were 17 in military service with the Romanian Air Force.
+Aviation Week tracks one type associated with this profile, the IAR 99. </t>
         </is>
       </c>
     </row>
@@ -4636,8 +4578,8 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>The IL-78 is a medium transport aircraft in military service or on order in Algeria, China, India, Pakistan and Russia. It is powered by four D-30 or PS-90 jet engines. As of December 2019, there were 40 in military service and 34 new deliveries on contract with 5 operators. 
-AWIN tracks 5 types for this profile, the Il-78, Il-78M, Il-78M-90A, Il-78M2 and Il-78MKI. Other profiles in this family include the Beriev Il-76 C4ISR Variants (incl. A-50/100) and Ilyushin Il-76.</t>
+          <t>The IL-78 is a medium transport aircraft built by Ilyushin in military service or on order in Algeria, China, India, Pakistan and Russia. It is powered by four D-30 or PS-90 jet engines. As of December 2019, there were 40 in military service and 57 new deliveries on contract with 5 operators.
+Aviation Week tracks 5 types associated with this profile, the Il-78, Il-78M-90A, Il-78M, Il-78MKI and Il-78M2. Other profiles in this family include the Beriev Il-76 C4ISR Variants (incl. A-50/100) and Ilyushin Il-76.</t>
         </is>
       </c>
     </row>
@@ -4659,8 +4601,8 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>The Il-18 is a civil propeller aircraft in military service or on order in Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 10 in military service with 2 operators. 
-AWIN tracks 3 types for this profile, the Il-18D, Il-18E and Il-18V. Other profiles in this family include the Ilyushin Il-20, Ilyushin Il-22 and Ilyushin Il-38.</t>
+          <t>The Il-18 is a civil propeller aircraft built by Ilyushin in military service in Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 10 in military service with 2 operators.
+Aviation Week tracks 3 types associated with this profile, the Il-18D, Il-18E and Il-18V. Other profiles in this family include the Ilyushin Il-20, Ilyushin Il-22 and Ilyushin Il-38.</t>
         </is>
       </c>
     </row>
@@ -4682,8 +4624,8 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>The Il-62 is a commercial jet in military service or on order in North Korea and Russia. It is powered by four D-30 jet engines. As of December 2019, there were 9 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Il-62M. </t>
+          <t xml:space="preserve">The Il-62 is a commercial jet built by Ilyushin in military service in North Korea and Russia. It is powered by four D-30 jet engines. As of December 2019, there were 9 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the Il-62M. </t>
         </is>
       </c>
     </row>
@@ -4705,8 +4647,8 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>The Il-112 is a light transport aircraft on order by Russia. It is powered by two TV7-117 turbine engines. 
-AWIN tracks one type for this profile, the Il-112V. </t>
+          <t xml:space="preserve">The Il-112 is a light transport aircraft being developed by Ilyushin. It is powered by two TV7-117 turbine engines.
+Aviation Week tracks one type associated with this profile, the Il-112V. </t>
         </is>
       </c>
     </row>
@@ -4728,8 +4670,8 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>The Il-76 is a medium transport aircraft in military service or on order in 16 countries. It is powered by four D-30 or PS-90 jet engines. As of December 2019, there were 236 in military service and 33 new deliveries on contract with 19 operators. 
-AWIN tracks 7 types for this profile, the II-76MD-M, Il-76M, Il-76MD, Il-76MD-90A, Il-76MDP, Il-76MF and Il-76TD. Other profiles in this family include the Beriev Il-76 C4ISR Variants (incl. A-50/100) and Ilyushin IL-78.</t>
+          <t>The Il-76 is a medium transport aircraft built by Ilyushin in military service or on order in 16 countries. It is powered by four D-30 or PS-90 jet engines. As of December 2019, there were 236 in military service and 115 new deliveries on contract with 19 operators.
+Aviation Week tracks 7 types associated with this profile, the Il-76MD, Il-76MD-90A, Il-76TD, Il-76M, Il-76MF, II-76MD-M and Il-76MDP. Other profiles in this family include the Beriev Il-76 C4ISR Variants (incl. A-50/100) and Ilyushin IL-78.</t>
         </is>
       </c>
     </row>
@@ -4751,8 +4693,8 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>The Xianglong is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China. It is powered by one R-11/R-13/R-25 (WP-7/WP-13) jet engine. As of December 2019, there were 7 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Soar Dragon II. </t>
+          <t xml:space="preserve">The Xianglong is a Group 5 UAV built by Guizhou in military service in China. It is powered by one R-11/R-13/R-25 (WP-7/WP-13) jet engine. As of December 2019, there were 7 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the Soar Dragon II. </t>
         </is>
       </c>
     </row>
@@ -4774,8 +4716,8 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>The Ababil is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Iran. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, there were 3 in military service with the Islamic Revolutionary Guard Corps Aerospace Force. 
-AWIN tracks one type for this profile, the Ababil-3. </t>
+          <t xml:space="preserve">The Ababil is a Group 3 UAV built by HESA in military service in Iran. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, there were 3 in military service with the Islamic Revolutionary Guard Corps Aerospace Force.
+Aviation Week tracks one type associated with this profile, the Ababil-3. </t>
         </is>
       </c>
     </row>
@@ -4797,8 +4739,8 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>The Shahed 129 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Iran. It is powered by one piston engine. As of December 2019, there were 23 in military service with the Islamic Revolutionary Guard Corps Aerospace Force. 
-AWIN tracks one type for this profile, the Shahed 129. </t>
+          <t xml:space="preserve">The Shahed 129 is a Group 4 UAV built by HESA in military service in Iran. It is powered by one piston engine. As of December 2019, there were 23 in military service with the Islamic Revolutionary Guard Corps Aerospace Force.
+Aviation Week tracks one type associated with this profile, the Shahed 129. </t>
         </is>
       </c>
     </row>
@@ -4820,8 +4762,8 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>The RQ-16 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in India and the United States. It is powered by one 3W-56i piston engine. As of December 2019, there were 36 in military service with 2 operators. 
-AWIN tracks one type for this profile, the RQ-16A. </t>
+          <t xml:space="preserve">The RQ-16 is a Group 1 UAV built by Honeywell in military service or on order in India and the United States. It is powered by one 3W-56i piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the RQ-16A. </t>
         </is>
       </c>
     </row>
@@ -4843,8 +4785,8 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>The S4 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Mexico. It is powered by two piston engines. As of December 2019, it was in military service with the Mexican Air Force. 
-AWIN tracks one type for this profile, the S4. </t>
+          <t xml:space="preserve">The S4 is a Group 3 UAV built by Hydra Technologies in military service or on order in Mexico. It is powered by two piston engines. As of December 2019, it was in military service or on order with the Mexican Air Force.
+Aviation Week tracks one type associated with this profile, the S4. </t>
         </is>
       </c>
     </row>
@@ -4866,8 +4808,8 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>The KT-1 is a light 1-2 seat aircraft in military service or on order in Indonesia, Peru, Senegal, South Korea and Turkey. It is powered by one PT6A turbine engine. As of December 2019, there were 194 in military service and 7 new deliveries on contract with 5 operators. 
-AWIN tracks 3 types for this profile, the KA-1, KT-1 and KT-1B. </t>
+          <t xml:space="preserve">The KT-1 is a light 1-2 seat aircraft built by KAI in military service or on order in Indonesia, Peru, Senegal, South Korea and Turkey. It is powered by one PT6A turbine engine. As of December 2019, there were 194 in military service and 7 new deliveries on contract with 5 operators.
+Aviation Week tracks 3 types associated with this profile, the KT-1B, KT-1 and KA-1. </t>
         </is>
       </c>
     </row>
@@ -4889,8 +4831,8 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>The KC-100 is a civil propeller aircraft in military service or on order in South Korea. It is powered by one IO-550 piston engine. As of December 2019, there were 23 in military service with the Republic of Korea Air Force. 
-AWIN tracks one type for this profile, the KT-100. </t>
+          <t xml:space="preserve">The KC-100 is a civil propeller aircraft built by KAI in military service in South Korea. It is powered by one IO-550 piston engine. As of December 2019, there were 23 in military service with the Republic of Korea Air Force.
+Aviation Week tracks one type associated with this profile, the KT-100. </t>
         </is>
       </c>
     </row>
@@ -4912,8 +4854,8 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>The Heron is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 12 countries. It is powered by one PT6A or Rotax 914 piston or turbine engine. As of December 2019, there were 151 in military service and 6 new deliveries on contract with 13 operators. 
-AWIN tracks 3 types for this profile, the Harfang, Heron 1 and Heron TP. </t>
+          <t xml:space="preserve">The Heron is a Group 4 , 5 or 3 UAV built by IAI and Airbus in military service or on order in 12 countries. It is powered by one Rotax 914 or PT6A piston or turbine engine. As of December 2019, there were 151 in military service and 23 new deliveries on contract with 13 operators.
+Aviation Week tracks 3 types associated with this profile, the Heron 1, Heron TP and Harfang. </t>
         </is>
       </c>
     </row>
@@ -4935,8 +4877,8 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>The KUH Surion is a helicopter in military service or on order in South Korea. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 113 in military service and 92 new deliveries on contract with 3 operators. 
-AWIN tracks one type for this profile, the Surion. </t>
+          <t xml:space="preserve">The KUH Surion is a helicopter built by KAI in military service or on order in South Korea. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 113 in military service and 175 new deliveries on contract with 3 operators.
+Aviation Week tracks one type associated with this profile, the Surion. </t>
         </is>
       </c>
     </row>
@@ -4958,8 +4900,8 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>The SH-2 is a helicopter in military service or on order in Egypt, New Zealand, Peru and Poland. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 23 in military service with 4 operators. 
-AWIN tracks one type for this profile, the SH-2G. </t>
+          <t xml:space="preserve">The SH-2 is a helicopter built by Kaman in military service or on order in Egypt, New Zealand, Peru and Poland. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 23 in military service and 4 new deliveries on contract with 4 operators.
+Aviation Week tracks one type associated with this profile, the SH-2G. </t>
         </is>
       </c>
     </row>
@@ -4981,8 +4923,8 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>The Ka-50/52 is a helicopter in military service or on order in Egypt and Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 148 in military service and 72 new deliveries on contract with 3 operators. 
-AWIN tracks 3 types for this profile, the Ka-52, Ka-52K and Ka-52M. </t>
+          <t xml:space="preserve">The Ka-50/52 is a helicopter built by Kamov in military service or on order in Egypt and Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 148 in military service and 203 new deliveries on contract with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the Ka-52, Ka-52K and Ka-52M. </t>
         </is>
       </c>
     </row>
@@ -5004,8 +4946,8 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>The Ka-27/28/32/35 is a helicopter in military service or on order in 10 countries. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 166 in military service with 13 operators. 
-AWIN tracks 8 types for this profile, the Ka-27, Ka-27M, Ka-27PS, Ka-28, Ka-32A, Ka-32S, Ka-32T and Ka-35. This family also includes the Kamov Ka-29/31 profile.</t>
+          <t>The Ka-27/28/32/35 is a helicopter built by Kamov in military service or on order in 10 countries. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 166 in military service and 28 new deliveries on contract with 13 operators.
+Aviation Week tracks 8 types associated with this profile, the Ka-32S, Ka-32T, Ka-27PS, Ka-28, Ka-27, Ka-27M, Ka-35 and Ka-32A. This family also includes the Kamov Ka-29/31 profile.</t>
         </is>
       </c>
     </row>
@@ -5027,8 +4969,8 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>The Ka-29/31 is a helicopter in military service or on order in China, India and Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 35 in military service with 3 operators. 
-AWIN tracks 3 types for this profile, the Ka-29, Ka-31 and Ka-31R. This family also includes the Kamov Ka-27/28/32/35 profile.</t>
+          <t>The Ka-29/31 is a helicopter built by Kamov in military service or on order in China, India and Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 35 in military service and 20 new deliveries on contract with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the Ka-31, Ka-29 and Ka-31R. This family also includes the Kamov Ka-27/28/32/35 profile.</t>
         </is>
       </c>
     </row>
@@ -5050,8 +4992,8 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>The C-1 is a light transport aircraft in military service or on order in Japan. It is powered by two JT8D jet engines. As of December 2019, there were 18 in military service with the Japan Air Self Defense Force. 
-AWIN tracks 2 types for this profile, the C-1 and EC-1. </t>
+          <t xml:space="preserve">The C-1 is a light transport aircraft built by Kawasaki in military service in Japan. It is powered by two JT8D jet engines. As of December 2019, there were 18 in military service with the Japan Air Self Defense Force.
+Aviation Week tracks 2 types associated with this profile, the C-1 and EC-1. </t>
         </is>
       </c>
     </row>
@@ -5073,8 +5015,8 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>The I-View is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one piston engine. As of December 2019, there were 8 in military service with the Russian Ground Forces. 
-AWIN tracks one type for this profile, the I-View 150. </t>
+          <t xml:space="preserve">The I-View is a Group 3 UAV built by IAI in military service in Russia. It is powered by one piston engine. As of December 2019, there were 8 in military service with the Russian Ground Forces.
+Aviation Week tracks one type associated with this profile, the I-View 150. </t>
         </is>
       </c>
     </row>
@@ -5096,8 +5038,8 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>The R/MQ-5 Hunter is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Belgium and the United States. It is powered by two piston engines. As of December 2019, there were 26 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the MQ-5B and RQ-5A (B-Hunter). </t>
+          <t xml:space="preserve">The R/MQ-5 Hunter is a Group 4 UAV built by IAI and Northrop Grumman in military service in Belgium and the United States. It is powered by two piston engines. As of December 2019, there were 26 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the RQ-5A (B-Hunter) and MQ-5B. </t>
         </is>
       </c>
     </row>
@@ -5119,8 +5061,8 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>The Scout is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Finland, Sri Lanka and Switzerland. It is powered by one F 31 piston engine. As of December 2019, there were 29 in military service with 3 operators. 
-AWIN tracks 2 types for this profile, the Ranger (ADS-95) and Scout. </t>
+          <t xml:space="preserve">The Scout is a Group 3 UAV built by RUAG and IAI in military service in Finland, Sri Lanka and Switzerland. It is powered by one F 31 piston engine. As of December 2019, there were 29 in military service with 3 operators.
+Aviation Week tracks 2 types associated with this profile, the Ranger (ADS-95) and Scout. </t>
         </is>
       </c>
     </row>
@@ -5142,8 +5084,8 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>The Searcher is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 10 countries. It is powered by one AR 682, Jabiru 2200 or L 550 piston engine. As of December 2019, there were 218 in military service with 13 operators. 
-AWIN tracks 4 types for this profile, the Forpost, Searcher I, Searcher II and Searcher III. </t>
+          <t xml:space="preserve">The Searcher is a Group 3 UAV built by IAI and Ural Works Civil Aviation in military service in 10 countries. It is powered by one L 550, AR 682 or Jabiru 2200 piston engine. As of December 2019, there were 218 in military service with 13 operators.
+Aviation Week tracks 4 types associated with this profile, the Searcher I, Searcher II, Forpost and Searcher III. </t>
         </is>
       </c>
     </row>
@@ -5165,8 +5107,8 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>The AW129 (T129) is a helicopter in military service or on order in Italy, Pakistan, the Philippines, Qatar and Turkey. It is powered by two CTS800 (T800) or Gem turbine engines. As of December 2019, there were 106 in military service and 48 new deliveries on contract with 6 operators. 
-AWIN tracks 4 types for this profile, the AH-129C, AH-129D, T129A and T129B. </t>
+          <t xml:space="preserve">The AW129 (T129) is a helicopter in military service or on order in Italy, Pakistan, the Philippines, Qatar and Turkey. It is powered by two Gem or CTS800 (T800) turbine engines. As of December 2019, there were 106 in military service and 123 new deliveries on contract with 6 operators.
+Aviation Week tracks 4 types associated with this profile, the AH-129C, AH-129D, T129B and T129A. </t>
         </is>
       </c>
     </row>
@@ -5188,8 +5130,8 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>The M-346 is a light 1-2 seat aircraft in military service or on order in Austria, Israel, Italy, Poland and Singapore. It is powered by two F124/F125 (TFE1042) jet engines. As of December 2019, there were 70 in military service and 10 new deliveries on contract with 5 operators. 
-AWIN tracks 2 types for this profile, the M-346 and M-346 FA. </t>
+          <t xml:space="preserve">The M-346 is a light 1-2 seat aircraft built by Leonardo in military service or on order in Austria, Israel, Italy, Poland and Singapore. It is powered by two F124/F125 (TFE1042) jet engines. As of December 2019, there were 70 in military service and 16 new deliveries on contract with 5 operators.
+Aviation Week tracks 2 types associated with this profile, the M-346 FA and M-346. </t>
         </is>
       </c>
     </row>
@@ -5211,8 +5153,8 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>The AW159 (Westland Lynx) is a helicopter in military service or on order in 13 countries. It is powered by two CTS800 (T800) or Gem turbine engines. As of December 2019, there were 176 in military service and 4 new deliveries on contract with 14 operators. 
-AWIN tracks 8 types for this profile, the AW159 AH1, AW159 [ASW], Lynx Mk.99, Lynx Mk.99A, Lynx [ASW], Super Lynx 100 [ASW], Super Lynx 300 and Super Lynx 300 [ASW]. </t>
+          <t xml:space="preserve">The AW159 (Westland Lynx) is a helicopter in military service or on order in 13 countries. It is powered by two CTS800 (T800) or Gem turbine engines. As of December 2019, there were 176 in military service and 14 new deliveries on contract with 14 operators.
+Aviation Week tracks 8 types associated with this profile, the Super Lynx 300 [ASW], AW159 [ASW], Super Lynx 100 [ASW], Lynx [ASW], Super Lynx 300, Lynx Mk.99, Lynx Mk.99A and AW159 AH1. </t>
         </is>
       </c>
     </row>
@@ -5234,8 +5176,8 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>The C-5 is a heavy transport aircraft in military service or on order in the United States. It is powered by four CF6-80 (F138) jet engines. As of December 2019, there were 52 in military service with the US Air Force. 
-AWIN tracks 2 types for this profile, the C-5M and C-5M-SCM. </t>
+          <t xml:space="preserve">The C-5 is a heavy transport aircraft built by Lockheed Martin in military service in the United States. It is powered by four CF6-80 (F138) jet engines. As of December 2019, there were 52 in military service with the US Air Force.
+Aviation Week tracks 2 types associated with this profile, the C-5M and C-5M-SCM. </t>
         </is>
       </c>
     </row>
@@ -5257,8 +5199,8 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>The F-104 is a fighter in military service or on order in the United States. It is powered by one J79 jet engine. As of December 2019, there were 6 in military service with the Starfighters Inc.. 
-AWIN tracks 3 types for this profile, the CF-104, F-104S and TF-104GM. </t>
+          <t xml:space="preserve">The F-104 is a fighter in military service in the United States. It is powered by one J79 jet engine. As of December 2019, there were 6 in military service with the Starfighters Inc..
+Aviation Week tracks 3 types associated with this profile, the CF-104, F-104S and TF-104GM. </t>
         </is>
       </c>
     </row>
@@ -5280,8 +5222,8 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>The Atlantique is an anti-submarine warfare aircraft in military service or on order in France. It is powered by two Tyne turbine engines. As of December 2019, there were 21 in military service with the French Navy. 
-AWIN tracks one type for this profile, the Atlantique. </t>
+          <t xml:space="preserve">The Atlantique is an anti-submarine warfare aircraft built by Dassault in military service in France. It is powered by two Tyne turbine engines. As of December 2019, there were 21 in military service with the French Navy.
+Aviation Week tracks one type associated with this profile, the Atlantique. </t>
         </is>
       </c>
     </row>
@@ -5303,8 +5245,8 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>The KC-130 is a medium transport aircraft in military service or on order in 19 countries. It is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 126 in military service and 6 new deliveries on contract with 20 operators. 
-AWIN tracks 6 types for this profile, the KC-130B, KC-130H, KC-130J, KC-130J Harvest Hawk, KC-130R and KC-130T. Other profiles in this family include the Lockheed Martin C-130, Lockheed Martin AC-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
+          <t>The KC-130 is a medium transport aircraft in military service or on order in 19 countries. It is powered by four T56 (501) or AE2100 turbine engines. As of December 2019, there were 126 in military service and 51 new deliveries on contract with 20 operators.
+Aviation Week tracks 6 types associated with this profile, the KC-130H, KC-130R, KC-130J, KC-130B, KC-130J Harvest Hawk and KC-130T. Other profiles in this family include the Lockheed Martin C-130, Lockheed Martin AC-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
         </is>
       </c>
     </row>
@@ -5326,8 +5268,8 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>The Falcon 20 Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service or on order in 6 countries. They are powered by two ATF3 (F104), CF700 or TFE731 jet engines. As of December 2019, there were 30 in military service with 7 operators. 
-AWIN tracks 8 types for this profile, the Falcon 20C [EWTS], Falcon 20C [EW], Falcon 20D [EWTS], Falcon 20E [EWTS], Falcon 20F [EWTS], Falcon 20F [EW], Falcon 20H Guardian and HU-25B. </t>
+          <t xml:space="preserve">The Falcon 20 Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft built by Dassault in military service in 6 countries. They are powered by two CF700, ATF3 (F104) or TFE731 jet engines. As of December 2019, there were 30 in military service with 7 operators.
+Aviation Week tracks 8 types associated with this profile, the Falcon 20C [EWTS], Falcon 20E [EWTS], Falcon 20H Guardian, Falcon 20C [EW], Falcon 20F [EW], Falcon 20D [EWTS], Falcon 20F [EWTS] and HU-25B. </t>
         </is>
       </c>
     </row>
@@ -5349,8 +5291,8 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>The Falcon 50 Maritime Conversions are a group of maritime aircraft in military service or on order in France. They are powered by three TFE731 jet engines. As of December 2019, there were 4 in military service with the French Navy. 
-AWIN tracks one type for this profile, the Falcon 50 [AMASCOS 100]. </t>
+          <t xml:space="preserve">The Falcon 50 Maritime Conversions are a group of maritime aircraft built by Dassault in military service in France. They are powered by three TFE731 jet engines. As of December 2019, there were 4 in military service with the French Navy.
+Aviation Week tracks one type associated with this profile, the Falcon 50 [AMASCOS 100]. </t>
         </is>
       </c>
     </row>
@@ -5372,8 +5314,8 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>The Falcon 900 Maritime Conversions are a group of maritime aircraft in military service or on order in Japan. They are powered by three TFE731 jet engines. As of December 2019, there were 2 in military service with the Japan Coast Guard. 
-AWIN tracks one type for this profile, the Falcon 900 [AMASCOS 100]. </t>
+          <t xml:space="preserve">The Falcon 900 Maritime Conversions are a group of maritime aircraft built by Dassault in military service in Japan. They are powered by three TFE731 jet engines. As of December 2019, there were 2 in military service with the Japan Coast Guard.
+Aviation Week tracks one type associated with this profile, the Falcon 900 [AMASCOS 100]. </t>
         </is>
       </c>
     </row>
@@ -5395,8 +5337,8 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>The C-130 is a medium transport aircraft in military service or on order in 67 countries. It is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 993 in military service and 37 new deliveries on contract with 71 operators. 
-AWIN tracks 22 types for this profile. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin AC-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
+          <t>The C-130 is a medium transport aircraft in military service or on order in 67 countries. It is powered by four T56 (501) or AE2100 turbine engines. As of December 2019, there were 993 in military service and 153 new deliveries on contract with 71 operators.
+Aviation Week tracks 22 types associated with this profile. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin AC-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
         </is>
       </c>
     </row>
@@ -5418,8 +5360,8 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>The DA42-M/MPP is a maritime aircraft in military service or on order in 9 countries. It is powered by two AE300 or O-360 piston engines. As of December 2019, there were 22 in military service with 9 operators. 
-AWIN tracks one type for this profile, the DA42 MPP. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42 and Aurora Flight Sciences DA42 Centaur OPA.</t>
+          <t>The DA42-M/MPP is a maritime aircraft built by Diamond Aircraft in military service in 9 countries. It is powered by two AE300 or O-360 piston engines. As of December 2019, there were 22 in military service with 9 operators.
+Aviation Week tracks one type associated with this profile, the DA42 MPP. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42 and Aurora Flight Sciences DA42 Centaur OPA.</t>
         </is>
       </c>
     </row>
@@ -5441,8 +5383,8 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>The IT180 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in France. It is powered by one electric engine. As of December 2019, it was in military service with the French Army. 
-AWIN tracks one type for this profile, the IT180-5. </t>
+          <t xml:space="preserve">The IT180 is a Group 2 UAV built by Infotron in military service or on order in France. It is powered by one electric engine. As of December 2019, it was in military service or on order with the French Army.
+Aviation Week tracks one type associated with this profile, the IT180-5. </t>
         </is>
       </c>
     </row>
@@ -5464,8 +5406,8 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>The MiniFalcon II is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Thailand. It is powered by one AR 741 piston engine. As of December 2019, it was in military service with the Royal Thai Army. 
-AWIN tracks one type for this profile, the G-Star. </t>
+          <t xml:space="preserve">The MiniFalcon II is a Group 3 UAV built by Innocon in military service or on order in Thailand. It is powered by one AR 741 piston engine. As of December 2019, it was in military service or on order with the Royal Thai Army.
+Aviation Week tracks one type associated with this profile, the G-Star. </t>
         </is>
       </c>
     </row>
@@ -5487,8 +5429,8 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>The Maule M7 is a civil propeller aircraft in military service or on order in Honduras, Mexico and Tunisia. It is powered by one O-360 piston engine. As of December 2019, there were 25 in military service with 3 operators. 
-AWIN tracks 3 types for this profile, the MX-7-180, MX-7-180B and MXT-7-180. </t>
+          <t xml:space="preserve">The Maule M7 is a civil propeller aircraft built by Maule Air in military service in Honduras, Mexico and Tunisia. It is powered by one O-360 piston engine. As of December 2019, there were 25 in military service with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the MXT-7-180, MX-7-180 and MX-7-180B. </t>
         </is>
       </c>
     </row>
@@ -5510,8 +5452,8 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>The KC-10 is a heavy transport aircraft in military service or on order in the Netherlands and the United States. It is powered by three CF6 (F103) jet engines. As of December 2019, there were 62 in military service with 3 operators. 
-AWIN tracks 2 types for this profile, the KC-10A and KDC-10. </t>
+          <t xml:space="preserve">The KC-10 is a heavy transport aircraft in military service in the Netherlands and the United States. It is powered by three CF6 (F103) jet engines. As of December 2019, there were 62 in military service with 3 operators.
+Aviation Week tracks 2 types associated with this profile, the KDC-10 and KC-10A. </t>
         </is>
       </c>
     </row>
@@ -5533,8 +5475,8 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>The C-9 is a commercial jet in military service or on order in Chad and the United States. It is powered by two JT8D jet engines. As of December 2019, there were 2 in military service with 2 operators. 
-AWIN tracks one type for this profile, the C-9B. </t>
+          <t xml:space="preserve">The C-9 is a commercial jet in military service in Chad and the United States. It is powered by two JT8D jet engines. As of December 2019, there were 2 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the C-9B. </t>
         </is>
       </c>
     </row>
@@ -5556,8 +5498,8 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>The F-4 is a fighter in military service or on order in Greece, Iran, Japan, South Korea and Turkey. It is powered by two J79 jet engines. As of December 2019, there were 187 in military service with 5 operators. 
-AWIN tracks 3 types for this profile, the F-4D, F-4E and RF-4E. </t>
+          <t xml:space="preserve">The F-4 is a fighter in military service in Greece, Iran, Japan, South Korea and Turkey. It is powered by two J79 jet engines. As of December 2019, there were 187 in military service with 5 operators.
+Aviation Week tracks 3 types associated with this profile, the F-4E, F-4D and RF-4E. </t>
         </is>
       </c>
     </row>
@@ -5579,8 +5521,8 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>The A-4 is a light 1-2 seat aircraft in military service or on order in 6 countries. It is powered by one J52 (JT8B) jet engine. As of December 2019, there were 46 in military service with 6 operators. 
-AWIN tracks 5 types for this profile, the A-4K, A-4M, A-4N, AF-1 and TA-4K. </t>
+          <t xml:space="preserve">The A-4 is a light 1-2 seat aircraft in military service or on order in 6 countries. It is powered by one J52 (JT8B) jet engine. As of December 2019, there were 46 in military service and 3 new deliveries on contract with 6 operators.
+Aviation Week tracks 5 types associated with this profile, the A-4M, AF-1, A-4N, A-4K and TA-4K. </t>
         </is>
       </c>
     </row>
@@ -5602,8 +5544,8 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>The ScanEagle is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 21 countries. It is powered by one 3W-28i piston engine. As of December 2019, there were 543 in military service and 49 new deliveries on contract with 26 operators. 
-AWIN tracks 3 types for this profile, the ScanEagle, ScanEagle 2 and Yasir. </t>
+          <t xml:space="preserve">The ScanEagle is a Group 2 UAV built by Insitu and HESA in military service or on order in 21 countries. It is powered by one 3W-28i piston engine. As of December 2019, it was in military service or on order with 26 operators.
+Aviation Week tracks 3 types associated with this profile, the ScanEagle, ScanEagle 2 and Yasir. </t>
         </is>
       </c>
     </row>
@@ -5625,8 +5567,8 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>The SIVA is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Spain. It is powered by one Rotax 503 piston engine. As of December 2019, it was in military service with the Spanish Army. 
-AWIN tracks one type for this profile, the SIVA. </t>
+          <t xml:space="preserve">The SIVA is a Group 3 UAV built by INTA in military service or on order in Spain. It is powered by one Rotax 503 piston engine. As of December 2019, it was in military service or on order with the Spanish Army.
+Aviation Week tracks one type associated with this profile, the SIVA. </t>
         </is>
       </c>
     </row>
@@ -5648,8 +5590,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>The SMCP is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Poland. It is powered by one piston engine. As of December 2019, it was in military service with the Polish Air Force. 
-AWIN tracks 2 types for this profile, the SMCP-JU and SMCP-WU. </t>
+          <t xml:space="preserve">The SMCP is a Group 2 or 3 UAV built by ITWL in military service or on order in Poland. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Polish Air Force.
+Aviation Week tracks 2 types associated with this profile, the SMCP-JU and SMCP-WU. </t>
         </is>
       </c>
     </row>
@@ -5671,8 +5613,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>The Granat-4 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one piston engine. As of December 2019, it was in military service with the Russian Aerospace Forces. 
-AWIN tracks one type for this profile, the Granat-4. </t>
+          <t xml:space="preserve">The Granat-4 is a Group 2 UAV built by Izhmash Unmanned Systems in military service or on order in Russia. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Russian Aerospace Forces.
+Aviation Week tracks one type associated with this profile, the Granat-4. </t>
         </is>
       </c>
     </row>
@@ -5694,8 +5636,8 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>The Bat Hawk is a light 1-2 seat aircraft in military service or on order in Botswana. It is powered by one Jabiru 2200 piston engine. As of December 2019, there were 10 in military service with the Botswana Defence Force. 
-AWIN tracks one type for this profile, the Bat Hawk. </t>
+          <t xml:space="preserve">The Bat Hawk is a light 1-2 seat aircraft built by Micro Aviation in military service in Botswana. It is powered by one Jabiru 2200 piston engine. As of December 2019, there were 10 in military service with the Botswana Defence Force.
+Aviation Week tracks one type associated with this profile, the Bat Hawk. </t>
         </is>
       </c>
     </row>
@@ -5717,8 +5659,8 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>The MiG-15/17 is a fighter in military service or on order in North Korea and Tanzania. It is powered by one VK-1 (WP-5) jet engine. As of December 2019, there were 13 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the FT-5 and J-5. </t>
+          <t xml:space="preserve">The MiG-15/17 is a fighter built by Shenyang and Chengdu in military service in North Korea and Tanzania. It is powered by one VK-1 (WP-5) jet engine. As of December 2019, there were 13 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the J-5 and FT-5. </t>
         </is>
       </c>
     </row>
@@ -5740,8 +5682,8 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>The MiG-23/27 is a fighter in military service or on order in 9 countries. It is powered by one R-27/R-29/R-35 jet engine. As of December 2019, there were 117 in military service with 10 operators. 
-AWIN tracks 9 types for this profile, the MiG-23BN, MiG-23MF, MiG-23ML, MiG-23MLD, MiG-23MS, MiG-23UB, MiG-27 (MiG-23BM), MiG-27L and MiG-27M. </t>
+          <t xml:space="preserve">The MiG-23/27 is a fighter in military service in 9 countries. It is powered by one R-27/R-29/R-35 jet engine. As of December 2019, there were 117 in military service with 10 operators.
+Aviation Week tracks 9 types associated with this profile, the MiG-23ML, MiG-23UB, MiG-23BN, MiG-27L, MiG-27 (MiG-23BM), MiG-23MLD, MiG-27M, MiG-23MS and MiG-23MF. </t>
         </is>
       </c>
     </row>
@@ -5763,8 +5705,8 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>The MiG-21 (J-7/8) is a fighter in military service or on order in 22 countries. It is powered by one or two R-11/R-13/R-25 (WP-7/WP-13) jet engines. As of December 2019, there were 1142 in military service with 24 operators. 
-AWIN tracks 44 types for this profile. </t>
+          <t xml:space="preserve">The MiG-21 (J-7/8) is a fighter in military service in 22 countries. It is powered by one or two R-11/R-13/R-25 (WP-7/WP-13) jet engines. As of December 2019, there were 1,142 in military service with 24 operators.
+Aviation Week tracks 44 types associated with this profile. </t>
         </is>
       </c>
     </row>
@@ -5786,8 +5728,8 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>The Mi-28 is a helicopter in military service or on order in Algeria, Iraq and Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 158 in military service and 193 new deliveries on contract with 3 operators. 
-AWIN tracks 4 types for this profile, the Mi-28N, Mi-28NE, Mi-28NM and Mi-28UB. </t>
+          <t xml:space="preserve">The Mi-28 is a helicopter built by Mil in military service or on order in Algeria, Iraq and Russia. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 158 in military service and 193 new deliveries on contract with 3 operators.
+Aviation Week tracks 4 types associated with this profile, the Mi-28NE, Mi-28N, Mi-28NM and Mi-28UB. </t>
         </is>
       </c>
     </row>
@@ -5809,8 +5751,8 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>The Mi-8/14/17 is a helicopter in military service or on order in 78 countries. It is powered by two TV2-117 or TV3-117/VK-2500 turbine engines. As of December 2019, there were 2656 in military service and 46 new deliveries on contract with 105 operators. 
-AWIN tracks 34 types for this profile. </t>
+          <t xml:space="preserve">The Mi-8/14/17 is a helicopter built by Mil in military service or on order in 78 countries. It is powered by two TV3-117/VK-2500 or TV2-117 turbine engines. As of December 2019, there were 2,656 in military service and 166 new deliveries on contract with 105 operators.
+Aviation Week tracks 34 types associated with this profile. </t>
         </is>
       </c>
     </row>
@@ -5832,8 +5774,8 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>The Mi-24/25/35 is a helicopter in military service or on order in 52 countries. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 754 in military service and 32 new deliveries on contract with 55 operators. 
-AWIN tracks 10 types for this profile, the Mi-24 Super Hind, Mi-24D, Mi-24K, Mi-24P, Mi-24R, Mi-25, Mi-35 (Mi-24V), Mi-35M (Mi-24VM), Mi-35M2 and Mi-35P. </t>
+          <t xml:space="preserve">The Mi-24/25/35 is a helicopter in military service or on order in 52 countries. It is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 754 in military service and 37 new deliveries on contract with 55 operators.
+Aviation Week tracks 10 types associated with this profile, the Mi-35 (Mi-24V), Mi-24 Super Hind, Mi-24P, Mi-35P, Mi-24K, Mi-35M (Mi-24VM), Mi-24R, Mi-25, Mi-24D and Mi-35M2. </t>
         </is>
       </c>
     </row>
@@ -5855,8 +5797,8 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>The Mi-26 is a helicopter in military service or on order in 8 countries. It is powered by two D-136 turbine engines. As of December 2019, there were 64 in military service and 10 new deliveries on contract with 9 operators. 
-AWIN tracks 3 types for this profile, the Mi-26, Mi-26T and Mi-26T2V. </t>
+          <t xml:space="preserve">The Mi-26 is a helicopter built by Mil in military service or on order in 8 countries. It is powered by two D-136 turbine engines. As of December 2019, there were 64 in military service and 13 new deliveries on contract with 9 operators.
+Aviation Week tracks 3 types associated with this profile, the Mi-26T, Mi-26 and Mi-26T2V. </t>
         </is>
       </c>
     </row>
@@ -5878,8 +5820,8 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>The JX-2 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in India. It is powered by one piston engine. As of December 2019, there were 70 in military service with the Indian Army. 
-AWIN tracks one type for this profile, the JX-2. </t>
+          <t xml:space="preserve">The JX-2 is a Group 2 UAV built by Kadet Defence Systems in military service in India. It is powered by one piston engine. As of December 2019, there were 70 in military service with the Indian Army.
+Aviation Week tracks one type associated with this profile, the JX-2. </t>
         </is>
       </c>
     </row>
@@ -5901,8 +5843,8 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>The CAP 10 is a light 1-2 seat aircraft in military service or on order in France. It is powered by one O-360 piston engine. As of December 2019, there were 7 in military service with the French Navy. 
-AWIN tracks one type for this profile, the CAP 10C. </t>
+          <t xml:space="preserve">The CAP 10 is a light 1-2 seat aircraft built by Mudry in military service in France. It is powered by one O-360 piston engine. As of December 2019, there were 7 in military service with the French Navy.
+Aviation Week tracks one type associated with this profile, the CAP 10C. </t>
         </is>
       </c>
     </row>
@@ -5924,8 +5866,8 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>The CAP 20 is a light 1-2 seat aircraft in military service or on order in Morocco. It is powered by one O-540 piston engine. As of December 2019, there were 9 in military service with the Royal Moroccan Air Force. 
-AWIN tracks one type for this profile, the CAP 232. </t>
+          <t xml:space="preserve">The CAP 20 is a light 1-2 seat aircraft built by Mudry in military service in Morocco. It is powered by one O-540 piston engine. As of December 2019, there were 9 in military service with the Royal Moroccan Air Force.
+Aviation Week tracks one type associated with this profile, the CAP 232. </t>
         </is>
       </c>
     </row>
@@ -5947,8 +5889,8 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>The Q/A-5 (MiG-19) is a fighter in military service or on order in Myanmar, North Korea and Sudan. It is powered by two RD-9 (WP-6) jet engines. As of December 2019, there were 72 in military service with 3 operators. 
-AWIN tracks 3 types for this profile, the A-5M, F-6 and Q-5 III (A-5C). </t>
+          <t xml:space="preserve">The Q/A-5 (MiG-19) is a fighter built by Nanchang and Shenyang in military service in Myanmar, North Korea and Sudan. It is powered by two RD-9 (WP-6) jet engines. As of December 2019, there were 72 in military service with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the A-5M, F-6 and Q-5 III (A-5C). </t>
         </is>
       </c>
     </row>
@@ -5970,8 +5912,8 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>The CJ-6 is a light 1-2 seat aircraft in military service or on order in Bangladesh, China, North Korea, Sri Lanka and Sudan. It is powered by one AI-14 (HS-6, M14) piston engine. As of December 2019, there were 470 in military service with 6 operators. 
-AWIN tracks 2 types for this profile, the CJ-6 and CJ-6A. </t>
+          <t xml:space="preserve">The CJ-6 is a light 1-2 seat aircraft built by Nanchang in military service in Bangladesh, China, North Korea, Sri Lanka and Sudan. It is powered by one AI-14 (HS-6, M14) piston engine. As of December 2019, there were 470 in military service with 6 operators.
+Aviation Week tracks 2 types associated with this profile, the CJ-6 and CJ-6A. </t>
         </is>
       </c>
     </row>
@@ -5993,8 +5935,8 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>The RQ-101 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in South Korea. It is powered by one AR 801 piston engine. As of December 2019, it was in military service with the Republic of Korea Air Force. 
-AWIN tracks one type for this profile, the RQ-101 Night Intruder. </t>
+          <t xml:space="preserve">The RQ-101 is a Group 3 UAV built by KAI in military service or on order in South Korea. It is powered by one AR 801 piston engine. As of December 2019, it was in military service or on order with the Republic of Korea Air Force.
+Aviation Week tracks one type associated with this profile, the RQ-101 Night Intruder. </t>
         </is>
       </c>
     </row>
@@ -6016,8 +5958,8 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>The T-25 Universal is a light 1-2 seat aircraft in military service or on order in Brazil. It is powered by one O-540 piston engine. As of December 2019, there were 43 in military service with the Brazilian Air Force. 
-AWIN tracks one type for this profile, the T-25. </t>
+          <t xml:space="preserve">The T-25 Universal is a light 1-2 seat aircraft built by Neiva in military service in Brazil. It is powered by one O-540 piston engine. As of December 2019, there were 43 in military service with the Brazilian Air Force.
+Aviation Week tracks one type associated with this profile, the T-25. </t>
         </is>
       </c>
     </row>
@@ -6039,8 +5981,8 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>The OV-10 is a light 1-2 seat aircraft in military service or on order in the Philippines. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 7 in military service with the Philippine Air Force. 
-AWIN tracks 2 types for this profile, the OV-10A and OV-10G. </t>
+          <t xml:space="preserve">The OV-10 is a light 1-2 seat aircraft in military service or on order in the Philippines. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 7 in military service and 4 new deliveries on contract with the Philippine Air Force.
+Aviation Week tracks 2 types associated with this profile, the OV-10A and OV-10G. </t>
         </is>
       </c>
     </row>
@@ -6062,8 +6004,8 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>The F-5/T-38 is a light 1-2 seat aircraft in military service or on order in 17 countries. It is powered by two J85 jet engines. As of December 2019, there were 1087 in military service with 21 operators. 
-AWIN tracks 16 types for this profile, the AT-38B, CF-5D, F-5A, F-5B, F-5E, F-5EM, F-5F, F-5FM, F-5N, Kowsar-I, Kowsar-II, RF-5E, SF-5M, Saegheh [Fighter], T-38A and T-38C. </t>
+          <t xml:space="preserve">The F-5/T-38 is a light 1-2 seat aircraft in military service or on order in 17 countries. It is powered by two J85 jet engines. As of December 2019, there were 1,087 in military service and 87 new deliveries on contract with 21 operators.
+Aviation Week tracks 16 types associated with this profile, the F-5E, F-5F, CF-5D, F-5A, F-5EM, F-5FM, Kowsar-I, Kowsar-II, Saegheh [Fighter], SF-5M, RF-5E, F-5B, T-38A, AT-38B, T-38C and F-5N. </t>
         </is>
       </c>
     </row>
@@ -6085,8 +6027,8 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>The Do 228 Maritime Conversions are a group of maritime aircraft in military service or on order in 9 countries. They are powered by two TPE331 (T76) turbine engines. As of December 2019, there were 96 in military service and 2 new deliveries on contract with 10 operators. 
-AWIN tracks 4 types for this profile, the Do 228 [MPA], Do 228 [MSA], Do228 [MSA] and Do228NG [MSA]. </t>
+          <t xml:space="preserve">The Do 228 Maritime Conversions are a group of maritime aircraft built by RUAG, Dornier and HAL in military service or on order in 9 countries. They are powered by two TPE331 (T76) turbine engines. As of December 2019, there were 96 in military service and 2 new deliveries on contract with 10 operators.
+Aviation Week tracks 4 types associated with this profile, the Do228NG [MSA], Do 228 [MSA], Do228 [MSA] and Do 228 [MPA]. </t>
         </is>
       </c>
     </row>
@@ -6108,8 +6050,8 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>The BQM-167 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Germany and the United States. It is powered by one TR 60 jet engine. As of December 2019, there were 43 in military service and 73 new deliveries on contract with 3 operators. 
-AWIN tracks one type for this profile, the BQM-167A. </t>
+          <t xml:space="preserve">The BQM-167 is a Group 4 UAV built by Kratos in military service or on order in Germany and the United States. It is powered by one TR 60 jet engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks one type associated with this profile, the BQM-167A. </t>
         </is>
       </c>
     </row>
@@ -6131,8 +6073,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>The BQM-177 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one TR 60 jet engine. As of December 2019, there were 3 in military service and 34 new deliveries on contract with the US Navy. 
-AWIN tracks one type for this profile, the BQM-177A. </t>
+          <t xml:space="preserve">The BQM-177 is a Group 4 UAV built by Kratos in military service or on order in the United States. It is powered by one TR 60 jet engine. As of December 2019, there were 3 in military service and 34 new deliveries on contract with the US Navy.
+Aviation Week tracks one type associated with this profile, the BQM-177A. </t>
         </is>
       </c>
     </row>
@@ -6154,8 +6096,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>The MQM-107 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 8 countries. It is powered by one J402 or TR 60 jet engine. As of December 2019, there were 20 in military service with 8 operators. 
-AWIN tracks 3 types for this profile, the MQM-107A, MQM-107D and MQM-107E. </t>
+          <t xml:space="preserve">The MQM-107 is a Group 4 UAV in military service or on order in 8 countries. It is powered by one J402 or TR 60 jet engine. As of December 2019, it was in military service or on order with 8 operators.
+Aviation Week tracks 3 types associated with this profile, the MQM-107A, MQM-107D and MQM-107E. </t>
         </is>
       </c>
     </row>
@@ -6177,8 +6119,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>The Orion is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV developed by the Kronshtadt Group. It is powered by one Rotax 914 piston engine. 
-AWIN tracks 2 types for this profile, the Orion and Orion E. </t>
+          <t xml:space="preserve">The Orion is a Group 4 UAV developed by the Kronshtadt Group. It is powered by one Rotax 914 piston engine.
+Aviation Week tracks 2 types associated with this profile, the Orion E and Orion. </t>
         </is>
       </c>
     </row>
@@ -6200,8 +6142,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>The Viking 400 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one piston engine. As of December 2019, it was in military service with the US SOCOM. 
-AWIN tracks one type for this profile, the Viking 400. </t>
+          <t xml:space="preserve">The Viking 400 is a Group 3 UAV built by L-3 in military service or on order in the United States. It is powered by one piston engine. As of December 2019, it was in military service or on order with the US SOCOM.
+Aviation Week tracks one type associated with this profile, the Viking 400. </t>
         </is>
       </c>
     </row>
@@ -6223,8 +6165,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>The Asio is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Italy. It is powered by one electric engine. As of December 2019, it was in military service with the Italian Army. 
-AWIN tracks one type for this profile, the Asio. </t>
+          <t xml:space="preserve">The Asio is a Group 1 UAV built by Selex ES in military service or on order in Italy. It is powered by one electric engine. As of December 2019, it was in military service or on order with the Italian Army.
+Aviation Week tracks one type associated with this profile, the Asio. </t>
         </is>
       </c>
     </row>
@@ -6246,8 +6188,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>The JF-17 is a light 1-2 seat aircraft in military service or on order in Myanmar, Nigeria and Pakistan. It is powered by one RD-33 jet engine. As of December 2019, there were 119 in military service and 89 new deliveries on contract with 3 operators. 
-AWIN tracks 4 types for this profile, the JF-17 Block I, JF-17 Block II, JF-17 Block III and JF-17B. </t>
+          <t xml:space="preserve">The JF-17 is a light 1-2 seat aircraft built by Pakistan Aeronautical Complex in military service or on order in Myanmar, Nigeria and Pakistan. It is powered by one RD-33 jet engine. As of December 2019, there were 119 in military service and 89 new deliveries on contract with 3 operators.
+Aviation Week tracks 4 types associated with this profile, the JF-17 Block II, JF-17B, JF-17 Block I and JF-17 Block III. </t>
         </is>
       </c>
     </row>
@@ -6269,8 +6211,8 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>The MFI-17 is a light 1-2 seat aircraft in military service or on order in 10 countries. It is powered by one O-360 or O-540 piston engine. As of December 2019, there were 340 in military service and 59 new deliveries on contract with 11 operators. 
-AWIN tracks 4 types for this profile, the MFI-15, MFI-17 Mushshak, MFI-17 Supporter and MFI-395 Super Mushshak. </t>
+          <t xml:space="preserve">The MFI-17 is a light 1-2 seat aircraft built by Pakistan Aeronautical Complex and Saab in military service or on order in 10 countries. It is powered by one O-540 or O-360 piston engine. As of December 2019, there were 340 in military service and 59 new deliveries on contract with 11 operators.
+Aviation Week tracks 4 types associated with this profile, the MFI-395 Super Mushshak, MFI-17 Supporter, MFI-17 Mushshak and MFI-15. </t>
         </is>
       </c>
     </row>
@@ -6292,8 +6234,8 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>The Falco is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Jordan, Pakistan, Saudi Arabia and Turkmenistan. It is powered by one AR 682 piston engine. As of December 2019, there were 64 in military service with 4 operators. 
-AWIN tracks 2 types for this profile, the Falco and Falco EVO. </t>
+          <t xml:space="preserve">The Falco is a Group 3 UAV built by Selex ES in military service or on order in Jordan, Pakistan, Saudi Arabia and Turkmenistan. It is powered by one AR 682 piston engine. As of December 2019, it was in military service or on order with 4 operators.
+Aviation Week tracks 2 types associated with this profile, the Falco EVO and Falco. </t>
         </is>
       </c>
     </row>
@@ -6315,8 +6257,8 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>The Mirach is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Argentina, Belgium, Denmark, Italy and the United Kingdom. It is powered by one TRS 18 jet engine. As of December 2019, it was in military service with 5 operators. 
-AWIN tracks 2 types for this profile, the Mirach 100/5 and Mirach 40. </t>
+          <t xml:space="preserve">The Mirach is a Group 3 UAV built by Leonardo in military service or on order in Argentina, Belgium, Denmark, Italy and the United Kingdom. It is powered by one TRS 18 jet engine. As of December 2019, it was in military service or on order with 5 operators.
+Aviation Week tracks 2 types associated with this profile, the Mirach 100/5 and Mirach 40. </t>
         </is>
       </c>
     </row>
@@ -6338,8 +6280,8 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>The Tornado is a fighter in military service or on order in Germany, Italy and Saudi Arabia. It is powered by two RB199 jet engines. As of December 2019, there were 221 in military service with 5 operators. 
-AWIN tracks 2 types for this profile, the Tornado ECR and Tornado IDS. </t>
+          <t xml:space="preserve">The Tornado is a fighter built by Panavia in military service in Germany, Italy and Saudi Arabia. It is powered by two RB199 jet engines. As of December 2019, there were 221 in military service with 5 operators.
+Aviation Week tracks 2 types associated with this profile, the Tornado ECR and Tornado IDS. </t>
         </is>
       </c>
     </row>
@@ -6361,8 +6303,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>The Desert Hawk is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United Kingdom. It is powered by one electric engine. As of December 2019, there were 230 in military service with the British Army. 
-AWIN tracks one type for this profile, the Desert Hawk III. </t>
+          <t xml:space="preserve">The Desert Hawk is a Group 1 UAV built by Lockheed Martin in military service in the United Kingdom. It is powered by one electric engine. As of December 2019, there were 230 in military service with the British Army.
+Aviation Week tracks one type associated with this profile, the Desert Hawk III. </t>
         </is>
       </c>
     </row>
@@ -6384,8 +6326,8 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>The AC-47 (BT-67) is a gunship in military service or on order in Colombia. It is powered by two PT6A turbine engines. As of December 2019, there were 6 in military service with the Colombian Air Force. 
-AWIN tracks one type for this profile, the AC-47TP (BT-67). This family also includes the Douglas DC-3TP MPA profile.</t>
+          <t>The AC-47 (BT-67) is a gunship in military service in Colombia. It is powered by two PT6A turbine engines. As of December 2019, there were 6 in military service with the Colombian Air Force.
+Aviation Week tracks one type associated with this profile, the AC-47TP (BT-67). This family also includes the Douglas DC-3TP MPA profile.</t>
         </is>
       </c>
     </row>
@@ -6407,8 +6349,8 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>The DC-3TP MPA is a maritime aircraft in military service or on order in South Africa. It is powered by two PT6A turbine engines. As of December 2019, there were 5 in military service with the South African Air Force. 
-AWIN tracks one type for this profile, the DC-3TP [MSA]. This family also includes the Douglas AC-47 (Basler BT-67) profile.</t>
+          <t>The DC-3TP MPA is a maritime aircraft in military service in South Africa. It is powered by two PT6A turbine engines. As of December 2019, there were 5 in military service with the South African Air Force.
+Aviation Week tracks one type associated with this profile, the DC-3TP [MSA]. This family also includes the Douglas AC-47 (Basler BT-67) profile.</t>
         </is>
       </c>
     </row>
@@ -6430,8 +6372,8 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>The Stalker is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one electric engine. As of December 2019, it was in military service with the US SOCOM. 
-AWIN tracks one type for this profile, the Stalker. </t>
+          <t xml:space="preserve">The Stalker is a Group 1 UAV built by Lockheed Martin in military service or on order in the United States. It is powered by one electric engine. As of December 2019, it was in military service or on order with the US SOCOM.
+Aviation Week tracks one type associated with this profile, the Stalker. </t>
         </is>
       </c>
     </row>
@@ -6453,8 +6395,8 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>The EMB-110 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in Brazil, Chile and Uruguay. They are powered by two PT6A turbine engines. As of December 2019, there were 17 in military service with 3 operators. 
-AWIN tracks 2 types for this profile, the EMB-110B and EMB-111A. </t>
+          <t xml:space="preserve">The EMB-110 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft built by Embraer in military service in Brazil, Chile and Uruguay. They are powered by two PT6A turbine engines. As of December 2019, there were 17 in military service with 3 operators.
+Aviation Week tracks 2 types associated with this profile, the EMB-111A and EMB-110B. </t>
         </is>
       </c>
     </row>
@@ -6476,8 +6418,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>The PC-21 is a light 1-2 seat aircraft in military service or on order in 10 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 207 in military service with 10 operators. 
-AWIN tracks one type for this profile, the PC-21. </t>
+          <t xml:space="preserve">The PC-21 is a light 1-2 seat aircraft built by Pilatus in military service or on order in 10 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 207 in military service and 36 new deliveries on contract with 10 operators.
+Aviation Week tracks one type associated with this profile, the PC-21. </t>
         </is>
       </c>
     </row>
@@ -6499,8 +6441,8 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>The PC-7/9 (T-6) is a light 1-2 seat aircraft in military service or on order in 36 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 1357 in military service and 2 new deliveries on contract with 39 operators. 
-AWIN tracks 12 types for this profile, the AT-6C, PC-7, PC-7 MK II, PC-9, PC-9/A, PC-9M, T-6A, T-6B, T-6C, T-6C+, T-6D and T-6NTA. </t>
+          <t xml:space="preserve">The PC-7/9 (T-6) is a light 1-2 seat aircraft in military service or on order in 36 countries. It is powered by one PT6A turbine engine. As of December 2019, there were 1,357 in military service and 47 new deliveries on contract with 39 operators.
+Aviation Week tracks 12 types associated with this profile, the PC-7, PC-9, T-6C+, PC-9/A, PC-7 MK II, PC-9M, T-6A, T-6NTA, T-6C, AT-6C, T-6D and T-6B. </t>
         </is>
       </c>
     </row>
@@ -6522,8 +6464,8 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>The PA-18 Super Cub is a light 1-2 seat aircraft in military service or on order in Argentina, Belgium, Nicaragua and Uruguay. It is powered by one O-290 or O-320 piston engine. As of December 2019, there were 7 in military service with 4 operators. 
-AWIN tracks 2 types for this profile, the L-21B and PA-18-150. </t>
+          <t xml:space="preserve">The PA-18 Super Cub is a light 1-2 seat aircraft built by Piper in military service in Argentina, Belgium, Nicaragua and Uruguay. It is powered by one O-290 or O-320 piston engine. As of December 2019, there were 7 in military service with 4 operators.
+Aviation Week tracks 2 types associated with this profile, the L-21B and PA-18-150. </t>
         </is>
       </c>
     </row>
@@ -6545,8 +6487,8 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>The PA-23 Apache/Aztec is a civil propeller aircraft in military service or on order in Costa Rica. It is powered by one O-540 piston engine. As of December 2019, there was one in military service with the Servicio De Vigilancia Aerea. 
-AWIN tracks one type for this profile, the PA-23-250. </t>
+          <t xml:space="preserve">The PA-23 Apache/Aztec is a civil propeller aircraft built by Piper in military service in Costa Rica. It is powered by one O-540 piston engine. As of December 2019, there was one in military service with the Servicio De Vigilancia Aerea.
+Aviation Week tracks one type associated with this profile, the PA-23-250. </t>
         </is>
       </c>
     </row>
@@ -6568,8 +6510,8 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>The PA-28 Cheroke is a civil propeller aircraft in military service or on order in 6 countries. It is powered by one O-320, O-360 or O-540 piston engine. As of December 2019, there were 13 in military service and 2 new deliveries on contract with 7 operators. 
-AWIN tracks 5 types for this profile, the PA-28-161, PA-28-180, PA-28-181, PA-28-235 and PA-28R-201T. </t>
+          <t xml:space="preserve">The PA-28 Cheroke is a civil propeller aircraft built by Piper in military service or on order in 6 countries. It is powered by one O-320, O-360 or O-540 piston engine. As of December 2019, there were 13 in military service and 2 new deliveries on contract with 7 operators.
+Aviation Week tracks 5 types associated with this profile, the PA-28-161, PA-28-181, PA-28-180, PA-28R-201T and PA-28-235. </t>
         </is>
       </c>
     </row>
@@ -6591,8 +6533,8 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>The PA-34 Seneca is a civil propeller aircraft in military service or on order in 11 countries. It is powered by two O-360 piston engines. As of December 2019, there were 16 in military service with 11 operators. 
-AWIN tracks 6 types for this profile, the EMB-810D, PA-34-200 Seneca, PA-34-200T Seneca II, PA-34-220T Seneca III, PA-34-220T Seneca V and PA-34-220T Seneca V [IMINT]. </t>
+          <t xml:space="preserve">The PA-34 Seneca is a civil propeller aircraft built by Embraer and Piper in military service in 11 countries. It is powered by two O-360 piston engines. As of December 2019, there were 16 in military service with 11 operators.
+Aviation Week tracks 6 types associated with this profile, the EMB-810D, PA-34-200T Seneca II, PA-34-220T Seneca III, PA-34-200 Seneca, PA-34-220T Seneca V [IMINT] and PA-34-220T Seneca V. </t>
         </is>
       </c>
     </row>
@@ -6614,8 +6556,8 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>The TS-11 is a light 1-2 seat aircraft in military service or on order in Poland. It is powered by one SO-3 jet engine. As of December 2019, there were 22 in military service with the Polish Air Force. 
-AWIN tracks one type for this profile, the TS-11-bis DF. </t>
+          <t xml:space="preserve">The TS-11 is a light 1-2 seat aircraft built by PZL-Mielec in military service in Poland. It is powered by one SO-3 jet engine. As of December 2019, there were 22 in military service with the Polish Air Force.
+Aviation Week tracks one type associated with this profile, the TS-11-bis DF. </t>
         </is>
       </c>
     </row>
@@ -6637,8 +6579,8 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>The M28 (An-28/38) is a civil propeller aircraft in military service or on order in 11 countries. It is powered by two PT6A or PZL-10/TVD-10 turbine engines. As of December 2019, there were 68 in military service and 2 new deliveries on contract with 13 operators. 
-AWIN tracks 4 types for this profile, the An-28, An-28TD, M28 05 and M28B. This family also includes the PZL-Mielec M28B Bryza 1R profile.</t>
+          <t>The M28 (An-28/38) is a civil propeller aircraft built by PZL-Mielec and Antonov in military service or on order in 11 countries. It is powered by two PT6A or PZL-10/TVD-10 turbine engines. As of December 2019, there were 68 in military service and 4 new deliveries on contract with 13 operators.
+Aviation Week tracks 4 types associated with this profile, the M28 05, An-28, M28B and An-28TD. This family also includes the PZL-Mielec M28B Bryza 1R profile.</t>
         </is>
       </c>
     </row>
@@ -6660,8 +6602,8 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>The EMB-145 Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service or on order in Brazil, Greece, India and Mexico. They are powered by two AE3007 (F137) jet engines. As of December 2019, there were 18 in military service with 5 operators. 
-AWIN tracks 4 types for this profile, the EMB-145 MP, EMB-145 [India AEW], EMB-145RS and EMB-145SA. </t>
+          <t xml:space="preserve">The EMB-145 Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service or on order in Brazil, Greece, India and Mexico. They are powered by two AE3007 (F137) jet engines. As of December 2019, there were 18 in military service and 4 new deliveries on contract with 5 operators.
+Aviation Week tracks 4 types associated with this profile, the EMB-145RS, EMB-145SA, EMB-145 [India AEW] and EMB-145 MP. </t>
         </is>
       </c>
     </row>
@@ -6683,8 +6625,8 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>The M26 is a light 1-2 seat aircraft in military service or on order in Venezuela. It is powered by one O-540 piston engine. As of December 2019, there were 2 in military service with the Venezuelan National Guard. 
-AWIN tracks one type for this profile, the M26. </t>
+          <t xml:space="preserve">The M26 is a light 1-2 seat aircraft built by PZL-Mielec in military service in Venezuela. It is powered by one O-540 piston engine. As of December 2019, there were 2 in military service with the Venezuelan National Guard.
+Aviation Week tracks one type associated with this profile, the M26. </t>
         </is>
       </c>
     </row>
@@ -6706,8 +6648,8 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>The M18 is a civil propeller aircraft in military service or on order in Greece. It is powered by one ASh-62 (HS-5) piston engine. As of December 2019, there were 22 in military service with the Hellenic Air Force. 
-AWIN tracks one type for this profile, the M18B. </t>
+          <t xml:space="preserve">The M18 is a civil propeller aircraft built by PZL-Mielec in military service in Greece. It is powered by one ASh-62 (HS-5) piston engine. As of December 2019, there were 22 in military service with the Hellenic Air Force.
+Aviation Week tracks one type associated with this profile, the M18B. </t>
         </is>
       </c>
     </row>
@@ -6729,8 +6671,8 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>The W-3 is a helicopter in military service or on order in Algeria, the Czech Republic, the Philippines and Poland. It is powered by two PZL-10/TVD-10 turbine engines. As of December 2019, there were 89 in military service with 6 operators. 
-AWIN tracks 9 types for this profile, the W-3, W-3A, W-3AE, W-3PL, W-3RL, W-3RR, W-3W, W-3WA and W-3WARM. </t>
+          <t xml:space="preserve">The W-3 is a helicopter built by PZL-Swidnik in military service in Algeria, the Czech Republic, the Philippines and Poland. It is powered by two PZL-10/TVD-10 turbine engines. As of December 2019, there were 89 in military service with 6 operators.
+Aviation Week tracks 9 types associated with this profile, the W-3A, W-3, W-3RL, W-3WA, W-3AE, W-3PL, W-3RR, W-3W and W-3WARM. </t>
         </is>
       </c>
     </row>
@@ -6752,8 +6694,8 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>The BLA-05 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one piston engine. As of December 2019, there were 18 in military service with the Russian Ground Forces. 
-AWIN tracks one type for this profile, the BLA-05 9M62. </t>
+          <t xml:space="preserve">The BLA-05 is a Group 3 UAV built by Lutch in military service in Russia. It is powered by one piston engine. As of December 2019, there were 18 in military service with the Russian Ground Forces.
+Aviation Week tracks one type associated with this profile, the BLA-05 9M62. </t>
         </is>
       </c>
     </row>
@@ -6775,8 +6717,8 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>The Snipe [Meggit] is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Finland and France. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Snipe [Meggit]. </t>
+          <t xml:space="preserve">The Snipe [Meggit] is a Group 3 UAV built by Meggitt Defense Systems in military service or on order in Finland and France. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Snipe [Meggit]. </t>
         </is>
       </c>
     </row>
@@ -6798,8 +6740,8 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>The Quad Challenger is a light 1-2 seat aircraft in military service or on order in Venezuela. It is powered by one piston engine. As of December 2019, there were 11 in military service with the Venezuelan Air Force. 
-AWIN tracks one type for this profile, the Challenger II. </t>
+          <t xml:space="preserve">The Quad Challenger is a light 1-2 seat aircraft built by Quad City Aircraft in military service in Venezuela. It is powered by one piston engine. As of December 2019, there were 11 in military service with the Venezuelan Air Force.
+Aviation Week tracks one type associated with this profile, the Challenger II. </t>
         </is>
       </c>
     </row>
@@ -6821,8 +6763,8 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>The AU-23 is a gunship in military service or on order in Thailand. It is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 4 in military service with the Royal Thai Air Force. 
-AWIN tracks one type for this profile, the AU-23A. </t>
+          <t xml:space="preserve">The AU-23 is a gunship built by Fairchild in military service in Thailand. It is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 4 in military service with the Royal Thai Air Force.
+Aviation Week tracks one type associated with this profile, the AU-23A. </t>
         </is>
       </c>
     </row>
@@ -6844,8 +6786,8 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>The Team Tango is a light 1-2 seat aircraft in military service or on order in Bolivia. It is powered by one O-360 or O-540 piston engine. As of December 2019, there were 3 in military service with the Bolivian Air Force. 
-AWIN tracks 2 types for this profile, the Foxtrot and Tango XR. </t>
+          <t xml:space="preserve">The Team Tango is a light 1-2 seat aircraft built by Revolution Aviation in military service in Bolivia. It is powered by one O-540 or O-360 piston engine. As of December 2019, there were 3 in military service with the Bolivian Air Force.
+Aviation Week tracks 2 types associated with this profile, the Foxtrot and Tango XR. </t>
         </is>
       </c>
     </row>
@@ -6867,8 +6809,8 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>The T-2 is a light 1-2 seat aircraft in military service or on order in Greece. It is powered by two J85 jet engines. As of December 2019, there were 34 in military service with the Hellenic Air Force. 
-AWIN tracks one type for this profile, the T-2. </t>
+          <t xml:space="preserve">The T-2 is a light 1-2 seat aircraft in military service in Greece. It is powered by two J85 jet engines. As of December 2019, there were 34 in military service with the Hellenic Air Force.
+Aviation Week tracks one type associated with this profile, the T-2. </t>
         </is>
       </c>
     </row>
@@ -6890,8 +6832,8 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>The Q01 is a light 1-2 seat aircraft in military service or on order in Qatar. It is powered by one CD-300 piston engine. As of December 2019, there was one in military service and 16 new deliveries on contract with the Qatari Reconnaissance and Surveillance Center. 
-AWIN tracks one type for this profile, the Q01. </t>
+          <t xml:space="preserve">The Q01 is a light 1-2 seat aircraft built by RS-UAS in military service or on order in Qatar. It is powered by one CD-300 piston engine. As of December 2019, there was one in military service and 16 new deliveries on contract with the Qatari Reconnaissance and Surveillance Center.
+Aviation Week tracks one type associated with this profile, the Q01. </t>
         </is>
       </c>
     </row>
@@ -6913,8 +6855,8 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>The C-26 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in International [Caribbean], Peru, Trinidad &amp; Tobago, the United States and Venezuela. They are powered by two TPE331 (T76) turbine engines. As of December 2019, there were 9 in military service with 5 operators. 
-AWIN tracks 4 types for this profile, the C-26 [MRA], C-26 [MSA], C-26 [SIGINT] and C-26A [ASTARS III]. This family also includes the Fairchild Metro E/RC-26 profile.</t>
+          <t>The C-26 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in the Caribbean, Peru, Trinidad &amp; Tobago, the United States and Venezuela. They are powered by two TPE331 (T76) turbine engines. As of December 2019, there were 9 in military service with 5 operators.
+Aviation Week tracks 4 types associated with this profile, the C-26 [MSA], C-26 [SIGINT], C-26 [MRA] and C-26A [ASTARS III]. This family also includes the Fairchild Metro E/RC-26 profile.</t>
         </is>
       </c>
     </row>
@@ -6936,8 +6878,8 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>The F27/Fk50 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in Pakistan, Peru, the Philippines, Singapore and Thailand. They are powered by two Dart or PW100 turbine engines. As of December 2019, there were 13 in military service with 5 operators. 
-AWIN tracks 5 types for this profile, the F27 Maritime Enforcer, F27-200 [MRA], Fokker 50 [MPA], Fokker 50 [SIGINT] and Fokker 60 [MPA]. </t>
+          <t xml:space="preserve">The F27/Fk50 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in Pakistan, Peru, the Philippines, Singapore and Thailand. They are powered by two Dart or PW100 turbine engines. As of December 2019, there were 13 in military service and 2 new deliveries on contract with 5 operators.
+Aviation Week tracks 5 types associated with this profile, the F27 Maritime Enforcer, Fokker 50 [SIGINT], Fokker 60 [MPA], F27-200 [MRA] and Fokker 50 [MPA]. </t>
         </is>
       </c>
     </row>
@@ -6959,8 +6901,8 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>The Saab 105 is a light 1-2 seat aircraft in military service or on order in Austria and Sweden. It is powered by two FJ44 or J85 jet engines. As of December 2019, there were 49 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Saab 105. </t>
+          <t xml:space="preserve">The Saab 105 is a light 1-2 seat aircraft built by Saab in military service in Austria and Sweden. It is powered by two J85 or FJ44 jet engines. As of December 2019, there were 49 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the Saab 105. </t>
         </is>
       </c>
     </row>
@@ -6982,8 +6924,8 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>The BTT-3 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 16 countries. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service with 16 operators. 
-AWIN tracks one type for this profile, the BTT-3. </t>
+          <t xml:space="preserve">The BTT-3 is a Group 3 UAV built by Meggitt Defense Systems in military service or on order in 16 countries. It is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service or on order with 16 operators.
+Aviation Week tracks one type associated with this profile, the BTT-3. </t>
         </is>
       </c>
     </row>
@@ -7005,8 +6947,8 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>The Vindicator II is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Canada. It is powered by one AR 741 piston engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Vindicator II. </t>
+          <t xml:space="preserve">The Vindicator II is a Group 3 UAV built by Meggitt Defense Systems in military service or on order in Canada. It is powered by one AR 741 piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Vindicator II. </t>
         </is>
       </c>
     </row>
@@ -7028,8 +6970,8 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>The Voodoo is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Spain and the United Kingdom. It is powered by one Fury piston engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Voodoo. </t>
+          <t xml:space="preserve">The Voodoo is a Group 3 UAV built by Meggitt Defense Systems in military service or on order in Spain and the United Kingdom. It is powered by one Fury piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Voodoo. </t>
         </is>
       </c>
     </row>
@@ -7051,8 +6993,8 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>The CQ-10 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one Rotax 914 piston engine. As of December 2019, it was in military service with the US SOCOM. 
-AWIN tracks one type for this profile, the CQ-10A. </t>
+          <t xml:space="preserve">The CQ-10 is a Group 4 UAV built by MMIST in military service or on order in the United States. It is powered by one Rotax 914 piston engine. As of December 2019, it was in military service or on order with the US SOCOM.
+Aviation Week tracks one type associated with this profile, the CQ-10A. </t>
         </is>
       </c>
     </row>
@@ -7074,8 +7016,8 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>The Burevestnik is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Belarus. It is powered by one piston engine. As of December 2019, there were 2 in military service with the Belarusian Air and Air Defense Force. 
-AWIN tracks one type for this profile, the Burevestnik-MB. </t>
+          <t xml:space="preserve">The Burevestnik is a Group 3 UAV built by National Academy of Sciences of Belarus in military service in Belarus. It is powered by one piston engine. As of December 2019, there were 2 in military service with the Belarusian Air and Air Defense Force.
+Aviation Week tracks one type associated with this profile, the Burevestnik-MB. </t>
         </is>
       </c>
     </row>
@@ -7097,8 +7039,8 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>The J300 is a light 1-2 seat aircraft in military service or on order in Cameroon and Madagascar. It is powered by one Rotax 912 piston engine. As of December 2019, there were 7 in military service with 2 operators. 
-AWIN tracks one type for this profile, the J300 Joker. </t>
+          <t xml:space="preserve">The J300 is a light 1-2 seat aircraft in military service in Cameroon and Madagascar. It is powered by one Rotax 912 piston engine. As of December 2019, there were 7 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the J300 Joker. </t>
         </is>
       </c>
     </row>
@@ -7120,8 +7062,8 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>The TigerShark is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one piston engine. As of December 2019, there were 12 in military service with the US Navy. 
-AWIN tracks one type for this profile, the TigerShark. </t>
+          <t xml:space="preserve">The TigerShark is a Group 3 UAV built by Navmar in military service in the United States. It is powered by one piston engine. As of December 2019, there were 12 in military service with the US Navy.
+Aviation Week tracks one type associated with this profile, the TigerShark. </t>
         </is>
       </c>
     </row>
@@ -7143,8 +7085,8 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>The E/RC-26 is a surveillance aircraft in military service or on order in Colombia and the United States. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 15 in military service with 3 operators. 
-AWIN tracks 4 types for this profile, the EC-26D, RC-26B, RC-26D and SR-26B. This family also includes the Fairchild C-26 Maritime &amp; C4ISR Conversions profile.</t>
+          <t>The E/RC-26 is a surveillance aircraft in military service in Colombia and the United States. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 15 in military service with 3 operators.
+Aviation Week tracks 4 types associated with this profile, the SR-26B, RC-26B, EC-26D and RC-26D. This family also includes the Fairchild C-26 Maritime &amp; C4ISR Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -7166,8 +7108,8 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>The Bulldog is a light 1-2 seat aircraft in military service or on order in Lebanon. It is powered by one O-360 piston engine. As of December 2019, there were 3 in military service with the Lebanese Air Force. 
-AWIN tracks one type for this profile, the Bulldog Model 126. </t>
+          <t xml:space="preserve">The Bulldog is a light 1-2 seat aircraft built by SAL in military service in Lebanon. It is powered by one O-360 piston engine. As of December 2019, there were 3 in military service with the Lebanese Air Force.
+Aviation Week tracks one type associated with this profile, the Bulldog Model 126. </t>
         </is>
       </c>
     </row>
@@ -7189,8 +7131,8 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>The BQM-34 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China, Israel, Italy and the United States. It is powered by one J85 or WP-11 jet engine. As of December 2019, there were 65 in military service with 4 operators. 
-AWIN tracks 3 types for this profile, the BQM-34 Model 232, BQM-34S and WZ-5. </t>
+          <t xml:space="preserve">The BQM-34 is a Group 5 UAV in military service or on order in China, Israel, Italy and the United States. It is powered by one WP-11 or J85 jet engine. As of December 2019, it was in military service or on order with 4 operators.
+Aviation Week tracks 3 types associated with this profile, the WZ-5, BQM-34 Model 232 and BQM-34S. </t>
         </is>
       </c>
     </row>
@@ -7212,8 +7154,8 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>The Seeker is a light 1-2 seat aircraft in military service or on order in Iraq, Jordan and Tanzania. It is powered by one O-360 piston engine. As of December 2019, there were 9 in military service with 3 operators. 
-AWIN tracks one type for this profile, the Seabird Seeker. </t>
+          <t xml:space="preserve">The Seeker is a light 1-2 seat aircraft built by Seabird Aviation in military service in Iraq, Jordan and Tanzania. It is powered by one O-360 piston engine. As of December 2019, there were 9 in military service with 3 operators.
+Aviation Week tracks one type associated with this profile, the Seabird Seeker. </t>
         </is>
       </c>
     </row>
@@ -7235,8 +7177,8 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>The BQM-74 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Japan, Spain, Taiwan and the United States. It is powered by one WR24 jet engine. As of December 2019, there were 175 in military service with 4 operators. 
-AWIN tracks one type for this profile, the BQM-74E. </t>
+          <t xml:space="preserve">The BQM-74 is a Group 5 UAV built by Northrop Grumman in military service or on order in Japan, Spain, Taiwan and the United States. It is powered by one WR24 jet engine. As of December 2019, it was in military service or on order with 4 operators.
+Aviation Week tracks one type associated with this profile, the BQM-74E. </t>
         </is>
       </c>
     </row>
@@ -7258,8 +7200,8 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>The MQ-4C Triton / BAMS is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Australia, Germany and the United States. It is powered by one AE3007 (F137) jet engine. As of December 2019, there were 9 in military service and 7 new deliveries on contract with 4 operators. 
-AWIN tracks 2 types for this profile, the MQ-4C and RQ-4 BAMS-D. This family also includes the Northrop Grumman RQ-4 Global Hawk profile.</t>
+          <t>The MQ-4C Triton / BAMS is a Group 5 UAV built by Northrop Grumman in military service or on order in Australia, Germany and the United States. It is powered by one AE3007 (F137) jet engine. As of December 2019, there were 9 in military service and 47 new deliveries on contract with 4 operators.
+Aviation Week tracks 2 types associated with this profile, the MQ-4C and RQ-4 BAMS-D. This family also includes the Northrop Grumman RQ-4 Global Hawk profile.</t>
         </is>
       </c>
     </row>
@@ -7281,8 +7223,8 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>The RQ-4 Global Hawk is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Canada, International [Europe], Japan, South Korea and the United States. It is powered by one AE3007 (F137) jet engine. As of December 2019, there were 35 in military service and 11 new deliveries on contract with 5 operators. 
-AWIN tracks 4 types for this profile, the EQ-4B, RQ-4B, RQ-4D and RQ-4E. This family also includes the Northrop Grumman MQ-4C Triton / BAMS profile.</t>
+          <t>The RQ-4 Global Hawk is a Group 5 UAV built by Northrop Grumman in military service or on order in Canada, NATO, Japan, South Korea and the United States. It is powered by one AE3007 (F137) jet engine. As of December 2019, there were 35 in military service and 12 new deliveries on contract with 5 operators.
+Aviation Week tracks 4 types associated with this profile, the RQ-4E, RQ-4D, RQ-4B and EQ-4B. This family also includes the Northrop Grumman MQ-4C Triton / BAMS profile.</t>
         </is>
       </c>
     </row>
@@ -7304,8 +7246,8 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>The Jaguar is a fighter in military service or on order in India. It is powered by two Adour (F405) jet engines. As of December 2019, there were 117 in military service with the Indian Air Force. 
-AWIN tracks 2 types for this profile, the Jaguar B and Jaguar S. </t>
+          <t xml:space="preserve">The Jaguar is a fighter built by SEPECAT and HAL in military service in India. It is powered by two Adour (F405) jet engines. As of December 2019, there were 117 in military service with the Indian Air Force.
+Aviation Week tracks 2 types associated with this profile, the Jaguar B and Jaguar S. </t>
         </is>
       </c>
     </row>
@@ -7327,8 +7269,8 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>The J-31 is a fighter in military service or on order in China. It is powered by two RD-33 jet engines. As of December 2019, there were 2 in military service with the Shenyang. 
-AWIN tracks one type for this profile, the J-31 [Prototype]. </t>
+          <t xml:space="preserve">The J-31 is a fighter built by Shenyang in military service in China. It is powered by two RD-33 jet engines. As of December 2019, there were 2 in military service with the Shenyang.
+Aviation Week tracks one type associated with this profile, the J-31 [Prototype]. </t>
         </is>
       </c>
     </row>
@@ -7350,8 +7292,8 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>The Cabure is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Argentina. It is powered by one electric engine. As of December 2019, there were 6 in military service with the Argentine Navy. 
-AWIN tracks one type for this profile, the Cabure. </t>
+          <t xml:space="preserve">The Cabure is a Group 1 UAV built by Nostromo in military service in Argentina. It is powered by one electric engine. As of December 2019, there were 6 in military service with the Argentine Navy.
+Aviation Week tracks one type associated with this profile, the Cabure. </t>
         </is>
       </c>
     </row>
@@ -7373,8 +7315,8 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>The US-1/2 is a amphibious aircraft in military service or on order in Greece, India and Japan. It is powered by four AE2100 turbine engines. As of December 2019, there were 5 in military service with 3 operators. 
-AWIN tracks one type for this profile, the US-2. </t>
+          <t xml:space="preserve">The US-1/2 is a amphibious aircraft built by Shin Maywa Industries in military service or on order in Greece, India and Japan. It is powered by four AE2100 turbine engines. As of December 2019, there were 5 in military service and 22 new deliveries on contract with 3 operators.
+Aviation Week tracks one type associated with this profile, the US-2. </t>
         </is>
       </c>
     </row>
@@ -7396,8 +7338,8 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>The S.208 is a civil propeller aircraft in military service or on order in Italy. It is powered by one O-540 piston engine. As of December 2019, there were 20 in military service with the Italian Air Force. 
-AWIN tracks one type for this profile, the S208M. </t>
+          <t xml:space="preserve">The S.208 is a civil propeller aircraft in military service in Italy. It is powered by one O-540 piston engine. As of December 2019, there were 20 in military service with the Italian Air Force.
+Aviation Week tracks one type associated with this profile, the S208M. </t>
         </is>
       </c>
     </row>
@@ -7419,8 +7361,8 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>The SF-260 is a light 1-2 seat aircraft in military service or on order in 17 countries. It is powered by one M250 (T63/T703) or O-540 piston or turbine engine. As of December 2019, there were 214 in military service and 21 new deliveries on contract with 17 operators. 
-AWIN tracks 8 types for this profile, the RTAF-6, SF.260C, SF.260D, SF.260E, SF.260F, SF.260M, SF.260TP and SF.260W. </t>
+          <t xml:space="preserve">The SF-260 is a light 1-2 seat aircraft in military service or on order in 17 countries. It is powered by one O-540 or M250 (T63/T703) piston or turbine engine. As of December 2019, there were 214 in military service and 21 new deliveries on contract with 17 operators.
+Aviation Week tracks 8 types associated with this profile, the SF.260D, SF.260M, SF.260W, SF.260TP, SF.260E, SF.260F, RTAF-6 and SF.260C. </t>
         </is>
       </c>
     </row>
@@ -7442,8 +7384,8 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>The H-53 is a helicopter in military service or on order in Germany, Iran, Israel and the United States. It is powered by two or three GE38 (T408) or T64 turbine engines. As of December 2019, there were 268 in military service and 17 new deliveries on contract with 6 operators. 
-AWIN tracks 7 types for this profile, the CH-53 Yas’ur, CH-53E, CH-53G, CH-53K, MH-53E, RH-53D and YCH-53K. </t>
+          <t xml:space="preserve">The H-53 is a helicopter built by Sikorsky in military service or on order in Germany, Iran, Israel and the United States. It is powered by two or three T64 or GE38 (T408) turbine engines. As of December 2019, there were 268 in military service and 147 new deliveries on contract with 6 operators.
+Aviation Week tracks 7 types associated with this profile, the CH-53G, RH-53D, CH-53 Yas’ur, CH-53E, CH-53K, YCH-53K and MH-53E. </t>
         </is>
       </c>
     </row>
@@ -7465,8 +7407,8 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>The S-61/H-3 "Sea King" is a helicopter in military service or on order in 15 countries. It is powered by two Gnome or T58 (CT58) turbine engines. As of December 2019, there were 163 in military service with 17 operators. 
-AWIN tracks 22 types for this profile. </t>
+          <t xml:space="preserve">The S-61/H-3 "Sea King" is a helicopter in military service or on order in 15 countries. It is powered by two T58 (CT58) or Gnome turbine engines. As of December 2019, there were 163 in military service and 4 new deliveries on contract with 17 operators.
+Aviation Week tracks 22 types associated with this profile. </t>
         </is>
       </c>
     </row>
@@ -7488,8 +7430,8 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>The H-60/S-70 is a helicopter in military service or on order in 38 countries. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 3885 in military service and 486 new deliveries on contract with 62 operators. 
-AWIN tracks 39 types for this profile. </t>
+          <t xml:space="preserve">The H-60/S-70 is a helicopter built by Sikorsky, Mitsubishi, KAI and TAI in military service or on order in 38 countries. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 3,885 in military service and 1,384 new deliveries on contract with 62 operators.
+Aviation Week tracks 39 types associated with this profile. </t>
         </is>
       </c>
     </row>
@@ -7511,8 +7453,8 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>The CH-148 is a helicopter in military service or on order in Canada. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 24 in military service and 4 new deliveries on contract with the Royal Canadian Air Force. 
-AWIN tracks one type for this profile, the CH-148. </t>
+          <t xml:space="preserve">The CH-148 is a helicopter built by Sikorsky in military service or on order in Canada. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 24 in military service and 4 new deliveries on contract with the Royal Canadian Air Force.
+Aviation Week tracks one type associated with this profile, the CH-148. </t>
         </is>
       </c>
     </row>
@@ -7534,8 +7476,8 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>The T-67 is a light 1-2 seat aircraft in military service or on order in Bahrain and Belize. It is powered by one O-540 piston engine. As of December 2019, there were 4 in military service with 2 operators. 
-AWIN tracks one type for this profile, the T67M-260. </t>
+          <t xml:space="preserve">The T-67 is a light 1-2 seat aircraft built by Slingsby in military service in Bahrain and Belize. It is powered by one O-540 piston engine. As of December 2019, there were 4 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the T67M-260. </t>
         </is>
       </c>
     </row>
@@ -7557,8 +7499,8 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>The G-2/J-21 is a light 1-2 seat aircraft in military service or on order in Libya. It is powered by one Viper jet engine. As of December 2019, there were 10 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the G-2A-E and J-21. </t>
+          <t xml:space="preserve">The G-2/J-21 is a light 1-2 seat aircraft built by Soko in military service in Libya. It is powered by one Viper jet engine. As of December 2019, there were 10 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the G-2A-E and J-21. </t>
         </is>
       </c>
     </row>
@@ -7580,8 +7522,8 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>The J-22 Orao is a light 1-2 seat aircraft in military service or on order in Serbia. It is powered by two Viper jet engines. As of December 2019, there were 6 in military service with the Serbian Air Force &amp; Air Defence. 
-AWIN tracks one type for this profile, the J-22A. </t>
+          <t xml:space="preserve">The J-22 Orao is a light 1-2 seat aircraft built by Soko in military service in Serbia. It is powered by two Viper jet engines. As of December 2019, there were 6 in military service with the Serbian Air Force &amp; Air Defence.
+Aviation Week tracks one type associated with this profile, the J-22A. </t>
         </is>
       </c>
     </row>
@@ -7603,8 +7545,8 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>The G-4 Super Galeb is a light 1-2 seat aircraft in military service or on order in Serbia. It is powered by one Viper jet engine. As of December 2019, there were 9 in military service with the Serbian Air Force &amp; Air Defence. 
-AWIN tracks one type for this profile, the G-4. </t>
+          <t xml:space="preserve">The G-4 Super Galeb is a light 1-2 seat aircraft built by Soko in military service in Serbia. It is powered by one Viper jet engine. As of December 2019, there were 9 in military service with the Serbian Air Force &amp; Air Defence.
+Aviation Week tracks one type associated with this profile, the G-4. </t>
         </is>
       </c>
     </row>
@@ -7626,8 +7568,8 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>The Yarara is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Argentina. It is powered by one piston engine. As of December 2019, there were 3 in military service with the Argentine Air Force. 
-AWIN tracks one type for this profile, the Yarara. </t>
+          <t xml:space="preserve">The Yarara is a Group 3 UAV built by Nostromo in military service in Argentina. It is powered by one piston engine. As of December 2019, there were 3 in military service with the Argentine Air Force.
+Aviation Week tracks one type associated with this profile, the Yarara. </t>
         </is>
       </c>
     </row>
@@ -7649,8 +7591,8 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>The Ababeel is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan and Saudi Arabia. It is powered by one piston engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Ababeel. </t>
+          <t xml:space="preserve">The Ababeel is a Group 1 UAV built by Pakistan Aeronautical Complex in military service or on order in Pakistan and Saudi Arabia. It is powered by one piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Ababeel. </t>
         </is>
       </c>
     </row>
@@ -7672,8 +7614,8 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>The Su-24 is a fighter in military service or on order in 6 countries. It is powered by two AL-21 jet engines. As of December 2019, there were 304 in military service with 7 operators. 
-AWIN tracks 6 types for this profile, the Su-24M, Su-24M2, Su-24MK, Su-24MK2, Su-24MP and Su-24MR. </t>
+          <t xml:space="preserve">The Su-24 is a fighter built by Sukhoi in military service in 6 countries. It is powered by two AL-21 jet engines. As of December 2019, there were 304 in military service with 7 operators.
+Aviation Week tracks 6 types associated with this profile, the Su-24MK2, Su-24MP, Su-24MR, Su-24MK, Su-24M and Su-24M2. </t>
         </is>
       </c>
     </row>
@@ -7695,8 +7637,8 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>The Su-25 is a fighter in military service or on order in 19 countries. It is powered by two R-95/R-195 jet engines. As of December 2019, there were 434 in military service with 20 operators. 
-AWIN tracks 12 types for this profile, the Su-25, Su-25/Su-25UBK, Su-25BM, Su-25K, Su-25KM, Su-25SM, Su-25SM3, Su-25T, Su-25U, Su-25UB, Su-25UBK and Su-25UTG. </t>
+          <t xml:space="preserve">The Su-25 is a fighter built by Sukhoi in military service or on order in 19 countries. It is powered by two R-95/R-195 jet engines. As of December 2019, there were 434 in military service and 31 new deliveries on contract with 20 operators.
+Aviation Week tracks 12 types associated with this profile, the Su-25, Su-25K, Su-25UB, Su-25UBK, Su-25BM, Su-25KM, Su-25SM, Su-25/Su-25UBK, Su-25SM3, Su-25T, Su-25UTG and Su-25U. </t>
         </is>
       </c>
     </row>
@@ -7718,8 +7660,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>The Su-7/17/22 is a fighter in military service or on order in 6 countries. It is powered by one AL-21 or R-27/R-29/R-35 jet engine. As of December 2019, there were 100 in military service with 6 operators. 
-AWIN tracks 6 types for this profile, the Su-22M, Su-22M3, Su-22M4, Su-22UM, Su-22UM3 and Su-22UM3K. </t>
+          <t xml:space="preserve">The Su-7/17/22 is a fighter built by Sukhoi in military service or on order in 6 countries. It is powered by one AL-21 or R-27/R-29/R-35 jet engine. As of December 2019, there were 100 in military service and 16 new deliveries on contract with 6 operators.
+Aviation Week tracks 6 types associated with this profile, the Su-22M4, Su-22M, Su-22UM, Su-22UM3, Su-22UM3K and Su-22M3. </t>
         </is>
       </c>
     </row>
@@ -7741,8 +7683,8 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>The Baaz is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan and Saudi Arabia. It is powered by one Q100 piston engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Baaz Mk II. </t>
+          <t xml:space="preserve">The Baaz is a Group 2 UAV built by Pakistan Aeronautical Complex in military service or on order in Pakistan and Saudi Arabia. It is powered by one Q100 piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Baaz Mk II. </t>
         </is>
       </c>
     </row>
@@ -7764,8 +7706,8 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>The Tecnam P92 is a light 1-2 seat aircraft in military service or on order in Cambodia. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Royal Cambodian Air Force. 
-AWIN tracks one type for this profile, the P92 Echo. </t>
+          <t xml:space="preserve">The Tecnam P92 is a light 1-2 seat aircraft built by Tecnam in military service in Cambodia. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Royal Cambodian Air Force.
+Aviation Week tracks one type associated with this profile, the P92 Echo. </t>
         </is>
       </c>
     </row>
@@ -7787,8 +7729,8 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>The P2002 is a light 1-2 seat aircraft in military service or on order in Argentina and Greece. It is powered by one Rotax 912 piston engine. As of December 2019, there were 20 in military service with 2 operators. 
-AWIN tracks one type for this profile, the P2002 JF. </t>
+          <t xml:space="preserve">The P2002 is a light 1-2 seat aircraft built by Tecnam in military service in Argentina and Greece. It is powered by one Rotax 912 piston engine. As of December 2019, there were 20 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the P2002 JF. </t>
         </is>
       </c>
     </row>
@@ -7810,8 +7752,8 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>The Vulture is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in South Africa. It is powered by one 498 piston engine. As of December 2019, there were 4 in military service with the South African Army. 
-AWIN tracks one type for this profile, the Vulture. </t>
+          <t xml:space="preserve">The Vulture is a Group 3 UAV built by Paramount Group in military service in South Africa. It is powered by one 498 piston engine. As of December 2019, there were 4 in military service with the South African Army.
+Aviation Week tracks one type associated with this profile, the Vulture. </t>
         </is>
       </c>
     </row>
@@ -7833,8 +7775,8 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>The P.1HH Hammerhead is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Italy. It is powered by two PT6A turbine engines. As of December 2019, there was one in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the P.1HH and P.1HH [Prototype]. This family also includes the Piaggio P.180 Avanti Maritime &amp; C4ISR Variants profile.</t>
+          <t>The P.1HH Hammerhead is a UAV based on the the Piagio Avanti business turboprop aircraft. It is built by Piaggio in military service or on order in Italy. It is powered by two PT6A turbine engines. As of December 2019, there was one in military service and 2 new deliveries on contract with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the P.1HH and P.1HH [Prototype]. This family also includes the Piaggio P.180 Avanti Maritime &amp; C4ISR Variants profile.</t>
         </is>
       </c>
     </row>
@@ -7856,8 +7798,8 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>The PD-100 PRS "Black Hornet" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Australia and the United States. It is powered by one electric engine. As of December 2019, there were 406 in military service with 3 operators. 
-AWIN tracks one type for this profile, the Black Hornet. </t>
+          <t xml:space="preserve">The PD-100 PRS "Black Hornet" is a Group 1 UAV built by Prox Dynamics in military service or on order in Australia and the United States. It is powered by one electric engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks one type associated with this profile, the Black Hornet. </t>
         </is>
       </c>
     </row>
@@ -7879,8 +7821,8 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>The C-160 is a medium transport aircraft in military service or on order in France, Germany and Turkey. It is powered by two Tyne turbine engines. As of December 2019, there were 67 in military service with 4 operators. 
-AWIN tracks 3 types for this profile, the C-160D, C-160G and C-160R. </t>
+          <t xml:space="preserve">The C-160 is a medium transport aircraft built by Transall in military service in France, Germany and Turkey. It is powered by two Tyne turbine engines. As of December 2019, there were 67 in military service with 4 operators.
+Aviation Week tracks 3 types associated with this profile, the C-160G, C-160R and C-160D. </t>
         </is>
       </c>
     </row>
@@ -7902,8 +7844,8 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>The Tu-160 is a bomber in military service or on order in Russia. It is powered by four NK-321 jet engines. As of December 2019, there were 18 in military service and 10 new deliveries on contract with 2 operators. 
-AWIN tracks 3 types for this profile, the Tu-160M1, Tu-160M2 and Tu-160S. </t>
+          <t xml:space="preserve">The Tu-160 is a bomber built by Tupolev in military service or on order in Russia. It is powered by four NK-321 jet engines. As of December 2019, there were 18 in military service and 39 new deliveries on contract with 2 operators.
+Aviation Week tracks 3 types associated with this profile, the Tu-160M1, Tu-160M2 and Tu-160S. </t>
         </is>
       </c>
     </row>
@@ -7925,8 +7867,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>The Tu-22M is a bomber in military service or on order in Russia. It is powered by two NK-25 jet engines. As of December 2019, there were 80 in military service with 2 operators. 
-AWIN tracks 3 types for this profile, the Tu-22M3, Tu-22M3M and Tu-22MR. </t>
+          <t xml:space="preserve">The Tu-22M is a bomber built by Tupolev in military service or on order in Russia. It is powered by two NK-25 jet engines. As of December 2019, there were 80 in military service and 30 new deliveries on contract with 2 operators.
+Aviation Week tracks 3 types associated with this profile, the Tu-22M3, Tu-22M3M and Tu-22MR. </t>
         </is>
       </c>
     </row>
@@ -7948,8 +7890,8 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>The Tu-95 is a bomber in military service or on order in Russia. It is powered by four NK-12 turbine engines. As of December 2019, there were 55 in military service with the Russian Aerospace Forces. 
-AWIN tracks 2 types for this profile, the Tu-95MS16 and Tu-95MS6. This family also includes the Tupolev Tu-142 profile.</t>
+          <t>The Tu-95 is a bomber built by Tupolev in military service in Russia. It is powered by four NK-12 turbine engines. As of December 2019, there were 55 in military service with the Russian Aerospace Forces.
+Aviation Week tracks 2 types associated with this profile, the Tu-95MS16 and Tu-95MS6. This family also includes the Tupolev Tu-142 profile.</t>
         </is>
       </c>
     </row>
@@ -7971,8 +7913,8 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>The PAK DA is a low observable bomber under development by Russia. However, the decision to restart Tu-160 production will likely delay the first PAK DA deliveries until the late 2020s. 
-AWIN tracks one type for this profile, the PAK DA. </t>
+          <t xml:space="preserve">The PAK DA is a low observable bomber under development by Russia. However, the decision to restart Tu-160 production will likely delay the first PAK DA deliveries until the late 2020s.
+Aviation Week tracks one type associated with this profile, the PAK DA. </t>
         </is>
       </c>
     </row>
@@ -7994,8 +7936,8 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>The S-2 Tracker is a maritime aircraft in military service or on order in Argentina and Brazil. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there was one in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the KC-2 and S-2T Turbo Tracker. </t>
+          <t xml:space="preserve">The S-2 Tracker is a maritime aircraft in military service or on order in Argentina and Brazil. It is powered by two TPE331 (T76) turbine engines. As of December 2019, there was one in military service and 7 new deliveries on contract with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the S-2T Turbo Tracker and KC-2. </t>
         </is>
       </c>
     </row>
@@ -8017,8 +7959,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>The InstantEye Mk2Gen3 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in the United States. It is powered by one electric engine. As of December 2019, it was in military service with the US Marine Corps. 
-AWIN tracks one type for this profile, the InstantEye Mk2Gen3. </t>
+          <t xml:space="preserve">The InstantEye Mk2Gen3 is a Group 1 UAV built by PSI in military service or on order in the United States. It is powered by one electric engine. As of December 2019, it was in military service or on order with the US Marine Corps.
+Aviation Week tracks one type associated with this profile, the InstantEye Mk2Gen3. </t>
         </is>
       </c>
     </row>
@@ -8040,8 +7982,8 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>The Mohajer is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Iran. It is powered by one L 550 or WAE 342 Hurricane piston engine. As of December 2019, there were 30 in military service and 30 new deliveries on contract with 4 operators. 
-AWIN tracks 4 types for this profile, the Mohajer 2, Mohajer 3, Mohajer 4 and Mohajer 6. </t>
+          <t xml:space="preserve">The Mohajer is a Group 4 or 3 UAV built by Qods Aviation Industries in military service or on order in Iran. It is powered by one WAE 342 Hurricane or L 550 piston engine. As of December 2019, it was in military service or on order with 4 operators.
+Aviation Week tracks 4 types associated with this profile, the Mohajer 6, Mohajer 2, Mohajer 3 and Mohajer 4. </t>
         </is>
       </c>
     </row>
@@ -8063,8 +8005,8 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>The Saeghe is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Iran. It is powered by one piston engine. As of December 2019, it was in military service with the Islamic Republic of Iran Army. 
-AWIN tracks one type for this profile, the Saeghe 2 [Target]. </t>
+          <t xml:space="preserve">The Saeghe is a Group 3 UAV built by Qods Aviation Industries in military service or on order in Iran. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Islamic Republic of Iran Army.
+Aviation Week tracks one type associated with this profile, the Saeghe 2 [Target]. </t>
         </is>
       </c>
     </row>
@@ -8086,8 +8028,8 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>The Lasta 95 is a light 1-2 seat aircraft in military service or on order in Iraq and Serbia. It is powered by one IO-580 piston engine. As of December 2019, there were 34 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the Lasta 95P-2 and Lasta 95V-54. </t>
+          <t xml:space="preserve">The Lasta 95 is a light 1-2 seat aircraft built by UTVA in military service in Iraq and Serbia. It is powered by one IO-580 piston engine. As of December 2019, there were 34 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the Lasta 95P-2 and Lasta 95V-54. </t>
         </is>
       </c>
     </row>
@@ -8109,8 +8051,8 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>The UTVA 75 / SAFAT 03 is a light 1-2 seat aircraft in military service or on order in Serbia and Sudan. It is powered by one O-360 piston engine. As of December 2019, there were 6 in military service and 4 new deliveries on contract with 2 operators. 
-AWIN tracks 2 types for this profile, the SAFAT 03 and UTVA 75. </t>
+          <t xml:space="preserve">The UTVA 75 / SAFAT 03 is a light 1-2 seat aircraft built by UTVA and SAFAT in military service or on order in Serbia and Sudan. It is powered by one O-360 piston engine. As of December 2019, there were 6 in military service and 4 new deliveries on contract with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the UTVA 75 and SAFAT 03. </t>
         </is>
       </c>
     </row>
@@ -8132,8 +8074,8 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>The L-70/L-90 is a light 1-2 seat aircraft in military service or on order in Eritrea and the United States. It is powered by one M250 (T63/T703) turbine engine. As of December 2019, there were 12 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the A-90 and L-90TP RediGo. </t>
+          <t xml:space="preserve">The L-70/L-90 is a light 1-2 seat aircraft in military service in Eritrea and the United States. It is powered by one M250 (T63/T703) turbine engine. As of December 2019, there were 12 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the L-90TP RediGo and A-90. </t>
         </is>
       </c>
     </row>
@@ -8155,8 +8097,8 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>The RV-6 is a light 1-2 seat aircraft in military service or on order in Nigeria. It is powered by one O-360 piston engine. As of December 2019, there were 19 in military service with the Nigerian Air Force. 
-AWIN tracks one type for this profile, the RV-6A. </t>
+          <t xml:space="preserve">The RV-6 is a light 1-2 seat aircraft built by Van's Aircraft in military service in Nigeria. It is powered by one O-360 piston engine. As of December 2019, there were 19 in military service with the Nigerian Air Force.
+Aviation Week tracks one type associated with this profile, the RV-6A. </t>
         </is>
       </c>
     </row>
@@ -8178,8 +8120,8 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>The Skeldar is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Germany and Indonesia. It is powered by one HF3503 piston engine. As of December 2019, there was one in military service and 2 new deliveries on contract with 2 operators. 
-AWIN tracks one type for this profile, the Skeldar V-200. </t>
+          <t xml:space="preserve">The Skeldar is a Group 3 UAV built by Saab in military service or on order in Germany and Indonesia. It is powered by one HF3503 piston engine. As of December 2019, there was one in military service and 2 new deliveries on contract with 2 operators.
+Aviation Week tracks one type associated with this profile, the Skeldar V-200. </t>
         </is>
       </c>
     </row>
@@ -8201,8 +8143,8 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>The Sperwer is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in France and Greece. It is powered by one Rotax 582 piston engine. As of December 2019, there were 20 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the Sperwer A and Sperwer Mk II. </t>
+          <t xml:space="preserve">The Sperwer is a Group 3 UAV built by Safran in military service or on order in France and Greece. It is powered by one Rotax 582 piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the Sperwer A and Sperwer Mk II. </t>
         </is>
       </c>
     </row>
@@ -8224,8 +8166,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>The GIII C4ISR Conversions are a group of C4ISR aircraft in military service or on order in India. They are powered by two Spey (WS-9) jet engines. As of December 2019, there were 3 in military service with the Indian Air Force. 
-AWIN tracks one type for this profile, the GIII [ISR]. Other profiles in this family include the Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
+          <t>The GIII C4ISR Conversions are a group of C4ISR aircraft built by Gulfstream in military service in India. They are powered by two Spey (WS-9) jet engines. As of December 2019, there were 3 in military service with the Indian Air Force.
+Aviation Week tracks one type associated with this profile, the GIII [ISR]. Other profiles in this family include the Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
         </is>
       </c>
     </row>
@@ -8247,8 +8189,8 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>The P.68 is a civil propeller aircraft in military service or on order in Bahamas and Chile. It is powered by two O-360 piston engines. As of December 2019, there were 8 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the P.68 Observer and P.68C. </t>
+          <t xml:space="preserve">The P.68 is a civil propeller aircraft built by Vulcanair in military service in Bahamas and Chile. It is powered by two O-360 piston engines. As of December 2019, there were 8 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the P.68C and P.68 Observer. </t>
         </is>
       </c>
     </row>
@@ -8270,8 +8212,8 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>The Gazelle is a helicopter in military service or on order in 21 countries. It is powered by one Astazou turbine engine. As of December 2019, there were 330 in military service with 22 operators. 
-AWIN tracks 9 types for this profile, the SA.341B, SA.341B AH1, SA.341H, SA.341H GAMA, SA.342K, SA.342L, SA.342L GAMA 2, SA.342L1 and SA.342M. </t>
+          <t xml:space="preserve">The Gazelle is a helicopter in military service or on order in 21 countries. It is powered by one Astazou turbine engine. As of December 2019, there were 330 in military service and 4 new deliveries on contract with 22 operators.
+Aviation Week tracks 9 types associated with this profile, the SA.342L, SA.341H, SA.342L GAMA 2, SA.342L1, SA.342M, SA.342K, SA.341B, SA.341H GAMA and SA.341B AH1. </t>
         </is>
       </c>
     </row>
@@ -8293,8 +8235,8 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>The H-6 (Tu-16) is a bomber in military service or on order in China. It is powered by two D-30 or WP-8 (RD-3) jet engines. As of December 2019, there were 202 in military service with 2 operators. 
-AWIN tracks 8 types for this profile, the H-6DU, H-6G, H-6H, H-6J, H-6K, H-6M, H-6N and H-6U. </t>
+          <t xml:space="preserve">The H-6 (Tu-16) is a bomber built by Xian in military service or on order in China. It is powered by two WP-8 (RD-3) or D-30 jet engines. As of December 2019, there were 202 in military service and 10 new deliveries on contract with 2 operators.
+Aviation Week tracks 8 types associated with this profile, the H-6H, H-6K, H-6M, H-6N, H-6U, H-6DU, H-6G and H-6J. </t>
         </is>
       </c>
     </row>
@@ -8316,8 +8258,8 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>The Y-20 is a medium transport aircraft in military service or on order in China. It is powered by four D-30 jet engines. As of December 2019, there were 25 in military service and 76 new deliveries on contract with the People's Liberation Army Air Force. 
-AWIN tracks 3 types for this profile, the Y-20A, Y-20U and Y-20U [Prototype]. </t>
+          <t xml:space="preserve">The Y-20 is a medium transport aircraft built by Xian in military service or on order in China. It is powered by four D-30 jet engines. As of December 2019, there were 25 in military service and 86 new deliveries on contract with the People's Liberation Army Air Force.
+Aviation Week tracks 3 types associated with this profile, the Y-20A, Y-20U and Y-20U [Prototype]. </t>
         </is>
       </c>
     </row>
@@ -8339,8 +8281,8 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>The JH-7 is a fighter in military service or on order in China. It is powered by two Spey (WS-9) jet engines. As of December 2019, there were 256 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the JH-7 and JH-7A. </t>
+          <t xml:space="preserve">The JH-7 is a fighter built by Xian in military service in China. It is powered by two Spey (WS-9) jet engines. As of December 2019, there were 256 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the JH-7A and JH-7. </t>
         </is>
       </c>
     </row>
@@ -8362,8 +8304,8 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>The Jasoos is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Air Force. 
-AWIN tracks one type for this profile, the Jasoos II Bravo +. </t>
+          <t xml:space="preserve">The Jasoos is a Group 3 UAV built by Satuma in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Pakistan Air Force.
+Aviation Week tracks one type associated with this profile, the Jasoos II Bravo +. </t>
         </is>
       </c>
     </row>
@@ -8385,8 +8327,8 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>The Parwaz HST is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Air Force. 
-AWIN tracks one type for this profile, the Parwaz HST. </t>
+          <t xml:space="preserve">The Parwaz HST is a Group 3 UAV built by Satuma in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Pakistan Air Force.
+Aviation Week tracks one type associated with this profile, the Parwaz HST. </t>
         </is>
       </c>
     </row>
@@ -8408,8 +8350,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>The Thunder is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Navy. 
-AWIN tracks one type for this profile, the Thunder. </t>
+          <t xml:space="preserve">The Thunder is a Group 3 UAV built by Satuma in military service or on order in Pakistan. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Pakistan Navy.
+Aviation Week tracks one type associated with this profile, the Thunder. </t>
         </is>
       </c>
     </row>
@@ -8431,8 +8373,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>The Camcopter is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 9 countries. It is powered by one AE50R or L 275 piston engine. As of December 2019, there were 105 in military service with 10 operators. 
-AWIN tracks 2 types for this profile, the Camcopter 5.1 and Camcopter S-100. </t>
+          <t xml:space="preserve">The Camcopter is a Group 3 UAV built by Schiebel in military service or on order in 9 countries. It is powered by one AE50R or L 275 piston engine. As of December 2019, it was in military service or on order with 10 operators.
+Aviation Week tracks 2 types associated with this profile, the Camcopter S-100 and Camcopter 5.1. </t>
         </is>
       </c>
     </row>
@@ -8454,8 +8396,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>The Yak-52 is a light 1-2 seat aircraft in military service or on order in Armenia, Moldova, Romania, Uzbekistan and Vietnam. It is powered by one AI-14 (HS-6, M14) piston engine. As of December 2019, there were 56 in military service with 5 operators. 
-AWIN tracks one type for this profile, the Yak-52. </t>
+          <t xml:space="preserve">The Yak-52 is a light 1-2 seat aircraft built by Yakovlev in military service in Armenia, Moldova, Romania, Uzbekistan and Vietnam. It is powered by one AI-14 (HS-6, M14) piston engine. As of December 2019, there were 56 in military service with 5 operators.
+Aviation Week tracks one type associated with this profile, the Yak-52. </t>
         </is>
       </c>
     </row>
@@ -8477,8 +8419,8 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>The Scrab II is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Spain. It is powered by two Olympus jet engines. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Scrab II. </t>
+          <t xml:space="preserve">The Scrab II is a Group 3 UAV built by SCR in military service or on order in Spain. It is powered by two Olympus jet engines. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Scrab II. </t>
         </is>
       </c>
     </row>
@@ -8500,8 +8442,8 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>The Yak-130/ JL-10 (L-15) is a light 1-2 seat aircraft in military service or on order in 9 countries. It is powered by two AI-222 jet engines. As of December 2019, there were 195 in military service and 6 new deliveries on contract with 11 operators. 
-AWIN tracks 3 types for this profile, the JL-10 (L-15), JL-10 (L-15B) and Yak-130. </t>
+          <t xml:space="preserve">The Yak-130/ JL-10 (L-15) is a light 1-2 seat aircraft built by Yakovlev and Hongdu in military service or on order in 9 countries. It is powered by two AI-222 jet engines. As of December 2019, there were 195 in military service and 22 new deliveries on contract with 11 operators.
+Aviation Week tracks 3 types associated with this profile, the Yak-130, JL-10 (L-15B) and JL-10 (L-15). </t>
         </is>
       </c>
     </row>
@@ -8523,8 +8465,8 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>The Lijian is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China. It is powered by one RD-33 jet engine. As of December 2019, there was one in military service with the People's Liberation Army Air Force. 
-AWIN tracks one type for this profile, the GJ-11. </t>
+          <t xml:space="preserve">The Lijian is a Group 4 UAV built by Shenyang in military service in China. It is powered by one RD-33 jet engine. As of December 2019, there was one in military service with the People's Liberation Army Air Force.
+Aviation Week tracks one type associated with this profile, the GJ-11. </t>
         </is>
       </c>
     </row>
@@ -8546,8 +8488,8 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>The Dan is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one MD-120 jet engine. As of December 2019, it was in military service with the Russian Aerospace Forces. 
-AWIN tracks one type for this profile, the Dan M. </t>
+          <t xml:space="preserve">The Dan is a Group 3 UAV built by Sokol in military service or on order in Russia. It is powered by one MD-120 jet engine. As of December 2019, it was in military service or on order with the Russian Aerospace Forces.
+Aviation Week tracks one type associated with this profile, the Dan M. </t>
         </is>
       </c>
     </row>
@@ -8569,8 +8511,8 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>The CH 701 is a civil propeller aircraft in military service or on order in Senegal. It is powered by one Rotax 912 piston engine. As of December 2019, there were 3 in military service with the Senegalese National Gendarmerie. 
-AWIN tracks one type for this profile, the G1 SPYL. </t>
+          <t xml:space="preserve">The CH 701 is a civil propeller aircraft built by G1 Aviation in military service in Senegal. It is powered by one Rotax 912 piston engine. As of December 2019, there were 3 in military service with the Senegalese National Gendarmerie.
+Aviation Week tracks one type associated with this profile, the G1 SPYL. </t>
         </is>
       </c>
     </row>
@@ -8592,8 +8534,8 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>The Z-42 is a light 1-2 seat aircraft in military service or on order in 11 countries. It is powered by one M337, O-360 or O-540 piston engine. As of December 2019, there were 129 in military service with 11 operators. 
-AWIN tracks 4 types for this profile, the Z-142, Z-143L, Z-143LSi and Z-242L. </t>
+          <t xml:space="preserve">The Z-42 is a light 1-2 seat aircraft built by Zlin in military service in 11 countries. It is powered by one M337, O-360 or O-540 piston engine. As of December 2019, there were 129 in military service with 11 operators.
+Aviation Week tracks 4 types associated with this profile, the Z-142, Z-242L, Z-143LSi and Z-143L. </t>
         </is>
       </c>
     </row>
@@ -8615,8 +8557,8 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>The Yak-152 is a light 1-2 seat aircraft in military service or on order in Russia. It is powered by one A03T piston engine. As of December 2019, there were 2 in military service with the Russian Aerospace Forces. 
-AWIN tracks 2 types for this profile, the Yak-152 and Yak-152 [Prototype]. </t>
+          <t xml:space="preserve">The Yak-152 is a light 1-2 seat aircraft built by Yakovlev in military service or on order in Russia. It is powered by one A03T piston engine. As of December 2019, there were 2 in military service and 122 new deliveries on contract with the Russian Aerospace Forces.
+Aviation Week tracks 2 types associated with this profile, the Yak-152 and Yak-152 [Prototype]. </t>
         </is>
       </c>
     </row>
@@ -8638,8 +8580,8 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>The AT-504 is a light 1-2 seat aircraft in military service or on order in Kenya. It is powered by one PT6A turbine engine. As of December 2019, it was in military service with the Kenya Air Force. 
-AWIN tracks one type for this profile, the AT-504. </t>
+          <t xml:space="preserve">The AT-504 is a light 1-2 seat aircraft built by Air Tractor on order in Kenya. It is powered by one PT6A turbine engine. As of December 2019, there were 2 new deliveries on contract with the Kenya Air Force.
+Aviation Week tracks one type associated with this profile, the AT-504. </t>
         </is>
       </c>
     </row>
@@ -8661,8 +8603,8 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>The BAC 167 Strikemaster is a light 1-2 seat aircraft in military service or on order in the United States. It is powered by one Viper jet engine. As of December 2019, there were 7 in military service with the Blue Air Training. 
-AWIN tracks one type for this profile, the BAC 167 Strikemaster. </t>
+          <t xml:space="preserve">The BAC 167 Strikemaster is a light 1-2 seat aircraft in military service in the United States. It is powered by one Viper jet engine. As of December 2019, there were 7 in military service with the Blue Air Training.
+Aviation Week tracks one type associated with this profile, the BAC 167 Strikemaster. </t>
         </is>
       </c>
     </row>
@@ -8684,8 +8626,8 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>The GV Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in Japan and Morocco. They are powered by two BR700 (F130) jet engines. As of December 2019, there were 2 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the G500 [AMASCOS 100] and G550 [SIGINT]. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
+          <t>The GV Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service or on order in Japan and Morocco. They are powered by two BR700 (F130) jet engines. As of December 2019, there were 2 in military service and 4 new deliveries on contract with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the G500 [AMASCOS 100] and G550 [SIGINT]. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
         </is>
       </c>
     </row>
@@ -8707,8 +8649,8 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>The Skyblade is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Singapore. It is powered by one electric engine. As of December 2019, there were 6 in military service with the Singapore Army. 
-AWIN tracks 2 types for this profile, the Skyblade III and Skyblade IV. </t>
+          <t xml:space="preserve">The Skyblade is a Group 1 or 3 UAV built by ST Aerospace in military service or on order in Singapore. It is powered by one electric engine. As of December 2019, it was in military service or on order with the Singapore Army.
+Aviation Week tracks 2 types associated with this profile, the Skyblade III and Skyblade IV. </t>
         </is>
       </c>
     </row>
@@ -8730,8 +8672,8 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>The T-625 Ozgun is a helicopter in development by TAI. It is powered by two CTS800 (T800) turbine engines. 
-AWIN tracks one type for this profile, the T-625. </t>
+          <t xml:space="preserve">The T-625 Ozgun is a helicopter in development by TAI. It is powered by two CTS800 (T800) turbine engines.
+Aviation Week tracks one type associated with this profile, the T-625. </t>
         </is>
       </c>
     </row>
@@ -8753,8 +8695,8 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>The S102B Korpen (GIV) is a SIGINT aircraft in military service or on order in Sweden. It is powered by two Tay jet engines. As of December 2019, there were 2 in military service with the Swedish Air Force. 
-AWIN tracks one type for this profile, the S102B Korpen (GIV). Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
+          <t>The S102B Korpen (GIV) is a SIGINT aircraft built by Gulfstream in military service in Sweden. It is powered by two Tay jet engines. As of December 2019, there were 2 in military service with the Swedish Air Force.
+Aviation Week tracks one type associated with this profile, the S102B Korpen (GIV). Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
         </is>
       </c>
     </row>
@@ -8776,8 +8718,8 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>The Hawker 125 Maritime &amp; C4ISR Conversions are a group of C4ISR aircraft in military service or on order in Japan, Pakistan and South Korea. They are powered by two TFE731 jet engines. As of December 2019, there were 35 in military service with 3 operators. 
-AWIN tracks 3 types for this profile, the Hawker 125-800 [MSA], Hawker 125-800 [SIGINT] and Hawker 125-800RA. </t>
+          <t xml:space="preserve">The Hawker 125 Maritime &amp; C4ISR Conversions are a group of C4ISR aircraft in military service in Japan, Pakistan and South Korea. They are powered by two TFE731 jet engines. As of December 2019, there were 35 in military service with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the Hawker 125-800 [MSA], Hawker 125-800 [SIGINT] and Hawker 125-800RA. </t>
         </is>
       </c>
     </row>
@@ -8799,8 +8741,8 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>The Okhotnik S-70 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one jet engine. As of December 2019, there was one in military service with the Russian Defense Ministry. 
-AWIN tracks one type for this profile, the Okhotnik S-70. </t>
+          <t xml:space="preserve">The Okhotnik S-70 is a Group 5 UAV built by Sukhoi in military service in Russia. It is powered by one jet engine. As of December 2019, there was one in military service with the Russian Defense Ministry.
+Aviation Week tracks one type associated with this profile, the Okhotnik S-70. </t>
         </is>
       </c>
     </row>
@@ -8822,8 +8764,8 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>The Turna is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Turkey. It is powered by one AR 741 piston engine. As of December 2019, it was in military service with 2 operators. 
-AWIN tracks one type for this profile, the Turna. </t>
+          <t xml:space="preserve">The Turna is a Group 3 UAV built by TAI in military service or on order in Turkey. It is powered by one AR 741 piston engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Turna. </t>
         </is>
       </c>
     </row>
@@ -8845,8 +8787,8 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>The G 120 is a light 1-2 seat aircraft in military service or on order in 12 countries. It is powered by one M250 (T63/T703) or O-540 piston or turbine engine. As of December 2019, there were 185 in military service with 13 operators. 
-AWIN tracks 3 types for this profile, the G 120A, G 120A-F and G 120TP. </t>
+          <t xml:space="preserve">The G 120 is a light 1-2 seat aircraft built by Grob in military service in 12 countries. It is powered by one M250 (T63/T703) or O-540 turbine or piston engine. As of December 2019, there were 185 in military service with 13 operators.
+Aviation Week tracks 3 types associated with this profile, the G 120TP, G 120A and G 120A-F. </t>
         </is>
       </c>
     </row>
@@ -8868,8 +8810,8 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>The G500 Nachshon Shavit is a SIGINT aircraft in military service or on order in Israel. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 3 in military service with the Israeli Air Force. 
-AWIN tracks one type for this profile, the G500 Nachshon Shavit. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
+          <t>The G500 Nachshon Shavit is a SIGINT aircraft in military service in Israel. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 3 in military service with the Israeli Air Force.
+Aviation Week tracks one type associated with this profile, the G500 Nachshon Shavit. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
         </is>
       </c>
     </row>
@@ -8891,8 +8833,8 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>The Etendard is a fighter in military service or on order in Argentina. It is powered by one Atar jet engine. As of December 2019, there were 5 in military service with the Argentine Navy. 
-AWIN tracks one type for this profile, the Super Etendard. </t>
+          <t xml:space="preserve">The Etendard is a fighter built by Dassault in military service in Argentina. It is powered by one Atar jet engine. As of December 2019, there were 5 in military service with the Argentine Navy.
+Aviation Week tracks one type associated with this profile, the Super Etendard. </t>
         </is>
       </c>
     </row>
@@ -8914,8 +8856,8 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>The AR3 "Net Ray" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Portugal. It is powered by one piston engine. As of December 2019, it was in military service with the Portuguese Navy. 
-AWIN tracks one type for this profile, the AR3 Net Ray. </t>
+          <t xml:space="preserve">The AR3 "Net Ray" is a Group 2 UAV built by Tekever in military service or on order in Portugal. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Portuguese Navy.
+Aviation Week tracks one type associated with this profile, the AR3 Net Ray. </t>
         </is>
       </c>
     </row>
@@ -8937,8 +8879,8 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>The RQ-7 "Shadow" is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in 6 countries. It is powered by one AR 741 or AR 801 piston engine. As of December 2019, there were 444 in military service with 6 operators. 
-AWIN tracks 4 types for this profile, the RQ-7B V1, RQ-7B V2, Shadow 400 and Shadow 600. </t>
+          <t xml:space="preserve">The RQ-7 "Shadow" is a Group 3 UAV built by Textron in military service or on order in 6 countries. It is powered by one AR 741 or AR 801 piston engine. As of December 2019, it was in military service or on order with 6 operators.
+Aviation Week tracks 4 types associated with this profile, the RQ-7B V1, RQ-7B V2, Shadow 600 and Shadow 400. </t>
         </is>
       </c>
     </row>
@@ -8960,8 +8902,8 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>The G550 CAEW (Nachshon Eitam) is an AEW&amp;C aircraft in military service or on order in Israel, Italy and Singapore. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 8 in military service and one on order with 3 operators. 
-AWIN tracks one type for this profile, the G550 CAEW (Nachshon Eitam). Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
+          <t>The G550 CAEW (Nachshon Eitam) is an AEW&amp;C aircraft in military service or on order in Israel, Italy and Singapore. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 8 in military service and one on order with 3 operators.
+Aviation Week tracks one type associated with this profile, the G550 CAEW (Nachshon Eitam). Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
         </is>
       </c>
     </row>
@@ -8983,8 +8925,8 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>The Il-20 is a SIGINT and radar surveillance aircraft in military service or on order in Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 13 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the Il-20M and Il-20RT. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-22 and Ilyushin Il-38.</t>
+          <t>The Il-20 is a SIGINT and radar surveillance aircraft built by Ilyushin in military service in Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 13 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the Il-20M and Il-20RT. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-22 and Ilyushin Il-38.</t>
         </is>
       </c>
     </row>
@@ -9006,8 +8948,8 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>The Il-22 is a command and control aircraft in military service or on order in Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 19 in military service with 2 operators. 
-AWIN tracks 3 types for this profile, the Il-22, Il-22M and Il-22PP. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-20 and Ilyushin Il-38.</t>
+          <t>The Il-22 is a command and control aircraft built by Ilyushin in military service in Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 19 in military service with 2 operators.
+Aviation Week tracks 3 types associated with this profile, the Il-22, Il-22M and Il-22PP. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-20 and Ilyushin Il-38.</t>
         </is>
       </c>
     </row>
@@ -9029,8 +8971,8 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>The Cessna 400 Series is a civil propeller aircraft in military service or on order in 7 countries. It is powered by two O-520 piston engines. As of December 2019, there were 9 in military service with 7 operators. 
-AWIN tracks 5 types for this profile, the Cessna 402B, Cessna 402C, Cessna 404, Cessna 421B and Cessna 421C. </t>
+          <t xml:space="preserve">The Cessna 400 Series is a civil propeller aircraft built by Cessna in military service in 7 countries. It is powered by two O-520 piston engines. As of December 2019, there were 9 in military service with 7 operators.
+Aviation Week tracks 5 types associated with this profile, the Cessna 402C, Cessna 404, Cessna 402B, Cessna 421C and Cessna 421B. </t>
         </is>
       </c>
     </row>
@@ -9052,8 +8994,8 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>The Il-86VKP is a nuclear command and control aircraft in military service or on order in Russia. It is powered by four NK-86 jet engines. As of December 2019, there were 2 in military service with the Russian Aerospace Forces. 
-AWIN tracks one type for this profile, the Il-86VKP. </t>
+          <t xml:space="preserve">The Il-86VKP is a nuclear command and control aircraft built by Ilyushin in military service in Russia. It is powered by four NK-86 jet engines. As of December 2019, there were 2 in military service with the Russian Aerospace Forces.
+Aviation Week tracks one type associated with this profile, the Il-86VKP. </t>
         </is>
       </c>
     </row>
@@ -9075,8 +9017,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>The Z-9/Z-19 is a helicopter in military service or on order in 13 countries. It is powered by two Arriel turbine engines. As of December 2019, there were 553 in military service and 14 new deliveries on contract with 15 operators. 
-AWIN tracks 14 types for this profile, the H425, Z-19, Z-9, Z-9A, Z-9B, Z-9C [ASW], Z-9D, Z-9EA, Z-9EC, Z-9EH, Z-9S, Z-9W, Z-9WA and Z-9WZ. </t>
+          <t xml:space="preserve">The Z-9/Z-19 is a helicopter built by Harbin in military service or on order in 13 countries. It is powered by two Arriel turbine engines. As of December 2019, there were 553 in military service and 15 new deliveries on contract with 15 operators.
+Aviation Week tracks 14 types associated with this profile, the H425, Z-9EH, Z-9W, Z-9WA, Z-9, Z-9WZ, Z-19, Z-9A, Z-9B, Z-9C [ASW], Z-9D, Z-9S, Z-9EA and Z-9EC. </t>
         </is>
       </c>
     </row>
@@ -9098,8 +9040,8 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>The King Air ISR Variants (incl. RC/MC-12) are a group of C4ISR aircraft in military service or on order in 18 countries. They are powered by two PT6A turbine engines. As of December 2019, there were 170 in military service with 23 operators. 
-AWIN tracks 23 types for this profile. Other profiles in this family include the Beechcraft King Air (90/100/200/300/1900) and Beechcraft King Air Maritime Conversions.</t>
+          <t>The King Air ISR Variants (incl. RC/MC-12) are a group of C4ISR aircraft in military service or on order in 18 countries. They are powered by two PT6A turbine engines. As of December 2019, there were 170 in military service and 13 new deliveries on contract with 23 operators.
+Aviation Week tracks 23 types associated with this profile. Other profiles in this family include the Beechcraft King Air (90/100/200/300/1900) and Beechcraft King Air Maritime Conversions.</t>
         </is>
       </c>
     </row>
@@ -9121,8 +9063,8 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>The Xenon 2 is a helicopter in military service or on order in Burkina Faso. It is powered by one Rotax 912 piston engine. As of December 2019, there were 4 in military service with the Burkina Faso Air Force. 
-AWIN tracks one type for this profile, the Xenon 2 RST ECO. </t>
+          <t xml:space="preserve">The Xenon 2 is a helicopter built by Celier Aviation in military service in Burkina Faso. It is powered by one Rotax 912 piston engine. As of December 2019, there were 4 in military service with the Burkina Faso Air Force.
+Aviation Week tracks one type associated with this profile, the Xenon 2 RST ECO. </t>
         </is>
       </c>
     </row>
@@ -9144,8 +9086,8 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>The Fk9 is a light 1-2 seat aircraft in military service or on order in Cameroon. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Cameroon Air Force. 
-AWIN tracks one type for this profile, the Fk9 ELA. </t>
+          <t xml:space="preserve">The Fk9 is a light 1-2 seat aircraft built by B&amp;F in military service in Cameroon. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Cameroon Air Force.
+Aviation Week tracks one type associated with this profile, the Fk9 ELA. </t>
         </is>
       </c>
     </row>
@@ -9167,8 +9109,8 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>The GB1 Gamebird is a light 1-2 seat aircraft in military service or on order in Chile. It is powered by one IO-580 piston engine. As of December 2019, there were 3 in military service and 3 new deliveries on contract with the Chilean Air Force. 
-AWIN tracks one type for this profile, the GB1 Gamebird. </t>
+          <t xml:space="preserve">The GB1 Gamebird is a light 1-2 seat aircraft built by Game Composites in military service or on order in Chile. It is powered by one IO-580 piston engine. As of December 2019, there were 3 in military service and 3 new deliveries on contract with the Chilean Air Force.
+Aviation Week tracks one type associated with this profile, the GB1 Gamebird. </t>
         </is>
       </c>
     </row>
@@ -9190,8 +9132,8 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>The L-19 (Cessna 305) is a civil propeller aircraft in military service or on order in Chile. It is powered by one O-470 piston engine. As of December 2019, there were 2 in military service with the Chilean Air Force. 
-AWIN tracks one type for this profile, the L-19A. </t>
+          <t xml:space="preserve">The L-19 (Cessna 305) is a civil propeller aircraft built by Cessna in military service in Chile. It is powered by one O-470 piston engine. As of December 2019, there were 2 in military service with the Chilean Air Force.
+Aviation Week tracks one type associated with this profile, the L-19A. </t>
         </is>
       </c>
     </row>
@@ -9213,8 +9155,8 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>The EC-37B Compass Call is a stand-off jammer which replaces the legacy EC-130H Compass Call. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 2 new deliveries on contract with the US Air Force. 
-AWIN tracks one type for this profile, the EC-37B. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 MC-55A and Raytheon NC-37B.</t>
+          <t>The EC-37B Compass Call is a stand-off jammer which replaces the legacy EC-130H Compass Call. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 8 new deliveries on contract with the US Air Force.
+Aviation Week tracks one type associated with this profile, the EC-37B. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 MC-55A and Raytheon NC-37B.</t>
         </is>
       </c>
     </row>
@@ -9236,8 +9178,8 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>The Z-20 is a helicopter in military service or on order in China. It is powered by two PT6C turbine engines. As of December 2019, there were 11 in military service and 248 new deliveries on contract with the People's Liberation Army Ground Force. 
-AWIN tracks 2 types for this profile, the Z-20 and Z-20 [Prototype]. </t>
+          <t xml:space="preserve">The Z-20 is a helicopter built by Changhe in military service or on order in China. It is powered by two PT6C turbine engines. As of December 2019, there were 11 in military service and 248 new deliveries on contract with the People's Liberation Army Ground Force.
+Aviation Week tracks 2 types associated with this profile, the Z-20 and Z-20 [Prototype]. </t>
         </is>
       </c>
     </row>
@@ -9259,8 +9201,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>The MC-55A Peregrine is an electronic warfare aircraft on order by the Royal Australian Air Force. It is powered by two BR700 (F130) jet engines. 
-AWIN tracks one type for this profile, the MC-55A. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B and Raytheon NC-37B.</t>
+          <t>The MC-55A Peregrine is an electronic warfare aircraft on order by the Royal Australian Air Force. It is powered by two BR700 (F130) jet engines.
+Aviation Week tracks one type associated with this profile, the MC-55A. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B and Raytheon NC-37B.</t>
         </is>
       </c>
     </row>
@@ -9282,8 +9224,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>The P2006T is a civil propeller aircraft in military service or on order in the Dominican Republic and Italy. It is powered by two Rotax 912 piston engines. As of December 2019, there were 4 in military service with 2 operators. 
-AWIN tracks one type for this profile, the P2006T. </t>
+          <t xml:space="preserve">The P2006T is a civil propeller aircraft built by Tecnam in military service in the Dominican Republic and Italy. It is powered by two Rotax 912 piston engines. As of December 2019, there were 4 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the P2006T. </t>
         </is>
       </c>
     </row>
@@ -9305,8 +9247,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>The SR-2R Archangel is a light 1-2 seat aircraft in military service or on order in Egypt and the United Arab Emirates. It is powered by one PT6A turbine engine. As of December 2019, there were 24 in military service with 2 operators. 
-AWIN tracks one type for this profile, the S-2R Archangel. </t>
+          <t xml:space="preserve">The SR-2R Archangel is a light 1-2 seat aircraft in military service or on order in Egypt and the United Arab Emirates. It is powered by one PT6A turbine engine. As of December 2019, there were 24 in military service and 22 new deliveries on contract with 2 operators.
+Aviation Week tracks one type associated with this profile, the S-2R Archangel. </t>
         </is>
       </c>
     </row>
@@ -9328,8 +9270,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>The Learjet 25 C4ISR Conversions are a group of C4ISR aircraft in military service or on order in Bolivia. They are powered by two CJ610 jet engines. As of December 2019, there were 2 in military service with the Bolivian Air Force. 
-AWIN tracks one type for this profile, the Learjet 25 [IMINT]. This family also includes the Learjet 31/35/36 C4ISR Conversions profile.</t>
+          <t>The Learjet 25 C4ISR Conversions are a group of C4ISR aircraft in military service in Bolivia. They are powered by two CJ610 jet engines. As of December 2019, there were 2 in military service with the Bolivian Air Force.
+Aviation Week tracks one type associated with this profile, the Learjet 25 [IMINT]. This family also includes the Learjet 31/35/36 C4ISR Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -9351,8 +9293,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>The Fulmar is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Spain. It is powered by one piston engine. As of December 2019, it was in military service with the Spanish Navy. 
-AWIN tracks one type for this profile, the Fulmar. </t>
+          <t xml:space="preserve">The Fulmar is a Group 2 UAV built by Thales in military service or on order in Spain. It is powered by one piston engine. As of December 2019, it was in military service or on order with the Spanish Navy.
+Aviation Week tracks one type associated with this profile, the Fulmar. </t>
         </is>
       </c>
     </row>
@@ -9374,8 +9316,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>The Learjet 31/35/36 C4ISR Conversions are a group of C4ISR aircraft in military service or on order in 9 countries. They are powered by two TFE731 jet engines. As of December 2019, there were 39 in military service with 9 operators. 
-AWIN tracks 7 types for this profile, the Learjet 35A [EWTS], Learjet 35A [IMINT], Learjet 35A [MSA], Learjet 35A [SIGINT], Learjet 36A [EWTS], Learjet 36A [IMINT] and R-35A. This family also includes the Learjet 25 C4ISR Conversions profile.</t>
+          <t>The Learjet 31/35/36 C4ISR Conversions are a group of C4ISR aircraft in military service in 9 countries. They are powered by two TFE731 jet engines. As of December 2019, there were 39 in military service with 9 operators.
+Aviation Week tracks 7 types associated with this profile, the Learjet 35A [IMINT], Learjet 35A [SIGINT], Learjet 35A [EWTS], R-35A, Learjet 36A [IMINT], Learjet 35A [MSA] and Learjet 36A [EWTS]. This family also includes the Learjet 25 C4ISR Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -9397,8 +9339,8 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>The LUH is a helicopter in military service or on order in India. It is powered by one turbine engine. As of December 2019, there were 2 in military service with the HAL. 
-AWIN tracks one type for this profile, the HAL LUH [Prototype]. </t>
+          <t xml:space="preserve">The LUH is a helicopter built by HAL in military service in India. It is powered by one turbine engine. As of December 2019, there were 2 in military service with the HAL.
+Aviation Week tracks one type associated with this profile, the HAL LUH [Prototype]. </t>
         </is>
       </c>
     </row>
@@ -9420,8 +9362,8 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>The HTT-40 is a light 1-2 seat aircraft in military service or on order in India. It is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 2 in military service with the HAL. 
-AWIN tracks one type for this profile, the HTT-40 [Prototype]. </t>
+          <t xml:space="preserve">The HTT-40 is a light 1-2 seat aircraft built by HAL in military service in India. It is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 2 in military service with the HAL.
+Aviation Week tracks one type associated with this profile, the HTT-40 [Prototype]. </t>
         </is>
       </c>
     </row>
@@ -9443,8 +9385,8 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>The LH-10 Guardian is an observation aircraft in military service or on order in Benin. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Benin Air Force. 
-AWIN tracks one type for this profile, the LH-10 Guardian. </t>
+          <t xml:space="preserve">The LH-10 Guardian is an observation aircraft built by LH Aviation in military service in Benin. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Benin Air Force.
+Aviation Week tracks one type associated with this profile, the LH-10 Guardian. </t>
         </is>
       </c>
     </row>
@@ -9466,8 +9408,8 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>The AC-130 is a gunship in military service or on order in the United States. It is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 23 in military service with the US SOCOM. 
-AWIN tracks 2 types for this profile, the AC-130J and AC-130W. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
+          <t>The AC-130 is a gunship in military service or on order in the United States. It is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 23 in military service and 24 new deliveries on contract with the US SOCOM.
+Aviation Week tracks 2 types associated with this profile, the AC-130J and AC-130W. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
         </is>
       </c>
     </row>
@@ -9489,8 +9431,8 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>The Virus SW 80 is a light 1-2 seat aircraft in military service or on order in India. It is powered by one Rotax 912 piston engine. As of December 2019, there were 193 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Virus SW 80. </t>
+          <t xml:space="preserve">The Virus SW 80 is a light 1-2 seat aircraft built by Pipistrel in military service in India. It is powered by one Rotax 912 piston engine. As of December 2019, there were 193 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the Virus SW 80. </t>
         </is>
       </c>
     </row>
@@ -9512,8 +9454,8 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>The Il-38 is a medium transport aircraft in military service or on order in India and Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 22 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the Il-38 and Il-38N. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-20 and Ilyushin Il-22.</t>
+          <t>The Il-38 is a medium transport aircraft built by Ilyushin in military service or on order in India and Russia. It is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 22 in military service and one on order with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the Il-38N and Il-38. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-20 and Ilyushin Il-22.</t>
         </is>
       </c>
     </row>
@@ -9535,8 +9477,8 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>The Tu-141 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Ukraine. It is powered by one KR-17 jet engine. As of December 2019, it was in military service with the Ukrainian Army. 
-AWIN tracks one type for this profile, the Tu-141. </t>
+          <t xml:space="preserve">The Tu-141 is a Group 4 UAV built by Tupolev in military service or on order in Ukraine. It is powered by one KR-17 jet engine. As of December 2019, it was in military service or on order with the Ukrainian Army.
+Aviation Week tracks one type associated with this profile, the Tu-141. </t>
         </is>
       </c>
     </row>
@@ -9558,8 +9500,8 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>The LA-8 is a amphibious aircraft in military service or on order in Iran. It is powered by two O-540 piston engines. As of December 2019, there was one in military service with the Islamic Revolutionary Guard Corps Navy. 
-AWIN tracks one type for this profile, the LA-8C. </t>
+          <t xml:space="preserve">The LA-8 is a amphibious aircraft built by AeroVolga in military service in Iran. It is powered by two O-540 piston engines. As of December 2019, there was one in military service with the Islamic Revolutionary Guard Corps Navy.
+Aviation Week tracks one type associated with this profile, the LA-8C. </t>
         </is>
       </c>
     </row>
@@ -9581,8 +9523,8 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>The EC-130 Compass Call is a C4ISR aircraft in military service or on order in Egypt, Iran and the United States. It is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 23 in military service with 4 operators. 
-AWIN tracks 5 types for this profile, the C-130H [Egypt ELINT], EC-130H, EC-130J Commando Solo, EC-130J Super J and RC-130H. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin AC-130 and Lockheed Martin WC-130.</t>
+          <t>The EC-130 Compass Call is a C4ISR aircraft in military service in Egypt, Iran and the United States. It is powered by four T56 (501) or AE2100 turbine engines. As of December 2019, there were 23 in military service with 4 operators.
+Aviation Week tracks 5 types associated with this profile, the C-130H [Egypt ELINT], RC-130H, EC-130H, EC-130J Commando Solo and EC-130J Super J. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin AC-130 and Lockheed Martin WC-130.</t>
         </is>
       </c>
     </row>
@@ -9604,8 +9546,8 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>The NT-43A is a radar test platform designed to evaluate low observable aircraft. It is powered by two JT8D jet engines. As of December 2019, there was one in military service with the US Air Force. 
-AWIN tracks one type for this profile, the NT-43A. Other profiles in this family include the Boeing 737 AEW&amp;C (E-7 Wedgetail) and Boeing 737 MP Surveiller.</t>
+          <t>The NT-43A is a radar test platform designed to evaluate low observable aircraft. It is powered by two JT8D jet engines. As of December 2019, there was one in military service with the US Air Force.
+Aviation Week tracks one type associated with this profile, the NT-43A. Other profiles in this family include the Boeing 737 AEW&amp;C (E-7 Wedgetail) and Boeing 737 MP Surveiller.</t>
         </is>
       </c>
     </row>
@@ -9627,8 +9569,8 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>The P-3 Orion is an anti-submarine warfare aircraft in military service or on order in 17 countries. It is powered by four T56 (501) turbine engines. As of December 2019, there were 217 in military service with 18 operators. 
-AWIN tracks 19 types for this profile, the CP-140, EP-3, EP-3E, NP-3C, OP-3C, P-3 AEW, P-3 LRT, P-3A, P-3AM, P-3B, P-3C, P-3C [SIGINT], P-3CK, P-3F, P-3K, P-3M, P-3N, UP-3C and UP-3D. </t>
+          <t xml:space="preserve">The P-3 Orion is an anti-submarine warfare aircraft in military service or on order in 17 countries. It is powered by four T56 (501) turbine engines. As of December 2019, there were 217 in military service and 9 new deliveries on contract with 18 operators.
+Aviation Week tracks 19 types associated with this profile, the P-3C, P-3C [SIGINT], P-3AM, CP-140, P-3A, P-3B, P-3F, EP-3, OP-3C, UP-3C, UP-3D, P-3K, P-3N, P-3CK, P-3M, P-3 AEW, P-3 LRT, EP-3E and NP-3C. </t>
         </is>
       </c>
     </row>
@@ -9650,8 +9592,8 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>The WC-130 is a meteorological observation aircraft in military service or on order in the United States. It is powered by four AE2100 turbine engines. As of December 2019, there were 10 in military service with the US Air Force. 
-AWIN tracks one type for this profile, the WC-130J. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin AC-130 and Lockheed Martin EC-130.</t>
+          <t>The WC-130 is a meteorological observation aircraft built by Lockheed Martin in military service in the United States. It is powered by four AE2100 turbine engines. As of December 2019, there were 10 in military service with the US Air Force.
+Aviation Week tracks one type associated with this profile, the WC-130J. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin AC-130 and Lockheed Martin EC-130.</t>
         </is>
       </c>
     </row>
@@ -9673,8 +9615,8 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>The U-2 is high altitude reconissance aircraft military service or on order in the United States. It is powered by one F118 jet engine. As of December 2019, there were 31 in military service with the US Air Force. 
-AWIN tracks 2 types for this profile, the TU-2S and U-2S. </t>
+          <t xml:space="preserve">The U-2 is high altitude reconissance aircraft military service or on order in the United States. It is powered by one F118 jet engine. As of December 2019, there were 31 in military service with the US Air Force.
+Aviation Week tracks 2 types associated with this profile, the TU-2S and U-2S. </t>
         </is>
       </c>
     </row>
@@ -9696,8 +9638,8 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>The YS-11 C4ISR Variants are a group of C4ISR aircraft in military service or on order in Japan. They are powered by four T64 turbine engines. As of December 2019, there were 6 in military service with the Japan Air Self Defense Force. 
-AWIN tracks 2 types for this profile, the YS-11EA and YS-11EB. </t>
+          <t xml:space="preserve">The YS-11 C4ISR Variants are a group of C4ISR aircraft built by NAMC in military service in Japan. They are powered by four T64 turbine engines. As of December 2019, there were 6 in military service with the Japan Air Self Defense Force.
+Aviation Week tracks 2 types associated with this profile, the YS-11EA and YS-11EB. </t>
         </is>
       </c>
     </row>
@@ -9719,8 +9661,8 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>The E-11 BACN is a communications node aircraft in military service or on order in the United States. The aircraft acts as an airborne gateway, enabling different platforms with different data links to communicate to one another. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 in military service with the US Air Force. 
-AWIN tracks one type for this profile, the E-11A. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
+          <t>The E-11 BACN is a communications node aircraft in military service or on order in the United States. The aircraft acts as an airborne gateway, enabling different platforms with different data links to communicate to one another. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 in military service and one on order with the US Air Force.
+Aviation Week tracks one type associated with this profile, the E-11A. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
         </is>
       </c>
     </row>
@@ -9742,8 +9684,8 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>The E-2 Hawkeye is an AEW&amp;C aircraft in military service or on order in Egypt, France, Japan, Taiwan and the United States. It is powered by two T56 (501) turbine engines. As of December 2019, there were 105 in military service and 48 new deliveries on contract with 5 operators. 
-AWIN tracks 5 types for this profile, the E-2C, E-2C 2000, E-2C Group 2, E-2D and TE-2C. This family also includes the Grumman C-2 profile.</t>
+          <t>The E-2 Hawkeye is an AEW&amp;C aircraft in military service or on order in Egypt, France, Japan, Taiwan and the United States. It is powered by two T56 (501) turbine engines. As of December 2019, there were 105 in military service and 51 new deliveries on contract with 5 operators.
+Aviation Week tracks 5 types associated with this profile, the E-2C 2000, E-2C Group 2, E-2D, E-2C and TE-2C. This family also includes the Grumman C-2 profile.</t>
         </is>
       </c>
     </row>
@@ -9765,8 +9707,8 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>The Tu-143 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Ukraine. It is powered by one TR3-117 jet engine. As of December 2019, it was in military service with the Ukrainian Army. 
-AWIN tracks one type for this profile, the Tu-143. </t>
+          <t xml:space="preserve">The Tu-143 is a Group 4 UAV built by Tupolev in military service or on order in Ukraine. It is powered by one TR3-117 jet engine. As of December 2019, it was in military service or on order with the Ukrainian Army.
+Aviation Week tracks one type associated with this profile, the Tu-143. </t>
         </is>
       </c>
     </row>
@@ -9788,8 +9730,8 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>The P.166 Maritime Variants are a group of maritime aircraft in military service or on order in Italy. They are powered by two PT6A turbine engines. As of December 2019, there were 4 in military service with the Italian Guardia Di Finanza (Customs Police). 
-AWIN tracks one type for this profile, the P.166DP1 SEM. </t>
+          <t xml:space="preserve">The P.166 Maritime Variants are a group of maritime aircraft built by Piaggio in military service in Italy. They are powered by two PT6A turbine engines. As of December 2019, there were 4 in military service with the Italian Guardia Di Finanza (Customs Police).
+Aviation Week tracks one type associated with this profile, the P.166DP1 SEM. </t>
         </is>
       </c>
     </row>
@@ -9811,8 +9753,8 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>The RemoEye is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in South Korea and the United Arab Emirates. It is powered by one electric engine. As of December 2019, there were 22 in military service with 2 operators. 
-AWIN tracks one type for this profile, the RemoEye 006. </t>
+          <t xml:space="preserve">The RemoEye is a Group 1 UAV built by Uconsystem in military service or on order in South Korea and the United Arab Emirates. It is powered by one electric engine. As of December 2019, it was in military service or on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the RemoEye 006. </t>
         </is>
       </c>
     </row>
@@ -9834,8 +9776,8 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>The Titan Tornado is a light 1-2 seat aircraft in military service or on order in Morocco. It is powered by one Rotax 582 piston engine. As of December 2019, there were 8 in military service with the Royal Moroccan Gendarmerie. 
-AWIN tracks one type for this profile, the Titan Tornado II. </t>
+          <t xml:space="preserve">The Titan Tornado is a light 1-2 seat aircraft built by Titan Aircraft in military service in Morocco. It is powered by one Rotax 582 piston engine. As of December 2019, there were 8 in military service with the Royal Moroccan Gendarmerie.
+Aviation Week tracks one type associated with this profile, the Titan Tornado II. </t>
         </is>
       </c>
     </row>
@@ -9857,8 +9799,8 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>The R40S is a light 1-2 seat aircraft in military service or on order in Mozambique. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Mozambique Air Force. 
-AWIN tracks one type for this profile, the R40S. </t>
+          <t xml:space="preserve">The R40S is a light 1-2 seat aircraft built by Aerostar in military service in Mozambique. It is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Mozambique Air Force.
+Aviation Week tracks one type associated with this profile, the R40S. </t>
         </is>
       </c>
     </row>
@@ -9880,8 +9822,8 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>The F-330 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Indonesia. It is powered by one piston engine. As of December 2019, there were 6 in military service with the Indonesian Army. 
-AWIN tracks one type for this profile, the Rajawali 330. </t>
+          <t xml:space="preserve">The F-330 is a Group 2 UAV built by Pt Bhinneka Dwi Persada in military service in Indonesia. It is powered by one piston engine. As of December 2019, there were 6 in military service with the Indonesian Army.
+Aviation Week tracks one type associated with this profile, the Rajawali 330. </t>
         </is>
       </c>
     </row>
@@ -9903,8 +9845,8 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>The P.180 Avanti Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service or on order in Thailand. They are powered by two PT6A turbine engines. As of December 2019, there was one in military service with the Royal Thai Air Force. 
-AWIN tracks one type for this profile, the P.180 Avanti II [IMINT]. This family also includes the Piaggio P.1HH Hammerhead profile.</t>
+          <t>The P.180 Avanti Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft built by Piaggio in military service in Thailand. They are powered by two PT6A turbine engines. As of December 2019, there was one in military service with the Royal Thai Air Force.
+Aviation Week tracks one type associated with this profile, the P.180 Avanti II [IMINT]. This family also includes the Piaggio P.1HH Hammerhead profile.</t>
         </is>
       </c>
     </row>
@@ -9926,8 +9868,8 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>The Orlan is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Libya, Russia and Syria. It is powered by one piston engine. As of December 2019, it was in military service with 3 operators. 
-AWIN tracks one type for this profile, the Orlan-10. </t>
+          <t xml:space="preserve">The Orlan is a Group 2 UAV built by Vega Company in military service or on order in Libya, Russia and Syria. It is powered by one piston engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks one type associated with this profile, the Orlan-10. </t>
         </is>
       </c>
     </row>
@@ -9949,8 +9891,8 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>The U-28 is a communications node aircraft in military service or on order in the United States. It is powered by one PT6A turbine engine. As of December 2019, there were 34 in military service with the US SOCOM. 
-AWIN tracks one type for this profile, the U-28A. </t>
+          <t xml:space="preserve">The U-28 is a communications node aircraft built by Pilatus in military service in the United States. It is powered by one PT6A turbine engine. As of December 2019, there were 34 in military service with the US SOCOM.
+Aviation Week tracks one type associated with this profile, the U-28A. </t>
         </is>
       </c>
     </row>
@@ -9972,8 +9914,8 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>The M28B Bryza 1R is a maritime aircraft in military service or on order in Poland. It is powered by two PZL-10/TVD-10 turbine engines. As of December 2019, there were 8 in military service with the Polish Navy. 
-AWIN tracks 2 types for this profile, the M28B1R and M28B1RM bis. This family also includes the PZL-Mielec M28 (An-28/38) profile.</t>
+          <t>The M28B Bryza 1R is a maritime aircraft built by PZL-Mielec in military service in Poland. It is powered by two PZL-10/TVD-10 turbine engines. As of December 2019, there were 8 in military service with the Polish Navy.
+Aviation Week tracks 2 types associated with this profile, the M28B1R and M28B1RM bis. This family also includes the PZL-Mielec M28 (An-28/38) profile.</t>
         </is>
       </c>
     </row>
@@ -9995,8 +9937,8 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>The NC-37B is a range support aircraft based on the IAI Conformal AEW&amp;C G550 configuration. It is powered by two BR700 (F130) jet engines. As of December 2019, there was one new delivery on contract with the US Navy. 
-AWIN tracks one type for this profile, the NC-37B. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B and L-3 MC-55A.</t>
+          <t>The NC-37B is a range support aircraft based on the IAI Conformal AEW&amp;C G550 configuration. It is powered by two BR700 (F130) jet engines. As of December 2019, there was one new delivery on contract with the US Navy.
+Aviation Week tracks one type associated with this profile, the NC-37B. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B and L-3 MC-55A.</t>
         </is>
       </c>
     </row>
@@ -10018,8 +9960,8 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>The Sentinel R.1 is a radar surveillance aircraft in military service or on order in India and the United Kingdom. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 in military service with 2 operators. 
-AWIN tracks one type for this profile, the Sentinel R.1. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN and Saab GlobalEye.</t>
+          <t>The Sentinel R.1 is a radar surveillance aircraft in military service or on order in India and the United Kingdom. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 in military service and one on order with 2 operators.
+Aviation Week tracks one type associated with this profile, the Sentinel R.1. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN and Saab GlobalEye.</t>
         </is>
       </c>
     </row>
@@ -10041,8 +9983,8 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>The Saab 340 AEW&amp;C is a C4ISR aircraft in military service or on order in Sweden, Thailand and the United Arab Emirates. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 6 in military service with 3 operators. 
-AWIN tracks one type for this profile, the Saab 340 [Erieye]. This family also includes the Saab 340 C4ISR &amp; Maritime Conversions profile.</t>
+          <t>The Saab 340 AEW&amp;C is a C4ISR aircraft built by Saab in military service in Sweden, Thailand and the United Arab Emirates. It is powered by two T700 (CT7) turbine engines. As of December 2019, there were 6 in military service with 3 operators.
+Aviation Week tracks one type associated with this profile, the Saab 340 [Erieye]. This family also includes the Saab 340 C4ISR &amp; Maritime Conversions profile.</t>
         </is>
       </c>
     </row>
@@ -10064,8 +10006,8 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>The Karayel is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Turkey. It is powered by one piston engine. As of December 2019, there were 6 in military service with the Turkish Land Forces. 
-AWIN tracks one type for this profile, the Karayel. </t>
+          <t xml:space="preserve">The Karayel is a Group 3 UAV built by Vestel in military service in Turkey. It is powered by one piston engine. As of December 2019, there were 6 in military service with the Turkish Land Forces.
+Aviation Week tracks one type associated with this profile, the Karayel. </t>
         </is>
       </c>
     </row>
@@ -10087,8 +10029,8 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>The KF-X is a fighter being developed by KAI for the Republic of Korea Air Force (ROK). It is powered by two F404/F414 jet engines. The ROK intends to acquire at least 120 indigenous KF-X fighters by 2032 to replace its F-5s. KAI aims for the first KF-X to conduct flight trials by 2022 and for development to conclude by 2026. 
-AWIN tracks 2 types for this profile, the KF-X and KF-X [Prototype]. </t>
+          <t xml:space="preserve">The KF-X is a fighter being developed by KAI for the Republic of Korea Air Force (ROK). It is powered by two F404/F414 jet engines. The ROK intends to acquire at least 120 indigenous KF-X fighters by 2032 to replace its F-5s. KAI aims for the first KF-X to conduct flight trials by 2022 and for development to conclude by 2026.
+Aviation Week tracks 2 types associated with this profile, the KF-X and KF-X [Prototype]. </t>
         </is>
       </c>
     </row>
@@ -10110,8 +10052,8 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>The Saab 340 C4ISR &amp; Maritime Conversions are a group of maritime and C4ISR aircraft in military service or on order in Japan, Sweden and Thailand. They are powered by two T700 (CT7) turbine engines. As of December 2019, there were 6 in military service with 3 operators. 
-AWIN tracks 3 types for this profile, the Saab 340B [MSA], Saab 340B [Open Skies] and Saab 340B [SIGINT]. This family also includes the Saab 340 AEW&amp;C profile.</t>
+          <t>The Saab 340 C4ISR &amp; Maritime Conversions are a group of maritime and C4ISR aircraft built by Saab in military service in Japan, Sweden and Thailand. They are powered by two T700 (CT7) turbine engines. As of December 2019, there were 6 in military service with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the Saab 340B [MSA], Saab 340B [Open Skies] and Saab 340B [SIGINT]. This family also includes the Saab 340 AEW&amp;C profile.</t>
         </is>
       </c>
     </row>
@@ -10133,8 +10075,8 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>The GlobalEye is an AEW&amp;C aircraft built by Saab. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 3 new deliveries on contract with the United Arab Emirates Air Force. 
-AWIN tracks one type for this profile, the Global 6000 [GlobalEye]. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN and Raytheon Sentinel R.1.</t>
+          <t>The GlobalEye is an AEW&amp;C aircraft built by Saab. It is powered by two BR700 (F130) jet engines. As of December 2019, there were 5 new deliveries on contract with the United Arab Emirates Air Force.
+Aviation Week tracks one type associated with this profile, the Global 6000 [GlobalEye]. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN and Raytheon Sentinel R.1.</t>
         </is>
       </c>
     </row>
@@ -10156,8 +10098,8 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>The SA2-37 is a C4ISR aircraft in military service or on order in Colombia. It is powered by one O-540 piston engine. As of December 2019, there were 5 in military service with the Colombian Air Force. 
-AWIN tracks one type for this profile, the SA2-37B. </t>
+          <t xml:space="preserve">The SA2-37 is a C4ISR aircraft built by Schweizer in military service in Colombia. It is powered by one O-540 piston engine. As of December 2019, there were 5 in military service with the Colombian Air Force.
+Aviation Week tracks one type associated with this profile, the SA2-37B. </t>
         </is>
       </c>
     </row>
@@ -10179,8 +10121,8 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>The DA42 Centaur OPA is a civil propeller aircraft in military service or on order in Switzerland. It is powered by two AE300 piston engines. As of December 2019, there was one in military service with the Swiss Defense Procurement Agency (Armasuisse). 
-AWIN tracks one type for this profile, the DA42 Centaur OPA. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42 and Diamond DA42-M/MPP.</t>
+          <t>The DA42 Centaur OPA is a civil propeller aircraft built by Aurora Flight Sciences in military service in Switzerland. It is powered by two AE300 piston engines. As of December 2019, there was one in military service with the Swiss Defense Procurement Agency (Armasuisse).
+Aviation Week tracks one type associated with this profile, the DA42 Centaur OPA. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42 and Diamond DA42-M/MPP.</t>
         </is>
       </c>
     </row>
@@ -10202,8 +10144,8 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>The Tu-134AK is a communications node aircraft in military service or on order in Russia and Ukraine. It is powered by two D-30 jet engines. As of December 2019, there were 23 in military service with 3 operators. 
-AWIN tracks one type for this profile, the Tu-134AK Balkany. </t>
+          <t xml:space="preserve">The Tu-134AK is a communications node aircraft built by Tupolev in military service in Russia and Ukraine. It is powered by two D-30 jet engines. As of December 2019, there were 23 in military service with 3 operators.
+Aviation Week tracks one type associated with this profile, the Tu-134AK Balkany. </t>
         </is>
       </c>
     </row>
@@ -10225,8 +10167,8 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>The HS-6L is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Vietnam. It is powered by one Rotax 914 piston engine. As of December 2019, there was one in military service with the Vietnam People's Air Force. 
-AWIN tracks one type for this profile, the HS-6L. </t>
+          <t xml:space="preserve">The HS-6L is a Group 3 UAV built by Vietnam Academy Of Science and Industry in military service in Vietnam. It is powered by one Rotax 914 piston engine. As of December 2019, there was one in military service with the Vietnam People's Air Force.
+Aviation Week tracks one type associated with this profile, the HS-6L. </t>
         </is>
       </c>
     </row>
@@ -10248,8 +10190,8 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>The Tu-142 is an anti-submarine warfare aircraft in military service or on order in Russia. It is powered by four NK-12 turbine engines. As of December 2019, there were 22 in military service with the Russian Navy. 
-AWIN tracks 3 types for this profile, the Tu-142MK, Tu-142MR and Tu-142MZ. This family also includes the Tupolev Tu-95 profile.</t>
+          <t>The Tu-142 is an anti-submarine warfare aircraft built by Tupolev in military service in Russia. It is powered by four NK-12 turbine engines. As of December 2019, there were 22 in military service with the Russian Navy.
+Aviation Week tracks 3 types associated with this profile, the Tu-142MK, Tu-142MR and Tu-142MZ. This family also includes the Tupolev Tu-95 profile.</t>
         </is>
       </c>
     </row>
@@ -10271,8 +10213,8 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>The Hurjet is a light 1-2 seat aircraft in development. It is powered by one jet engine. As of December 2019, it was in military service with the Turkish Air Force. 
-AWIN tracks one type for this profile, the Hurjet. </t>
+          <t xml:space="preserve">The Hurjet is a light 1-2 seat aircraft in development in Turkey. It is powered by one jet engine. As of December 2019, there were 40 new deliveries on contract with the Turkish Air Force.
+Aviation Week tracks one type associated with this profile, the Hurjet. </t>
         </is>
       </c>
     </row>
@@ -10294,8 +10236,8 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>The ASN-104/105 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China. It is powered by one HS-510 piston engine. As of December 2019, it was in military service with the People's Liberation Army Ground Force. 
-AWIN tracks one type for this profile, the ASN-105B. </t>
+          <t xml:space="preserve">The ASN-104/105 is a Group 3 UAV built by Xian ASN Technical Group in military service or on order in China. It is powered by one HS-510 piston engine. As of December 2019, it was in military service or on order with the People's Liberation Army Ground Force.
+Aviation Week tracks one type associated with this profile, the ASN-105B. </t>
         </is>
       </c>
     </row>
@@ -10317,8 +10259,8 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>The AHRLAC (Mwari) is a light attack, counter insurgency aircraft. It is powered by one PT6A turbine engine. As of December 2019, there were 16 new deliveries on contract with the United Arab Emirates Air Force. 
-AWIN tracks one type for this profile, the AHRLAC (Mwari). </t>
+          <t xml:space="preserve">The AHRLAC (Mwari) is a light attack, counter insurgency aircraft. It is powered by one PT6A turbine engine. As of December 2019, there were 16 new deliveries on contract with the United Arab Emirates Air Force.
+Aviation Week tracks one type associated with this profile, the AHRLAC (Mwari). </t>
         </is>
       </c>
     </row>
@@ -10340,8 +10282,8 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>The Tu-154 M/D is a SIGINT aircraft in military service or on order in China. It is powered by three D-30 jet engines. As of December 2019, there were 8 in military service with the People's Liberation Army Air Force. 
-AWIN tracks one type for this profile, the Tu-154M/D. </t>
+          <t xml:space="preserve">The Tu-154 M/D is a SIGINT aircraft built by Tupolev in military service in China. It is powered by three D-30 jet engines. As of December 2019, there were 8 in military service with the People's Liberation Army Air Force.
+Aviation Week tracks one type associated with this profile, the Tu-154M/D. </t>
         </is>
       </c>
     </row>
@@ -10363,8 +10305,8 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>The Tu-214 ISR Variants are a group of C4ISR aircraft in military service or on order in Russia. They are powered by two PS-90 jet engines. As of December 2019, there were 6 in military service and one on order with 2 operators. 
-AWIN tracks 3 types for this profile, the Tu-214ON, Tu-214PU-SBUS and Tu-214R. </t>
+          <t xml:space="preserve">The Tu-214 ISR Variants are a group of C4ISR aircraft built by Tupolev in military service or on order in Russia. They are powered by two PS-90 jet engines. As of December 2019, there were 6 in military service and one on order with 2 operators.
+Aviation Week tracks 3 types associated with this profile, the Tu-214ON, Tu-214R and Tu-214PU-SBUS. </t>
         </is>
       </c>
     </row>
@@ -10386,8 +10328,8 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>The ASN-15 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China. It is powered by one piston engine. As of December 2019, it was in military service with the People's Liberation Army Ground Force. 
-AWIN tracks one type for this profile, the ASN-15. </t>
+          <t xml:space="preserve">The ASN-15 is a Group 1 UAV built by Xian ASN Technical Group in military service or on order in China. It is powered by one piston engine. As of December 2019, it was in military service or on order with the People's Liberation Army Ground Force.
+Aviation Week tracks one type associated with this profile, the ASN-15. </t>
         </is>
       </c>
     </row>
@@ -10409,8 +10351,8 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>The DHC-6 C4ISR Variants are a group of C4ISR aircraft in military service or on order in Switzerland and the United Arab Emirates. They are powered by two PT6A turbine engines. As of December 2019, there were 5 in military service with 2 operators. 
-AWIN tracks one type for this profile, the DHC-6-300 [IMINT]. This family also includes the Viking Air DHC-6 Martime Variants profile.</t>
+          <t>The DHC-6 C4ISR Variants are a group of C4ISR aircraft in military service in Switzerland and the United Arab Emirates. They are powered by two PT6A turbine engines. As of December 2019, there were 5 in military service with 2 operators.
+Aviation Week tracks one type associated with this profile, the DHC-6-300 [IMINT]. This family also includes the Viking Air DHC-6 Martime Variants profile.</t>
         </is>
       </c>
     </row>
@@ -10432,8 +10374,8 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>The ASN-206/207/209 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China and Egypt. It is powered by one HS-700 piston engine. As of December 2019, there were 52 in military service with 3 operators. 
-AWIN tracks 3 types for this profile, the ASN-206, ASN-207 and ASN-209. </t>
+          <t xml:space="preserve">The ASN-206/207/209 is a Group 3 UAV built by Xian ASN Technical Group in military service or on order in China and Egypt. It is powered by one HS-700 piston engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks 3 types associated with this profile, the ASN-206, ASN-207 and ASN-209. </t>
         </is>
       </c>
     </row>
@@ -10455,8 +10397,8 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>The ASN-7 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in China. It is powered by one HS-700 piston engine. As of December 2019, it was in military service with the People's Liberation Army Ground Force. 
-AWIN tracks one type for this profile, the ASN-7. </t>
+          <t xml:space="preserve">The ASN-7 is a Group 3 UAV built by Xian ASN Technical Group in military service or on order in China. It is powered by one HS-700 piston engine. As of December 2019, it was in military service or on order with the People's Liberation Army Ground Force.
+Aviation Week tracks one type associated with this profile, the ASN-7. </t>
         </is>
       </c>
     </row>
@@ -10478,8 +10420,8 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>The DHC-6 Martime Variants are a group of maritime aircraft in military service or on order in the United Arab Emirates and Vietnam. They are powered by two PT6A turbine engines. As of December 2019, there were 10 in military service with 2 operators. 
-AWIN tracks 2 types for this profile, the DHC-6 Guardian 400 and DHC-6-400 [MSA]. This family also includes the Viking Air DHC-6 C4ISR Variants profile.</t>
+          <t>The DHC-6 Martime Variants are a group of maritime aircraft built by Viking Air in military service in the United Arab Emirates and Vietnam. They are powered by two PT6A turbine engines. As of December 2019, there were 10 in military service with 2 operators.
+Aviation Week tracks 2 types associated with this profile, the DHC-6 Guardian 400 and DHC-6-400 [MSA]. This family also includes the Viking Air DHC-6 C4ISR Variants profile.</t>
         </is>
       </c>
     </row>
@@ -10501,8 +10443,8 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>The Pchela is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in North Korea and Russia. It is powered by one P-032 piston engine. As of December 2019, there were 10 in military service with 3 operators. 
-AWIN tracks one type for this profile, the Pchela-1T. </t>
+          <t xml:space="preserve">The Pchela is a Group 3 UAV built by Yakovlev in military service or on order in North Korea and Russia. It is powered by one P-032 piston engine. As of December 2019, it was in military service or on order with 3 operators.
+Aviation Week tracks one type associated with this profile, the Pchela-1T. </t>
         </is>
       </c>
     </row>
@@ -10524,8 +10466,8 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>The RMAX is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Japan. It is powered by one L 15 piston engine. As of December 2019, there were 3 in military service with the Japan Ground Self Defense Force. 
-AWIN tracks one type for this profile, the RMAX Mk IIG. </t>
+          <t xml:space="preserve">The RMAX is a Group 3 UAV built by Yamaha in military service in Japan. It is powered by one L 15 piston engine. As of December 2019, there were 3 in military service with the Japan Ground Self Defense Force.
+Aviation Week tracks one type associated with this profile, the RMAX Mk IIG. </t>
         </is>
       </c>
     </row>
@@ -10547,23 +10489,13 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>The Zala 421 is a GroupCommercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Fighter, Light 1-2 seater, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Helicopter, Helicopter, Helicopter, Light 1-2 seater, Light 1-2 seater,  3 ,  1 ,  2 , Light 1-2 seater,  3 ,  1 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Tiltrotor,  1 ,  3 , Civil Propeller,  3 ,  3 ,  5 ,  1 ,  2 , Helicopter, Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built),  4 , Helicopter, Civil Propeller,  1 , Military Maritime Patrol (purpose-built), Bomber, Bomber, Bomber, Bomber, Light 1-2 seater,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  4 ,  4 ,  5 ,  5 ,  3 ,  3 ,  4 ,  2 , Civil Propeller, Light 1-2 seater, Amphibian, Business Jet, Helicopter, Helicopter, Helicopter, Helicopter,  1 ,  3 , Civil Propeller,  1 , Light 1-2 seater,  3 , Military Transport (purpose-built), Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Civil Propeller, Civil Propeller, Light 1-2 seater, Light 1-2 seater,  2 , Civil Propeller, Helicopter,  4 ,  5 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Amphibian,  3 , Military Transport (purpose-built), Military Transport (purpose-built),  4 , Commercial Jet, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 , Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet, Business Jet,  4 , Light 1-2 seater, Business Jet,  3 , Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller,  3 ,  1 , Helicopter, Civil Propeller, Civil Propeller, Civil Propeller,  3 , Civil Propeller, Civil Propeller,  3 , Business Jet, Military C4ISR (purpose-built), Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Commercial Jet, Civil Propeller,  3 , Light 1-2 seater, Light 1-2 seater, Military Transport (purpose-built), Business Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  1 , Helicopter, Fighter,  4 , Fighter, Fighter, Fighter, Fighter, Fighter, Fighter,  2 , Fighter, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Fighter, Civil Propeller, Civil Propeller, Commercial Jet, Light 1-2 seater, Light 1-2 seater,  3 , Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Light 1-2 seater,  3 , Helicopter,  2 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Civil Propeller, Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet, Helicopter, Business Jet, Business Jet, Business Jet,  2 , Helicopter, Helicopter, Helicopter, Bomber, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Military Transport (purpose-built), Light 1-2 seater, Light 1-2 seater,  3 , Civil Propeller, Light 1-2 seater, Fighter, Business Jet, Light 1-2 seater, Business Jet, Business Jet,  3 ,  4 ,  3 ,  4 ,  5 ,  1 ,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Light 1-2 seater, Military Transport (purpose-built), Military Transport (purpose-built),  2 , Military Transport (purpose-built), Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Commercial Jet, Military Transport (purpose-built), Commercial Jet,  1 , Fighter, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater, Fighter, Light 1-2 seater,  2 , Fighter,  3 , Business Jet, Civil Propeller, Helicopter, Commercial Jet, Civil Propeller, Military Transport (purpose-built), Military Transport (purpose-built), Military Transport (purpose-built), Commercial Jet, Fighter, Light 1-2 seater, Helicopter,  3 , Helicopter, Helicopter, Helicopter, Helicopter,  3 , Civil Propeller, Civil Propeller, Civil Propeller,  3 , Commercial Jet, Civil Propeller, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Amphibian, Light 1-2 seater, Helicopter,  4 , Light 1-2 seater, Business Jet, Business Jet, Business Jet, Business Jet,  4 ,  3 ,  3 , Light 1-2 seater, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Light 1-2 seater, Light 1-2 seater, Business Jet, Helicopter, Helicopter, Light 1-2 seater,  4 ,  4 ,  5 , Helicopter,  5 ,  4 ,  3 , Civil Propeller, Civil Propeller, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Helicopter, Fighter, Fighter, Light 1-2 seater, Fighter, Fighter, Fighter,  2 ,  3 ,  3 , Fighter, Fighter, Fighter, Helicopter, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet, Business Jet,  3 ,  4 , Business Jet, Helicopter, Commercial Jet,  3 , Civil Propeller, Military Transport (purpose-built), Helicopter, Light 1-2 seater,  5 ,  2 ,  4 ,  2 , Military Maritime Patrol (purpose-built), Military Maritime Patrol (purpose-built), Civil Propeller, Commercial Jet, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Light 1-2 seater, Civil Propeller, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Bomber, Civil Propeller, Light 1-2 seater, Business Jet, Civil Propeller, Light 1-2 seater,  1 , Light 1-2 seater,  3 ,  4 ,  3 , Business Jet,  3 , Business Jet, Fighter, Light 1-2 seater, Light 1-2 seater, Civil Propeller,  4 , Helicopter, Light 1-2 seater,  3 , Military Transport (purpose-built), Civil Propeller,  3 ,  3 ,  1 ,  1 ,  1 ,  1 ,  3 ,  5 ,  3 , Light 1-2 seater, Fighter,  1 ,  4 , Military Maritime Patrol (purpose-built), Helicopter, Helicopter, Civil Propeller, Helicopter, Business Jet,  3 , Light 1-2 seater, Light 1-2 seater, Helicopter, Amphibian,  3 ,  2 ,  3 , Light 1-2 seater, Civil Propeller, Helicopter, Light 1-2 seater, Civil Propeller, Civil Propeller, Civil Propeller, Civil Propeller, Business Jet,  3 , Light 1-2 seater,  2 ,  3 ,  3 ,  3 , Light 1-2 seater,  3 , Business Jet,  2 ,  4 ,  3 ,  3 ,  3 ,  5 ,  1 ,  3 ,  1 ,  3 ,  1 ,  3 , Civil Propeller, Light 1-2 seater,  3 ,  1 ,  1 , Fighter, Fighter, Fighter, Fighter, Fighter, Commercial Jet, Light 1-2 seater,  3 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Helicopter, Light 1-2 seater, Light 1-2 seater, Civil Propeller, Civil Propeller, Fighter, Light 1-2 seater,  4 , Light 1-2 seater, Light 1-2 seater, Light 1-2 seater, Light 1-2 seater,  3 , Helicopter,  3 , Light 1-2 seater, Fighter,  2 , Commercial Jet, Commercial Jet,  4 , Bomber,  4 , Commercial Jet, Commercial Jet, Bomber, Commercial Jet, Bomber, Bomber,  3 , Fighter, Military C4ISR (purpose-built), Civil Propeller, Business Jet, Amphibian, Light 1-2 seater, Tiltrotor, Commercial Jet,  3 ,  3 , Light 1-2 seater,  3 ,  3 , Helicopter, Military Transport (purpose-built), Military Transport (purpose-built),  4 , Business Jet, Helicopter,  5 , Light 1-2 seater, Civil Propeller, Military Transport (purpose-built), Civil Propeller, Civil Propeller,  4 ,  3 ,  4 , Light 1-2 seater, Light 1-2 seater, Commercial Jet, Light 1-2 seater,  3 ,  4 ,  5 , Helicopter, Helicopter, Light 1-2 seater, Helicopter,  1 ,  3 ,  1 ,  2 ,  3 ,  4  or Light 1-2 seaterUAV in military service or on order in Russia. It is powered by one electric engine. As of December 2019, it was in military service with the Russian Ground Forces. 
-AWIN tracks one type for this profile, the Zala 421-08. </t>
+          <t xml:space="preserve">The Zala 421 is a Group 1 UAV built by Zala in military service or on order in Russia. It is powered by one electric engine. As of December 2019, it was in military service or on order with the Russian Ground Forces.
+Aviation Week tracks one type associated with this profile, the Zala 421-08. </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D441"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter>&amp;L&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Rockwell"&amp;9 &amp;K0078D7#Information Classification: General</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10573,3106 +10505,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A441"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A441"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="65.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>The Yabhon Flash 20 is a Group 4 UAV in military service in Algeria and Nigeria. The type is powered by two piston engines. As of December 2019, there were 2 in military service with 2 operators. AWIN tracks one type for this profile, the Yabhon Flash 20.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>The A330 AWACS is a C4ISR aircraft in military service in India. The type is powered by two jet engines. As of December 2019, it was in military service with the Indian Air Force. AWIN tracks one type for this profile, the A330-200 [India AEW]. This family also includes the Airbus A330 MRTT profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>The C212 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in 7 countries. The type is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 21 in military service and 2 new deliveries on contract with 7 operators. AWIN tracks 5 types for this profile, the C212-200 [ECM], C212-200MP, C212-300MP, C212-400MP and NC212i [MRA]. This family also includes the Airbus C212 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>The CN235/C295 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in 18 countries. The type is powered by two PW100 or T700 (CT7) turbine engines. As of December 2019, there were 60 in military service and 6 new deliveries on contract with 22 operators. AWIN tracks 13 types for this profile, the C295 AEW, C295 MPA, C295 MPA [ASW], C295 [Dragon Shield], CN235-100MP, CN235-110MP, CN235-200 MPA, CN235-220 MPA, CN235-300 MPA, CN235M-100 EW, CN235M-100 Meltem II, CN235M-100 [Open Skies] and ECN235. Other profiles in this family include the Airbus HC-144 and Airbus CN235/C295.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The Yabhon United 40 is a Group 4 UAV in military service in Algeria. The type is powered by two piston engines. As of December 2019, there were 2 in military service with the Algerian Air Force. AWIN tracks one type for this profile, the Yabhon United 40 Block 5.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The CT-114 (CL-41) is a light 1-2 seat aircraft in military service in Canada. The type is powered by one J85 jet engine. As of December 2019, there were 30 in military service with the Royal Canadian Air Force. AWIN tracks one type for this profile, the CT-114.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>The Yabhon N is a Group 3 UAV in military service in the United Arab Emirates. The type is powered by one piston engine. As of December 2019, it was in military service with the United Arab Emirates Air Force. AWIN tracks one type for this profile, the Yabhon N.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>The C-101 is a light 1-2 seat aircraft in military service in Chile and Spain. The type is powered by one TFE731 jet engine. As of December 2019, there were 67 in military service with 2 operators. AWIN tracks one type for this profile, the C-101CC (A-36 Halcon).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>The Aerolight is a Group 3 UAV in military service in Israel. The type is powered by one piston engine. As of December 2019, it was in military service with the Israeli Air Force. AWIN tracks one type for this profile, the Aerolight.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The Aerostar is a Group 3 UAV in military service in Azerbaijan, Georgia, Nigeria, Thailand and the United States. The type is powered by one 498 piston engine. As of December 2019, there were 20 in military service with 5 operators. AWIN tracks one type for this profile, the Aerostar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>The Orbiter is a Group 2 UAV in military service in 10 countries. The type is powered by one electric engine. As of December 2019, there were 257 in military service with 11 operators. AWIN tracks 4 types for this profile, the Orbiter, Orbiter 2, Orbiter 2B and Orbiter 3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>The Dominator XP is a Civil Propeller in military service in Mexico and Thailand. The type is powered by two AE300 or Centurion (CD-135/155) piston engines. As of December 2019, there were 4 in military service with 2 operators. AWIN tracks one type for this profile, the Dominator XP. Other profiles in this family include the Diamond DA42, Diamond DA42-M/MPP and Aurora Flight Sciences DA42 Centaur OPA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>The MB-326 is a light 1-2 seat aircraft in military service in Tunisia and Zambia. The type is powered by one Viper jet engine. As of December 2019, there were 18 in military service with 2 operators. AWIN tracks one type for this profile, the MB-326G.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>The MB-339 is a light 1-2 seat aircraft in military service in 7 countries. The type is powered by one Viper jet engine. As of December 2019, there were 113 in military service with 8 operators. AWIN tracks 4 types for this profile, the MB-339A, MB-339CB, MB-339CD and MB-339CM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>The L-39/59/159 is a light 1-2 seat aircraft in military service in 34 countries. The type is powered by one AI-25, DV-2, F124/F125 (TFE1042) or FJ44 jet engine. As of December 2019, there were 492 in military service and 4 new deliveries on contract with 40 operators. AWIN tracks 15 types for this profile, the L-159A, L-159E, L-159T1, L-159T2, L-159T2EX, L-39C, L-39CM, L-39CW, L-39M1, L-39NG, L-39NG [Prototype], L-39ZA, L-39ZAM, L-39ZO and L-59E.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>The L-29 is a light 1-2 seat aircraft in military service in the United States. The type is powered by one M-701 jet engine.there was one in military service with the Tactical Air Support, Inc.. AWIN tracks one type for this profile, the L-29.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>The Ximango is a light 1-2 seat aircraft in military service in the Dominican Republic. The type is powered by one Rotax 912 piston engine.there was one in military service with the Dominican Republic Air Force. AWIN tracks one type for this profile, the AMT-200S Super Ximango.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>The Blackwing is a Group 1 UAV in military service in the United States. The type is powered by one electric engine. As of December 2019, it was in military service with the US Navy. AWIN tracks one type for this profile, the Blackwing.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>The RQ-11 "Raven" is a Group 1 UAV in military service in 13 countries. The type is powered by one 27/26/7-AV electric engine. As of December 2019, there were 8005 in military service and 12 new deliveries on contract with 16 operators. AWIN tracks 2 types for this profile, the RQ-11A/B and RQ-11B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The RQ-12 "Wasp" is a Group 1 UAV in military service in Australia, France, Sweden and the United States. The type is powered by one electric engine. As of December 2019, there were 477 in military service and 43 new deliveries on contract with 6 operators. AWIN tracks one type for this profile, the RQ-12A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>The RQ-20 "Puma" is a Group 1 UAV in military service in 6 countries. The type is powered by one electric engine. As of December 2019, there were 1411 in military service and 6 new deliveries on contract with 10 operators. AWIN tracks 2 types for this profile, the RQ-20A and RQ-20B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>The Snipe [Aerovironment] is a Group 1 UAV in military service in the United States. The type is powered by four electric engines. As of December 2019, there were 20 in military service with the US Army. AWIN tracks one type for this profile, the Snipe [AeroVironment].</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Phoenix Jet is a Group 3 UAV in military service in Australia. The type is powered by one jet engine. As of December 2019, there were 14 in military service with the Air Affairs Australia. AWIN tracks one type for this profile, the Phoenix Jet.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>The Alkyon is a Group 2 UAV in military service in Greece. The type is powered by one 3W-120i piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Alkyon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The Frelon (Z-8/18) is a helicopter in military service in China. The type is powered by three Turmo turbine engines. As of December 2019, there were 139 in military service with 3 operators. AWIN tracks 11 types for this profile, the Z-18, Z-18A, Z-18F, Z-18J, Z-8A, Z-8B, Z-8G, Z-8JH, Z-8KA, Z-8L and Z-8S.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>The EuroMALE is a Group 4 UAV in military service in France, Germany, Italy and Spain. The type is powered by one turbine engine. As of December 2019, it was in military service with 4 operators. AWIN tracks one type for this profile, the EuroMALE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>The Fox is a Group 3 UAV in military service in France, the Netherlands and Qatar. The type is powered by one L 275 or L 550 piston engine. As of December 2019, it was in military service with 3 operators. AWIN tracks 2 types for this profile, the Fox AT-1 and Fox TS3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>The KZO is a Group 3 UAV in military service in Germany. The type is powered by one piston engine. As of December 2019, there were 43 in military service with the German Army. AWIN tracks one type for this profile, the KZO.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>The AT-3 is a light 1-2 seat aircraft in military service in Taiwan. The type is powered by two TFE731 jet engines. As of December 2019, there were 46 in military service with the Republic of China Air Force. AWIN tracks one type for this profile, the AT-3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>The AT-802 is a light 1-2 seat aircraft in military service in 7 countries. The type is powered by one PT6A turbine engine. As of December 2019, there were 33 in military service with 7 operators. AWIN tracks 4 types for this profile, the AT-802A, AT-802F, AT-802L (OA-8) and AT-802U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>The A310 MRTT is a medium transport aircraft in military service in Canada and Germany. The type is powered by two CF6-80 (F138) jet engines. As of December 2019, there were 6 in military service with 2 operators. AWIN tracks one type for this profile, the A310-300 MRTT.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>The HC-144 is a maritime aircraft in military service in the United States. The type is powered by two T700 (CT7) turbine engines. As of December 2019, there were 14 in military service with the US Coast Guard. AWIN tracks 2 types for this profile, the HC-144A and HC-144B. Other profiles in this family include the Airbus CN235/C295 Maritime &amp; C4ISR Conversions and Airbus CN235/C295.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>The C212 is a civil propeller aircraft in military service in 22 countries. The type is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 105 in military service and 4 new deliveries on contract with 28 operators. AWIN tracks 9 types for this profile, the C212-100, C212-200, C212-200M, C212-300, C212-300M, C212-400, NC212-200, NC212-200M and NC212i. This family also includes the Airbus C212 Maritime &amp; C4ISR Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>The CN235/C295 is a light transport aircraft in military service in 44 countries. The type is powered by two PW100 or T700 (CT7) turbine engines. As of December 2019, there were 304 in military service and 25 new deliveries on contract with 49 operators. AWIN tracks 9 types for this profile, the C295, CN235-10, CN235-220, CN235-300, CN235M-100, CN235M-110, CN235M-200, CN235M-220 and CN235M-300. Other profiles in this family include the Airbus CN235/C295 Maritime &amp; C4ISR Conversions and Airbus HC-144.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>The CH2000 ISR Conversions are a group of C4ISR aircraft in military service in Iraq. The type is powered by one O-235 piston engine. As of December 2019, there were 8 in military service with the Iraqi Air Force. AWIN tracks one type for this profile, the CH2000 [ISR]. This family also includes the AMD Alarus CH2000 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The An-12 (Y-8/Y-9) Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service in China, Pakistan and Russia. The type is powered by four AI-20 (WJ-6) or PW100 turbine engines. As of December 2019, there were 119 in military service and 6 new deliveries on contract with 5 operators. AWIN tracks 25 types for this profile. This family also includes the Antonov An-12 (Xian Y-8/9) profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>The Tracker is a Group 2 UAV in military service in Austria and Saudi Arabia. The type is powered by two electric engines. As of December 2019, there were 53 in military service with 2 operators. AWIN tracks one type for this profile, the Tracker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>The Zephyr is a Group 3 UAV in military service in the United Kingdom. The type is powered by two electric engines. As of December 2019, there were 3 new deliveries on contract with the Royal Air Force. AWIN tracks one type for this profile, the Zephyr S.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>The AR100-B is a Group 1 UAV in military service in Germany. The type is powered by four electric engines. As of December 2019, there were 145 in military service with the German Army. AWIN tracks one type for this profile, the AR100-B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>The ABJT is a Group 2 UAV in military service in Pakistan. The type is powered by one jet engine. As of December 2019, it was in military service with 3 operators. AWIN tracks one type for this profile, the ABJT.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>The Hud Hud II is a Group 3 UAV in military service in Pakistan. The type is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Army. AWIN tracks one type for this profile, the Hud Hud II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>The Shahbaz is a Group 2 UAV in military service in Pakistan. The type is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Army. AWIN tracks one type for this profile, the Shahbaz.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>The Shahzore is a Group 3 UAV in military service in Pakistan. The type is powered by one piston engine. As of December 2019, it was in military service with 3 operators. AWIN tracks one type for this profile, the Shahzore.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>The T-20 is a Group 3 UAV in military service in Mexico. The type is powered by one GC190 piston engine. As of December 2019, it was in military service with the Mexican Navy. AWIN tracks 2 types for this profile, the T-20 and T-20 JUMP.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>The C-27 / G.222 is a light transport aircraft in military service in 15 countries. The type is powered by two AE2100 or T64 turbine engines. As of December 2019, there were 85 in military service and 3 new deliveries on contract with 17 operators. AWIN tracks 5 types for this profile, the C-27J, EC-27J, G.222 (C-27A), HC-27J and MC-27J.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>The CH2000 is a light 1-2 seat aircraft in military service in Peru. The type is powered by one O-235 piston engine. As of December 2019, there were 6 in military service and 11 new deliveries on contract with the Peruvian Air Force. AWIN tracks one type for this profile, the CH2000. This family also includes the AMD Alarus CH2000 ISR Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>The AMX is a light 1-2 seat aircraft in military service in Brazil and Italy. The type is powered by one Spey (WS-9) jet engine. As of December 2019, there were 94 in military service with 2 operators. AWIN tracks 6 types for this profile, the A-11B, A-1A, A-1B, A-1BM, A-1M and TA-11B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>The An-140 is a civil propeller aircraft in military service in Russia. The type is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 9 in military service with 2 operators. AWIN tracks one type for this profile, the An-140-100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>The An-72/74 is a light transport aircraft in military service in 7 countries. The type is powered by two D-36/D-436 jet engines. As of December 2019, there were 77 in military service with 10 operators. AWIN tracks 6 types for this profile, the An-72, An-72P, An-72S, An-74, An-74TK-200 and An-74TK-200A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>The An-12 (Y-8/Y-9) is a medium transport aircraft in military service in 10 countries. The type is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 200 in military service and 7 new deliveries on contract with 13 operators. AWIN tracks 8 types for this profile, the An-12, An-12BK, Y-8C, Y-8D, Y-8E, Y-8F-200, Y-8F-200W and Y-9. This family also includes the Antonov An-12 (Xian Y-8/Y-9) Maritime &amp; C4ISR Variants profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>The An-124 is a heavy transport aircraft in military service in Russia. The type is powered by four D-18T jet engines. As of December 2019, there were 12 in military service with the Russian Aerospace Forces. AWIN tracks one type for this profile, the An-124-100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>The An-2 (Y-5) is a utility transport aircraft in military service in 13 countries. The type is powered by one ASh-62 (HS-5) piston engine. As of December 2019, there were 278 in military service with 14 operators. AWIN tracks 2 types for this profile, the An-2T and Y-5.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>The An-22 is a medium transport aircraft in military service in Russia. The type is powered by four NK-12 turbine engines. As of December 2019, there were 3 in military service with the Russian Aerospace Forces. AWIN tracks one type for this profile, the An-22A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>The An-24/26/30/32 (Xian Y-7) is a light transport aircraft in military service in 34 countries. The type is powered by two AI-20 (WJ-6), AI-24 (WJ-5) or PW100 turbine engines. As of December 2019, there were 459 in military service and 10 new deliveries on contract with 44 operators. AWIN tracks 21 types for this profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>The An-70 is a medium transport aircraft in military service in Ukraine. The type is powered by four D-27 turbine engines.there was one in military service with the Ukrainian Air Force. AWIN tracks one type for this profile, the An-70.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>The Lipan M3 is a Group 3 UAV in military service in Argentina. The type is powered by one piston engine. As of December 2019, there were 9 in military service with the Argentine Army. AWIN tracks one type for this profile, the Lipan M3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>The Krunk is a Group 3 UAV in military service in Armenia. The type is powered by one piston engine. As of December 2019, there were 25 in military service with the Armenian Air Force. AWIN tracks one type for this profile, the Krunk.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>The Havasoj is a C4ISR aircraft in military service in Turkey. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 new deliveries on contract with the Turkish Air Force. AWIN tracks one type for this profile, the Havasoj. Other profiles in this family include the Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>The CARINE is a Group 2 UAV in military service in France. The type is powered by one jet engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Carine.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>The Harrier (AV-8) is a fighter in military service in Italy, Spain and the United States. The type is powered by one Pegasus (F402) jet engine. As of December 2019, there were 150 in military service with 4 operators. AWIN tracks 2 types for this profile, the AV-8B and TAV-8B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>The Hawk/T-45 is a light 1-2 seat aircraft in military service in 14 countries. The type is powered by one Adour (F405) jet engine. As of December 2019, there were 617 in military service and 30 new deliveries on contract with 17 operators. AWIN tracks 13 types for this profile, the Hawk Mk.1, Hawk Mk.100 Series, Hawk Mk.120, Hawk Mk.127, Hawk Mk.129, Hawk Mk.132, Hawk Mk.165, Hawk Mk.166, Hawk Mk.200 Series, Hawk Mk.50 Series, Hawk Mk.60 Series, Hawk T2 and T-45C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>The R4E SkyEye is a Group 3 UAV in military service in Morocco. The type is powered by one AR 801 piston engine. As of December 2019, it was in military service with the Royal Moroccan Army. AWIN tracks one type for this profile, the R4E-50.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>The Akinci is a Group 5 UAV in military service in Turkey. The type is powered by two turbine engines. As of December 2019, it was in military service with the Turkish Air Force. AWIN tracks one type for this profile, the Akinci.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>The Mini is a Group 2 UAV in military service in Qatar and Turkey. The type is powered by one electric engine. As of December 2019, there were 10 in military service with 2 operators. AWIN tracks one type for this profile, the Bayraktar Mini.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>The ATR 42/72 Maritime Variants are a group of maritime aircraft in military service in Italy, Myanmar, Nigeria, Pakistan and Turkey. The type is powered by two PW100 turbine engines. As of December 2019, there were 21 in military service and 10 new deliveries on contract with 7 operators. AWIN tracks 7 types for this profile, the ATR 42-320MP, ATR 42-400MP, ATR 42-500MP, ATR 72-500MP, ATR 72-600 TMPA, ATR 72-600 TMUA and P-72A [72-600].</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>The Bonanza is a civil propeller aircraft in military service in Indonesia, Iran, Israel and Spain. The type is powered by one IO-550 or O-520 piston engine. As of December 2019, there were 66 in military service with 4 operators. AWIN tracks 5 types for this profile, the A36 Bonanza, F33A Bonanza, F33C Bonanza, G36 Bonanza and Parastu.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>The King Air (90/100/200/300/1900) is a civil propeller aircraft in military service in 43 countries. The type is powered by two PT6A turbine engines. As of December 2019, there were 457 in military service and one on order with 61 operators. AWIN tracks 30 types for this profile. Other profiles in this family include the Beechcraft King Air Maritime Conversions and King Air ISR Variants (incl. RC/MC-12).</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>The King Air Maritime Conversions are a group of maritime aircraft in military service in 20 countries. The type is powered by two PT6A turbine engines. As of December 2019, there were 73 in military service and 4 new deliveries on contract with 23 operators. AWIN tracks 9 types for this profile, the Beech 200 [MSA], Beech 300 [MSA], Beech 350 [MSA], Beech 350ER [ATOS], Beech 350ER [ISR], Beech 350ER [MSA], Beech B200 [MRA], Beech B200 [MSA] and Beech C90 [MRA]. Other profiles in this family include the Beechcraft King Air (90/100/200/300/1900) and King Air ISR Variants (incl. RC/MC-12).</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>The T-34 is a light 1-2 seat aircraft in military service in Argentina, Peru, Taiwan, the United States and Uruguay. The type is powered by one PT6A turbine engine. As of December 2019, there were 64 in military service with 7 operators. AWIN tracks one type for this profile, the T-34C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>The Citabria is a light 1-2 seat aircraft in military service in Guatemala. The type is powered by one O-320 piston engine.there was one in military service with the Guatemalan Air Force. AWIN tracks one type for this profile, the Decathalon (8KCAB).</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>The AH-1 is a helicopter in military service in 15 countries. The type is powered by one or two PT6T (T400), T53 (LTC1) or T700 (CT7) turbine engines. As of December 2019, there were 481 in military service and 86 new deliveries on contract with 17 operators. AWIN tracks 10 types for this profile, the AH-1E, AH-1F, AH-1F [Bahrain Upgrade], AH-1F [Jordan Upgrade], AH-1J, AH-1P, AH-1S, AH-1W, AH-1Z and TAH-1P. This family also includes the Bell H-1 (204/205/212/214/412) profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>The H-1 (204/205/212/214/412) is a helicopter in military service in 68 countries. The type is powered by one or two PT6T (T400), T53 (LTC1), T55 (LTC4) or T700 (CT7) turbine engines. As of December 2019, there were 2143 in military service and 13 new deliveries on contract with 104 operators. AWIN tracks 40 types for this profile. This family also includes the Bell AH-1 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>The Be-12 is a amphibious aircraft in military service in Russia and Ukraine. The type is powered by two AI-20 (WJ-6) turbine engines. As of December 2019, there were 10 in military service with 2 operators. AWIN tracks 2 types for this profile, the Be-12N and Be-12PS.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>The Tactical is a Group 4 UAV in military service in Qatar, Turkey and Ukraine. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 60 in military service and 5 new deliveries on contract with 5 operators. AWIN tracks one type for this profile, the Bayraktar TB2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>The Boomerang is a Group 1 UAV in military service in Israel. The type is powered by one electric engine. As of December 2019, it was in military service with the Israeli Navy. AWIN tracks one type for this profile, the Boomerang.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>The 707 Tanker Conversions are a group of tanker aircraft in military service in Iran, Israel and the United States. The type is powered by four JT3D (TF33) jet engines. As of December 2019, there were 10 in military service with 3 operators. AWIN tracks 2 types for this profile, the 707-320C [Tanker] and KC-707. Other profiles in this family include the Boeing 707 C4ISR Conversions, Boeing E-3, Boeing E-6 and Boeing E-8.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>The 767 Tanker Conversions are a group of tanker aircraft in military service in Colombia, Italy and Japan. The type is powered by two CF6-80 (F138) or PW4000 jet engines. As of December 2019, there were 9 in military service with 3 operators. AWIN tracks 2 types for this profile, the 767 MMTT and KC-767. This family also includes the Boeing E-767 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>The KC-135 is a medium transport aircraft in military service in Chile, France, Turkey and the United States. The type is powered by four CFM56 (F108) or JT3D (TF33) jet engines. As of December 2019, there were 421 in military service with 4 operators. AWIN tracks 3 types for this profile, the KC-135E, KC-135R and KC-135T. Other profiles in this family include the Boeing OC-135, Boeing RC-135 and Boeing WC-135.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>The IL-76 C4ISR Variants (incl. A-50/100) are a group of C4ISR aircraft in military service in Algeria, China, India and Russia. The type is powered by four D-30 jet engines. As of December 2019, there were 29 in military service with 5 operators. AWIN tracks 7 types for this profile, the A-100, A-100LL, A-50, A-50EI, A-50U, Il-76VKP and KJ-2000. Other profiles in this family include the Ilyushin IL-78 and Ilyushin Il-76.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>The 707 C4ISR Conversions are a group of C4ISR aircraft in military service in Chile, Iran and the United States. The type is powered by four JT3D (TF33) jet engines. As of December 2019, there were 3 in military service with 3 operators. AWIN tracks 3 types for this profile, the 707 Phalcon, 707 [MIT Lincoln Labs] and 707-320C [Iran ELINT]. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing E-3, Boeing E-6 and Boeing E-8.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>The 737 AEW&amp;C (E-7 Wedgetail) is a C4ISR aircraft in military service in Australia, South Korea, Turkey and the United Kingdom. The type is powered by two CFM56 (F108) jet engines. As of December 2019, there were 14 in military service and 5 new deliveries on contract with 4 operators. AWIN tracks one type for this profile, the 737 AEW&amp;C (E-7). Other profiles in this family include the Boeing 737 MP Surveiller and Lockheed Martin NT-43A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>The 737 MP Surveiller is a maritime aircraft in military service in Indonesia. The type is powered by two JT8D jet engines. As of December 2019, there were 3 in military service with the Indonesian Air Force. AWIN tracks one type for this profile, the 737-200 MP Surveiller. Other profiles in this family include the Boeing 737 AEW&amp;C (E-7 Wedgetail) and Lockheed Martin NT-43A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>The E-3 is a C4ISR aircraft in military service in France, International [Europe], Saudi Arabia, the United States and the United Kingdom. The type is powered by four CFM56 (F108) or JT3D (TF33) jet engines. As of December 2019, there were 67 in military service with 5 operators. AWIN tracks 9 types for this profile, the E-3A, E-3B, E-3C, E-3D, E-3F, E-3G, KE-3A, RE-3A and RE-3B. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-6 and Boeing E-8.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>The E-4 is a C4ISR aircraft in military service in the United States. The type is powered by four CF6 (F103) jet engines. As of December 2019, there were 4 in military service with the US Air Force. AWIN tracks one type for this profile, the E-4B. This family also includes the Boeing VC-25 "Air Force One" profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>The E-6 is a C4ISR aircraft in military service in the United States. The type is powered by four CFM56 (F108) jet engines. As of December 2019, there were 16 in military service with the US Navy. AWIN tracks one type for this profile, the E-6B. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-3 and Boeing E-8.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>The E-767 is a C4ISR aircraft in military service in Japan. The type is powered by two CF6-80 (F138) jet engines. As of December 2019, there were 4 in military service with the Japan Air Self Defense Force. AWIN tracks one type for this profile, the E-767. This family also includes the Boeing 767 Tanker Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>The E-8 is a C4ISR aircraft in military service in the United States. The type is powered by four JT3D (TF33) jet engines. As of December 2019, there were 17 in military service with the US Air Force. AWIN tracks 2 types for this profile, the E-8C and TE-8A. Other profiles in this family include the Boeing 707 Tanker Conversions, Boeing 707 C4ISR Conversions, Boeing E-3 and Boeing E-6.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>The OC-135 is a C4ISR aircraft in military service in the United States. The type is powered by four JT3D (TF33) jet engines. As of December 2019, there were 2 in military service with the US Air Force. AWIN tracks one type for this profile, the OC-135B. Other profiles in this family include the Boeing KC-135, Boeing RC-135 and Boeing WC-135.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>The RC-135 is a C4ISR aircraft in military service in USA and the United Kingdom. The type is powered by four CFM56 (F108) jet engines. As of December 2019, there were 29 in military service with 2 operators. AWIN tracks 6 types for this profile, the NC-135W, RC-135S, RC-135U, RC-135V, RC-135W and TC-135W. Other profiles in this family include the Boeing KC-135, Boeing OC-135 and Boeing WC-135.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>The C-17 is a heavy transport aircraft in military service in 9 countries. The type is powered by four PW2000 (F117) jet engines. As of December 2019, there were 277 in military service with 9 operators. AWIN tracks one type for this profile, the C-17A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>The VC-25 "Air Force One" is a C4ISR aircraft in military service in the United States. The type is powered by four CF6-80 (F138) or GEnx jet engines. As of December 2019, there were 2 in military service and 2 new deliveries on contract with the US Air Force. AWIN tracks 2 types for this profile, the VC-25A and VC-25B. This family also includes the Boeing E-4 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>The H-47 is a helicopter in military service in 22 countries. The type is powered by two T55 (LTC4) turbine engines. As of December 2019, there were 914 in military service and 73 new deliveries on contract with 26 operators. AWIN tracks 12 types for this profile, the CH-47C, CH-47D, CH-47F Block I, CH-47F Block II, CH-47JA, CH-47SD, Chinook HC4, Chinook HC5, Chinook HC6, Chinook HC6A, MH-47G Block I and MH-47G Block II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>The WC-135 is a C4ISR aircraft in military service in the United States. The type is powered by four CFM56 (F108) or JT3D (TF33) jet engines. As of December 2019, there were 2 in military service with the US Air Force. AWIN tracks 3 types for this profile, the WC-135C, WC-135R and WC-135W. Other profiles in this family include the Boeing KC-135, Boeing OC-135 and Boeing RC-135.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>The SpyLite is a Group 1 UAV in military service in Ethiopia and India. The type is powered by one electric engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the SpyLite.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>The Challenger 600 Maritime Conversions are a group of C4ISR aircraft in military service in Denmark, South Korea and the United Arab Emirates. The type is powered by two CF34 (TF34) jet engines. As of December 2019, there were 4 in military service and one on order with 3 operators. AWIN tracks 3 types for this profile, the CL-604 MMA, CL-604 [MSA] and CL-650 [MSA].</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>The UC-35 is a business jet in military service in the United States. The type is powered by two JT15D or PW500 jet engines. As of December 2019, there were 40 in military service with 2 operators. AWIN tracks 4 types for this profile, the UC-35A, UC-35B, UC-35C and UC-35D. This family also includes the Cessna Citation V C4ISR Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>The 150/152 is a civil propeller aircraft in military service in 8 countries. The type is powered by one O-200, O-235 or O-320 piston engine. As of December 2019, there were 28 in military service with 8 operators. AWIN tracks 7 types for this profile, the A152 Aerobat, Cessna 150B, Cessna 150C, Cessna 150L, Cessna 150M, Cessna 152 and T-51A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>The 170/172/175 is a civil propeller aircraft in military service in 23 countries. The type is powered by one Centurion (CD-135/155), O-320 or O-360 piston engine. As of December 2019, there were 159 in military service with 28 operators. AWIN tracks 10 types for this profile, the Cessna 172K, Cessna 172L, Cessna 172M, Cessna 172N, Cessna 172R, Cessna 172RG, Cessna 172S, Cessna R172K, T-41B and T-41D.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>The 180/182/185 is a civil propeller aircraft in military service in 15 countries. The type is powered by one O-470, O-520 or O-540 piston engine. As of December 2019, there were 185 in military service with 17 operators. AWIN tracks 14 types for this profile, the Cessna 180F, Cessna 182J, Cessna 182K, Cessna 182N, Cessna 182P, Cessna 182Q, Cessna 182R, Cessna 182S, Cessna 182T, Cessna A185F, Cessna R182 RG, Cessna T182T, U-17A and U-17B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>The 206/207/210 is a civil propeller aircraft in military service in 21 countries. The type is powered by one O-520 or O-540 piston engine. As of December 2019, there were 149 in military service with 26 operators. AWIN tracks 18 types for this profile, the Cessna 206H, Cessna 207, Cessna 210F, Cessna 210G, Cessna 210L, Cessna 210N, Cessna T206H, Cessna T207A, Cessna T210F, Cessna T210L, Cessna T210M, Cessna T210N, Cessna TU206G, Cessna U206, Cessna U206A, Cessna U206B, Cessna U206F and Cessna U206G.</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>The Cessna 208 is a civil propeller aircraft in military service in 29 countries. The type is powered by one PT6A turbine engine. As of December 2019, there were 147 in military service with 32 operators. AWIN tracks 4 types for this profile, the Cessna 208, Cessna 208B, Cessna 208B EX and Cessna 208FP. This family also includes the Cessna RC/AC-208 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>The 310/320/340 is a civil propeller aircraft in military service in Bolivia and the United States. The type is powered by two O-470 or O-520 piston engines. As of December 2019, there were 4 in military service with 2 operators. AWIN tracks 3 types for this profile, the Cessna 310L, Cessna 310P and Cessna 340A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>The DHC-8 C4ISR Variants (incl. RO-6) are a group of C4ISR aircraft in military service in Australia and the United States. The type is powered by two PW100 turbine engines. As of December 2019, there were 7 in military service with 3 operators. AWIN tracks 4 types for this profile, the DHC-8 Saturn Arch, DHC-8-200 [ISR], DHC-8-200 [LADS] and RO-6A (ARL-E). This family also includes the Bombardier DHC-8 Maritime Variants (incl. E-9) profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>The T-37 is a light 1-2 seat aircraft in military service in 6 countries. The type is powered by two J69 or J85 jet engines. As of December 2019, there were 115 in military service with 6 operators. AWIN tracks 2 types for this profile, the A-37B and T-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>The Z-10 is a helicopter in military service in China. The type is powered by two PT6C or WZ-9 turbine engines. As of December 2019, there were 114 in military service and 32 new deliveries on contract with 2 operators. AWIN tracks 4 types for this profile, the Z-10 [Prototype], Z-10A, Z-10H and Z-10K.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>The J-10 is a fighter in military service in China. The type is powered by one AL-31 (WS-10) jet engine. As of December 2019, there were 445 in military service and 63 new deliveries on contract with 3 operators. AWIN tracks 6 types for this profile, the J-10A, J-10AH, J-10B, J-10C, J-10S and J-10SH.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>The RQ-21 "Blackjack" is a Group 3 UAV in military service in 6 countries. The type is powered by one RT300 piston engine. As of December 2019, there were 198 in military service and 28 new deliveries on contract with 8 operators. AWIN tracks one type for this profile, the RQ-21A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>The BZK-005 is a Group 3 UAV in military service in China. The type is powered by one piston engine. As of December 2019, there were 40 in military service with 2 operators. AWIN tracks one type for this profile, the BZK-005.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>The CL-89/289 is a Group 3 UAV in military service in France. The type is powered by one T117 jet engine. As of December 2019, it was in military service with the French Army. AWIN tracks one type for this profile, the CL-289.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>The CH-3 is a Group 4 UAV in military service in 6 countries. The type is powered by one TD0 piston engine. As of December 2019, there were 43 in military service with 6 operators. AWIN tracks 2 types for this profile, the CH-3 and CH-3A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>The CH-4 is a Group 5 UAV in military service in Algeria, Indonesia, Iraq and Saudi Arabia. The type is powered by one piston engine. As of December 2019, there were 18 in military service and 6 new deliveries on contract with 4 operators. AWIN tracks 2 types for this profile, the CH-4A and CH-4B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>The WJ-600 is a Group 4 UAV in military service in China and Turkmenistan. The type is powered by one jet engine. As of December 2019, there were 2 in military service with 2 operators. AWIN tracks one type for this profile, the WJ-600.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>The DHC-8 Maritime Variants (incl. E-9) are a group of maritime aircraft in military service in 8 countries. The type is powered by two PW100 turbine engines. As of December 2019, there were 39 in military service with 9 operators. AWIN tracks 7 types for this profile, the DHC-8-100 [MSA], DHC-8-200 [MSA], DHC-8-300 Shimataka, DHC-8-300 [AMASCOS 300], DHC-8-300 [MSA], DHC-8-300 [MSS6000] and E-9A. This family also includes the Bombardier DHC-8 C4ISR Variants (incl. RO-6) profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>The Alpha Jet is a light 1-2 seat aircraft in military service in 9 countries. The type is powered by two Larzac jet engines. As of December 2019, there were 213 in military service with 10 operators. AWIN tracks one type for this profile, the Alpha Jet.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>The Mirage III is a fighter in military service in 6 countries. The type is powered by one Atar or J79 jet engine. As of December 2019, there were 176 in military service with 7 operators. AWIN tracks 8 types for this profile, the Cheetah, Kfir, Mirage 5F ROSE II, Mirage 5F ROSE III, Mirage 5PA2, Mirage 5PA3, Mirage 5SDE and Mirage IIIE ROSE I.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>The Mirage 2000 is a fighter in military service in 8 countries. The type is powered by one M53 jet engine. As of December 2019, there were 337 in military service with 9 operators. AWIN tracks 11 types for this profile, the Mirage 2000-5B Mk. 2, Mirage 2000-5D, Mirage 2000-5D Mk. 2, Mirage 2000-5E, Mirage 2000-5E Mk. 2, Mirage 2000-5F, Mirage 2000B, Mirage 2000C, Mirage 2000D, Mirage 2000E and Mirage 2000ED.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>The Mirage F1 is a fighter in military service in 7 countries. The type is powered by one Atar jet engine. As of December 2019, there were 105 in military service with 9 operators. AWIN tracks 5 types for this profile, the Mirage F1A, Mirage F1B, Mirage F1C, Mirage F1E and Mirage F1M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>The DHC-1 is a light 1-2 seat aircraft in military service in Portugal. The type is powered by one O-360 piston engine. As of December 2019, there were 6 in military service with the Portuguese Air Force. AWIN tracks one type for this profile, the DHC-1 Chipmunk Mk 20.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>The Yilong is a Group 5 UAV in military service in 9 countries. The type is powered by one piston or turbine engine. As of December 2019, there were 145 in military service and 80 new deliveries on contract with 11 operators. AWIN tracks 3 types for this profile, the Wing Loong 1, Wing Loong 1D and Wing Loong 2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>The Cardinal II is a Group 1 UAV in military service in Taiwan. The type is powered by one electric engine. As of December 2019, there were 5 in military service with 2 operators. AWIN tracks one type for this profile, the Cardinal II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>The Global 5000/6000 C4ISR Conversions are a group of C4ISR aircraft in military service in India and the United Arab Emirates. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 3 in military service and one on order with 2 operators. AWIN tracks 2 types for this profile, the Global 5000 [ISR] and Global 6000 [SIGINT]. Other profiles in this family include the Aselsan Havasoj, Northrop Grumman E-11 BACN, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>The DA42 is a civil propeller aircraft in military service in 8 countries. The type is powered by two AE300 or Centurion (CD-135/155) piston engines. As of December 2019, there were 22 in military service with 8 operators. AWIN tracks 3 types for this profile, the DA42 NG, DA42-M and DA42-VI. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42-M/MPP and Aurora Flight Sciences DA42 Centaur OPA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>The DA40 is a light 1-2 seat aircraft in military service in 7 countries. The type is powered by one AE300 or O-360 piston engine. As of December 2019, there were 47 in military service and 2 new deliveries on contract with 7 operators. AWIN tracks 2 types for this profile, the DA40 and DA40NG.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>The DA20 is a light 1-2 seat aircraft in military service in Ecuador, Poland and the United States. The type is powered by one O-240 piston engine. As of December 2019, there were 73 in military service with 3 operators. AWIN tracks one type for this profile, the DA20-C1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>The HK36 is a light 1-2 seat aircraft in military service in France and India. The type is powered by one Rotax 912 or Rotax 914 piston engine. As of December 2019, there were 17 in military service with 2 operators. AWIN tracks 2 types for this profile, the HK36 TC 100 and HK36 TTC 115.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>The Do 28 is a civil propeller aircraft in military service in Zambia. The type is powered by two O-540 piston engines. As of December 2019, there were 7 in military service with the Zambian Air Force. AWIN tracks one type for this profile, the Do28B-1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>The BN-2 Defender is a maritime aircraft in military service in 6 countries. The type is powered by two M250 (T63/T703) or O-540 piston or turbine engines. As of December 2019, there were 24 in military service with 6 operators. AWIN tracks 3 types for this profile, the BN-2B Defender, BN-2B Maritime Defender and BN-2T-4S Defender. This family also includes the Britten-Norman BN-2 Islander Maritime &amp; C4ISR Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>The BN-2 Islander Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in 6 countries. The type is powered by two M250 (T63/T703) turbine engines. As of December 2019, there were 14 in military service with 6 operators. AWIN tracks 4 types for this profile, the BN-2T Islander [MRA], BN-2T Islander [MSA-ASW], BN-2T Islander [MSA] and BN-2T [ISR]. This family also includes the Britten-Norman BN-2 Defender profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>The Chung Shyang II is a Group 4 UAV in military service in Taiwan. The type is powered by one piston engine. As of December 2019, there were 29 in military service with the Republic of China Army. AWIN tracks one type for this profile, the Chung Shyang II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>The PZL-130 is a light 1-2 seat aircraft in military service in Poland. The type is powered by one PT6A turbine engine. As of December 2019, there were 17 in military service with the Polish Air Force. AWIN tracks one type for this profile, the PZL-130TC-2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>The Aludra is a Group 3 UAV in military service in Malaysia. The type is powered by one piston engine. As of December 2019, there were 15 in military service with the Royal Malaysian Air Force. AWIN tracks one type for this profile, the Aludra Mk. 2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>The EA100 is a light 1-2 seat aircraft in military service in the Dominican Republic. The type is powered by one Rotax 912 piston engine.there was one in military service with the Dominican Republic Air Force. AWIN tracks one type for this profile, the EA-100 S-LSA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>The APID-55 is a Group 3 UAV in military service in the United Arab Emirates. The type is powered by one E18H piston engine. As of December 2019, there were 7 in military service with the United Arab Emirates Air Force. AWIN tracks one type for this profile, the APID-55.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>The Cyber Eye 2 is a Group 3 UAV in military service in Thailand. The type is powered by one piston engine. As of December 2019, there were 3 in military service with the Royal Thai Air Force. AWIN tracks one type for this profile, the Cyber Eye 2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>The KC-390 is a medium transport aircraft in military service in Argentina, Brazil, Chile, Colombia and Portugal. The type is powered by two V2500 jet engines. As of December 2019, there were 3 in military service and 32 new deliveries on contract with 7 operators. AWIN tracks 2 types for this profile, the KC-390 and KC-390 [Protoype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>The Citation V C4ISR Conversions are a group of C4ISR aircraft in military service in Spain. The type is powered by two JT15D jet engines. As of December 2019, there were 3 in military service with the Spanish Air Force. AWIN tracks one type for this profile, the Citation V [IMINT]. This family also includes the Cessna UC-35 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>The EMB-312/314 Tucano/Super Tucano is a light 1-2 seat aircraft in military service in 24 countries. The type is powered by one PT6A or TPE331 (T76) turbine engine. As of December 2019, there were 462 in military service and 35 new deliveries on contract with 26 operators. AWIN tracks 5 types for this profile, the A-29A Super Tucano, A-29B Super Tucano, EMB-312A Tucano, EMB-312F Tucano and EMB-312S Tucano.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>The EMB-202 is a light 1-2 seat aircraft in military service in Brazil. The type is powered by one O-540 piston engine. As of December 2019, there were 2 in military service with the Brazilian Air Force. AWIN tracks one type for this profile, the EMB-202A (G-19A).</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>The Seeker II is a Group 3 UAV in military service in Algeria, South Africa, Sri Lanka and the United Arab Emirates. The type is powered by one L 550 piston engine. As of December 2019, there were 22 in military service and 6 new deliveries on contract with 5 operators. AWIN tracks 2 types for this profile, the Seeker 2E and Seeker 400.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>The Skua is a Group 5 UAV in military service in South Africa and the United Arab Emirates. The type is powered by one jet engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Skua.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>The Do DT25 is a Group 3 UAV in military service in Germany. The type is powered by two jet engines. As of December 2019, it was in military service with the German Air Force. AWIN tracks one type for this profile, the Do-DT25.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>The Lakshya is a Group 4 UAV in military service in India. The type is powered by one PTAE 7 jet engine. As of December 2019, there were 28 in military service with 3 operators. AWIN tracks one type for this profile, the Lakshya.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>The T-35 is a light 1-2 seat aircraft in military service in 7 countries. The type is powered by one IO-580 or O-540 piston engine. As of December 2019, there were 86 in military service with 7 operators. AWIN tracks 4 types for this profile, the T-35 Pillan II, T-35A Pillan, T-35B Pillan and T-35C Tamiz.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>The Nishant is a Group 3 UAV in military service in India. The type is powered by one AR 801 piston engine. As of December 2019, it was in military service with the Indian Army. AWIN tracks one type for this profile, the Nishant.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>The Rustom 2 is a Group 4 UAV in military service in India. The type is powered by two Rotax 914 piston or turbine engines. As of December 2019, there were 15 in military service with the DRDO (India). AWIN tracks 2 types for this profile, the Rustom 1 and Rustom-II (TAPAS 201).</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>The EA-300/330 is a light 1-2 seat aircraft in military service in Chile, France, Jordan and Malaysia. The type is powered by one IO-580 or O-540 piston engine. As of December 2019, there were 17 in military service with 4 operators. AWIN tracks 4 types for this profile, the EA-300L, EA-330LC, EA-330LX and EA-330SC.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>The Cessna F406 MSA is a maritime aircraft in military service in Greece. The type is powered by two PT6A turbine engines. As of December 2019, there were 3 in military service with the Hellenic Coast Guard. AWIN tracks one type for this profile, the Caravan II (F406) [MSA].</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>The Cessna O-2 is a C4ISR aircraft in military service in El Salvador, Namibia, Thailand, Uruguay and Zimbabwe. The type is powered by two O-360 piston engines. As of December 2019, there were 25 in military service with 5 operators. AWIN tracks 3 types for this profile, the O-2A, O-2B and Sentry (O2-337).</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>The AS202 is a light 1-2 seat aircraft in military service in Morocco. The type is powered by one O-360 piston engine. As of December 2019, there were 10 in military service with the Royal Moroccan Air Force. AWIN tracks one type for this profile, the AS-202-18A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>The Hermes 450 is a Group 3 UAV in military service in 14 countries. The type is powered by one AR 801 or Rotax 914 piston engine. As of December 2019, there were 94 in military service and 38 new deliveries on contract with 16 operators. AWIN tracks 3 types for this profile, the Hermes 450, Hermes 900 and Watchkeeper WK450.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>The FMA IA-63 Pampa is a light 1-2 seat aircraft in military service in Argentina and Bolivia. The type is powered by one TFE731 jet engine. As of December 2019, there were 22 in military service and one on order with 2 operators. AWIN tracks one type for this profile, the IA-63 Pampa.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>The FMA IA-58 Pucara is a light 1-2 seat aircraft in military service in Argentina. The type is powered by two PT6A turbine engines.there was one in military service with the Argentine Air Force. AWIN tracks one type for this profile, the IA-58H Pucara.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>The T-3/5/7 is a light 1-2 seat aircraft in military service in Japan. The type is powered by one M250 (T63/T703) turbine engine. As of December 2019, there were 79 in military service with 2 operators. AWIN tracks 2 types for this profile, the T-5 and T-7.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>The Skylark is a Group 1 UAV in military service in France, Israel, the Philippines and Slovakia. The type is powered by one B-047-017 or B40 electric or piston engine. As of December 2019, there were 36 new deliveries on contract with 4 operators. AWIN tracks 3 types for this profile, the Skylark 3, Skylark I and Skylark II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>The Blue Horizon is a Group 3 UAV in military service in Pakistan, the Philippines and Sri Lanka. The type is powered by one WAE 342 Hurricane piston engine. As of December 2019, there were 9 in military service with 3 operators. AWIN tracks one type for this profile, the Blue Horizon II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>The Dragonfly 2000 is a Group 3 UAV in military service in Ethiopia. The type is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service with the Ethiopian Army. AWIN tracks one type for this profile, the Dragonfly 2000.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>The G 109 is a light 1-2 seat aircraft in military service in the United Kingdom. The type is powered by one Grob 2500 piston engine. As of December 2019, there were 15 in military service with the Royal Air Force. AWIN tracks one type for this profile, the Vigilant T1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>The G 115 is a light 1-2 seat aircraft in military service in Egypt, Finland, the United Arab Emirates and the United Kingdom. The type is powered by one O-360 or O-540 piston engine. As of December 2019, there were 201 in military service with 6 operators. AWIN tracks 3 types for this profile, the G 115E, G 115EG and G 115TA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>The C-2 is a light transport aircraft in military service in the United States. The type is powered by two T56 (501) turbine engines. As of December 2019, there were 34 in military service with the US Navy. AWIN tracks one type for this profile, the C-2A. This family also includes the Northrop Grumman E-2 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>The F-14 is a fighter in military service in Iran. The type is powered by two TF30 jet engines. As of December 2019, there were 31 in military service with the Islamic Republic of Iran Air Force. AWIN tracks one type for this profile, the F-14A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>The RC/AC-208 is a gunship in military service in 8 countries. The type is powered by one PT6A turbine engine. As of December 2019, there were 40 in military service and 22 new deliveries on contract with 8 operators. AWIN tracks 3 types for this profile, the AC-208, AC-208 II and RC-208. This family also includes the Cessna 208 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>The Aladin is a Group 1 UAV in military service in Germany. The type is powered by one electric engine. As of December 2019, it was in military service with the German Army. AWIN tracks one type for this profile, the Aladin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>The Luna is a Group 3 UAV in military service in Germany, Pakistan and Saudi Arabia. The type is powered by one 4102/4103 piston engine. As of December 2019, there were 122 in military service and 15 new deliveries on contract with 3 operators. AWIN tracks 2 types for this profile, the Luna NG and Luna X 2000.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>The HJT16 is a light 1-2 seat aircraft in military service in India and Myanmar. The type is powered by one Orpheus or Viper jet engine. As of December 2019, there were 126 in military service with 2 operators. AWIN tracks 2 types for this profile, the HJT-16 MK. 1 and HJT-16 MK. 2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>The Y-11/12 is a civil propeller aircraft in military service in 16 countries. The type is powered by two AI-14 (HS-6, M14) or PT6A piston or turbine engines. As of December 2019, there were 98 in military service and 2 new deliveries on contract with 19 operators. AWIN tracks 4 types for this profile, the Y-11, Y-12 II, Y-12 IV and Y-12E.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>The SH-5 is a amphibious aircraft in military service in China. The type is powered by four AI-24 (WJ-5) turbine engines. As of December 2019, there were 3 in military service with the People's Liberation Army Navy. AWIN tracks one type for this profile, the SH-5.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>The Hunter is a light 1-2 seat aircraft in military service in the United States. The type is powered by one Avon jet engine. As of December 2019, there were 14 in military service with the Airborne Tactical Advantage Company (ATAC). AWIN tracks one type for this profile, the Hunter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>The E95 is a Group 3 UAV in military service in Russia. The type is powered by one M135 jet engine. As of December 2019, it was in military service with the Russian Ground Forces. AWIN tracks one type for this profile, the E95M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>The Safaq is a light 1-2 seat aircraft in military service in Iran. The type is powered by one RD-33 jet engine. As of December 2019, there was one new delivery on contract with the Islamic Republic of Iran Air Force. AWIN tracks one type for this profile, the Shafaq.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>The Eleron 3SV is a Group 1 UAV in military service in Russia. The type is powered by one electric engine. As of December 2019, it was in military service with the Russian Ground Forces. AWIN tracks one type for this profile, the Eleron 3SV.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>The JL-8 is a light 1-2 seat aircraft in military service in 15 countries. The type is powered by one AI-25 or TFE731 jet engine. As of December 2019, there were 483 in military service and 29 new deliveries on contract with 16 operators. AWIN tracks 3 types for this profile, the JL-8, K-8 and K-8W.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>The Tetras is a light 1-2 seat aircraft in military service in 7 countries. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 31 in military service with 7 operators. AWIN tracks one type for this profile, the Tetras 912.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>The Horus is a Group 1 UAV in military service in Brazil. The type is powered by one electric engine.there was one in military service with 2 operators. AWIN tracks one type for this profile, the FT-100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>The Arava is a utility transport aircraft in military service in Colombia, El Salvador, Papua New Guinea and Venezuela. The type is powered by two PT6A turbine engines. As of December 2019, there were 9 in military service with 4 operators. AWIN tracks 2 types for this profile, the IAI 201 Arava and IAI 202 Arava.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>The MQ-1 "Predator" is a Group 4 UAV in military service in Italy, Turkey, the United States and the United Arab Emirates. The type is powered by one Centurion (CD-135/155), Rotax 582 or Rotax 914 piston engine. As of December 2019, there were 223 in military service and 44 new deliveries on contract with 5 operators. AWIN tracks 5 types for this profile, the Gnat 750, I-Gnat, MQ-1C, MQ-1C ER and RQ-1E. This family also includes the General Atomics MQ-9 "Reaper" profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>The MQ-9 "Reaper" is a Group 5 UAV in military service in 10 countries. The type is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 281 in military service and 107 new deliveries on contract with 14 operators. AWIN tracks 6 types for this profile, the Guardian, MQ-9A Block 1, MQ-9A Block 1 ER, MQ-9A Block 5, MQ-9A Block 5 ER and MQ-9B. This family also includes the General Atomics MQ-1 "Predator" profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>The Shahpar is a Group 3 UAV in military service in Pakistan. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 9 in military service with the Pakistan Air Force. AWIN tracks one type for this profile, the Shahpar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>The MQM-170 is a Group 3 UAV in military service in the United States. The type is powered by one 3W-150i piston engine. As of December 2019, it was in military service with the US Army. AWIN tracks 2 types for this profile, the MQM-170A and MQM-171.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>The BZK-007 is a Group 4 UAV in military service in China. The type is powered by one piston engine. As of December 2019, there were 28 in military service with the People's Liberation Army Air Force. AWIN tracks one type for this profile, the BZK-007.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>The IAR-99 is a light 1-2 seat aircraft in military service in Romania. The type is powered by one Viper jet engine. As of December 2019, there were 17 in military service with the Romanian Air Force. AWIN tracks one type for this profile, the IAR 99.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>The IL-78 is a medium transport aircraft in military service in Algeria, China, India, Pakistan and Russia. The type is powered by four D-30 or PS-90 jet engines. As of December 2019, there were 40 in military service and 34 new deliveries on contract with 5 operators. AWIN tracks 5 types for this profile, the Il-78, Il-78M, Il-78M-90A, Il-78M2 and Il-78MKI. Other profiles in this family include the Beriev Il-76 C4ISR Variants (incl. A-50/100) and Ilyushin Il-76.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>The Il-18 is a civil propeller aircraft in military service in Russia. The type is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 10 in military service with 2 operators. AWIN tracks 3 types for this profile, the Il-18D, Il-18E and Il-18V. Other profiles in this family include the Ilyushin Il-20, Ilyushin Il-22 and Ilyushin Il-38.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>The Il-62 is a commercial jet in military service in North Korea and Russia. The type is powered by four D-30 jet engines. As of December 2019, there were 9 in military service with 2 operators. AWIN tracks one type for this profile, the Il-62M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>The Il-112 is a light transport aircraft in military service in Russia. The type is powered by two TV7-117 turbine engines. As of December 2019, it was in military service with the Russian Aerospace Forces. AWIN tracks one type for this profile, the Il-112V.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>The Il-76 is a medium transport aircraft in military service in 16 countries. The type is powered by four D-30 or PS-90 jet engines. As of December 2019, there were 236 in military service and 33 new deliveries on contract with 19 operators. AWIN tracks 7 types for this profile, the II-76MD-M, Il-76M, Il-76MD, Il-76MD-90A, Il-76MDP, Il-76MF and Il-76TD. Other profiles in this family include the Beriev Il-76 C4ISR Variants (incl. A-50/100) and Ilyushin IL-78.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>The Xianglong is a Group 5 UAV in military service in China. The type is powered by one R-11/R-13/R-25 (WP-7/WP-13) jet engine. As of December 2019, there were 7 in military service with 2 operators. AWIN tracks one type for this profile, the Soar Dragon II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>The Ababil is a Group 3 UAV in military service in Iran. The type is powered by one WAE 342 Hurricane piston engine. As of December 2019, there were 3 in military service with the Islamic Revolutionary Guard Corps Aerospace Force. AWIN tracks one type for this profile, the Ababil-3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>The Shahed 129 is a Group 4 UAV in military service in Iran. The type is powered by one piston engine. As of December 2019, there were 23 in military service with the Islamic Revolutionary Guard Corps Aerospace Force. AWIN tracks one type for this profile, the Shahed 129.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>The RQ-16 is a Group 1 UAV in military service in India and the United States. The type is powered by one 3W-56i piston engine. As of December 2019, there were 36 in military service with 2 operators. AWIN tracks one type for this profile, the RQ-16A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>The S4 is a Group 3 UAV in military service in Mexico. The type is powered by two piston engines. As of December 2019, it was in military service with the Mexican Air Force. AWIN tracks one type for this profile, the S4.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>The KT-1 is a light 1-2 seat aircraft in military service in Indonesia, Peru, Senegal, South Korea and Turkey. The type is powered by one PT6A turbine engine. As of December 2019, there were 194 in military service and 7 new deliveries on contract with 5 operators. AWIN tracks 3 types for this profile, the KA-1, KT-1 and KT-1B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>The KC-100 is a civil propeller aircraft in military service in South Korea. The type is powered by one IO-550 piston engine. As of December 2019, there were 23 in military service with the Republic of Korea Air Force. AWIN tracks one type for this profile, the KT-100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>The Heron is a Group 4 UAV in military service in 12 countries. The type is powered by one PT6A or Rotax 914 piston or turbine engine. As of December 2019, there were 151 in military service and 6 new deliveries on contract with 13 operators. AWIN tracks 3 types for this profile, the Harfang, Heron 1 and Heron TP.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>The KUH Surion is a helicopter in military service in South Korea. The type is powered by two T700 (CT7) turbine engines. As of December 2019, there were 113 in military service and 92 new deliveries on contract with 3 operators. AWIN tracks one type for this profile, the Surion.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>The SH-2 is a helicopter in military service in Egypt, New Zealand, Peru and Poland. The type is powered by two T700 (CT7) turbine engines. As of December 2019, there were 23 in military service with 4 operators. AWIN tracks one type for this profile, the SH-2G.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>The Ka-50/52 is a helicopter in military service in Egypt and Russia. The type is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 148 in military service and 72 new deliveries on contract with 3 operators. AWIN tracks 3 types for this profile, the Ka-52, Ka-52K and Ka-52M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>The Ka-27/28/32/35 is a helicopter in military service in 10 countries. The type is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 166 in military service with 13 operators. AWIN tracks 8 types for this profile, the Ka-27, Ka-27M, Ka-27PS, Ka-28, Ka-32A, Ka-32S, Ka-32T and Ka-35. This family also includes the Kamov Ka-29/31 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>The Ka-29/31 is a helicopter in military service in China, India and Russia. The type is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 35 in military service with 3 operators. AWIN tracks 3 types for this profile, the Ka-29, Ka-31 and Ka-31R. This family also includes the Kamov Ka-27/28/32/35 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>The C-1 is a light transport aircraft in military service in Japan. The type is powered by two JT8D jet engines. As of December 2019, there were 18 in military service with the Japan Air Self Defense Force. AWIN tracks 2 types for this profile, the C-1 and EC-1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>The I-View is a Group 3 UAV in military service in Russia. The type is powered by one piston engine. As of December 2019, there were 8 in military service with the Russian Ground Forces. AWIN tracks one type for this profile, the I-View 150.</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>The R/MQ-5 Hunter is a Group 4 UAV in military service in Belgium and the United States. The type is powered by two piston engines. As of December 2019, there were 26 in military service with 2 operators. AWIN tracks 2 types for this profile, the MQ-5B and RQ-5A (B-Hunter).</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>The Scout is a Group 3 UAV in military service in Finland, Sri Lanka and Switzerland. The type is powered by one F 31 piston engine. As of December 2019, there were 29 in military service with 3 operators. AWIN tracks 2 types for this profile, the Ranger (ADS-95) and Scout.</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>The Searcher is a Group 3 UAV in military service in 10 countries. The type is powered by one AR 682, Jabiru 2200 or L 550 piston engine. As of December 2019, there were 218 in military service with 13 operators. AWIN tracks 4 types for this profile, the Forpost, Searcher I, Searcher II and Searcher III.</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>The AW129 (T129) is a helicopter in military service in Italy, Pakistan, the Philippines, Qatar and Turkey. The type is powered by two CTS800 (T800) or Gem turbine engines. As of December 2019, there were 106 in military service and 48 new deliveries on contract with 6 operators. AWIN tracks 4 types for this profile, the AH-129C, AH-129D, T129A and T129B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>The M-346 is a light 1-2 seat aircraft in military service in Austria, Israel, Italy, Poland and Singapore. The type is powered by two F124/F125 (TFE1042) jet engines. As of December 2019, there were 70 in military service and 10 new deliveries on contract with 5 operators. AWIN tracks 2 types for this profile, the M-346 and M-346 FA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>The AW159 (Westland Lynx) is a helicopter in military service in 13 countries. The type is powered by two CTS800 (T800) or Gem turbine engines. As of December 2019, there were 176 in military service and 4 new deliveries on contract with 14 operators. AWIN tracks 8 types for this profile, the AW159 AH1, AW159 [ASW], Lynx Mk.99, Lynx Mk.99A, Lynx [ASW], Super Lynx 100 [ASW], Super Lynx 300 and Super Lynx 300 [ASW].</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>The C-5 is a heavy transport aircraft in military service in the United States. The type is powered by four CF6-80 (F138) jet engines. As of December 2019, there were 52 in military service with the US Air Force. AWIN tracks 2 types for this profile, the C-5M and C-5M-SCM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>The F-104 is a fighter in military service in the United States. The type is powered by one J79 jet engine. As of December 2019, there were 6 in military service with the Starfighters Inc.. AWIN tracks 3 types for this profile, the CF-104, F-104S and TF-104GM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>The Atlantique is a maritime aircraft in military service in France. The type is powered by two Tyne turbine engines. As of December 2019, there were 21 in military service with the French Navy. AWIN tracks one type for this profile, the Atlantique.</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>The KC-130 is a medium transport aircraft in military service in 19 countries. The type is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 126 in military service and 6 new deliveries on contract with 20 operators. AWIN tracks 6 types for this profile, the KC-130B, KC-130H, KC-130J, KC-130J Harvest Hawk, KC-130R and KC-130T. Other profiles in this family include the Lockheed Martin C-130, Lockheed Martin AC-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>The Falcon 20 Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service in 6 countries. The type is powered by two ATF3 (F104), CF700 or TFE731 jet engines. As of December 2019, there were 30 in military service with 7 operators. AWIN tracks 8 types for this profile, the Falcon 20C [EWTS], Falcon 20C [EW], Falcon 20D [EWTS], Falcon 20E [EWTS], Falcon 20F [EWTS], Falcon 20F [EW], Falcon 20H Guardian and HU-25B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>The Falcon 50 Maritime Conversions are a group of maritime aircraft in military service in France. The type is powered by three TFE731 jet engines. As of December 2019, there were 4 in military service with the French Navy. AWIN tracks one type for this profile, the Falcon 50 [AMASCOS 100].</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>The Falcon 900 Maritime Conversions are a group of maritime aircraft in military service in Japan. The type is powered by three TFE731 jet engines. As of December 2019, there were 2 in military service with the Japan Coast Guard. AWIN tracks one type for this profile, the Falcon 900 [AMASCOS 100].</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>The C-130 is a medium transport aircraft in military service in 67 countries. The type is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 993 in military service and 37 new deliveries on contract with 71 operators. AWIN tracks 22 types for this profile. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin AC-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>The DA42-M/MPP is a maritime aircraft in military service in 9 countries. The type is powered by two AE300 or O-360 piston engines. As of December 2019, there were 22 in military service with 9 operators. AWIN tracks one type for this profile, the DA42 MPP. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42 and Aurora Flight Sciences DA42 Centaur OPA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>The IT180 is a Group 2 UAV in military service in France. The type is powered by one electric engine. As of December 2019, it was in military service with the French Army. AWIN tracks one type for this profile, the IT180-5.</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>The MiniFalcon II is a Group 3 UAV in military service in Thailand. The type is powered by one AR 741 piston engine. As of December 2019, it was in military service with the Royal Thai Army. AWIN tracks one type for this profile, the G-Star.</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>The Maule M7 is a civil propeller aircraft in military service in Honduras, Mexico and Tunisia. The type is powered by one O-360 piston engine. As of December 2019, there were 25 in military service with 3 operators. AWIN tracks 3 types for this profile, the MX-7-180, MX-7-180B and MXT-7-180.</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>The KC-10 is a heavy transport aircraft in military service in the Netherlands and the United States. The type is powered by three CF6 (F103) jet engines. As of December 2019, there were 62 in military service with 3 operators. AWIN tracks 2 types for this profile, the KC-10A and KDC-10.</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>The C-9 is a commercial jet in military service in Chad and the United States. The type is powered by two JT8D jet engines. As of December 2019, there were 2 in military service with 2 operators. AWIN tracks one type for this profile, the C-9B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>The F-4 is a fighter in military service in Greece, Iran, Japan, South Korea and Turkey. The type is powered by two J79 jet engines. As of December 2019, there were 187 in military service with 5 operators. AWIN tracks 3 types for this profile, the F-4D, F-4E and RF-4E.</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>The A-4 is a light 1-2 seat aircraft in military service in 6 countries. The type is powered by one J52 (JT8B) jet engine. As of December 2019, there were 46 in military service with 6 operators. AWIN tracks 5 types for this profile, the A-4K, A-4M, A-4N, AF-1 and TA-4K.</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>The ScanEagle is a Group 2 UAV in military service in 21 countries. The type is powered by one 3W-28i piston engine. As of December 2019, there were 543 in military service and 49 new deliveries on contract with 26 operators. AWIN tracks 3 types for this profile, the ScanEagle, ScanEagle 2 and Yasir.</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>The SIVA is a Group 3 UAV in military service in Spain. The type is powered by one Rotax 503 piston engine. As of December 2019, it was in military service with the Spanish Army. AWIN tracks one type for this profile, the SIVA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>The SMCP is a Group 2 UAV in military service in Poland. The type is powered by one piston engine. As of December 2019, it was in military service with the Polish Air Force. AWIN tracks 2 types for this profile, the SMCP-JU and SMCP-WU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>The Granat-4 is a Group 2 UAV in military service in Russia. The type is powered by one piston engine. As of December 2019, it was in military service with the Russian Aerospace Forces. AWIN tracks one type for this profile, the Granat-4.</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>The Bat Hawk is a light 1-2 seat aircraft in military service in Botswana. The type is powered by one Jabiru 2200 piston engine. As of December 2019, there were 10 in military service with the Botswana Defence Force. AWIN tracks one type for this profile, the Bat Hawk.</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>The MiG-15/17 is a fighter in military service in North Korea and Tanzania. The type is powered by one VK-1 (WP-5) jet engine. As of December 2019, there were 13 in military service with 2 operators. AWIN tracks 2 types for this profile, the FT-5 and J-5.</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>The MiG-23/27 is a fighter in military service in 9 countries. The type is powered by one R-27/R-29/R-35 jet engine. As of December 2019, there were 117 in military service with 10 operators. AWIN tracks 9 types for this profile, the MiG-23BN, MiG-23MF, MiG-23ML, MiG-23MLD, MiG-23MS, MiG-23UB, MiG-27 (MiG-23BM), MiG-27L and MiG-27M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>The MiG-21 (J-7/8) is a fighter in military service in 22 countries. The type is powered by one or two R-11/R-13/R-25 (WP-7/WP-13) jet engines. As of December 2019, there were 1142 in military service with 24 operators. AWIN tracks 44 types for this profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>The Mi-28 is a helicopter in military service in Algeria, Iraq and Russia. The type is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 158 in military service and 193 new deliveries on contract with 3 operators. AWIN tracks 4 types for this profile, the Mi-28N, Mi-28NE, Mi-28NM and Mi-28UB.</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>The Mi-8/14/17 is a helicopter in military service in 78 countries. The type is powered by two TV2-117 or TV3-117/VK-2500 turbine engines. As of December 2019, there were 2656 in military service and 46 new deliveries on contract with 105 operators. AWIN tracks 34 types for this profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>The Mi-24/25/35 is a helicopter in military service in 52 countries. The type is powered by two TV3-117/VK-2500 turbine engines. As of December 2019, there were 754 in military service and 32 new deliveries on contract with 55 operators. AWIN tracks 10 types for this profile, the Mi-24 Super Hind, Mi-24D, Mi-24K, Mi-24P, Mi-24R, Mi-25, Mi-35 (Mi-24V), Mi-35M (Mi-24VM), Mi-35M2 and Mi-35P.</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>The Mi-26 is a helicopter in military service in 8 countries. The type is powered by two D-136 turbine engines. As of December 2019, there were 64 in military service and 10 new deliveries on contract with 9 operators. AWIN tracks 3 types for this profile, the Mi-26, Mi-26T and Mi-26T2V.</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>The JX-2 is a Group 2 UAV in military service in India. The type is powered by one piston engine. As of December 2019, there were 70 in military service with the Indian Army. AWIN tracks one type for this profile, the JX-2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>The CAP 10 is a light 1-2 seat aircraft in military service in France. The type is powered by one O-360 piston engine. As of December 2019, there were 7 in military service with the French Navy. AWIN tracks one type for this profile, the CAP 10C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>The CAP 20 is a light 1-2 seat aircraft in military service in Morocco. The type is powered by one O-540 piston engine. As of December 2019, there were 9 in military service with the Royal Moroccan Air Force. AWIN tracks one type for this profile, the CAP 232.</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>The Q/A-5 (MiG-19) is a fighter in military service in Myanmar, North Korea and Sudan. The type is powered by two RD-9 (WP-6) jet engines. As of December 2019, there were 72 in military service with 3 operators. AWIN tracks 3 types for this profile, the A-5M, F-6 and Q-5 III (A-5C).</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>The CJ-6 is a light 1-2 seat aircraft in military service in Bangladesh, China, North Korea, Sri Lanka and Sudan. The type is powered by one AI-14 (HS-6, M14) piston engine. As of December 2019, there were 470 in military service with 6 operators. AWIN tracks 2 types for this profile, the CJ-6 and CJ-6A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>The RQ-101 is a Group 3 UAV in military service in South Korea. The type is powered by one AR 801 piston engine. As of December 2019, it was in military service with the Republic of Korea Air Force. AWIN tracks one type for this profile, the RQ-101 Night Intruder.</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>The T-25 Universal is a light 1-2 seat aircraft in military service in Brazil. The type is powered by one O-540 piston engine. As of December 2019, there were 43 in military service with the Brazilian Air Force. AWIN tracks one type for this profile, the T-25.</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>The OV-10 is a light 1-2 seat aircraft in military service in the Philippines. The type is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 7 in military service with the Philippine Air Force. AWIN tracks 2 types for this profile, the OV-10A and OV-10G.</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>The F-5/T-38 is a light 1-2 seat aircraft in military service in 17 countries. The type is powered by two J85 jet engines. As of December 2019, there were 1087 in military service with 21 operators. AWIN tracks 16 types for this profile, the AT-38B, CF-5D, F-5A, F-5B, F-5E, F-5EM, F-5F, F-5FM, F-5N, Kowsar-I, Kowsar-II, RF-5E, SF-5M, Saegheh [Fighter], T-38A and T-38C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>The Do 228 Maritime Conversions are a group of maritime aircraft in military service in 9 countries. The type is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 96 in military service and 2 new deliveries on contract with 10 operators. AWIN tracks 4 types for this profile, the Do 228 [MPA], Do 228 [MSA], Do228 [MSA] and Do228NG [MSA].</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>The BQM-167 is a Group 4 UAV in military service in Germany and the United States. The type is powered by one TR 60 jet engine. As of December 2019, there were 43 in military service and 73 new deliveries on contract with 3 operators. AWIN tracks one type for this profile, the BQM-167A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>The BQM-177 is a Group 4 UAV in military service in the United States. The type is powered by one TR 60 jet engine. As of December 2019, there were 3 in military service and 34 new deliveries on contract with the US Navy. AWIN tracks one type for this profile, the BQM-177A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>The MQM-107 is a Group 4 UAV in military service in 8 countries. The type is powered by one J402 or TR 60 jet engine. As of December 2019, there were 20 in military service with 8 operators. AWIN tracks 3 types for this profile, the MQM-107A, MQM-107D and MQM-107E.</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>The Orion is a Group 4 UAV in military service in Jordan and Russia. The type is powered by one Rotax 914 piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks 2 types for this profile, the Orion and Orion E.</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>The Viking 400 is a Group 3 UAV in military service in the United States. The type is powered by one piston engine. As of December 2019, it was in military service with the US SOCOM. AWIN tracks one type for this profile, the Viking 400.</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>The Asio is a Group 1 UAV in military service in Italy. The type is powered by one electric engine. As of December 2019, it was in military service with the Italian Army. AWIN tracks one type for this profile, the Asio.</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>The JF-17 is a light 1-2 seat aircraft in military service in Myanmar, Nigeria and Pakistan. The type is powered by one RD-33 jet engine. As of December 2019, there were 119 in military service and 89 new deliveries on contract with 3 operators. AWIN tracks 4 types for this profile, the JF-17 Block I, JF-17 Block II, JF-17 Block III and JF-17B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>The MFI-17 is a light 1-2 seat aircraft in military service in 10 countries. The type is powered by one O-360 or O-540 piston engine. As of December 2019, there were 340 in military service and 59 new deliveries on contract with 11 operators. AWIN tracks 4 types for this profile, the MFI-15, MFI-17 Mushshak, MFI-17 Supporter and MFI-395 Super Mushshak.</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>The Falco is a Group 3 UAV in military service in Jordan, Pakistan, Saudi Arabia and Turkmenistan. The type is powered by one AR 682 piston engine. As of December 2019, there were 64 in military service with 4 operators. AWIN tracks 2 types for this profile, the Falco and Falco EVO.</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>The Mirach is a Group 3 UAV in military service in Argentina, Belgium, Denmark, Italy and the United Kingdom. The type is powered by one TRS 18 jet engine. As of December 2019, it was in military service with 5 operators. AWIN tracks 2 types for this profile, the Mirach 100/5 and Mirach 40.</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>The Tornado is a fighter in military service in Germany, Italy and Saudi Arabia. The type is powered by two RB199 jet engines. As of December 2019, there were 221 in military service with 5 operators. AWIN tracks 2 types for this profile, the Tornado ECR and Tornado IDS.</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>The Desert Hawk is a Group 1 UAV in military service in the United Kingdom. The type is powered by one electric engine. As of December 2019, there were 230 in military service with the British Army. AWIN tracks one type for this profile, the Desert Hawk III.</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>The AC-47 (BT-67) is a gunship in military service in Colombia. The type is powered by two PT6A turbine engines. As of December 2019, there were 6 in military service with the Colombian Air Force. AWIN tracks one type for this profile, the AC-47TP (BT-67). This family also includes the Douglas DC-3TP MPA profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>The DC-3TP MPA is a maritime aircraft in military service in South Africa. The type is powered by two PT6A turbine engines. As of December 2019, there were 5 in military service with the South African Air Force. AWIN tracks one type for this profile, the DC-3TP [MSA]. This family also includes the Douglas AC-47 (Basler BT-67) profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>The Stalker is a Group 1 UAV in military service in the United States. The type is powered by one electric engine. As of December 2019, it was in military service with the US SOCOM. AWIN tracks one type for this profile, the Stalker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>The EMB-110 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in Brazil, Chile and Uruguay. The type is powered by two PT6A turbine engines. As of December 2019, there were 17 in military service with 3 operators. AWIN tracks 2 types for this profile, the EMB-110B and EMB-111A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>The PC-21 is a light 1-2 seat aircraft in military service in 10 countries. The type is powered by one PT6A turbine engine. As of December 2019, there were 207 in military service with 10 operators. AWIN tracks one type for this profile, the PC-21.</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>The PC-7/9 (T-6) is a light 1-2 seat aircraft in military service in 36 countries. The type is powered by one PT6A turbine engine. As of December 2019, there were 1357 in military service and 2 new deliveries on contract with 39 operators. AWIN tracks 12 types for this profile, the AT-6C, PC-7, PC-7 MK II, PC-9, PC-9/A, PC-9M, T-6A, T-6B, T-6C, T-6C+, T-6D and T-6NTA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>The PA-18 Super Cub is a light 1-2 seat aircraft in military service in Argentina, Belgium, Nicaragua and Uruguay. The type is powered by one O-290 or O-320 piston engine. As of December 2019, there were 7 in military service with 4 operators. AWIN tracks 2 types for this profile, the L-21B and PA-18-150.</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>The PA-23 Apache/Aztec is a civil propeller aircraft in military service in Costa Rica. The type is powered by one O-540 piston engine.there was one in military service with the Servicio De Vigilancia Aerea. AWIN tracks one type for this profile, the PA-23-250.</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>The PA-28 Cheroke is a civil propeller aircraft in military service in 6 countries. The type is powered by one O-320, O-360 or O-540 piston engine. As of December 2019, there were 13 in military service and 2 new deliveries on contract with 7 operators. AWIN tracks 5 types for this profile, the PA-28-161, PA-28-180, PA-28-181, PA-28-235 and PA-28R-201T.</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>The PA-34 Seneca is a civil propeller aircraft in military service in 11 countries. The type is powered by two O-360 piston engines. As of December 2019, there were 16 in military service with 11 operators. AWIN tracks 6 types for this profile, the EMB-810D, PA-34-200 Seneca, PA-34-200T Seneca II, PA-34-220T Seneca III, PA-34-220T Seneca V and PA-34-220T Seneca V [IMINT].</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>The TS-11 is a light 1-2 seat aircraft in military service in Poland. The type is powered by one SO-3 jet engine. As of December 2019, there were 22 in military service with the Polish Air Force. AWIN tracks one type for this profile, the TS-11-bis DF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>The M28 (An-28/38) is a civil propeller aircraft in military service in 11 countries. The type is powered by two PT6A or PZL-10/TVD-10 turbine engines. As of December 2019, there were 68 in military service and 2 new deliveries on contract with 13 operators. AWIN tracks 4 types for this profile, the An-28, An-28TD, M28 05 and M28B. This family also includes the PZL-Mielec M28B Bryza 1R profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>The EMB-145 Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service in Brazil, Greece, India and Mexico. The type is powered by two AE3007 (F137) jet engines. As of December 2019, there were 18 in military service with 5 operators. AWIN tracks 4 types for this profile, the EMB-145 MP, EMB-145 [India AEW], EMB-145RS and EMB-145SA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>The M26 is a light 1-2 seat aircraft in military service in Venezuela. The type is powered by one O-540 piston engine. As of December 2019, there were 2 in military service with the Venezuelan National Guard. AWIN tracks one type for this profile, the M26.</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>The M18 is a civil propeller aircraft in military service in Greece. The type is powered by one ASh-62 (HS-5) piston engine. As of December 2019, there were 22 in military service with the Hellenic Air Force. AWIN tracks one type for this profile, the M18B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>The W-3 is a helicopter in military service in Algeria, the Czech Republic, the Philippines and Poland. The type is powered by two PZL-10/TVD-10 turbine engines. As of December 2019, there were 89 in military service with 6 operators. AWIN tracks 9 types for this profile, the W-3, W-3A, W-3AE, W-3PL, W-3RL, W-3RR, W-3W, W-3WA and W-3WARM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>The BLA-05 is a Group 3 UAV in military service in Russia. The type is powered by one piston engine. As of December 2019, there were 18 in military service with the Russian Ground Forces. AWIN tracks one type for this profile, the BLA-05 9M62.</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>The Snipe [Meggit] is a Group 3 UAV in military service in Finland and France. The type is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Snipe [Meggit].</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>The Quad Challenger is a light 1-2 seat aircraft in military service in Venezuela. The type is powered by one piston engine. As of December 2019, there were 11 in military service with the Venezuelan Air Force. AWIN tracks one type for this profile, the Challenger II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>The AU-23 is a gunship in military service in Thailand. The type is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 4 in military service with the Royal Thai Air Force. AWIN tracks one type for this profile, the AU-23A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>The Team Tango is a light 1-2 seat aircraft in military service in Bolivia. The type is powered by one O-360 or O-540 piston engine. As of December 2019, there were 3 in military service with the Bolivian Air Force. AWIN tracks 2 types for this profile, the Foxtrot and Tango XR.</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>The T-2 is a light 1-2 seat aircraft in military service in Greece. The type is powered by two J85 jet engines. As of December 2019, there were 34 in military service with the Hellenic Air Force. AWIN tracks one type for this profile, the T-2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>The Q01 is a light 1-2 seat aircraft in military service in Qatar. The type is powered by one CD-300 piston engine.there was one in military service and 16 new deliveries on contract with the Qatari Reconnaissance and Surveillance Center. AWIN tracks one type for this profile, the Q01.</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>The C-26 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in International [Caribbean], Peru, Trinidad &amp; Tobago, the United States and Venezuela. The type is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 9 in military service with 5 operators. AWIN tracks 4 types for this profile, the C-26 [MRA], C-26 [MSA], C-26 [SIGINT] and C-26A [ASTARS III]. This family also includes the Fairchild Metro E/RC-26 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>The F27/Fk50 Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in Pakistan, Peru, the Philippines, Singapore and Thailand. The type is powered by two Dart or PW100 turbine engines. As of December 2019, there were 13 in military service with 5 operators. AWIN tracks 5 types for this profile, the F27 Maritime Enforcer, F27-200 [MRA], Fokker 50 [MPA], Fokker 50 [SIGINT] and Fokker 60 [MPA].</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>The Saab 105 is a light 1-2 seat aircraft in military service in Austria and Sweden. The type is powered by two FJ44 or J85 jet engines. As of December 2019, there were 49 in military service with 2 operators. AWIN tracks one type for this profile, the Saab 105.</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>The BTT-3 is a Group 3 UAV in military service in 16 countries. The type is powered by one WAE 342 Hurricane piston engine. As of December 2019, it was in military service with 16 operators. AWIN tracks one type for this profile, the BTT-3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>The Vindicator II is a Group 3 UAV in military service in Canada. The type is powered by one AR 741 piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Vindicator II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>The Voodoo is a Group 3 UAV in military service in Spain and the United Kingdom. The type is powered by one Fury piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Voodoo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>The CQ-10 is a Group 4 UAV in military service in the United States. The type is powered by one Rotax 914 piston engine. As of December 2019, it was in military service with the US SOCOM. AWIN tracks one type for this profile, the CQ-10A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>The Burevestnik is a Group 3 UAV in military service in Belarus. The type is powered by one piston engine. As of December 2019, there were 2 in military service with the Belarusian Air and Air Defense Force. AWIN tracks one type for this profile, the Burevestnik-MB.</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>The J300 is a light 1-2 seat aircraft in military service in Cameroon and Madagascar. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 7 in military service with 2 operators. AWIN tracks one type for this profile, the J300 Joker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>The TigerShark is a Group 3 UAV in military service in the United States. The type is powered by one piston engine. As of December 2019, there were 12 in military service with the US Navy. AWIN tracks one type for this profile, the TigerShark.</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>The E/RC-26 is a C4ISR aircraft in military service in Colombia and the United States. The type is powered by two TPE331 (T76) turbine engines. As of December 2019, there were 15 in military service with 3 operators. AWIN tracks 4 types for this profile, the EC-26D, RC-26B, RC-26D and SR-26B. This family also includes the Fairchild C-26 Maritime &amp; C4ISR Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>The Bulldog is a light 1-2 seat aircraft in military service in Lebanon. The type is powered by one O-360 piston engine. As of December 2019, there were 3 in military service with the Lebanese Air Force. AWIN tracks one type for this profile, the Bulldog Model 126.</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>The BQM-34 is a Group 5 UAV in military service in China, Israel, Italy and the United States. The type is powered by one J85 or WP-11 jet engine. As of December 2019, there were 65 in military service with 4 operators. AWIN tracks 3 types for this profile, the BQM-34 Model 232, BQM-34S and WZ-5.</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>The Seeker is a light 1-2 seat aircraft in military service in Iraq, Jordan and Tanzania. The type is powered by one O-360 piston engine. As of December 2019, there were 9 in military service with 3 operators. AWIN tracks one type for this profile, the Seabird Seeker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>The BQM-74 is a Group 5 UAV in military service in Japan, Spain, Taiwan and the United States. The type is powered by one WR24 jet engine. As of December 2019, there were 175 in military service with 4 operators. AWIN tracks one type for this profile, the BQM-74E.</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>The MQ-4C Triton / BAMS is a Group 5 UAV in military service in Australia, Germany and the United States. The type is powered by one AE3007 (F137) jet engine. As of December 2019, there were 9 in military service and 7 new deliveries on contract with 4 operators. AWIN tracks 2 types for this profile, the MQ-4C and RQ-4 BAMS-D. This family also includes the Northrop Grumman RQ-4 Global Hawk profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>The RQ-4 Global Hawk is a Group 5 UAV in military service in Canada, International [Europe], Japan, South Korea and the United States. The type is powered by one AE3007 (F137) jet engine. As of December 2019, there were 35 in military service and 11 new deliveries on contract with 5 operators. AWIN tracks 4 types for this profile, the EQ-4B, RQ-4B, RQ-4D and RQ-4E. This family also includes the Northrop Grumman MQ-4C Triton / BAMS profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>The Jaguar is a fighter in military service in India. The type is powered by two Adour (F405) jet engines. As of December 2019, there were 117 in military service with the Indian Air Force. AWIN tracks 2 types for this profile, the Jaguar B and Jaguar S.</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>The J-31 is a fighter in military service in China. The type is powered by two RD-33 jet engines. As of December 2019, there were 2 in military service with the Shenyang. AWIN tracks one type for this profile, the J-31 [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>The Cabure is a Group 1 UAV in military service in Argentina. The type is powered by one electric engine. As of December 2019, there were 6 in military service with the Argentine Navy. AWIN tracks one type for this profile, the Cabure.</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>The US-1/2 is a amphibious aircraft in military service in Greece, India and Japan. The type is powered by four AE2100 turbine engines. As of December 2019, there were 5 in military service with 3 operators. AWIN tracks one type for this profile, the US-2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>The S.208 is a civil propeller aircraft in military service in Italy. The type is powered by one O-540 piston engine. As of December 2019, there were 20 in military service with the Italian Air Force. AWIN tracks one type for this profile, the S208M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>The SF-260 is a light 1-2 seat aircraft in military service in 17 countries. The type is powered by one M250 (T63/T703) or O-540 piston or turbine engine. As of December 2019, there were 214 in military service and 21 new deliveries on contract with 17 operators. AWIN tracks 8 types for this profile, the RTAF-6, SF.260C, SF.260D, SF.260E, SF.260F, SF.260M, SF.260TP and SF.260W.</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>The H-53 is a helicopter in military service in Germany, Iran, Israel and the United States. The type is powered by two or three GE38 (T408) or T64 turbine engines. As of December 2019, there were 268 in military service and 17 new deliveries on contract with 6 operators. AWIN tracks 7 types for this profile, the CH-53 Yas’ur, CH-53E, CH-53G, CH-53K, MH-53E, RH-53D and YCH-53K.</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>The S-61/H-3 "Sea King" is a helicopter in military service in 15 countries. The type is powered by two Gnome or T58 (CT58) turbine engines. As of December 2019, there were 163 in military service with 17 operators. AWIN tracks 22 types for this profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>The H-60/S-70 is a helicopter in military service in 38 countries. The type is powered by two T700 (CT7) turbine engines. As of December 2019, there were 3885 in military service and 486 new deliveries on contract with 62 operators. AWIN tracks 39 types for this profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>The CH-148 is a helicopter in military service in Canada. The type is powered by two T700 (CT7) turbine engines. As of December 2019, there were 24 in military service and 4 new deliveries on contract with the Royal Canadian Air Force. AWIN tracks one type for this profile, the CH-148.</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>The T-67 is a light 1-2 seat aircraft in military service in Bahrain and Belize. The type is powered by one O-540 piston engine. As of December 2019, there were 4 in military service with 2 operators. AWIN tracks one type for this profile, the T67M-260.</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>The G-2/J-21 is a light 1-2 seat aircraft in military service in Libya. The type is powered by one Viper jet engine. As of December 2019, there were 10 in military service with 2 operators. AWIN tracks 2 types for this profile, the G-2A-E and J-21.</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>The J-22 Orao is a light 1-2 seat aircraft in military service in Serbia. The type is powered by two Viper jet engines. As of December 2019, there were 6 in military service with the Serbian Air Force &amp; Air Defence. AWIN tracks one type for this profile, the J-22A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>The G-4 Super Galeb is a light 1-2 seat aircraft in military service in Serbia. The type is powered by one Viper jet engine. As of December 2019, there were 9 in military service with the Serbian Air Force &amp; Air Defence. AWIN tracks one type for this profile, the G-4.</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>The Yarara is a Group 3 UAV in military service in Argentina. The type is powered by one piston engine. As of December 2019, there were 3 in military service with the Argentine Air Force. AWIN tracks one type for this profile, the Yarara.</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>The Ababeel is a Group 1 UAV in military service in Pakistan and Saudi Arabia. The type is powered by one piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Ababeel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>The Su-24 is a fighter in military service in 6 countries. The type is powered by two AL-21 jet engines. As of December 2019, there were 304 in military service with 7 operators. AWIN tracks 6 types for this profile, the Su-24M, Su-24M2, Su-24MK, Su-24MK2, Su-24MP and Su-24MR.</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>The Su-25 is a fighter in military service in 19 countries. The type is powered by two R-95/R-195 jet engines. As of December 2019, there were 434 in military service with 20 operators. AWIN tracks 12 types for this profile, the Su-25, Su-25/Su-25UBK, Su-25BM, Su-25K, Su-25KM, Su-25SM, Su-25SM3, Su-25T, Su-25U, Su-25UB, Su-25UBK and Su-25UTG.</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>The Su-7/17/22 is a fighter in military service in 6 countries. The type is powered by one AL-21 or R-27/R-29/R-35 jet engine. As of December 2019, there were 100 in military service with 6 operators. AWIN tracks 6 types for this profile, the Su-22M, Su-22M3, Su-22M4, Su-22UM, Su-22UM3 and Su-22UM3K.</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>The Baaz is a Group 2 UAV in military service in Pakistan and Saudi Arabia. The type is powered by one Q100 piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Baaz Mk II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>The Tecnam P92 is a light 1-2 seat aircraft in military service in Cambodia. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Royal Cambodian Air Force. AWIN tracks one type for this profile, the P92 Echo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>The P2002 is a light 1-2 seat aircraft in military service in Argentina and Greece. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 20 in military service with 2 operators. AWIN tracks one type for this profile, the P2002 JF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>The Vulture is a Group 3 UAV in military service in South Africa. The type is powered by one 498 piston engine. As of December 2019, there were 4 in military service with the South African Army. AWIN tracks one type for this profile, the Vulture.</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>The P.1HH Hammerhead is a Civil Propeller in military service in Italy. The type is powered by two PT6A turbine engines.there was one in military service with 2 operators. AWIN tracks 2 types for this profile, the P.1HH and P.1HH [Prototype]. This family also includes the Piaggio P.180 Avanti Maritime &amp; C4ISR Variants profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>The PD-100 PRS "Black Hornet" is a Group 1 UAV in military service in Australia and the United States. The type is powered by one electric engine. As of December 2019, there were 406 in military service with 3 operators. AWIN tracks one type for this profile, the Black Hornet.</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>The C-160 is a medium transport aircraft in military service in France, Germany and Turkey. The type is powered by two Tyne turbine engines. As of December 2019, there were 67 in military service with 4 operators. AWIN tracks 3 types for this profile, the C-160D, C-160G and C-160R.</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>The Tu-160 is a bomber in military service in Russia. The type is powered by four NK-321 jet engines. As of December 2019, there were 18 in military service and 10 new deliveries on contract with 2 operators. AWIN tracks 3 types for this profile, the Tu-160M1, Tu-160M2 and Tu-160S.</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>The Tu-22M is a bomber in military service in Russia. The type is powered by two NK-25 jet engines. As of December 2019, there were 80 in military service with 2 operators. AWIN tracks 3 types for this profile, the Tu-22M3, Tu-22M3M and Tu-22MR.</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>The Tu-95 is a bomber in military service in Russia. The type is powered by four NK-12 turbine engines. As of December 2019, there were 55 in military service with the Russian Aerospace Forces. AWIN tracks 2 types for this profile, the Tu-95MS16 and Tu-95MS6. This family also includes the Tupolev Tu-142 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>The PAK DA is a bomber in military service in Russia. The type is powered by four jet engines. As of December 2019, it was in military service with the Russian Aerospace Forces. AWIN tracks one type for this profile, the PAK DA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>The S-2 Tracker is a maritime aircraft in military service in Argentina and Brazil. The type is powered by two TPE331 (T76) turbine engines.there was one in military service with 2 operators. AWIN tracks 2 types for this profile, the KC-2 and S-2T Turbo Tracker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>The InstantEye Mk2Gen3 is a Group 1 UAV in military service in the United States. The type is powered by one electric engine. As of December 2019, it was in military service with the US Marine Corps. AWIN tracks one type for this profile, the InstantEye Mk2Gen3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>The Mohajer is a Group 4 UAV in military service in Iran. The type is powered by one L 550 or WAE 342 Hurricane piston engine. As of December 2019, there were 30 in military service and 30 new deliveries on contract with 4 operators. AWIN tracks 4 types for this profile, the Mohajer 2, Mohajer 3, Mohajer 4 and Mohajer 6.</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>The Saeghe is a Group 3 UAV in military service in Iran. The type is powered by one piston engine. As of December 2019, it was in military service with the Islamic Republic of Iran Army. AWIN tracks one type for this profile, the Saeghe 2 [Target].</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>The Lasta 95 is a light 1-2 seat aircraft in military service in Iraq and Serbia. The type is powered by one IO-580 piston engine. As of December 2019, there were 34 in military service with 2 operators. AWIN tracks 2 types for this profile, the Lasta 95P-2 and Lasta 95V-54.</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>The UTVA 75 / SAFAT 03 is a light 1-2 seat aircraft in military service in Serbia and Sudan. The type is powered by one O-360 piston engine. As of December 2019, there were 6 in military service and 4 new deliveries on contract with 2 operators. AWIN tracks 2 types for this profile, the SAFAT 03 and UTVA 75.</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>The L-70/L-90 is a light 1-2 seat aircraft in military service in Eritrea and the United States. The type is powered by one M250 (T63/T703) turbine engine. As of December 2019, there were 12 in military service with 2 operators. AWIN tracks 2 types for this profile, the A-90 and L-90TP RediGo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>The RV-6 is a light 1-2 seat aircraft in military service in Nigeria. The type is powered by one O-360 piston engine. As of December 2019, there were 19 in military service with the Nigerian Air Force. AWIN tracks one type for this profile, the RV-6A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>The Skeldar is a Group 3 UAV in military service in Germany and Indonesia. The type is powered by one HF3503 piston engine.there was one in military service and 2 new deliveries on contract with 2 operators. AWIN tracks one type for this profile, the Skeldar V-200.</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>The Sperwer is a Group 3 UAV in military service in France and Greece. The type is powered by one Rotax 582 piston engine. As of December 2019, there were 20 in military service with 2 operators. AWIN tracks 2 types for this profile, the Sperwer A and Sperwer Mk II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>The GIII C4ISR Conversions are a group of C4ISR aircraft in military service in India. The type is powered by two Spey (WS-9) jet engines. As of December 2019, there were 3 in military service with the Indian Air Force. AWIN tracks one type for this profile, the GIII [ISR]. Other profiles in this family include the Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>The P.68 is a civil propeller aircraft in military service in Bahamas and Chile. The type is powered by two O-360 piston engines. As of December 2019, there were 8 in military service with 2 operators. AWIN tracks 2 types for this profile, the P.68 Observer and P.68C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>The Gazelle is a helicopter in military service in 21 countries. The type is powered by one Astazou turbine engine. As of December 2019, there were 330 in military service with 22 operators. AWIN tracks 9 types for this profile, the SA.341B, SA.341B AH1, SA.341H, SA.341H GAMA, SA.342K, SA.342L, SA.342L GAMA 2, SA.342L1 and SA.342M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>The H-6 (Tu-16) is a bomber in military service in China. The type is powered by two D-30 or WP-8 (RD-3) jet engines. As of December 2019, there were 202 in military service with 2 operators. AWIN tracks 8 types for this profile, the H-6DU, H-6G, H-6H, H-6J, H-6K, H-6M, H-6N and H-6U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>The Y-20 is a medium transport aircraft in military service in China. The type is powered by four D-30 jet engines. As of December 2019, there were 25 in military service and 76 new deliveries on contract with the People's Liberation Army Air Force. AWIN tracks 3 types for this profile, the Y-20A, Y-20U and Y-20U [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>The JH-7 is a fighter in military service in China. The type is powered by two Spey (WS-9) jet engines. As of December 2019, there were 256 in military service with 2 operators. AWIN tracks 2 types for this profile, the JH-7 and JH-7A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>The Jasoos is a Group 3 UAV in military service in Pakistan. The type is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Air Force. AWIN tracks one type for this profile, the Jasoos II Bravo +.</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>The Parwaz HST is a Group 3 UAV in military service in Pakistan. The type is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Air Force. AWIN tracks one type for this profile, the Parwaz HST.</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>The Thunder is a Group 3 UAV in military service in Pakistan. The type is powered by one piston engine. As of December 2019, it was in military service with the Pakistan Navy. AWIN tracks one type for this profile, the Thunder.</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>The Camcopter is a Group 3 UAV in military service in 9 countries. The type is powered by one AE50R or L 275 piston engine. As of December 2019, there were 105 in military service with 10 operators. AWIN tracks 2 types for this profile, the Camcopter 5.1 and Camcopter S-100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>The Yak-52 is a light 1-2 seat aircraft in military service in Armenia, Moldova, Romania, Uzbekistan and Vietnam. The type is powered by one AI-14 (HS-6, M14) piston engine. As of December 2019, there were 56 in military service with 5 operators. AWIN tracks one type for this profile, the Yak-52.</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>The Scrab II is a Group 3 UAV in military service in Spain. The type is powered by two Olympus jet engines. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Scrab II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>The Yak-130/ JL-10 (L-15) is a light 1-2 seat aircraft in military service in 9 countries. The type is powered by two AI-222 jet engines. As of December 2019, there were 195 in military service and 6 new deliveries on contract with 11 operators. AWIN tracks 3 types for this profile, the JL-10 (L-15), JL-10 (L-15B) and Yak-130.</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>The Lijian is a Group 4 UAV in military service in China. The type is powered by one RD-33 jet engine.there was one in military service with the People's Liberation Army Air Force. AWIN tracks one type for this profile, the GJ-11.</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>The Dan is a Group 3 UAV in military service in Russia. The type is powered by one MD-120 jet engine. As of December 2019, it was in military service with the Russian Aerospace Forces. AWIN tracks one type for this profile, the Dan M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>The CH 701 is a civil propeller aircraft in military service in Senegal. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 3 in military service with the Senegalese National Gendarmerie. AWIN tracks one type for this profile, the G1 SPYL.</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>The Z-42 is a light 1-2 seat aircraft in military service in 11 countries. The type is powered by one M337, O-360 or O-540 piston engine. As of December 2019, there were 129 in military service with 11 operators. AWIN tracks 4 types for this profile, the Z-142, Z-143L, Z-143LSi and Z-242L.</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>The Yak-152 is a light 1-2 seat aircraft in military service in Russia. The type is powered by one A03T piston engine. As of December 2019, there were 2 in military service with the Russian Aerospace Forces. AWIN tracks 2 types for this profile, the Yak-152 and Yak-152 [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>The AT-504 is a light 1-2 seat aircraft in military service in Kenya. The type is powered by one PT6A turbine engine. As of December 2019, it was in military service with the Kenya Air Force. AWIN tracks one type for this profile, the AT-504.</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>The BAC 167 Strikemaster is a light 1-2 seat aircraft in military service in the United States. The type is powered by one Viper jet engine. As of December 2019, there were 7 in military service with the Blue Air Training. AWIN tracks one type for this profile, the BAC 167 Strikemaster.</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>The GV Maritime &amp; C4ISR Conversions are a group of maritime and C4ISR aircraft in military service in Japan and Morocco. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 2 in military service with 2 operators. AWIN tracks 2 types for this profile, the G500 [AMASCOS 100] and G550 [SIGINT]. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>The Skyblade is a Group 1 UAV in military service in Singapore. The type is powered by one electric engine. As of December 2019, there were 6 in military service with the Singapore Army. AWIN tracks 2 types for this profile, the Skyblade III and Skyblade IV.</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>The T-625 Ozgun is a helicopter in military service in Turkey. The type is powered by two CTS800 (T800) turbine engines. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the T-625.</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>The S102B Korpen (GIV) is a C4ISR aircraft in military service in Sweden. The type is powered by two Tay jet engines. As of December 2019, there were 2 in military service with the Swedish Air Force. AWIN tracks one type for this profile, the S102B Korpen (GIV). Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>The Hawker 125 Maritime &amp; C4ISR Conversions are a group of C4ISR aircraft in military service in Japan, Pakistan and South Korea. The type is powered by two TFE731 jet engines. As of December 2019, there were 35 in military service with 3 operators. AWIN tracks 3 types for this profile, the Hawker 125-800 [MSA], Hawker 125-800 [SIGINT] and Hawker 125-800RA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>The Okhotnik S-70 is a Group 5 UAV in military service in Russia. The type is powered by one jet engine.there was one in military service with the Russian Defense Ministry. AWIN tracks one type for this profile, the Okhotnik S-70.</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>The Turna is a Group 3 UAV in military service in Turkey. The type is powered by one AR 741 piston engine. As of December 2019, it was in military service with 2 operators. AWIN tracks one type for this profile, the Turna.</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>The G 120 is a light 1-2 seat aircraft in military service in 12 countries. The type is powered by one M250 (T63/T703) or O-540 piston or turbine engine. As of December 2019, there were 185 in military service with 13 operators. AWIN tracks 3 types for this profile, the G 120A, G 120A-F and G 120TP.</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>The G500 Nachshon Shavit is a C4ISR aircraft in military service in Israel. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 3 in military service with the Israeli Air Force. AWIN tracks one type for this profile, the G500 Nachshon Shavit. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>The Etendard is a fighter in military service in Argentina. The type is powered by one Atar jet engine. As of December 2019, there were 5 in military service with the Argentine Navy. AWIN tracks one type for this profile, the Super Etendard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>The AR3 "Net Ray" is a Group 2 UAV in military service in Portugal. The type is powered by one piston engine. As of December 2019, it was in military service with the Portuguese Navy. AWIN tracks one type for this profile, the AR3 Net Ray.</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>The RQ-7 "Shadow" is a Group 3 UAV in military service in 6 countries. The type is powered by one AR 741 or AR 801 piston engine. As of December 2019, there were 444 in military service with 6 operators. AWIN tracks 4 types for this profile, the RQ-7B V1, RQ-7B V2, Shadow 400 and Shadow 600.</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>The A330 MRTT is a heavy transport aircraft in military service in 8 countries. The type is powered by two CF6-80 (F138) or Trent jet engines. As of December 2019, there were 40 in military service and 23 new deliveries on contract with 9 operators. AWIN tracks one type for this profile, the A330-200 MRTT. This family also includes the Airbus A330 AWACS profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>The G550 CAEW (Nachshon Eitam) is a C4ISR aircraft in military service in Israel, Italy and Singapore. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 8 in military service and one on order with 3 operators. AWIN tracks one type for this profile, the G550 CAEW (Nachshon Eitam). Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, L-3 EC-37B, L-3 MC-55A and Raytheon NC-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>The Il-20 is a C4ISR aircraft in military service in Russia. The type is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 13 in military service with 2 operators. AWIN tracks 2 types for this profile, the Il-20M and Il-20RT. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-22 and Ilyushin Il-38.</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>The Il-22 is a C4ISR aircraft in military service in Russia. The type is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 19 in military service with 2 operators. AWIN tracks 3 types for this profile, the Il-22, Il-22M and Il-22PP. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-20 and Ilyushin Il-38.</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>The Cessna 400 Series is a civil propeller aircraft in military service in 7 countries. The type is powered by two O-520 piston engines. As of December 2019, there were 9 in military service with 7 operators. AWIN tracks 5 types for this profile, the Cessna 402B, Cessna 402C, Cessna 404, Cessna 421B and Cessna 421C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>The Il-86VKP is a C4ISR aircraft in military service in Russia. The type is powered by four NK-86 jet engines. As of December 2019, there were 2 in military service with the Russian Aerospace Forces. AWIN tracks one type for this profile, the Il-86VKP.</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>The Z-9/Z-19 is a helicopter in military service in 13 countries. The type is powered by two Arriel turbine engines. As of December 2019, there were 553 in military service and 14 new deliveries on contract with 15 operators. AWIN tracks 14 types for this profile, the H425, Z-19, Z-9, Z-9A, Z-9B, Z-9C [ASW], Z-9D, Z-9EA, Z-9EC, Z-9EH, Z-9S, Z-9W, Z-9WA and Z-9WZ.</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>The King Air ISR Variants (incl. RC/MC-12) are a group of C4ISR aircraft in military service in 18 countries. The type is powered by two PT6A turbine engines. As of December 2019, there were 170 in military service with 23 operators. AWIN tracks 23 types for this profile. Other profiles in this family include the Beechcraft King Air (90/100/200/300/1900) and Beechcraft King Air Maritime Conversions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>The Xenon 2 is a helicopter in military service in Burkina Faso. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 4 in military service with the Burkina Faso Air Force. AWIN tracks one type for this profile, the Xenon 2 RST ECO.</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>The Fk9 is a light 1-2 seat aircraft in military service in Cameroon. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Cameroon Air Force. AWIN tracks one type for this profile, the Fk9 ELA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>The GB1 Gamebird is a light 1-2 seat aircraft in military service in Chile. The type is powered by one IO-580 piston engine. As of December 2019, there were 3 in military service and 3 new deliveries on contract with the Chilean Air Force. AWIN tracks one type for this profile, the GB1 Gamebird.</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>The L-19 (Cessna 305) is a civil propeller aircraft in military service in Chile. The type is powered by one O-470 piston engine. As of December 2019, there were 2 in military service with the Chilean Air Force. AWIN tracks one type for this profile, the L-19A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>The EC-37B is a C4ISR aircraft in military service in the United States. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 2 new deliveries on contract with the US Air Force. AWIN tracks one type for this profile, the EC-37B. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 MC-55A and Raytheon NC-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>The Z-20 is a helicopter in military service in China. The type is powered by two PT6C turbine engines. As of December 2019, there were 11 in military service and 248 new deliveries on contract with the People's Liberation Army Ground Force. AWIN tracks 2 types for this profile, the Z-20 and Z-20 [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>The MC-55A is a C4ISR aircraft in military service in Australia. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 2 new deliveries on contract with the Royal Australian Air Force. AWIN tracks one type for this profile, the MC-55A. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B and Raytheon NC-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>The P2006T is a civil propeller aircraft in military service in the Dominican Republic and Italy. The type is powered by two Rotax 912 piston engines. As of December 2019, there were 4 in military service with 2 operators. AWIN tracks one type for this profile, the P2006T.</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>The SR-2R Archangel is a light 1-2 seat aircraft in military service in Egypt and the United Arab Emirates. The type is powered by one PT6A turbine engine. As of December 2019, there were 24 in military service with 2 operators. AWIN tracks one type for this profile, the S-2R Archangel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>The Learjet 25 C4ISR Conversions are a group of C4ISR aircraft in military service in Bolivia. The type is powered by two CJ610 jet engines. As of December 2019, there were 2 in military service with the Bolivian Air Force. AWIN tracks one type for this profile, the Learjet 25 [IMINT]. This family also includes the Learjet 31/35/36 C4ISR Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>The Fulmar is a Group 2 UAV in military service in Spain. The type is powered by one piston engine. As of December 2019, it was in military service with the Spanish Navy. AWIN tracks one type for this profile, the Fulmar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>The Learjet 31/35/36 C4ISR Conversions are a group of C4ISR aircraft in military service in 9 countries. The type is powered by two TFE731 jet engines. As of December 2019, there were 39 in military service with 9 operators. AWIN tracks 7 types for this profile, the Learjet 35A [EWTS], Learjet 35A [IMINT], Learjet 35A [MSA], Learjet 35A [SIGINT], Learjet 36A [EWTS], Learjet 36A [IMINT] and R-35A. This family also includes the Learjet 25 C4ISR Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>The LUH is a helicopter in military service in India. The type is powered by one turbine engine. As of December 2019, there were 2 in military service with the HAL. AWIN tracks one type for this profile, the HAL LUH [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>The HTT-40 is a light 1-2 seat aircraft in military service in India. The type is powered by one TPE331 (T76) turbine engine. As of December 2019, there were 2 in military service with the HAL. AWIN tracks one type for this profile, the HTT-40 [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>The LH-10 Guardian is a C4ISR aircraft in military service in Benin. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Benin Air Force. AWIN tracks one type for this profile, the LH-10 Guardian.</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>The AC-130 is a gunship in military service in the United States. The type is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 23 in military service with the US SOCOM. AWIN tracks 2 types for this profile, the AC-130J and AC-130W. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin EC-130 and Lockheed Martin WC-130.</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>The Virus SW 80 is a light 1-2 seat aircraft in military service in India. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 193 in military service with 2 operators. AWIN tracks one type for this profile, the Virus SW 80.</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>The Il-38 is a medium transport aircraft in military service in India and Russia. The type is powered by four AI-20 (WJ-6) turbine engines. As of December 2019, there were 22 in military service with 2 operators. AWIN tracks 2 types for this profile, the Il-38 and Il-38N. Other profiles in this family include the Ilyushin Il-18, Ilyushin Il-20 and Ilyushin Il-22.</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>The Tu-141 is a Group 4 UAV in military service in Ukraine. The type is powered by one KR-17 jet engine. As of December 2019, it was in military service with the Ukrainian Army. AWIN tracks one type for this profile, the Tu-141.</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>The LA-8 is a amphibious aircraft in military service in Iran. The type is powered by two O-540 piston engines.there was one in military service with the Islamic Revolutionary Guard Corps Navy. AWIN tracks one type for this profile, the LA-8C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>The EC-130 is a C4ISR aircraft in military service in Egypt, Iran and the United States. The type is powered by four AE2100 or T56 (501) turbine engines. As of December 2019, there were 23 in military service with 4 operators. AWIN tracks 5 types for this profile, the C-130H [Egypt ELINT], EC-130H, EC-130J Commando Solo, EC-130J Super J and RC-130H. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin AC-130 and Lockheed Martin WC-130.</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>The NT-43A is a C4ISR aircraft in military service in the United States. The type is powered by two JT8D jet engines.there was one in military service with the US Air Force. AWIN tracks one type for this profile, the NT-43A. Other profiles in this family include the Boeing 737 AEW&amp;C (E-7 Wedgetail) and Boeing 737 MP Surveiller.</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>The P-3 is a maritime in military service in 17 countries. The type is powered by four T56 (501) turbine engines. As of December 2019, there were 217 in military service with 18 operators. AWIN tracks 19 types for this profile, the CP-140, EP-3, EP-3E, NP-3C, OP-3C, P-3 AEW, P-3 LRT, P-3A, P-3AM, P-3B, P-3C, P-3C [SIGINT], P-3CK, P-3F, P-3K, P-3M, P-3N, UP-3C and UP-3D.</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>The WC-130 is a C4ISR aircraft in military service in the United States. The type is powered by four AE2100 turbine engines. As of December 2019, there were 10 in military service with the US Air Force. AWIN tracks one type for this profile, the WC-130J. Other profiles in this family include the Lockheed Martin KC-130, Lockheed Martin C-130, Lockheed Martin AC-130 and Lockheed Martin EC-130.</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>The U-2 is a spy plane in military service in the United States. The type is powered by one F118 jet engine. As of December 2019, there were 31 in military service with the US Air Force. AWIN tracks 2 types for this profile, the TU-2S and U-2S.</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>The YS-11 C4ISR Variants are a group of C4ISR aircraft in military service in Japan. The type is powered by four T64 turbine engines. As of December 2019, there were 6 in military service with the Japan Air Self Defense Force. AWIN tracks 2 types for this profile, the YS-11EA and YS-11EB.</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>The E-11 BACN is a C4ISR aircraft in military service in the United States. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 in military service with the US Air Force. AWIN tracks one type for this profile, the E-11A. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Raytheon Sentinel R.1 and Saab GlobalEye.</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>The E-2 is a C4ISR aircraft in military service in Egypt, France, Japan, Taiwan and the United States. The type is powered by two T56 (501) turbine engines. As of December 2019, there were 105 in military service and 48 new deliveries on contract with 5 operators. AWIN tracks 5 types for this profile, the E-2C, E-2C 2000, E-2C Group 2, E-2D and TE-2C. This family also includes the Grumman C-2 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>The Tu-143 is a Group 4 UAV in military service in Ukraine. The type is powered by one TR3-117 jet engine. As of December 2019, it was in military service with the Ukrainian Army. AWIN tracks one type for this profile, the Tu-143.</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>The P.166 Maritime Variants are a group of maritime aircraft in military service in Italy. The type is powered by two PT6A turbine engines. As of December 2019, there were 4 in military service with the Italian Guardia Di Finanza (Customs Police). AWIN tracks one type for this profile, the P.166DP1 SEM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>The RemoEye is a Group 1 UAV in military service in South Korea and the United Arab Emirates. The type is powered by one electric engine. As of December 2019, there were 22 in military service with 2 operators. AWIN tracks one type for this profile, the RemoEye 006.</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>The Titan Tornado is a light 1-2 seat aircraft in military service in Morocco. The type is powered by one Rotax 582 piston engine. As of December 2019, there were 8 in military service with the Royal Moroccan Gendarmerie. AWIN tracks one type for this profile, the Titan Tornado II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>The R40S is a light 1-2 seat aircraft in military service in Mozambique. The type is powered by one Rotax 912 piston engine. As of December 2019, there were 2 in military service with the Mozambique Air Force. AWIN tracks one type for this profile, the R40S.</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>The F-330 is a Group 2 UAV in military service in Indonesia. The type is powered by one piston engine. As of December 2019, there were 6 in military service with the Indonesian Army. AWIN tracks one type for this profile, the Rajawali 330.</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>The P.180 Avanti Maritime &amp; C4ISR Variants are a group of maritime and C4ISR aircraft in military service in Thailand. The type is powered by two PT6A turbine engines.there was one in military service with the Royal Thai Air Force. AWIN tracks one type for this profile, the P.180 Avanti II [IMINT]. This family also includes the Piaggio P.1HH Hammerhead profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>The Orlan is a Group 2 UAV in military service in Libya, Russia and Syria. The type is powered by one piston engine. As of December 2019, it was in military service with 3 operators. AWIN tracks one type for this profile, the Orlan-10.</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>The U-28 is a C4ISR aircraft in military service in the United States. The type is powered by one PT6A turbine engine. As of December 2019, there were 34 in military service with the US SOCOM. AWIN tracks one type for this profile, the U-28A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>The M28B Bryza 1R is a maritime aircraft in military service in Poland. The type is powered by two PZL-10/TVD-10 turbine engines. As of December 2019, there were 8 in military service with the Polish Navy. AWIN tracks 2 types for this profile, the M28B1R and M28B1RM bis. This family also includes the PZL-Mielec M28 (An-28/38) profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>The NC-37B is a C4ISR aircraft in military service in the United States. The type is powered by two BR700 (F130) jet engines. As of December 2019, there was one new delivery on contract with the US Navy. AWIN tracks one type for this profile, the NC-37B. Other profiles in this family include the Gulfstream GIII C4ISR Conversions, Gulfstream GV Maritime &amp; C4ISR Conversions, Gulfstream S102B Korpen (GIV), IAI G500 Nachshon Shavit, IAI G550 CAEW (Nachshon Eitam), L-3 EC-37B and L-3 MC-55A.</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>The Sentinel R.1 is a C4ISR aircraft in military service in India and the United Kingdom. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 4 in military service with 2 operators. AWIN tracks one type for this profile, the Sentinel R.1. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN and Saab GlobalEye.</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>The Saab 340 AEW&amp;C is a C4ISR aircraft in military service in Sweden, Thailand and the United Arab Emirates. The type is powered by two T700 (CT7) turbine engines. As of December 2019, there were 6 in military service with 3 operators. AWIN tracks one type for this profile, the Saab 340 [Erieye]. This family also includes the Saab 340 C4ISR &amp; Maritime Conversions profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>The Karayel is a Group 3 UAV in military service in Turkey. The type is powered by one piston engine. As of December 2019, there were 6 in military service with the Turkish Land Forces. AWIN tracks one type for this profile, the Karayel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>The KF-X is a fighter in military service in South Korea. The type is powered by two F404/F414 jet engines. As of December 2019, there were 6 new deliveries on contract with the Republic of Korea Air Force. AWIN tracks 2 types for this profile, the KF-X and KF-X [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>The Saab 340 C4ISR &amp; Maritime Conversions are a group of maritime and C4ISR aircraft in military service in Japan, Sweden and Thailand. The type is powered by two T700 (CT7) turbine engines. As of December 2019, there were 6 in military service with 3 operators. AWIN tracks 3 types for this profile, the Saab 340B [MSA], Saab 340B [Open Skies] and Saab 340B [SIGINT]. This family also includes the Saab 340 AEW&amp;C profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>The GlobalEye is a C4ISR aircraft in military service in the United Arab Emirates. The type is powered by two BR700 (F130) jet engines. As of December 2019, there were 3 new deliveries on contract with the United Arab Emirates Air Force. AWIN tracks one type for this profile, the Global 6000 [GlobalEye]. Other profiles in this family include the Aselsan Havasoj, Bombardier Global 5000/6000 C4ISR Conversions, Northrop Grumman E-11 BACN and Raytheon Sentinel R.1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>The SA2-37 is a C4ISR aircraft in military service in Colombia. The type is powered by one O-540 piston engine. As of December 2019, there were 5 in military service with the Colombian Air Force. AWIN tracks one type for this profile, the SA2-37B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>The DA42 Centaur OPA is a civil propeller aircraft in military service in Switzerland. The type is powered by two AE300 piston engines.there was one in military service with the Swiss Defense Procurement Agency (Armasuisse). AWIN tracks one type for this profile, the DA42 Centaur OPA. Other profiles in this family include the Aeronautics Dominator XP, Diamond DA42 and Diamond DA42-M/MPP.</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>The Tu-134AK is a C4ISR aircraft in military service in Russia and Ukraine. The type is powered by two D-30 jet engines. As of December 2019, there were 23 in military service with 3 operators. AWIN tracks one type for this profile, the Tu-134AK Balkany.</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>The HS-6L is a Group 3 UAV in military service in Vietnam. The type is powered by one Rotax 914 piston engine.there was one in military service with the Vietnam People's Air Force. AWIN tracks one type for this profile, the HS-6L.</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>The Tu-142 is a maritime aircraft in military service in Russia. The type is powered by four NK-12 turbine engines. As of December 2019, there were 22 in military service with the Russian Navy. AWIN tracks 3 types for this profile, the Tu-142MK, Tu-142MR and Tu-142MZ. This family also includes the Tupolev Tu-95 profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>The Hurjet is a light 1-2 seat aircraft in military service in Turkey. The type is powered by one jet engine. As of December 2019, it was in military service with the Turkish Air Force. AWIN tracks one type for this profile, the Hurjet.</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>The TF-X is a fighter in military service in Turkey. The type is powered by two jet engines. As of December 2019, there was one new delivery on contract with the Turkish Air Force. AWIN tracks one type for this profile, the TF-X [Prototype].</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>The ASN-104/105 is a Group 3 UAV in military service in China. The type is powered by one HS-510 piston engine. As of December 2019, it was in military service with the People's Liberation Army Ground Force. AWIN tracks one type for this profile, the ASN-105B.</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>The AHRLAC (Mwari) is a light 1-2 seat aircraft in military service in the United Arab Emirates. The type is powered by one PT6A turbine engine. As of December 2019, there were 16 new deliveries on contract with the United Arab Emirates Air Force. AWIN tracks one type for this profile, the AHRLAC (Mwari).</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>The Tu-154 M/D is a C4ISR aircraft in military service in China. The type is powered by three D-30 jet engines. As of December 2019, there were 8 in military service with the People's Liberation Army Air Force. AWIN tracks one type for this profile, the Tu-154M/D.</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>The Tu-214 ISR Variants are a group of C4ISR aircraft in military service in Russia. The type is powered by two PS-90 jet engines. As of December 2019, there were 6 in military service and one on order with 2 operators. AWIN tracks 3 types for this profile, the Tu-214ON, Tu-214PU-SBUS and Tu-214R.</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>The ASN-15 is a Group 1 UAV in military service in China. The type is powered by one piston engine. As of December 2019, it was in military service with the People's Liberation Army Ground Force. AWIN tracks one type for this profile, the ASN-15.</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>The DHC-6 C4ISR Variants are a group of C4ISR aircraft in military service in Switzerland and the United Arab Emirates. The type is powered by two PT6A turbine engines. As of December 2019, there were 5 in military service with 2 operators. AWIN tracks one type for this profile, the DHC-6-300 [IMINT]. This family also includes the Viking Air DHC-6 Martime Variants profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>The ASN-206/207/209 is a Group 3 UAV in military service in China and Egypt. The type is powered by one HS-700 piston engine. As of December 2019, there were 52 in military service with 3 operators. AWIN tracks 3 types for this profile, the ASN-206, ASN-207 and ASN-209.</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>The ASN-7 is a Group 3 UAV in military service in China. The type is powered by one HS-700 piston engine. As of December 2019, it was in military service with the People's Liberation Army Ground Force. AWIN tracks one type for this profile, the ASN-7.</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>The DHC-6 Martime Variants are a group of maritime aircraft in military service in the United Arab Emirates and Vietnam. The type is powered by two PT6A turbine engines. As of December 2019, there were 10 in military service with 2 operators. AWIN tracks 2 types for this profile, the DHC-6 Guardian 400 and DHC-6-400 [MSA]. This family also includes the Viking Air DHC-6 C4ISR Variants profile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>The Pchela is a Group 3 UAV in military service in North Korea and Russia. The type is powered by one P-032 piston engine. As of December 2019, there were 10 in military service with 3 operators. AWIN tracks one type for this profile, the Pchela-1T.</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>The RMAX is a Group 3 UAV in military service in Japan. The type is powered by one L 15 piston engine. As of December 2019, there were 3 in military service with the Japan Ground Self Defense Force. AWIN tracks one type for this profile, the RMAX Mk IIG.</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>The Zala 421 is a Group 1 UAV in military service in Russia. The type is powered by one electric engine. As of December 2019, it was in military service with the Russian Ground Forces. AWIN tracks one type for this profile, the Zala 421-08.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>